--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -1706,10 +1706,14 @@
       <c r="H22" s="2" t="n">
         <v>45020</v>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>KAUN00562SH022</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -12186,10 +12190,14 @@
       <c r="H200" s="2" t="n">
         <v>45002</v>
       </c>
-      <c r="I200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>KRMN00136SH022</t>
+        </is>
+      </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -12302,10 +12310,14 @@
       <c r="H202" s="2" t="n">
         <v>45002</v>
       </c>
-      <c r="I202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>KRMN00136SH022</t>
+        </is>
+      </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" t="n">
         <v>20</v>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" t="n">
         <v>20</v>
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" t="n">
         <v>40</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7" t="n">
         <v>40</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" t="n">
         <v>95</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" t="n">
         <v>30</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N10" t="n">
         <v>15</v>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" t="n">
         <v>30</v>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N15" t="n">
         <v>20</v>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N16" t="n">
         <v>20</v>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N17" t="n">
         <v>10</v>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
         <v>20</v>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N19" t="n">
         <v>10</v>
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N20" t="n">
         <v>20</v>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N21" t="n">
         <v>10</v>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N22" t="n">
         <v>110</v>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N23" t="n">
         <v>10</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N24" t="n">
         <v>10</v>
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N25" t="n">
         <v>20</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N26" t="n">
         <v>10</v>
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N27" t="n">
         <v>10</v>
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N28" t="n">
         <v>10</v>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N29" t="n">
         <v>10</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N30" t="n">
         <v>10</v>
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N31" t="n">
         <v>10</v>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N32" t="n">
         <v>20</v>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N33" t="n">
         <v>20</v>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N34" t="n">
         <v>20</v>
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N35" t="n">
         <v>20</v>
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N36" t="n">
         <v>20</v>
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N37" t="n">
         <v>20</v>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N38" t="n">
         <v>20</v>
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N39" t="n">
         <v>10</v>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N40" t="n">
         <v>10</v>
@@ -2863,7 +2863,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N41" t="n">
         <v>10</v>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N42" t="n">
         <v>10</v>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N43" t="n">
         <v>10</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N44" t="n">
         <v>10</v>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N45" t="n">
         <v>10</v>
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N46" t="n">
         <v>10</v>
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N47" t="n">
         <v>10</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N49" t="n">
         <v>10</v>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N50" t="n">
         <v>20</v>
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N51" t="n">
         <v>20</v>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N52" t="n">
         <v>10</v>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N53" t="n">
         <v>10</v>
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N54" t="n">
         <v>10</v>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N55" t="n">
         <v>20</v>
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N56" t="n">
         <v>10</v>
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N57" t="n">
         <v>20</v>
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N58" t="n">
         <v>20</v>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N59" t="n">
         <v>10</v>
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N60" t="n">
         <v>10</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N61" t="n">
         <v>10</v>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N62" t="n">
         <v>10</v>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N63" t="n">
         <v>105</v>
@@ -4223,7 +4223,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N64" t="n">
         <v>20</v>
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N65" t="n">
         <v>20</v>
@@ -4343,7 +4343,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N66" t="n">
         <v>10</v>
@@ -4403,7 +4403,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N67" t="n">
         <v>10</v>
@@ -4463,7 +4463,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N68" t="n">
         <v>10</v>
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N69" t="n">
         <v>10</v>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N70" t="n">
         <v>10</v>
@@ -4635,7 +4635,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N71" t="n">
         <v>10</v>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N72" t="n">
         <v>10</v>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N73" t="n">
         <v>20</v>
@@ -4815,7 +4815,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N74" t="n">
         <v>10</v>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N75" t="n">
         <v>20</v>
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N76" t="n">
         <v>20</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N77" t="n">
         <v>95</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N78" t="n">
         <v>95</v>
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N79" t="n">
         <v>95</v>
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N80" t="n">
         <v>95</v>
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N81" t="n">
         <v>95</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N82" t="n">
         <v>95</v>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N83" t="n">
         <v>95</v>
@@ -5407,10 +5407,10 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N84" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85">
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N85" t="n">
         <v>95</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N86" t="n">
         <v>95</v>
@@ -5587,10 +5587,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N87" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N88" t="n">
         <v>10</v>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N89" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N90" t="n">
         <v>5</v>
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N91" t="n">
         <v>5</v>
@@ -5883,7 +5883,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N92" t="n">
         <v>5</v>
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N93" t="n">
         <v>10</v>
@@ -6003,7 +6003,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N94" t="n">
         <v>10</v>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N95" t="n">
         <v>10</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N96" t="n">
         <v>55</v>
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N97" t="n">
         <v>115</v>
@@ -6219,7 +6219,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N98" t="n">
         <v>115</v>
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N99" t="n">
         <v>115</v>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N100" t="n">
         <v>115</v>
@@ -6375,10 +6375,10 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N101" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102">
@@ -6435,7 +6435,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N102" t="n">
         <v>20</v>
@@ -6483,7 +6483,7 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N103" t="n">
         <v>110</v>
@@ -6543,7 +6543,7 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N104" t="n">
         <v>55</v>
@@ -6603,7 +6603,7 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N105" t="n">
         <v>15</v>
@@ -6663,7 +6663,7 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N106" t="n">
         <v>10</v>
@@ -6723,7 +6723,7 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N107" t="n">
         <v>20</v>
@@ -6783,7 +6783,7 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N108" t="n">
         <v>20</v>
@@ -6843,10 +6843,10 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N109" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110">
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N110" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111">
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N111" t="n">
         <v>30</v>
@@ -7023,7 +7023,7 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N112" t="n">
         <v>30</v>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N113" t="n">
         <v>40</v>
@@ -7143,7 +7143,7 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N114" t="n">
         <v>40</v>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N115" t="n">
         <v>60</v>
@@ -7263,7 +7263,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N116" t="n">
         <v>60</v>
@@ -7323,7 +7323,7 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N117" t="n">
         <v>60</v>
@@ -7383,7 +7383,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N118" t="n">
         <v>65</v>
@@ -7443,7 +7443,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N119" t="n">
         <v>65</v>
@@ -7503,7 +7503,7 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N120" t="n">
         <v>65</v>
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N121" t="n">
         <v>65</v>
@@ -7623,7 +7623,7 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N122" t="n">
         <v>70</v>
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N123" t="n">
         <v>80</v>
@@ -7743,7 +7743,7 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N124" t="n">
         <v>80</v>
@@ -7803,7 +7803,7 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N125" t="n">
         <v>80</v>
@@ -7863,7 +7863,7 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N126" t="n">
         <v>80</v>
@@ -7923,7 +7923,7 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N127" t="n">
         <v>80</v>
@@ -7983,10 +7983,10 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N128" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129">
@@ -8043,10 +8043,10 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N129" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130">
@@ -8103,10 +8103,10 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N130" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131">
@@ -8163,7 +8163,7 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N131" t="n">
         <v>85</v>
@@ -8223,10 +8223,10 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N132" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133">
@@ -8283,7 +8283,7 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N133" t="n">
         <v>85</v>
@@ -8343,10 +8343,10 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N134" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135">
@@ -8403,7 +8403,7 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N135" t="n">
         <v>85</v>
@@ -8463,7 +8463,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N136" t="n">
         <v>85</v>
@@ -8523,7 +8523,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N137" t="n">
         <v>85</v>
@@ -8583,7 +8583,7 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N138" t="n">
         <v>85</v>
@@ -8643,7 +8643,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N139" t="n">
         <v>85</v>
@@ -8703,7 +8703,7 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N140" t="n">
         <v>85</v>
@@ -8763,7 +8763,7 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N141" t="n">
         <v>85</v>
@@ -8823,7 +8823,7 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N142" t="n">
         <v>85</v>
@@ -8883,10 +8883,10 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N143" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144">
@@ -8943,7 +8943,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N144" t="n">
         <v>85</v>
@@ -9003,7 +9003,7 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N145" t="n">
         <v>85</v>
@@ -9063,10 +9063,10 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N146" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147">
@@ -9119,7 +9119,7 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N147" t="n">
         <v>90</v>
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N148" t="n">
         <v>90</v>
@@ -9231,7 +9231,7 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N149" t="n">
         <v>90</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N150" t="n">
         <v>90</v>
@@ -9343,7 +9343,7 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N151" t="n">
         <v>90</v>
@@ -9403,7 +9403,7 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N152" t="n">
         <v>95</v>
@@ -9463,7 +9463,7 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N153" t="n">
         <v>95</v>
@@ -9519,7 +9519,7 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N154" t="n">
         <v>95</v>
@@ -9579,10 +9579,10 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N155" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156">
@@ -9639,10 +9639,10 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N156" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157">
@@ -9699,10 +9699,10 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N157" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158">
@@ -9759,10 +9759,10 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N158" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159">
@@ -9819,10 +9819,10 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N159" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160">
@@ -9879,10 +9879,10 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N160" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161">
@@ -9939,10 +9939,10 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N161" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162">
@@ -9999,10 +9999,10 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N162" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163">
@@ -10059,10 +10059,10 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N163" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164">
@@ -10119,10 +10119,10 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N164" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165">
@@ -10179,10 +10179,10 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N165" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166">
@@ -10239,10 +10239,10 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N166" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167">
@@ -10299,10 +10299,10 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N167" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168">
@@ -10355,7 +10355,7 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N168" t="n">
         <v>105</v>
@@ -10411,7 +10411,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N169" t="n">
         <v>105</v>
@@ -10467,7 +10467,7 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N170" t="n">
         <v>105</v>
@@ -10523,7 +10523,7 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N171" t="n">
         <v>105</v>
@@ -10579,7 +10579,7 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N172" t="n">
         <v>105</v>
@@ -10635,7 +10635,7 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N173" t="n">
         <v>105</v>
@@ -10691,7 +10691,7 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N174" t="n">
         <v>105</v>
@@ -10739,7 +10739,7 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N175" t="n">
         <v>110</v>
@@ -10787,7 +10787,7 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N176" t="n">
         <v>110</v>
@@ -10835,7 +10835,7 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N177" t="n">
         <v>110</v>
@@ -10883,7 +10883,7 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N178" t="n">
         <v>110</v>
@@ -10939,7 +10939,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N179" t="n">
         <v>20</v>
@@ -10987,10 +10987,10 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N180" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="181">
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N181" t="n">
         <v>115</v>
@@ -11083,7 +11083,7 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N182" t="n">
         <v>115</v>
@@ -11131,7 +11131,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N183" t="n">
         <v>115</v>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N184" t="n">
         <v>115</v>
@@ -11227,7 +11227,7 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N185" t="n">
         <v>115</v>
@@ -11275,7 +11275,7 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N186" t="n">
         <v>115</v>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N187" t="n">
         <v>115</v>
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N188" t="n">
         <v>115</v>
@@ -11419,7 +11419,7 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N189" t="n">
         <v>115</v>
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N190" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="191">
@@ -11515,10 +11515,10 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N191" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="192">
@@ -11563,7 +11563,7 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N192" t="n">
         <v>115</v>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N193" t="n">
         <v>115</v>
@@ -11659,7 +11659,7 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N194" t="n">
         <v>115</v>
@@ -11707,7 +11707,7 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N195" t="n">
         <v>115</v>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N196" t="n">
         <v>115</v>
@@ -11803,7 +11803,7 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N197" t="n">
         <v>115</v>
@@ -11851,7 +11851,7 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N198" t="n">
         <v>115</v>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N199" t="n">
         <v>115</v>
@@ -11947,7 +11947,7 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N200" t="n">
         <v>115</v>
@@ -11995,7 +11995,7 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N201" t="n">
         <v>115</v>
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N202" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="203">
@@ -12091,7 +12091,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N203" t="n">
         <v>115</v>
@@ -12139,7 +12139,7 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N204" t="n">
         <v>115</v>
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N205" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="206">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N206" t="n">
         <v>80</v>
@@ -12307,7 +12307,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N207" t="n">
         <v>20</v>
@@ -12367,7 +12367,7 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N208" t="n">
         <v>20</v>
@@ -12427,7 +12427,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N209" t="n">
         <v>80</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N210" t="n">
         <v>80</v>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N211" t="n">
         <v>80</v>
@@ -12607,7 +12607,7 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N212" t="n">
         <v>80</v>
@@ -12667,7 +12667,7 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N213" t="n">
         <v>80</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N214" t="n">
         <v>80</v>
@@ -12787,7 +12787,7 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N215" t="n">
         <v>80</v>
@@ -12847,7 +12847,7 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N216" t="n">
         <v>80</v>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N217" t="n">
         <v>95</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N218" t="n">
         <v>95</v>
@@ -13027,7 +13027,7 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N219" t="n">
         <v>95</v>
@@ -13075,10 +13075,10 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N220" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221">
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N221" t="n">
         <v>115</v>
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N222" t="n">
         <v>25</v>
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N223" t="n">
         <v>115</v>
@@ -13279,7 +13279,7 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N224" t="n">
         <v>30</v>
@@ -13335,7 +13335,7 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N225" t="n">
         <v>95</v>
@@ -13391,7 +13391,7 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N226" t="n">
         <v>95</v>
@@ -13451,7 +13451,7 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N227" t="n">
         <v>30</v>
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N228" t="n">
         <v>95</v>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N229" t="n">
         <v>115</v>
@@ -13615,7 +13615,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N230" t="n">
         <v>30</v>
@@ -13675,7 +13675,7 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N231" t="n">
         <v>85</v>
@@ -13735,7 +13735,7 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N232" t="n">
         <v>85</v>
@@ -13795,7 +13795,7 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N233" t="n">
         <v>90</v>
@@ -13855,7 +13855,7 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N234" t="n">
         <v>85</v>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N235" t="n">
         <v>90</v>
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N236" t="n">
         <v>95</v>
@@ -14027,7 +14027,7 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N237" t="n">
         <v>95</v>
@@ -14083,7 +14083,7 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N238" t="n">
         <v>95</v>
@@ -14143,7 +14143,7 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N239" t="n">
         <v>30</v>
@@ -14191,7 +14191,7 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N240" t="n">
         <v>35</v>
@@ -14251,7 +14251,7 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N241" t="n">
         <v>30</v>
@@ -14311,7 +14311,7 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N242" t="n">
         <v>30</v>
@@ -14359,7 +14359,7 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N243" t="n">
         <v>115</v>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N244" t="n">
         <v>55</v>
@@ -14479,7 +14479,7 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N245" t="n">
         <v>5</v>
@@ -14539,7 +14539,7 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N246" t="n">
         <v>5</v>
@@ -14599,7 +14599,7 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N247" t="n">
         <v>5</v>
@@ -14659,7 +14659,7 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N248" t="n">
         <v>5</v>
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N249" t="n">
         <v>5</v>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N250" t="n">
         <v>5</v>
@@ -14839,7 +14839,7 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N251" t="n">
         <v>5</v>
@@ -14899,7 +14899,7 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N252" t="n">
         <v>5</v>
@@ -14959,7 +14959,7 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N253" t="n">
         <v>10</v>
@@ -15019,10 +15019,10 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N254" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="255">
@@ -15075,7 +15075,7 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N255" t="n">
         <v>0</v>
@@ -15131,7 +15131,7 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N256" t="n">
         <v>0</v>
@@ -15187,10 +15187,10 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N257" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -15243,10 +15243,10 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N258" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -15299,10 +15299,10 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N259" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N260" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -15411,7 +15411,7 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N261" t="n">
         <v>0</v>
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N262" t="n">
         <v>0</v>
@@ -15523,7 +15523,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N263" t="n">
         <v>0</v>
@@ -15579,7 +15579,7 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N264" t="n">
         <v>0</v>
@@ -15635,7 +15635,7 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N265" t="n">
         <v>0</v>
@@ -15691,7 +15691,7 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N266" t="n">
         <v>0</v>
@@ -15747,7 +15747,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N267" t="n">
         <v>0</v>
@@ -15803,7 +15803,7 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N268" t="n">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N269" t="n">
         <v>0</v>
@@ -15915,7 +15915,7 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N270" t="n">
         <v>0</v>
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N271" t="n">
         <v>0</v>
@@ -16027,7 +16027,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N272" t="n">
         <v>0</v>
@@ -16083,7 +16083,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N273" t="n">
         <v>0</v>
@@ -16139,7 +16139,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N274" t="n">
         <v>0</v>
@@ -16195,7 +16195,7 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N275" t="n">
         <v>0</v>
@@ -16251,7 +16251,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N276" t="n">
         <v>0</v>
@@ -16307,7 +16307,7 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N277" t="n">
         <v>0</v>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N278" t="n">
         <v>0</v>
@@ -16419,7 +16419,7 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N279" t="n">
         <v>0</v>
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N280" t="n">
         <v>0</v>
@@ -16531,7 +16531,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N281" t="n">
         <v>0</v>
@@ -16587,7 +16587,7 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N282" t="n">
         <v>0</v>
@@ -16643,7 +16643,7 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N283" t="n">
         <v>0</v>
@@ -16699,7 +16699,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N284" t="n">
         <v>0</v>
@@ -16755,7 +16755,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N285" t="n">
         <v>5</v>
@@ -16811,7 +16811,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N286" t="n">
         <v>5</v>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N287" t="n">
         <v>5</v>
@@ -16923,7 +16923,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N288" t="n">
         <v>5</v>
@@ -16979,7 +16979,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N289" t="n">
         <v>0</v>
@@ -17035,7 +17035,7 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N290" t="n">
         <v>5</v>
@@ -17091,7 +17091,7 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N291" t="n">
         <v>5</v>
@@ -17147,7 +17147,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N292" t="n">
         <v>5</v>
@@ -17203,7 +17203,7 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N293" t="n">
         <v>5</v>
@@ -17259,7 +17259,7 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N294" t="n">
         <v>5</v>
@@ -17315,7 +17315,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N295" t="n">
         <v>10</v>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N296" t="n">
         <v>10</v>
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N297" t="n">
         <v>10</v>
@@ -17483,7 +17483,7 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N298" t="n">
         <v>10</v>
@@ -17539,7 +17539,7 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N299" t="n">
         <v>10</v>
@@ -17595,7 +17595,7 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N300" t="n">
         <v>10</v>
@@ -17651,7 +17651,7 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N301" t="n">
         <v>10</v>
@@ -17707,7 +17707,7 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N302" t="n">
         <v>10</v>
@@ -17763,7 +17763,7 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N303" t="n">
         <v>10</v>
@@ -17819,7 +17819,7 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N304" t="n">
         <v>10</v>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N305" t="n">
         <v>10</v>
@@ -17931,7 +17931,7 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N306" t="n">
         <v>10</v>
@@ -17987,7 +17987,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N307" t="n">
         <v>10</v>
@@ -18043,7 +18043,7 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N308" t="n">
         <v>10</v>
@@ -18099,7 +18099,7 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N309" t="n">
         <v>10</v>
@@ -18155,7 +18155,7 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N310" t="n">
         <v>10</v>
@@ -18211,7 +18211,7 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N311" t="n">
         <v>15</v>
@@ -18267,7 +18267,7 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N312" t="n">
         <v>0</v>
@@ -18323,10 +18323,10 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N313" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N314" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315">
@@ -18435,10 +18435,10 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N315" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316">
@@ -18491,7 +18491,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N316" t="n">
         <v>10</v>
@@ -18547,10 +18547,10 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N317" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318">
@@ -18603,7 +18603,7 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N318" t="n">
         <v>10</v>
@@ -18659,7 +18659,7 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N319" t="n">
         <v>20</v>
@@ -18715,7 +18715,7 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N320" t="n">
         <v>20</v>
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N321" t="n">
         <v>20</v>
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N322" t="n">
         <v>20</v>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N323" t="n">
         <v>20</v>
@@ -18939,7 +18939,7 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N324" t="n">
         <v>25</v>
@@ -18995,7 +18995,7 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N325" t="n">
         <v>25</v>
@@ -19051,7 +19051,7 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N326" t="n">
         <v>25</v>
@@ -19107,7 +19107,7 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N327" t="n">
         <v>25</v>
@@ -19163,7 +19163,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N328" t="n">
         <v>25</v>
@@ -19219,7 +19219,7 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N329" t="n">
         <v>25</v>
@@ -19275,7 +19275,7 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N330" t="n">
         <v>25</v>
@@ -19331,7 +19331,7 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N331" t="n">
         <v>25</v>
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N332" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N333" t="n">
         <v>30</v>
@@ -19507,7 +19507,7 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N334" t="n">
         <v>30</v>
@@ -19563,7 +19563,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N335" t="n">
         <v>20</v>
@@ -19619,7 +19619,7 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N336" t="n">
         <v>20</v>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N337" t="n">
         <v>20</v>
@@ -19731,7 +19731,7 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N338" t="n">
         <v>20</v>
@@ -19787,7 +19787,7 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N339" t="n">
         <v>20</v>
@@ -19843,7 +19843,7 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N340" t="n">
         <v>25</v>
@@ -19899,7 +19899,7 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N341" t="n">
         <v>25</v>
@@ -19955,7 +19955,7 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N342" t="n">
         <v>25</v>
@@ -20011,7 +20011,7 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N343" t="n">
         <v>25</v>
@@ -20067,7 +20067,7 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N344" t="n">
         <v>25</v>
@@ -20123,7 +20123,7 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N345" t="n">
         <v>25</v>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N346" t="n">
         <v>25</v>
@@ -20239,7 +20239,7 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N347" t="n">
         <v>30</v>
@@ -20299,7 +20299,7 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N348" t="n">
         <v>30</v>
@@ -20359,7 +20359,7 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N349" t="n">
         <v>30</v>
@@ -20415,10 +20415,10 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N350" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="351">
@@ -20471,10 +20471,10 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N351" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="352">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N352" t="n">
         <v>30</v>
@@ -20583,10 +20583,10 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N353" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="354">
@@ -20639,10 +20639,10 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N354" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="355">
@@ -20695,10 +20695,10 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N355" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="356">
@@ -20751,7 +20751,7 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N356" t="n">
         <v>30</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N357" t="n">
         <v>30</v>
@@ -20863,7 +20863,7 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N358" t="n">
         <v>30</v>
@@ -20919,10 +20919,10 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N359" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="360">
@@ -20975,7 +20975,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N360" t="n">
         <v>25</v>
@@ -21031,7 +21031,7 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N361" t="n">
         <v>25</v>
@@ -21091,7 +21091,7 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N362" t="n">
         <v>30</v>
@@ -21151,7 +21151,7 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N363" t="n">
         <v>30</v>
@@ -21211,7 +21211,7 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N364" t="n">
         <v>30</v>
@@ -21267,7 +21267,7 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N365" t="n">
         <v>30</v>
@@ -21323,7 +21323,7 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N366" t="n">
         <v>30</v>
@@ -21379,7 +21379,7 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N367" t="n">
         <v>25</v>
@@ -21435,7 +21435,7 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N368" t="n">
         <v>30</v>
@@ -21491,7 +21491,7 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N369" t="n">
         <v>30</v>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N370" t="n">
         <v>30</v>
@@ -21603,7 +21603,7 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N371" t="n">
         <v>30</v>
@@ -21659,7 +21659,7 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N372" t="n">
         <v>30</v>
@@ -21715,7 +21715,7 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N373" t="n">
         <v>30</v>
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N374" t="n">
         <v>35</v>
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N375" t="n">
         <v>35</v>
@@ -21883,7 +21883,7 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N376" t="n">
         <v>35</v>
@@ -21939,7 +21939,7 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N377" t="n">
         <v>35</v>
@@ -21995,7 +21995,7 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N378" t="n">
         <v>35</v>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N379" t="n">
         <v>35</v>
@@ -22107,7 +22107,7 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N380" t="n">
         <v>35</v>
@@ -22163,7 +22163,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N381" t="n">
         <v>35</v>
@@ -22219,7 +22219,7 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N382" t="n">
         <v>35</v>
@@ -22275,7 +22275,7 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N383" t="n">
         <v>30</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N384" t="n">
         <v>35</v>
@@ -22379,7 +22379,7 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N385" t="n">
         <v>35</v>
@@ -22431,7 +22431,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N386" t="n">
         <v>35</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N387" t="n">
         <v>35</v>
@@ -22543,7 +22543,7 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N388" t="n">
         <v>35</v>
@@ -22599,7 +22599,7 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N389" t="n">
         <v>30</v>
@@ -22659,7 +22659,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N390" t="n">
         <v>30</v>
@@ -22719,7 +22719,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N391" t="n">
         <v>30</v>
@@ -22779,7 +22779,7 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N392" t="n">
         <v>30</v>
@@ -22839,7 +22839,7 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N393" t="n">
         <v>30</v>
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N394" t="n">
         <v>35</v>
@@ -22951,7 +22951,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N395" t="n">
         <v>35</v>
@@ -23007,7 +23007,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N396" t="n">
         <v>35</v>
@@ -23063,7 +23063,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N397" t="n">
         <v>35</v>
@@ -23119,7 +23119,7 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N398" t="n">
         <v>35</v>
@@ -23175,7 +23175,7 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N399" t="n">
         <v>30</v>
@@ -23231,7 +23231,7 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N400" t="n">
         <v>30</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N401" t="n">
         <v>30</v>
@@ -23343,7 +23343,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N402" t="n">
         <v>30</v>
@@ -23399,7 +23399,7 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N403" t="n">
         <v>40</v>
@@ -23455,7 +23455,7 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N404" t="n">
         <v>40</v>
@@ -23511,7 +23511,7 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N405" t="n">
         <v>40</v>
@@ -23567,7 +23567,7 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N406" t="n">
         <v>40</v>
@@ -23623,7 +23623,7 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N407" t="n">
         <v>35</v>
@@ -23679,7 +23679,7 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N408" t="n">
         <v>40</v>
@@ -23735,7 +23735,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N409" t="n">
         <v>40</v>
@@ -23791,7 +23791,7 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N410" t="n">
         <v>40</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N411" t="n">
         <v>40</v>
@@ -23903,10 +23903,10 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N412" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="413">
@@ -23959,10 +23959,10 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N413" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="414">
@@ -24015,10 +24015,10 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N414" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="415">
@@ -24071,10 +24071,10 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N415" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="416">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N416" t="n">
         <v>40</v>
@@ -24183,7 +24183,7 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N417" t="n">
         <v>40</v>
@@ -24239,7 +24239,7 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N418" t="n">
         <v>40</v>
@@ -24295,7 +24295,7 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N419" t="n">
         <v>40</v>
@@ -24351,7 +24351,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N420" t="n">
         <v>40</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N421" t="n">
         <v>40</v>
@@ -24463,7 +24463,7 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N422" t="n">
         <v>40</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N423" t="n">
         <v>40</v>
@@ -24575,7 +24575,7 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N424" t="n">
         <v>40</v>
@@ -24631,7 +24631,7 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N425" t="n">
         <v>45</v>
@@ -24687,7 +24687,7 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N426" t="n">
         <v>45</v>
@@ -24743,7 +24743,7 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N427" t="n">
         <v>45</v>
@@ -24799,7 +24799,7 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N428" t="n">
         <v>45</v>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N429" t="n">
         <v>60</v>
@@ -24919,7 +24919,7 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N430" t="n">
         <v>60</v>
@@ -24975,7 +24975,7 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N431" t="n">
         <v>45</v>
@@ -25031,7 +25031,7 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N432" t="n">
         <v>45</v>
@@ -25087,7 +25087,7 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N433" t="n">
         <v>45</v>
@@ -25143,7 +25143,7 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N434" t="n">
         <v>45</v>
@@ -25199,7 +25199,7 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N435" t="n">
         <v>45</v>
@@ -25255,7 +25255,7 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N436" t="n">
         <v>45</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N437" t="n">
         <v>45</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N438" t="n">
         <v>45</v>
@@ -25423,7 +25423,7 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N439" t="n">
         <v>45</v>
@@ -25479,7 +25479,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N440" t="n">
         <v>40</v>
@@ -25539,7 +25539,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N441" t="n">
         <v>60</v>
@@ -25599,7 +25599,7 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N442" t="n">
         <v>60</v>
@@ -25659,7 +25659,7 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N443" t="n">
         <v>60</v>
@@ -25719,7 +25719,7 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N444" t="n">
         <v>60</v>
@@ -25779,7 +25779,7 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N445" t="n">
         <v>60</v>
@@ -25839,7 +25839,7 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N446" t="n">
         <v>60</v>
@@ -25895,7 +25895,7 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N447" t="n">
         <v>45</v>
@@ -25951,7 +25951,7 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N448" t="n">
         <v>45</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N449" t="n">
         <v>45</v>
@@ -26063,7 +26063,7 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N450" t="n">
         <v>45</v>
@@ -26119,7 +26119,7 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N451" t="n">
         <v>45</v>
@@ -26175,7 +26175,7 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N452" t="n">
         <v>45</v>
@@ -26231,7 +26231,7 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N453" t="n">
         <v>45</v>
@@ -26287,7 +26287,7 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N454" t="n">
         <v>45</v>
@@ -26343,7 +26343,7 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N455" t="n">
         <v>55</v>
@@ -26399,7 +26399,7 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N456" t="n">
         <v>55</v>
@@ -26455,7 +26455,7 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N457" t="n">
         <v>55</v>
@@ -26511,7 +26511,7 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N458" t="n">
         <v>55</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N459" t="n">
         <v>55</v>
@@ -26623,7 +26623,7 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N460" t="n">
         <v>55</v>
@@ -26679,7 +26679,7 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N461" t="n">
         <v>55</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N462" t="n">
         <v>55</v>
@@ -26791,7 +26791,7 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N463" t="n">
         <v>55</v>
@@ -26847,7 +26847,7 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N464" t="n">
         <v>55</v>
@@ -26903,7 +26903,7 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N465" t="n">
         <v>60</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N466" t="n">
         <v>60</v>
@@ -27015,7 +27015,7 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N467" t="n">
         <v>60</v>
@@ -27075,7 +27075,7 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N468" t="n">
         <v>60</v>
@@ -27135,7 +27135,7 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N469" t="n">
         <v>60</v>
@@ -27195,7 +27195,7 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N470" t="n">
         <v>60</v>
@@ -27255,7 +27255,7 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N471" t="n">
         <v>60</v>
@@ -27311,10 +27311,10 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N472" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="473">
@@ -27367,10 +27367,10 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N473" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="474">
@@ -27423,10 +27423,10 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N474" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="475">
@@ -27479,7 +27479,7 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N475" t="n">
         <v>60</v>
@@ -27535,7 +27535,7 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N476" t="n">
         <v>60</v>
@@ -27591,7 +27591,7 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N477" t="n">
         <v>60</v>
@@ -27647,7 +27647,7 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N478" t="n">
         <v>60</v>
@@ -27707,7 +27707,7 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N479" t="n">
         <v>60</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N480" t="n">
         <v>60</v>
@@ -27827,7 +27827,7 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N481" t="n">
         <v>60</v>
@@ -27887,7 +27887,7 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N482" t="n">
         <v>60</v>
@@ -27947,7 +27947,7 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N483" t="n">
         <v>60</v>
@@ -27999,7 +27999,7 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N484" t="n">
         <v>65</v>
@@ -28051,7 +28051,7 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N485" t="n">
         <v>65</v>
@@ -28103,7 +28103,7 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N486" t="n">
         <v>65</v>
@@ -28163,7 +28163,7 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N487" t="n">
         <v>60</v>
@@ -28223,7 +28223,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N488" t="n">
         <v>60</v>
@@ -28283,7 +28283,7 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N489" t="n">
         <v>60</v>
@@ -28343,7 +28343,7 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N490" t="n">
         <v>60</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N491" t="n">
         <v>60</v>
@@ -28463,7 +28463,7 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N492" t="n">
         <v>60</v>
@@ -28523,7 +28523,7 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N493" t="n">
         <v>60</v>
@@ -28579,7 +28579,7 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N494" t="n">
         <v>70</v>
@@ -28635,7 +28635,7 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N495" t="n">
         <v>70</v>
@@ -28691,7 +28691,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N496" t="n">
         <v>70</v>
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N497" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="498">
@@ -28803,10 +28803,10 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N498" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="499">
@@ -28859,10 +28859,10 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N499" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="500">
@@ -28919,7 +28919,7 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N500" t="n">
         <v>60</v>
@@ -28975,10 +28975,10 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N501" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="502">
@@ -29031,10 +29031,10 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N502" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="503">
@@ -29087,7 +29087,7 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N503" t="n">
         <v>60</v>
@@ -29143,7 +29143,7 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N504" t="n">
         <v>60</v>
@@ -29199,7 +29199,7 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N505" t="n">
         <v>60</v>
@@ -29255,7 +29255,7 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N506" t="n">
         <v>90</v>
@@ -29311,7 +29311,7 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N507" t="n">
         <v>90</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N508" t="n">
         <v>90</v>
@@ -29423,7 +29423,7 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N509" t="n">
         <v>90</v>
@@ -29479,7 +29479,7 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N510" t="n">
         <v>90</v>
@@ -29531,7 +29531,7 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N511" t="n">
         <v>75</v>
@@ -29583,7 +29583,7 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N512" t="n">
         <v>75</v>
@@ -29635,7 +29635,7 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N513" t="n">
         <v>75</v>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N514" t="n">
         <v>90</v>
@@ -29731,7 +29731,7 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N515" t="n">
         <v>90</v>
@@ -29779,7 +29779,7 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N516" t="n">
         <v>90</v>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N517" t="n">
         <v>85</v>
@@ -29875,7 +29875,7 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N518" t="n">
         <v>85</v>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N518"/>
+  <dimension ref="A1:N537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6206,10 +6206,14 @@
       <c r="H98" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>KAUN00566SH022</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -6302,10 +6306,14 @@
       <c r="H100" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>KAUN00565SH022</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -6470,10 +6478,14 @@
       <c r="H103" s="2" t="n">
         <v>45023</v>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>KAUN00563SH022</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
@@ -9102,10 +9114,14 @@
       <c r="H147" s="2" t="n">
         <v>45003</v>
       </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>KRCN03419SH022</t>
+        </is>
+      </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -9158,10 +9174,14 @@
       <c r="H148" s="2" t="n">
         <v>45003</v>
       </c>
-      <c r="I148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>KRCN03420SH022</t>
+        </is>
+      </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -9214,10 +9234,14 @@
       <c r="H149" s="2" t="n">
         <v>45003</v>
       </c>
-      <c r="I149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>KRCN03421SH022</t>
+        </is>
+      </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -9270,10 +9294,14 @@
       <c r="H150" s="2" t="n">
         <v>45003</v>
       </c>
-      <c r="I150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>KRCN03418SH022</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -9326,10 +9354,14 @@
       <c r="H151" s="2" t="n">
         <v>45003</v>
       </c>
-      <c r="I151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>KRCN03417SH022</t>
+        </is>
+      </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -9502,10 +9534,14 @@
       <c r="H154" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="I154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>KRCN03634SH022</t>
+        </is>
+      </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -10338,10 +10374,14 @@
       <c r="H168" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="I168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>KRCN03468SH022</t>
+        </is>
+      </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -10394,10 +10434,14 @@
       <c r="H169" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="I169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>KRCN03469SH022</t>
+        </is>
+      </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -10450,10 +10494,14 @@
       <c r="H170" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="I170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>KRCN03473SH022</t>
+        </is>
+      </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -10506,10 +10554,14 @@
       <c r="H171" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="I171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>KRCN03470SH022</t>
+        </is>
+      </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -10562,10 +10614,14 @@
       <c r="H172" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="I172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>KRCN03467SH022</t>
+        </is>
+      </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -10618,10 +10674,14 @@
       <c r="H173" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="I173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>KRCN03472SH022</t>
+        </is>
+      </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -10674,10 +10734,14 @@
       <c r="H174" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="I174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>KRCN03471SH022</t>
+        </is>
+      </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -10726,10 +10790,14 @@
       <c r="H175" s="2" t="n">
         <v>45023</v>
       </c>
-      <c r="I175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>KRCN03489SH022</t>
+        </is>
+      </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K175" t="inlineStr"/>
@@ -10774,10 +10842,14 @@
       <c r="H176" s="2" t="n">
         <v>45023</v>
       </c>
-      <c r="I176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>KRCN03488SH022</t>
+        </is>
+      </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K176" t="inlineStr"/>
@@ -10822,10 +10894,14 @@
       <c r="H177" s="2" t="n">
         <v>45023</v>
       </c>
-      <c r="I177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>KRCN03489SH022</t>
+        </is>
+      </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K177" t="inlineStr"/>
@@ -10870,10 +10946,14 @@
       <c r="H178" s="2" t="n">
         <v>45023</v>
       </c>
-      <c r="I178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>KRCN03488SH022</t>
+        </is>
+      </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K178" t="inlineStr"/>
@@ -11022,10 +11102,14 @@
       <c r="H181" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>KRCN02689NB022</t>
+        </is>
+      </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K181" t="inlineStr"/>
@@ -11070,10 +11154,14 @@
       <c r="H182" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>KRCN02690NB022</t>
+        </is>
+      </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K182" t="inlineStr"/>
@@ -11118,10 +11206,14 @@
       <c r="H183" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>KRCN03460SH022</t>
+        </is>
+      </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K183" t="inlineStr"/>
@@ -11166,10 +11258,14 @@
       <c r="H184" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="I184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>KRCN03461SH022</t>
+        </is>
+      </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K184" t="inlineStr"/>
@@ -11262,10 +11358,14 @@
       <c r="H186" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>KRCN03204SH022</t>
+        </is>
+      </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K186" t="inlineStr"/>
@@ -11310,10 +11410,14 @@
       <c r="H187" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>KRCN03453SH022</t>
+        </is>
+      </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K187" t="inlineStr"/>
@@ -11358,10 +11462,14 @@
       <c r="H188" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>KRCN03455SH022</t>
+        </is>
+      </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K188" t="inlineStr"/>
@@ -11406,10 +11514,14 @@
       <c r="H189" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>KRCN03460SH022</t>
+        </is>
+      </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K189" t="inlineStr"/>
@@ -11550,10 +11662,14 @@
       <c r="H192" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I192" t="inlineStr"/>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>KRCN03456SH022</t>
+        </is>
+      </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K192" t="inlineStr"/>
@@ -11598,10 +11714,14 @@
       <c r="H193" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>KRCN02688NB022</t>
+        </is>
+      </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K193" t="inlineStr"/>
@@ -11646,10 +11766,14 @@
       <c r="H194" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>KRCN03455SH022</t>
+        </is>
+      </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K194" t="inlineStr"/>
@@ -11742,10 +11866,14 @@
       <c r="H196" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>KRCN03456SH022</t>
+        </is>
+      </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K196" t="inlineStr"/>
@@ -11790,10 +11918,14 @@
       <c r="H197" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>KRCN03454SH022</t>
+        </is>
+      </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K197" t="inlineStr"/>
@@ -11838,10 +11970,14 @@
       <c r="H198" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="I198" t="inlineStr"/>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>KRCN03458SH022</t>
+        </is>
+      </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K198" t="inlineStr"/>
@@ -11886,10 +12022,14 @@
       <c r="H199" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>KRCN03455SH022</t>
+        </is>
+      </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K199" t="inlineStr"/>
@@ -11934,10 +12074,14 @@
       <c r="H200" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="I200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>KRCN03457SH022</t>
+        </is>
+      </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K200" t="inlineStr"/>
@@ -11982,10 +12126,14 @@
       <c r="H201" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="I201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>KRCN03461SH022</t>
+        </is>
+      </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K201" t="inlineStr"/>
@@ -12078,10 +12226,14 @@
       <c r="H203" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I203" t="inlineStr"/>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>KRCN03455SH022</t>
+        </is>
+      </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K203" t="inlineStr"/>
@@ -12126,10 +12278,14 @@
       <c r="H204" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="I204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>KRCN03457SH022</t>
+        </is>
+      </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K204" t="inlineStr"/>
@@ -13110,10 +13266,14 @@
       <c r="H221" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="I221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>KRMN00153SH022</t>
+        </is>
+      </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K221" t="inlineStr"/>
@@ -13206,10 +13366,14 @@
       <c r="H223" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="I223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>KRMN00153SH022</t>
+        </is>
+      </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K223" t="inlineStr"/>
@@ -13318,10 +13482,14 @@
       <c r="H225" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="I225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>KRMN00135SH022</t>
+        </is>
+      </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -13374,10 +13542,14 @@
       <c r="H226" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="I226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>KRMN00135SH022</t>
+        </is>
+      </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -13490,10 +13662,14 @@
       <c r="H228" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="I228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>KRMN00135SH022</t>
+        </is>
+      </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -13542,10 +13718,14 @@
       <c r="H229" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="I229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>KRMN00153SH022</t>
+        </is>
+      </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K229" t="inlineStr"/>
@@ -13954,10 +14134,14 @@
       <c r="H236" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="I236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>KRMN00135SH022</t>
+        </is>
+      </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -14010,10 +14194,14 @@
       <c r="H237" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="I237" t="inlineStr"/>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>KRMN00135SH022</t>
+        </is>
+      </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -14066,10 +14254,14 @@
       <c r="H238" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="I238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>KRMN00135SH022</t>
+        </is>
+      </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -14346,10 +14538,14 @@
       <c r="H243" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="I243" t="inlineStr"/>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>KRSN00178SH022</t>
+        </is>
+      </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K243" t="inlineStr"/>
@@ -22314,10 +22510,14 @@
       <c r="H384" s="2" t="n">
         <v>44947</v>
       </c>
-      <c r="I384" t="inlineStr"/>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>KREN27637SH022</t>
+        </is>
+      </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K384" t="inlineStr"/>
@@ -22366,10 +22566,14 @@
       <c r="H385" s="2" t="n">
         <v>44947</v>
       </c>
-      <c r="I385" t="inlineStr"/>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>KREN27638SH022</t>
+        </is>
+      </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K385" t="inlineStr"/>
@@ -22418,10 +22622,14 @@
       <c r="H386" s="2" t="n">
         <v>44947</v>
       </c>
-      <c r="I386" t="inlineStr"/>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>KREN27639SH022</t>
+        </is>
+      </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K386" t="inlineStr"/>
@@ -27986,10 +28194,14 @@
       <c r="H484" s="2" t="n">
         <v>44978</v>
       </c>
-      <c r="I484" t="inlineStr"/>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>KREN28093SH022</t>
+        </is>
+      </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K484" t="inlineStr"/>
@@ -28038,10 +28250,14 @@
       <c r="H485" s="2" t="n">
         <v>44978</v>
       </c>
-      <c r="I485" t="inlineStr"/>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>KREN28094SH022</t>
+        </is>
+      </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K485" t="inlineStr"/>
@@ -28090,10 +28306,14 @@
       <c r="H486" s="2" t="n">
         <v>44978</v>
       </c>
-      <c r="I486" t="inlineStr"/>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>KREN28094SH022</t>
+        </is>
+      </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K486" t="inlineStr"/>
@@ -29238,10 +29458,14 @@
       <c r="H506" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I506" t="inlineStr"/>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>KRJN04629SH022</t>
+        </is>
+      </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -29294,10 +29518,14 @@
       <c r="H507" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I507" t="inlineStr"/>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -29350,10 +29578,14 @@
       <c r="H508" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I508" t="inlineStr"/>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -29406,10 +29638,14 @@
       <c r="H509" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I509" t="inlineStr"/>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -29462,10 +29698,14 @@
       <c r="H510" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I510" t="inlineStr"/>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -29518,10 +29758,14 @@
       <c r="H511" s="2" t="n">
         <v>44987</v>
       </c>
-      <c r="I511" t="inlineStr"/>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>KREN28246SH022</t>
+        </is>
+      </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K511" t="inlineStr"/>
@@ -29570,10 +29814,14 @@
       <c r="H512" s="2" t="n">
         <v>44987</v>
       </c>
-      <c r="I512" t="inlineStr"/>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>KREN28246SH022</t>
+        </is>
+      </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K512" t="inlineStr"/>
@@ -29622,10 +29870,14 @@
       <c r="H513" s="2" t="n">
         <v>44987</v>
       </c>
-      <c r="I513" t="inlineStr"/>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>KREN28246SH022</t>
+        </is>
+      </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K513" t="inlineStr"/>
@@ -29814,10 +30066,14 @@
       <c r="H517" s="2" t="n">
         <v>44997</v>
       </c>
-      <c r="I517" t="inlineStr"/>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>KREN28277SH022</t>
+        </is>
+      </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K517" t="inlineStr"/>
@@ -29862,10 +30118,14 @@
       <c r="H518" s="2" t="n">
         <v>44997</v>
       </c>
-      <c r="I518" t="inlineStr"/>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>KREN28277SH022</t>
+        </is>
+      </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K518" t="inlineStr"/>
@@ -29878,6 +30138,918 @@
         <v>85</v>
       </c>
       <c r="N518" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>6RU4ISRM_LTR</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F519" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G519" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H519" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M519" t="n">
+        <v>117</v>
+      </c>
+      <c r="N519" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>4LGYAGNR_LTR</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="n">
+        <v>4097.16</v>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F520" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="G520" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H520" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M520" t="n">
+        <v>118</v>
+      </c>
+      <c r="N520" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>3B3XG4UX_LTR</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr"/>
+      <c r="D521" t="n">
+        <v>970.38</v>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F521" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="G521" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H521" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M521" t="n">
+        <v>118</v>
+      </c>
+      <c r="N521" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>4KUEZVQL_LTR</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="n">
+        <v>323.46</v>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F522" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="G522" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H522" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M522" t="n">
+        <v>118</v>
+      </c>
+      <c r="N522" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>25KSEKCV_NTX</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="n">
+        <v>249.28</v>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F523" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G523" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H523" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M523" t="n">
+        <v>117</v>
+      </c>
+      <c r="N523" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>25KSEKCV_NTX1</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F524" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G524" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H524" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M524" t="n">
+        <v>117</v>
+      </c>
+      <c r="N524" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2M8MTK2A_NTX</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="n">
+        <v>616.53</v>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F525" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G525" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H525" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M525" t="n">
+        <v>117</v>
+      </c>
+      <c r="N525" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2C4QIXAG_NTX</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="n">
+        <v>1751.31</v>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F526" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G526" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H526" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M526" t="n">
+        <v>117</v>
+      </c>
+      <c r="N526" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>6BEIH9VN_NTX</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="n">
+        <v>10101.84</v>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F527" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G527" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H527" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M527" t="n">
+        <v>117</v>
+      </c>
+      <c r="N527" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>3JN54A2L_NTX</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr"/>
+      <c r="D528" t="n">
+        <v>11180.43</v>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F528" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G528" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H528" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M528" t="n">
+        <v>117</v>
+      </c>
+      <c r="N528" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>4TDXYM9R_NTX</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr"/>
+      <c r="D529" t="n">
+        <v>339.6</v>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F529" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="G529" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H529" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M529" t="n">
+        <v>118</v>
+      </c>
+      <c r="N529" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2FJ937CM_NTX</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr"/>
+      <c r="D530" t="n">
+        <v>7835.73</v>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F530" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G530" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H530" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M530" t="n">
+        <v>117</v>
+      </c>
+      <c r="N530" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>1G47WN4F_NTX</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="n">
+        <v>2497.77</v>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F531" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G531" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H531" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M531" t="n">
+        <v>117</v>
+      </c>
+      <c r="N531" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>88FAHEWJ_NTX</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="n">
+        <v>696.5599999999999</v>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F532" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G532" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H532" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M532" t="n">
+        <v>117</v>
+      </c>
+      <c r="N532" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2Z3UHWRK_NTX</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr"/>
+      <c r="D533" t="n">
+        <v>832.59</v>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F533" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G533" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H533" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M533" t="n">
+        <v>117</v>
+      </c>
+      <c r="N533" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2P32QPAH_NTX</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="n">
+        <v>2038.41</v>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F534" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G534" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H534" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M534" t="n">
+        <v>117</v>
+      </c>
+      <c r="N534" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>6KBRV7WC_NTX</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="n">
+        <v>1492.92</v>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F535" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G535" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H535" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M535" t="n">
+        <v>117</v>
+      </c>
+      <c r="N535" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>6HC5NJSR_NTX</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="n">
+        <v>697.6799999999999</v>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F536" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G536" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H536" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M536" t="n">
+        <v>87</v>
+      </c>
+      <c r="N536" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>8OQ7OJMR_NTX</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="n">
+        <v>718.1799999999999</v>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F537" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G537" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H537" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M537" t="n">
+        <v>87</v>
+      </c>
+      <c r="N537" t="n">
         <v>85</v>
       </c>
     </row>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N493"/>
+  <dimension ref="A1:N494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16288,21 +16288,21 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>3QZRGTFS_NTX</t>
+          <t>4YJC2THC_NTX</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>GBRDINTX220011</t>
+          <t>DEUDINTX220014</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>4757.47</v>
+        <v>167.37</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         </is>
       </c>
       <c r="F277" s="2" t="n">
-        <v>44825</v>
+        <v>44820</v>
       </c>
       <c r="G277" s="2" t="n">
         <v>44831</v>
@@ -16320,7 +16320,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>KREN26184SH022</t>
+          <t>KREN26066SH022</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -16344,7 +16344,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>34NP849A_NTX</t>
+          <t>3QZRGTFS_NTX</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -16354,11 +16354,11 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>GBRDINTX220012</t>
+          <t>GBRDINTX220011</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>341.36</v>
+        <v>4757.47</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         </is>
       </c>
       <c r="F278" s="2" t="n">
-        <v>44820</v>
+        <v>44825</v>
       </c>
       <c r="G278" s="2" t="n">
         <v>44831</v>
@@ -16376,7 +16376,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>KREN26187SH022</t>
+          <t>KREN26184SH022</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -16400,7 +16400,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>4JA1N2VJ_NTX</t>
+          <t>34NP849A_NTX</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -16414,7 +16414,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>26.64</v>
+        <v>341.36</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>712QZKWM_NTX</t>
+          <t>4JA1N2VJ_NTX</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -16470,7 +16470,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>3087.58</v>
+        <v>26.64</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>4G9VJ2US_NTX</t>
+          <t>712QZKWM_NTX</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -16522,11 +16522,11 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>GBRDINTX220013</t>
+          <t>GBRDINTX220012</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>481.69</v>
+        <v>3087.58</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -16534,17 +16534,17 @@
         </is>
       </c>
       <c r="F281" s="2" t="n">
-        <v>44827</v>
+        <v>44820</v>
       </c>
       <c r="G281" s="2" t="n">
-        <v>44832</v>
+        <v>44831</v>
       </c>
       <c r="H281" s="2" t="n">
-        <v>44922</v>
+        <v>44921</v>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>KREN26358SH022</t>
+          <t>KREN26187SH022</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -16559,7 +16559,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N281" t="n">
         <v>5</v>
@@ -16568,7 +16568,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>3R65IZZQ_NTX</t>
+          <t>4G9VJ2US_NTX</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -16582,7 +16582,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>114</v>
+        <v>481.69</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>7D1WGUHV_NTX</t>
+          <t>3R65IZZQ_NTX</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -16634,11 +16634,11 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>GBRDINTX220001</t>
+          <t>GBRDINTX220013</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>388.96</v>
+        <v>114</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="F283" s="2" t="n">
-        <v>44811</v>
+        <v>44827</v>
       </c>
       <c r="G283" s="2" t="n">
         <v>44832</v>
@@ -16656,7 +16656,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>KREN26587SH022</t>
+          <t>KREN26358SH022</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -16680,7 +16680,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>8GXVWLKD_NTX</t>
+          <t>7D1WGUHV_NTX</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -16690,11 +16690,11 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>GBRDINTX220006</t>
+          <t>GBRDINTX220001</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3334.26</v>
+        <v>388.96</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -16736,21 +16736,21 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>3FF7WOYL_NTX</t>
+          <t>8GXVWLKD_NTX</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>DEUDINTX220015</t>
+          <t>GBRDINTX220006</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>935.5</v>
+        <v>3334.26</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -16758,17 +16758,17 @@
         </is>
       </c>
       <c r="F285" s="2" t="n">
-        <v>44823</v>
+        <v>44811</v>
       </c>
       <c r="G285" s="2" t="n">
-        <v>44838</v>
+        <v>44832</v>
       </c>
       <c r="H285" s="2" t="n">
-        <v>44928</v>
+        <v>44922</v>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>KREN26348SH022</t>
+          <t>KREN26587SH022</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -16783,30 +16783,30 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N285" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>4G9VJ2US_LTR</t>
+          <t>3FF7WOYL_NTX</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>GBRDILTR220014</t>
+          <t>DEUDINTX220015</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>232.08</v>
+        <v>935.5</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -16814,17 +16814,17 @@
         </is>
       </c>
       <c r="F286" s="2" t="n">
-        <v>44832</v>
+        <v>44823</v>
       </c>
       <c r="G286" s="2" t="n">
-        <v>44839</v>
+        <v>44838</v>
       </c>
       <c r="H286" s="2" t="n">
-        <v>44929</v>
+        <v>44928</v>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>KREN26740SH022</t>
+          <t>KREN26348SH022</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -16839,7 +16839,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N286" t="n">
         <v>15</v>
@@ -16848,7 +16848,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>59GINSMH_LTR</t>
+          <t>4G9VJ2US_LTR</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -16862,7 +16862,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>184.8</v>
+        <v>232.08</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>128ZM2GW_LTR</t>
+          <t>59GINSMH_LTR</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -16918,7 +16918,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>100.43</v>
+        <v>184.8</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>3R65IZZQ_LTR</t>
+          <t>128ZM2GW_LTR</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -16974,7 +16974,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>123.43</v>
+        <v>100.43</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44839</v>
       </c>
       <c r="H289" s="2" t="n">
-        <v>44922</v>
+        <v>44929</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
@@ -17007,30 +17007,30 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N289" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>3TGAUA3B_LTR</t>
+          <t>3R65IZZQ_LTR</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>DEUDILTR220012</t>
+          <t>GBRDILTR220014</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>804.27</v>
+        <v>123.43</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -17044,11 +17044,11 @@
         <v>44839</v>
       </c>
       <c r="H290" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>KREN27067SH022</t>
+          <t>KREN26740SH022</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -17063,16 +17063,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N290" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2Z3Z3SJM_LTR</t>
+          <t>3TGAUA3B_LTR</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -17086,7 +17086,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>767.79</v>
+        <v>804.27</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44839</v>
       </c>
       <c r="H291" s="2" t="n">
-        <v>44922</v>
+        <v>44929</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
@@ -17119,30 +17119,30 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N291" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2RXRPVIJ_NTX</t>
+          <t>2Z3Z3SJM_LTR</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>GBRDINTX220014</t>
+          <t>DEUDILTR220012</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>498.91</v>
+        <v>767.79</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -17150,17 +17150,17 @@
         </is>
       </c>
       <c r="F292" s="2" t="n">
-        <v>44833</v>
+        <v>44832</v>
       </c>
       <c r="G292" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="H292" s="2" t="n">
-        <v>44930</v>
+        <v>44922</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>KREN26359SH022</t>
+          <t>KREN27067SH022</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -17175,16 +17175,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N292" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>47V8C84P_NTX</t>
+          <t>2RXRPVIJ_NTX</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -17198,7 +17198,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>51.36</v>
+        <v>498.91</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>3VJK5OZE_NTX</t>
+          <t>47V8C84P_NTX</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -17254,7 +17254,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>317.24</v>
+        <v>51.36</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1NQU35FO_NTX</t>
+          <t>3VJK5OZE_NTX</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -17310,7 +17310,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>2390.26</v>
+        <v>317.24</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>5JCVB8HU_NTX</t>
+          <t>1NQU35FO_NTX</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -17366,7 +17366,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>209.93</v>
+        <v>2390.26</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -17408,21 +17408,21 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>146KXZBI_NTX</t>
+          <t>5JCVB8HU_NTX</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>DEUDINTX220016</t>
+          <t>GBRDINTX220014</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>34.17</v>
+        <v>209.93</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -17430,17 +17430,17 @@
         </is>
       </c>
       <c r="F297" s="2" t="n">
-        <v>44834</v>
+        <v>44833</v>
       </c>
       <c r="G297" s="2" t="n">
-        <v>44845</v>
+        <v>44840</v>
       </c>
       <c r="H297" s="2" t="n">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>KREN26368SH022</t>
+          <t>KREN26359SH022</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -17455,16 +17455,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N297" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>3TGAUA3B_NTX</t>
+          <t>146KXZBI_NTX</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -17478,7 +17478,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>810.0599999999999</v>
+        <v>34.17</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>7BVEA9RH_NTX</t>
+          <t>3TGAUA3B_NTX</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -17534,7 +17534,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>51.36</v>
+        <v>810.0599999999999</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2Z3Z3SJM_NTX</t>
+          <t>7BVEA9RH_NTX</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -17590,7 +17590,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>557</v>
+        <v>51.36</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>1OOA9VWU_NTX</t>
+          <t>2Z3Z3SJM_NTX</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -17642,11 +17642,11 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>DEUDINTX220018</t>
+          <t>DEUDINTX220016</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1424.34</v>
+        <v>557</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>KREN26857SH022</t>
+          <t>KREN26368SH022</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -17688,7 +17688,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>7XHD59UU_NTX</t>
+          <t>1OOA9VWU_NTX</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>293.18</v>
+        <v>1424.34</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1UL44Y6P_NTX</t>
+          <t>7XHD59UU_NTX</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -17758,7 +17758,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>183.93</v>
+        <v>293.18</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -17800,21 +17800,21 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>491WF4OW_NTX</t>
+          <t>1UL44Y6P_NTX</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>GBRDINTX220015</t>
+          <t>DEUDINTX220018</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>115.66</v>
+        <v>183.93</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>KREN26894SH022</t>
+          <t>KREN26857SH022</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -17856,7 +17856,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>5ZVDC4HH_NTX</t>
+          <t>491WF4OW_NTX</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -17870,7 +17870,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>90.91</v>
+        <v>115.66</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44845</v>
       </c>
       <c r="H305" s="2" t="n">
-        <v>44924</v>
+        <v>44935</v>
       </c>
       <c r="I305" t="inlineStr">
         <is>
@@ -17903,30 +17903,30 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N305" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>18P83MCF_LTN</t>
+          <t>5ZVDC4HH_NTX</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>JPNDILTN220057</t>
+          <t>GBRDINTX220015</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>147</v>
+        <v>90.91</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -17934,17 +17934,17 @@
         </is>
       </c>
       <c r="F306" s="2" t="n">
-        <v>44844</v>
+        <v>44834</v>
       </c>
       <c r="G306" s="2" t="n">
         <v>44845</v>
       </c>
       <c r="H306" s="2" t="n">
-        <v>44941</v>
+        <v>44924</v>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>KRJN04423SH022</t>
+          <t>KREN26894SH022</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -17952,27 +17952,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>KRJN04423SH022</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N306" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1QQLIU6W_LTN</t>
+          <t>18P83MCF_LTN</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -17986,7 +17982,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>559</v>
+        <v>147</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -18032,21 +18028,21 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1OOA9VWU_LTN</t>
+          <t>1QQLIU6W_LTN</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>DEUDILTN220018</t>
+          <t>JPNDILTN220057</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>2403</v>
+        <v>559</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -18054,17 +18050,17 @@
         </is>
       </c>
       <c r="F308" s="2" t="n">
-        <v>44842</v>
+        <v>44844</v>
       </c>
       <c r="G308" s="2" t="n">
         <v>44845</v>
       </c>
       <c r="H308" s="2" t="n">
-        <v>44932</v>
+        <v>44941</v>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>KREN26913SH022</t>
+          <t>KRJN04423SH022</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -18072,23 +18068,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>KRJN04423SH022</t>
+        </is>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N308" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>7XHD59UU_LTN</t>
+          <t>1OOA9VWU_LTN</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1034.93</v>
+        <v>2403</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>17Y48QGT_LTN</t>
+          <t>7XHD59UU_LTN</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -18158,7 +18158,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>262.54</v>
+        <v>1034.93</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1UL44Y6P_LTN</t>
+          <t>17Y48QGT_LTN</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -18214,7 +18214,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>745.99</v>
+        <v>262.54</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>8HWD4R6C_LTN</t>
+          <t>1UL44Y6P_LTN</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -18270,7 +18270,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>209.42</v>
+        <v>745.99</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -18312,21 +18312,21 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>63Q5DNZS_LTN</t>
+          <t>8HWD4R6C_LTN</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>GBRDILTN220020</t>
+          <t>DEUDILTN220018</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>294</v>
+        <v>209.42</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -18334,17 +18334,17 @@
         </is>
       </c>
       <c r="F313" s="2" t="n">
-        <v>44845</v>
+        <v>44842</v>
       </c>
       <c r="G313" s="2" t="n">
         <v>44845</v>
       </c>
       <c r="H313" s="2" t="n">
-        <v>44935</v>
+        <v>44932</v>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>KREN26876SH022</t>
+          <t>KREN26913SH022</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -18359,16 +18359,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N313" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>6BM5USYI_LTN</t>
+          <t>63Q5DNZS_LTN</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -18382,7 +18382,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>835.6900000000001</v>
+        <v>294</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1UQYXMCP_LTN</t>
+          <t>6BM5USYI_LTN</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -18438,7 +18438,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>799.92</v>
+        <v>835.6900000000001</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>7SL48YAO_LTN</t>
+          <t>1UQYXMCP_LTN</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -18494,7 +18494,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>112.38</v>
+        <v>799.92</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -18536,21 +18536,21 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>5JVLLI3Z_LTN</t>
+          <t>7SL48YAO_LTN</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>DEUDILTN220019</t>
+          <t>GBRDILTN220020</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>843.62</v>
+        <v>112.38</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -18558,17 +18558,17 @@
         </is>
       </c>
       <c r="F317" s="2" t="n">
-        <v>44847</v>
+        <v>44845</v>
       </c>
       <c r="G317" s="2" t="n">
-        <v>44847</v>
+        <v>44845</v>
       </c>
       <c r="H317" s="2" t="n">
-        <v>44937</v>
+        <v>44935</v>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>KREN26912SH022</t>
+          <t>KREN26876SH022</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -18583,7 +18583,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N317" t="n">
         <v>20</v>
@@ -18592,7 +18592,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>7PEUVVGO_LTN</t>
+          <t>5JVLLI3Z_LTN</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -18606,7 +18606,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>98</v>
+        <v>843.62</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>4HR4GA6K_LTN</t>
+          <t>7PEUVVGO_LTN</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -18662,7 +18662,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>497.78</v>
+        <v>98</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -18704,21 +18704,21 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>18P83MCF_NTX</t>
+          <t>4HR4GA6K_LTN</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>JPNDINTX220021</t>
+          <t>DEUDILTN220019</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>548</v>
+        <v>497.78</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -18726,17 +18726,17 @@
         </is>
       </c>
       <c r="F320" s="2" t="n">
-        <v>44843</v>
+        <v>44847</v>
       </c>
       <c r="G320" s="2" t="n">
         <v>44847</v>
       </c>
       <c r="H320" s="2" t="n">
-        <v>44941</v>
+        <v>44937</v>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>KRJN04336SH022</t>
+          <t>KREN26912SH022</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -18744,27 +18744,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>KRJN04336SH022</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N320" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1BBYFEEA_NTX</t>
+          <t>18P83MCF_NTX</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -18778,7 +18774,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>496</v>
+        <v>548</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -18824,7 +18820,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1QQLIU6W_NTX</t>
+          <t>1BBYFEEA_NTX</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -18838,7 +18834,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>176</v>
+        <v>496</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -18884,21 +18880,21 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>17Y48QGT_LTR</t>
+          <t>1QQLIU6W_NTX</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>DEUDILTR220013</t>
+          <t>JPNDINTX220021</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>52.76</v>
+        <v>176</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -18906,17 +18902,17 @@
         </is>
       </c>
       <c r="F323" s="2" t="n">
-        <v>44844</v>
+        <v>44843</v>
       </c>
       <c r="G323" s="2" t="n">
-        <v>44849</v>
+        <v>44847</v>
       </c>
       <c r="H323" s="2" t="n">
-        <v>44939</v>
+        <v>44941</v>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>KREN27078SH022</t>
+          <t>KRJN04336SH022</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -18924,14 +18920,18 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>KRJN04336SH022</t>
+        </is>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N323" t="n">
         <v>25</v>
@@ -18940,7 +18940,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1OOA9VWU_LTR</t>
+          <t>17Y48QGT_LTR</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -18954,7 +18954,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>660.67</v>
+        <v>52.76</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1UL44Y6P_LTR1</t>
+          <t>1OOA9VWU_LTR</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -19010,7 +19010,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>165.48</v>
+        <v>660.67</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -19021,10 +19021,10 @@
         <v>44844</v>
       </c>
       <c r="G325" s="2" t="n">
-        <v>44850</v>
+        <v>44849</v>
       </c>
       <c r="H325" s="2" t="n">
-        <v>44940</v>
+        <v>44939</v>
       </c>
       <c r="I325" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N325" t="n">
         <v>25</v>
@@ -19052,7 +19052,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>4DYERIPX_LTR</t>
+          <t>1UL44Y6P_LTR1</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -19066,7 +19066,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>77.34</v>
+        <v>165.48</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -19077,10 +19077,10 @@
         <v>44844</v>
       </c>
       <c r="G326" s="2" t="n">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="H326" s="2" t="n">
-        <v>44939</v>
+        <v>44940</v>
       </c>
       <c r="I326" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N326" t="n">
         <v>25</v>
@@ -19108,7 +19108,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>7LNBQL4M_LTR</t>
+          <t>4DYERIPX_LTR</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -19164,7 +19164,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>7XHD59UU_LTR1</t>
+          <t>7LNBQL4M_LTR</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -19178,7 +19178,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>922.4400000000001</v>
+        <v>77.34</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -19189,10 +19189,10 @@
         <v>44844</v>
       </c>
       <c r="G328" s="2" t="n">
-        <v>44850</v>
+        <v>44849</v>
       </c>
       <c r="H328" s="2" t="n">
-        <v>44934</v>
+        <v>44939</v>
       </c>
       <c r="I328" t="inlineStr">
         <is>
@@ -19211,16 +19211,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N328" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>8HWD4R6C_LTR1</t>
+          <t>7XHD59UU_LTR1</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -19234,7 +19234,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>13.19</v>
+        <v>922.4400000000001</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>44850</v>
       </c>
       <c r="H329" s="2" t="n">
-        <v>44940</v>
+        <v>44934</v>
       </c>
       <c r="I329" t="inlineStr">
         <is>
@@ -19267,30 +19267,30 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N329" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>42PJ3PSA_LTR</t>
+          <t>8HWD4R6C_LTR1</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>GBRDILTR220015</t>
+          <t>DEUDILTR220013</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>65.05</v>
+        <v>13.19</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>KREN27080SH022</t>
+          <t>KREN27078SH022</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -19332,7 +19332,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>491WF4OW_LTR</t>
+          <t>42PJ3PSA_LTR</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>219.76</v>
+        <v>65.05</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>5ZVDC4HH_LTR</t>
+          <t>491WF4OW_LTR</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>185.25</v>
+        <v>219.76</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44850</v>
       </c>
       <c r="H332" s="2" t="n">
-        <v>44934</v>
+        <v>44940</v>
       </c>
       <c r="I332" t="inlineStr">
         <is>
@@ -19435,16 +19435,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N332" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>6BM5USYI_NTX</t>
+          <t>5ZVDC4HH_LTR</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -19454,11 +19454,11 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>GBRDINTX220016</t>
+          <t>GBRDILTR220015</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>263.9</v>
+        <v>185.25</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -19466,17 +19466,17 @@
         </is>
       </c>
       <c r="F333" s="2" t="n">
-        <v>44848</v>
+        <v>44844</v>
       </c>
       <c r="G333" s="2" t="n">
-        <v>44851</v>
+        <v>44850</v>
       </c>
       <c r="H333" s="2" t="n">
-        <v>44938</v>
+        <v>44934</v>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>KREN27065SH022</t>
+          <t>KREN27080SH022</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -19491,16 +19491,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N333" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1UQYXMCP_NTX</t>
+          <t>6BM5USYI_NTX</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -19514,7 +19514,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>128.01</v>
+        <v>263.9</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -19556,21 +19556,21 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>18P83MCF_LTR</t>
+          <t>1UQYXMCP_NTX</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>JPNDILTR220039</t>
+          <t>GBRDINTX220016</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>856</v>
+        <v>128.01</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -19578,17 +19578,17 @@
         </is>
       </c>
       <c r="F335" s="2" t="n">
-        <v>44845</v>
+        <v>44848</v>
       </c>
       <c r="G335" s="2" t="n">
-        <v>44853</v>
+        <v>44851</v>
       </c>
       <c r="H335" s="2" t="n">
-        <v>44941</v>
+        <v>44938</v>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>KRJN04429SH022</t>
+          <t>KREN27065SH022</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -19596,18 +19596,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>KRJN04429SH022</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N335" t="n">
         <v>25</v>
@@ -19616,7 +19612,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>1BBYFEEA_LTR</t>
+          <t>18P83MCF_LTR</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -19630,7 +19626,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>630</v>
+        <v>856</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -19676,7 +19672,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>1QQLIU6W_LTR</t>
+          <t>1BBYFEEA_LTR</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -19690,7 +19686,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>374</v>
+        <v>630</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -19736,21 +19732,21 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>63Q5DNZS_LTR</t>
+          <t>1QQLIU6W_LTR</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>GBRDILTR220016</t>
+          <t>JPNDILTR220039</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>305.08</v>
+        <v>374</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -19758,17 +19754,17 @@
         </is>
       </c>
       <c r="F338" s="2" t="n">
-        <v>44847</v>
+        <v>44845</v>
       </c>
       <c r="G338" s="2" t="n">
         <v>44853</v>
       </c>
       <c r="H338" s="2" t="n">
-        <v>44943</v>
+        <v>44941</v>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>KREN27085SH022</t>
+          <t>KRJN04429SH022</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -19776,23 +19772,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>KRJN04429SH022</t>
+        </is>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N338" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6BM5USYI_LTR</t>
+          <t>63Q5DNZS_LTR</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -19806,7 +19806,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>292.78</v>
+        <v>305.08</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>1UQYXMCP_LTR</t>
+          <t>6BM5USYI_LTR</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -19862,7 +19862,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1446.86</v>
+        <v>292.78</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>44853</v>
       </c>
       <c r="H340" s="2" t="n">
-        <v>44937</v>
+        <v>44943</v>
       </c>
       <c r="I340" t="inlineStr">
         <is>
@@ -19895,30 +19895,30 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N340" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>5JVLLI3Z_NTX</t>
+          <t>1UQYXMCP_LTR</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>DEUDINTX220019</t>
+          <t>GBRDILTR220016</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>52.08</v>
+        <v>1446.86</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -19926,17 +19926,17 @@
         </is>
       </c>
       <c r="F341" s="2" t="n">
-        <v>44852</v>
+        <v>44847</v>
       </c>
       <c r="G341" s="2" t="n">
-        <v>44854</v>
+        <v>44853</v>
       </c>
       <c r="H341" s="2" t="n">
-        <v>44942</v>
+        <v>44937</v>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>KREN27064SH022</t>
+          <t>KREN27085SH022</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -19951,16 +19951,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N341" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>4HR4GA6K_NTX</t>
+          <t>5JVLLI3Z_NTX</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -19974,7 +19974,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>202.83</v>
+        <v>52.08</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2FQP51ZX_NTX</t>
+          <t>4HR4GA6K_NTX</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -20026,11 +20026,11 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>DEUDINTX220020</t>
+          <t>DEUDINTX220019</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>132.9</v>
+        <v>202.83</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -20038,17 +20038,17 @@
         </is>
       </c>
       <c r="F343" s="2" t="n">
-        <v>44853</v>
+        <v>44852</v>
       </c>
       <c r="G343" s="2" t="n">
         <v>44854</v>
       </c>
       <c r="H343" s="2" t="n">
-        <v>44943</v>
+        <v>44942</v>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>KREN27072SH022</t>
+          <t>KREN27064SH022</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -20063,16 +20063,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N343" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>349M1F6E_NTX</t>
+          <t>2FQP51ZX_NTX</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -20086,7 +20086,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>11.39</v>
+        <v>132.9</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>7PH23ODO_NTX</t>
+          <t>349M1F6E_NTX</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -20142,7 +20142,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>512.3099999999999</v>
+        <v>11.39</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>3PHOUNVX_NTX</t>
+          <t>7PH23ODO_NTX</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -20198,7 +20198,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>121.76</v>
+        <v>512.3099999999999</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>7RJNCV8O_LTR</t>
+          <t>3PHOUNVX_NTX</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -20250,11 +20250,11 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>DEUDILTR220002</t>
+          <t>DEUDINTX220020</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>3181.64</v>
+        <v>121.76</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -20262,17 +20262,17 @@
         </is>
       </c>
       <c r="F347" s="2" t="n">
-        <v>44850</v>
+        <v>44853</v>
       </c>
       <c r="G347" s="2" t="n">
-        <v>44857</v>
+        <v>44854</v>
       </c>
       <c r="H347" s="2" t="n">
-        <v>44947</v>
+        <v>44943</v>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>KREN27634SH022</t>
+          <t>KREN27072SH022</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -20287,7 +20287,7 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N347" t="n">
         <v>30</v>
@@ -20296,7 +20296,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>744FKF4E_LTR</t>
+          <t>7RJNCV8O_LTR</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -20306,11 +20306,11 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>DEUDILTR220003</t>
+          <t>DEUDILTR220002</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1697.59</v>
+        <v>3181.64</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>KREN27635SH022</t>
+          <t>KREN27634SH022</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -20352,7 +20352,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>7OM4VBPQ_LTR</t>
+          <t>744FKF4E_LTR</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -20366,7 +20366,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>6889.14</v>
+        <v>1697.59</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2RAL26FN_LTR</t>
+          <t>7OM4VBPQ_LTR</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -20418,11 +20418,11 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>DEUDILTR220004</t>
+          <t>DEUDILTR220003</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>3312.64</v>
+        <v>6889.14</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>KREN27636SH022</t>
+          <t>KREN27635SH022</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -20464,7 +20464,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>3QMFPWYC_LTR</t>
+          <t>2RAL26FN_LTR</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -20474,11 +20474,11 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>DEUDILTR220007</t>
+          <t>DEUDILTR220004</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>5146.55</v>
+        <v>3312.64</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>KREN27675SH022</t>
+          <t>KREN27636SH022</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -20520,7 +20520,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>79I9WNEX_LTR</t>
+          <t>3QMFPWYC_LTR</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -20534,7 +20534,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>17976.17</v>
+        <v>5146.55</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>7SRUOF6X_LTR</t>
+          <t>79I9WNEX_LTR</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -20590,7 +20590,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>2492.65</v>
+        <v>17976.17</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>5JVLLI3Z_LTR</t>
+          <t>7SRUOF6X_LTR</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -20642,11 +20642,11 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>DEUDILTR220014</t>
+          <t>DEUDILTR220007</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>603.27</v>
+        <v>2492.65</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>KREN27079SH022</t>
+          <t>KREN27675SH022</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -20688,7 +20688,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>4HR4GA6K_LTR</t>
+          <t>5JVLLI3Z_LTR</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>820.49</v>
+        <v>603.27</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>6K1I2R1E_LTR</t>
+          <t>4HR4GA6K_LTR</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -20758,7 +20758,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>570.29</v>
+        <v>820.49</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44857</v>
       </c>
       <c r="H356" s="2" t="n">
-        <v>44940</v>
+        <v>44947</v>
       </c>
       <c r="I356" t="inlineStr">
         <is>
@@ -20791,30 +20791,30 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N356" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>3SX7D4CA_LTR</t>
+          <t>6K1I2R1E_LTR</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>GBRDILTR220002</t>
+          <t>DEUDILTR220014</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>7339.78</v>
+        <v>570.29</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -20828,11 +20828,11 @@
         <v>44857</v>
       </c>
       <c r="H357" s="2" t="n">
-        <v>44947</v>
+        <v>44940</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>KREN27637SH022</t>
+          <t>KREN27079SH022</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -20847,16 +20847,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N357" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>8MI6PX5W_LTR</t>
+          <t>3SX7D4CA_LTR</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -20866,11 +20866,11 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>GBRDILTR220003</t>
+          <t>GBRDILTR220002</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>7063.79</v>
+        <v>7339.78</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>KREN27638SH022</t>
+          <t>KREN27637SH022</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -20912,7 +20912,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>8W2QV9VW_LTR</t>
+          <t>8MI6PX5W_LTR</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -20922,11 +20922,11 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>GBRDILTR220004</t>
+          <t>GBRDILTR220003</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>8221.5</v>
+        <v>7063.79</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>KREN27639SH022</t>
+          <t>KREN27638SH022</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -20968,7 +20968,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>3JDM7RLA_LTR</t>
+          <t>8W2QV9VW_LTR</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -20978,11 +20978,11 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>GBRDILTR220005</t>
+          <t>GBRDILTR220004</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>5781.83</v>
+        <v>8221.5</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>KREN27640SH022</t>
+          <t>KREN27639SH022</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -21024,7 +21024,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>7BD5B6DJ_LTR</t>
+          <t>3JDM7RLA_LTR</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -21034,11 +21034,11 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>GBRDILTR220006</t>
+          <t>GBRDILTR220005</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1727.3</v>
+        <v>5781.83</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>KREN27676SH022</t>
+          <t>KREN27640SH022</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -21080,7 +21080,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>8GXVWLKD_LTR</t>
+          <t>7BD5B6DJ_LTR</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -21094,7 +21094,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>19419.07</v>
+        <v>1727.3</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44857</v>
       </c>
       <c r="H362" s="2" t="n">
-        <v>44940</v>
+        <v>44947</v>
       </c>
       <c r="I362" t="inlineStr">
         <is>
@@ -21127,30 +21127,30 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N362" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>57CBWXKD_NTX</t>
+          <t>8GXVWLKD_LTR</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>JPNDINTX220022</t>
+          <t>GBRDILTR220006</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>210</v>
+        <v>19419.07</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -21158,17 +21158,17 @@
         </is>
       </c>
       <c r="F363" s="2" t="n">
-        <v>44854</v>
+        <v>44850</v>
       </c>
       <c r="G363" s="2" t="n">
-        <v>44858</v>
+        <v>44857</v>
       </c>
       <c r="H363" s="2" t="n">
-        <v>44941</v>
+        <v>44940</v>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>KRJN04426SH022</t>
+          <t>KREN27676SH022</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -21176,18 +21176,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>KRJN04426SH022</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N363" t="n">
         <v>25</v>
@@ -21196,7 +21192,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>5JO3V5NY_NTX</t>
+          <t>57CBWXKD_NTX</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -21210,7 +21206,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -21256,7 +21252,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>7VCI939K_NTX</t>
+          <t>5JO3V5NY_NTX</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -21270,7 +21266,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -21316,7 +21312,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>5JO3V5NY_LTN</t>
+          <t>7VCI939K_NTX</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -21326,11 +21322,11 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>JPNDILTN220058</t>
+          <t>JPNDINTX220022</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -21348,7 +21344,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>KRJN04424SH022</t>
+          <t>KRJN04426SH022</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -21358,7 +21354,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>KRJN04424SH022</t>
+          <t>KRJN04426SH022</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -21376,21 +21372,21 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2FQP51ZX_LTN</t>
+          <t>5JO3V5NY_LTN</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>DEUDILTN220020</t>
+          <t>JPNDILTN220058</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>40.29</v>
+        <v>220</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -21398,17 +21394,17 @@
         </is>
       </c>
       <c r="F367" s="2" t="n">
-        <v>44855</v>
+        <v>44854</v>
       </c>
       <c r="G367" s="2" t="n">
         <v>44858</v>
       </c>
       <c r="H367" s="2" t="n">
-        <v>44945</v>
+        <v>44941</v>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>KREN27084SH022</t>
+          <t>KRJN04424SH022</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -21416,23 +21412,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>KRJN04424SH022</t>
+        </is>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N367" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>349M1F6E_LTN</t>
+          <t>2FQP51ZX_LTN</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>14.86</v>
+        <v>40.29</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>7PH23ODO_LTN</t>
+          <t>349M1F6E_LTN</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>443.11</v>
+        <v>14.86</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -21544,7 +21544,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>3PHOUNVX_LTN</t>
+          <t>7PH23ODO_LTN</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -21558,7 +21558,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>395.63</v>
+        <v>443.11</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>3YQLNMAR_LTN</t>
+          <t>3PHOUNVX_LTN</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -21614,7 +21614,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>311.6</v>
+        <v>395.63</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -21656,21 +21656,21 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>17VCXV4H_LTN</t>
+          <t>3YQLNMAR_LTN</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>GBRDILTN220022</t>
+          <t>DEUDILTN220020</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>131.87</v>
+        <v>311.6</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -21678,17 +21678,17 @@
         </is>
       </c>
       <c r="F372" s="2" t="n">
-        <v>44852</v>
+        <v>44855</v>
       </c>
       <c r="G372" s="2" t="n">
         <v>44858</v>
       </c>
       <c r="H372" s="2" t="n">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>KREN27030SH022</t>
+          <t>KREN27084SH022</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -21703,16 +21703,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N372" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>4EJSQ32M_LTN</t>
+          <t>17VCXV4H_LTN</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -21726,7 +21726,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>41.17</v>
+        <v>131.87</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>542JAALG_LTN</t>
+          <t>4EJSQ32M_LTN</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -21782,7 +21782,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>469.21</v>
+        <v>41.17</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6VIMP9UD_LTN</t>
+          <t>542JAALG_LTN</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -21838,7 +21838,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>257.11</v>
+        <v>469.21</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -21880,21 +21880,21 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2FQP51ZX_LTR</t>
+          <t>6VIMP9UD_LTN</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>DEUDILTR220015</t>
+          <t>GBRDILTN220022</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>68.95</v>
+        <v>257.11</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -21902,17 +21902,17 @@
         </is>
       </c>
       <c r="F376" s="2" t="n">
-        <v>44855</v>
+        <v>44852</v>
       </c>
       <c r="G376" s="2" t="n">
-        <v>44860</v>
+        <v>44858</v>
       </c>
       <c r="H376" s="2" t="n">
-        <v>44950</v>
+        <v>44942</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>KREN27459SH022</t>
+          <t>KREN27030SH022</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -21927,16 +21927,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N376" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>349M1F6E_LTR</t>
+          <t>2FQP51ZX_LTR</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -21950,7 +21950,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>32.1</v>
+        <v>68.95</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>3PHOUNVX_LTR</t>
+          <t>349M1F6E_LTR</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -22006,7 +22006,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>461.23</v>
+        <v>32.1</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -22048,7 +22048,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>7G9N9DKE_LTR</t>
+          <t>3PHOUNVX_LTR</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -22062,7 +22062,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>12.89</v>
+        <v>461.23</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>7PH23ODO_LTR</t>
+          <t>7G9N9DKE_LTR</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -22118,7 +22118,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>561.87</v>
+        <v>12.89</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44860</v>
       </c>
       <c r="H380" s="2" t="n">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="I380" t="inlineStr">
         <is>
@@ -22151,30 +22151,30 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N380" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>17VCXV4H_LTR</t>
+          <t>7PH23ODO_LTR</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>GBRDILTR220017</t>
+          <t>DEUDILTR220015</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>148.92</v>
+        <v>561.87</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -22182,17 +22182,17 @@
         </is>
       </c>
       <c r="F381" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="G381" s="2" t="n">
         <v>44860</v>
       </c>
       <c r="H381" s="2" t="n">
-        <v>44950</v>
+        <v>44945</v>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>KREN27460SH022</t>
+          <t>KREN27459SH022</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -22207,16 +22207,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N381" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>4EJSQ32M_LTR</t>
+          <t>17VCXV4H_LTR</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -22230,7 +22230,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>184.9</v>
+        <v>148.92</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>542JAALG_LTR</t>
+          <t>4EJSQ32M_LTR</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -22286,7 +22286,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>142.94</v>
+        <v>184.9</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6VIMP9UD_LTR</t>
+          <t>542JAALG_LTR</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -22342,7 +22342,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>37.77</v>
+        <v>142.94</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -22384,21 +22384,21 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>3GFYNSZZ_NTX</t>
+          <t>6VIMP9UD_LTR</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>DEUDINTX220021</t>
+          <t>GBRDILTR220017</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>179.24</v>
+        <v>37.77</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -22406,17 +22406,17 @@
         </is>
       </c>
       <c r="F385" s="2" t="n">
-        <v>44859</v>
+        <v>44854</v>
       </c>
       <c r="G385" s="2" t="n">
-        <v>44861</v>
+        <v>44860</v>
       </c>
       <c r="H385" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>KREN27225SH022</t>
+          <t>KREN27460SH022</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -22431,7 +22431,7 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N385" t="n">
         <v>35</v>
@@ -22440,7 +22440,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>4496Y4LI_NTX</t>
+          <t>3GFYNSZZ_NTX</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -22454,7 +22454,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>350.67</v>
+        <v>179.24</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -22496,21 +22496,21 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>3BMHYPDT_NTX</t>
+          <t>4496Y4LI_NTX</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>GBRDINTX220017</t>
+          <t>DEUDINTX220021</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>43.17</v>
+        <v>350.67</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>KREN27224SH022</t>
+          <t>KREN27225SH022</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -22552,7 +22552,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6E81GOFC_NTX</t>
+          <t>3BMHYPDT_NTX</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -22566,7 +22566,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>328.99</v>
+        <v>43.17</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -22608,7 +22608,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>189IU9PE_LTN</t>
+          <t>6E81GOFC_NTX</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -22618,11 +22618,11 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>GBRDILTN220023</t>
+          <t>GBRDINTX220017</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>24.5</v>
+        <v>328.99</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -22630,17 +22630,17 @@
         </is>
       </c>
       <c r="F389" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="G389" s="2" t="n">
         <v>44861</v>
       </c>
-      <c r="G389" s="2" t="n">
-        <v>44862</v>
-      </c>
       <c r="H389" s="2" t="n">
-        <v>44951</v>
+        <v>44949</v>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>KREN27462SH022</t>
+          <t>KREN27224SH022</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N389" t="n">
         <v>35</v>
@@ -22664,7 +22664,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>3BMHYPDT_LTN</t>
+          <t>189IU9PE_LTN</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -22678,7 +22678,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>14.37</v>
+        <v>24.5</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>4FODYS4Z_LTN</t>
+          <t>3BMHYPDT_LTN</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -22734,7 +22734,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>228.59</v>
+        <v>14.37</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>6E81GOFC_LTN</t>
+          <t>4FODYS4Z_LTN</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -22790,7 +22790,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>14.37</v>
+        <v>228.59</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -22832,21 +22832,21 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>3GFYNSZZ_LTN</t>
+          <t>6E81GOFC_LTN</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>DEUDILTN220021</t>
+          <t>GBRDILTN220023</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>334.18</v>
+        <v>14.37</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -22854,17 +22854,17 @@
         </is>
       </c>
       <c r="F393" s="2" t="n">
-        <v>44862</v>
+        <v>44861</v>
       </c>
       <c r="G393" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="H393" s="2" t="n">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>KREN27461SH022</t>
+          <t>KREN27462SH022</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -22879,7 +22879,7 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N393" t="n">
         <v>35</v>
@@ -22888,7 +22888,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>3SANQWFP_LTN</t>
+          <t>3GFYNSZZ_LTN</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>31.92</v>
+        <v>334.18</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>41M9IUHY_LTN</t>
+          <t>3SANQWFP_LTN</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -22958,7 +22958,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>15.71</v>
+        <v>31.92</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>4496Y4LI_LTN</t>
+          <t>41M9IUHY_LTN</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -23014,7 +23014,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>395.42</v>
+        <v>15.71</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>69LEEWKJ_LTN</t>
+          <t>4496Y4LI_LTN</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -23070,7 +23070,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>173.28</v>
+        <v>395.42</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>382Y6DXE_NTX</t>
+          <t>69LEEWKJ_LTN</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -23122,11 +23122,11 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>DEUDINTX220022</t>
+          <t>DEUDILTN220021</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>57.55</v>
+        <v>173.28</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -23134,17 +23134,17 @@
         </is>
       </c>
       <c r="F398" s="2" t="n">
-        <v>44865</v>
+        <v>44862</v>
       </c>
       <c r="G398" s="2" t="n">
-        <v>44867</v>
+        <v>44862</v>
       </c>
       <c r="H398" s="2" t="n">
-        <v>44955</v>
+        <v>44952</v>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>KREN27299SH022</t>
+          <t>KREN27461SH022</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -23159,16 +23159,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N398" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>3UHBMIIO_NTX</t>
+          <t>382Y6DXE_NTX</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -23182,7 +23182,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>34.17</v>
+        <v>57.55</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -23224,21 +23224,21 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>3U9BWVFX_NTX</t>
+          <t>3UHBMIIO_NTX</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>GBRDINTX220018</t>
+          <t>DEUDINTX220022</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>244.82</v>
+        <v>34.17</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>KREN27400SH022</t>
+          <t>KREN27299SH022</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -23280,7 +23280,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>6JYK4DOZ_NTX</t>
+          <t>3U9BWVFX_NTX</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -23294,7 +23294,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>67.02</v>
+        <v>244.82</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -23336,21 +23336,21 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>5JO3V5NY_LTR</t>
+          <t>6JYK4DOZ_NTX</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>JPNDILTR220040</t>
+          <t>GBRDINTX220018</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>87</v>
+        <v>67.02</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -23358,17 +23358,17 @@
         </is>
       </c>
       <c r="F402" s="2" t="n">
-        <v>44866</v>
+        <v>44865</v>
       </c>
       <c r="G402" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="H402" s="2" t="n">
-        <v>44972</v>
+        <v>44955</v>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>KRJN04458SH022</t>
+          <t>KREN27400SH022</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -23376,27 +23376,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>KRJN04458SH022</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N402" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>7VCI939K_LTR</t>
+          <t>5JO3V5NY_LTR</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -23410,7 +23406,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>659</v>
+        <v>87</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -23456,21 +23452,21 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>3GFYNSZZ_LTR</t>
+          <t>7VCI939K_LTR</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>DEUDILTR220016</t>
+          <t>JPNDILTR220040</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>253.35</v>
+        <v>659</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -23478,17 +23474,17 @@
         </is>
       </c>
       <c r="F404" s="2" t="n">
-        <v>44868</v>
+        <v>44866</v>
       </c>
       <c r="G404" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="H404" s="2" t="n">
-        <v>44958</v>
+        <v>44972</v>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>KREN27641SH022</t>
+          <t>KRJN04458SH022</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -23496,23 +23492,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>KRJN04458SH022</t>
+        </is>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N404" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>3SANQWFP_LTR</t>
+          <t>3GFYNSZZ_LTR</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -23526,7 +23526,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>30.58</v>
+        <v>253.35</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>3CXW97SB_LTR</t>
+          <t>3SANQWFP_LTR</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -23582,7 +23582,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>12.89</v>
+        <v>30.58</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>4496Y4LI_LTR</t>
+          <t>3CXW97SB_LTR</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -23638,7 +23638,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>629.28</v>
+        <v>12.89</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>69LEEWKJ_LTR</t>
+          <t>4496Y4LI_LTR</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -23694,7 +23694,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>262.78</v>
+        <v>629.28</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>41M9IUHY_LTR</t>
+          <t>69LEEWKJ_LTR</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -23750,7 +23750,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>13.79</v>
+        <v>262.78</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -23792,21 +23792,21 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>189IU9PE_LTR</t>
+          <t>41M9IUHY_LTR</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>GBRDILTR220018</t>
+          <t>DEUDILTR220016</t>
         </is>
       </c>
       <c r="D410" t="n">
-        <v>37.77</v>
+        <v>13.79</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -23814,17 +23814,17 @@
         </is>
       </c>
       <c r="F410" s="2" t="n">
-        <v>44862</v>
+        <v>44868</v>
       </c>
       <c r="G410" s="2" t="n">
-        <v>44868</v>
+        <v>44867</v>
       </c>
       <c r="H410" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>KREN27642SH022</t>
+          <t>KREN27641SH022</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -23848,7 +23848,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>3BMHYPDT_LTR</t>
+          <t>189IU9PE_LTR</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -23862,7 +23862,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>201.5</v>
+        <v>37.77</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>4FODYS4Z_LTR</t>
+          <t>3BMHYPDT_LTR</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -23918,7 +23918,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>37.77</v>
+        <v>201.5</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>6E81GOFC_LTR</t>
+          <t>4FODYS4Z_LTR</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -23974,7 +23974,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>208.21</v>
+        <v>37.77</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
         <v>44868</v>
       </c>
       <c r="H413" s="2" t="n">
-        <v>44952</v>
+        <v>44958</v>
       </c>
       <c r="I413" t="inlineStr">
         <is>
@@ -24007,30 +24007,30 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N413" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>49KX4R5M_NTX</t>
+          <t>6E81GOFC_LTR</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>JPNDINTX220023</t>
+          <t>GBRDILTR220018</t>
         </is>
       </c>
       <c r="D414" t="n">
-        <v>45</v>
+        <v>208.21</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -24038,17 +24038,17 @@
         </is>
       </c>
       <c r="F414" s="2" t="n">
-        <v>44872</v>
+        <v>44862</v>
       </c>
       <c r="G414" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="H414" s="2" t="n">
-        <v>44972</v>
+        <v>44952</v>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>KRJN04484SH022</t>
+          <t>KREN27642SH022</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -24056,27 +24056,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>KRJN04484SH022</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N414" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>4KOHQFAY_NTX</t>
+          <t>49KX4R5M_NTX</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -24090,7 +24086,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -24136,7 +24132,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>5I9JFA8A_NTX</t>
+          <t>4KOHQFAY_NTX</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -24150,7 +24146,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -24196,7 +24192,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>41CC755Q_LTN</t>
+          <t>5I9JFA8A_NTX</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -24206,11 +24202,11 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>JPNDILTN220059</t>
+          <t>JPNDINTX220023</t>
         </is>
       </c>
       <c r="D417" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -24218,7 +24214,7 @@
         </is>
       </c>
       <c r="F417" s="2" t="n">
-        <v>44867</v>
+        <v>44872</v>
       </c>
       <c r="G417" s="2" t="n">
         <v>44874</v>
@@ -24228,7 +24224,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>KRJN04483SH022</t>
+          <t>KRJN04484SH022</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -24238,7 +24234,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>KRJN04483SH022</t>
+          <t>KRJN04484SH022</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -24256,7 +24252,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>49KX4R5M_LTN</t>
+          <t>41CC755Q_LTN</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -24270,7 +24266,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>282</v>
+        <v>60</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -24316,7 +24312,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>5I9JFA8A_LTN</t>
+          <t>49KX4R5M_LTN</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -24330,7 +24326,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -24376,21 +24372,21 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>382Y6DXE_LTN</t>
+          <t>5I9JFA8A_LTN</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>DEUDILTN220022</t>
+          <t>JPNDILTN220059</t>
         </is>
       </c>
       <c r="D420" t="n">
-        <v>11.99</v>
+        <v>39</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -24398,17 +24394,17 @@
         </is>
       </c>
       <c r="F420" s="2" t="n">
-        <v>44868</v>
+        <v>44867</v>
       </c>
       <c r="G420" s="2" t="n">
         <v>44874</v>
       </c>
       <c r="H420" s="2" t="n">
-        <v>44958</v>
+        <v>44972</v>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>KREN27463SH022</t>
+          <t>KRJN04483SH022</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -24416,23 +24412,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>KRJN04483SH022</t>
+        </is>
+      </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N420" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>3UHBMIIO_LTN</t>
+          <t>382Y6DXE_LTN</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>27.2</v>
+        <v>11.99</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>4EMLJBIM_LTN</t>
+          <t>3UHBMIIO_LTN</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -24502,7 +24502,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>111</v>
+        <v>27.2</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -24544,21 +24544,21 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>3U9BWVFX_LTN</t>
+          <t>4EMLJBIM_LTN</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>GBRDILTN220024</t>
+          <t>DEUDILTN220022</t>
         </is>
       </c>
       <c r="D423" t="n">
-        <v>359.73</v>
+        <v>111</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>KREN27424SH022</t>
+          <t>KREN27463SH022</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -24600,7 +24600,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>6JYK4DOZ_LTN</t>
+          <t>3U9BWVFX_LTN</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -24614,7 +24614,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>546.97</v>
+        <v>359.73</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>74G7ZPMG_LTN</t>
+          <t>6JYK4DOZ_LTN</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -24670,7 +24670,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>12.25</v>
+        <v>546.97</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>3U9BWVFX_JSN</t>
+          <t>74G7ZPMG_LTN</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -24722,11 +24722,11 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>GBRDIJSN220001</t>
+          <t>GBRDILTN220024</t>
         </is>
       </c>
       <c r="D426" t="n">
-        <v>80.52</v>
+        <v>12.25</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>KREN28042SH022</t>
+          <t>KREN27424SH022</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -24768,21 +24768,21 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>4EMLJBIM_JSN</t>
+          <t>3U9BWVFX_JSN</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>DEUDIJSN220001</t>
+          <t>GBRDIJSN220001</t>
         </is>
       </c>
       <c r="D427" t="n">
-        <v>80.83</v>
+        <v>80.52</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>KREN28043SH022</t>
+          <t>KREN28042SH022</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -24824,7 +24824,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>3LB9VBOL_LTN</t>
+          <t>4EMLJBIM_JSN</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -24834,11 +24834,11 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>DEUDILTN220023</t>
+          <t>DEUDIJSN220001</t>
         </is>
       </c>
       <c r="D428" t="n">
-        <v>19.99</v>
+        <v>80.83</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -24846,17 +24846,17 @@
         </is>
       </c>
       <c r="F428" s="2" t="n">
-        <v>44875</v>
+        <v>44868</v>
       </c>
       <c r="G428" s="2" t="n">
-        <v>44876</v>
+        <v>44874</v>
       </c>
       <c r="H428" s="2" t="n">
-        <v>44965</v>
+        <v>44958</v>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>KREN27643SH022</t>
+          <t>KREN28043SH022</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -24871,16 +24871,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N428" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>4VELEW6Y_LTN</t>
+          <t>3LB9VBOL_LTN</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -24894,7 +24894,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>98.67</v>
+        <v>19.99</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>5DQOLYTM_LTN</t>
+          <t>4VELEW6Y_LTN</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -24950,7 +24950,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>171.38</v>
+        <v>98.67</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>5OTT41IK_LTN</t>
+          <t>5DQOLYTM_LTN</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -25006,7 +25006,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>12.92</v>
+        <v>171.38</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -25048,21 +25048,21 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>4RP8J8IG_LTN</t>
+          <t>5OTT41IK_LTN</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>GBRDILTN220025</t>
+          <t>DEUDILTN220023</t>
         </is>
       </c>
       <c r="D432" t="n">
-        <v>170.17</v>
+        <v>12.92</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>KREN27644SH022</t>
+          <t>KREN27643SH022</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -25104,7 +25104,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>6NR25R3R_LTN</t>
+          <t>4RP8J8IG_LTN</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -25118,7 +25118,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>342.2</v>
+        <v>170.17</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>7RSP2AYV_LTN</t>
+          <t>6NR25R3R_LTN</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -25174,7 +25174,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>919.79</v>
+        <v>342.2</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -25216,21 +25216,21 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>3LB9VBOL_NTX</t>
+          <t>7RSP2AYV_LTN</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>DEUDINTX220023</t>
+          <t>GBRDILTN220025</t>
         </is>
       </c>
       <c r="D435" t="n">
-        <v>43.83</v>
+        <v>919.79</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -25238,17 +25238,17 @@
         </is>
       </c>
       <c r="F435" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="G435" s="2" t="n">
         <v>44876</v>
       </c>
-      <c r="G435" s="2" t="n">
-        <v>44879</v>
-      </c>
       <c r="H435" s="2" t="n">
-        <v>44966</v>
+        <v>44965</v>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>KREN27645SH022</t>
+          <t>KREN27644SH022</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -25263,7 +25263,7 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N435" t="n">
         <v>50</v>
@@ -25272,7 +25272,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>7ZM683DK_NTX</t>
+          <t>3LB9VBOL_NTX</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -25286,7 +25286,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>79.92</v>
+        <v>43.83</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -25328,21 +25328,21 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>7RSP2AYV_NTX</t>
+          <t>7ZM683DK_NTX</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>GBRDINTX220019</t>
+          <t>DEUDINTX220023</t>
         </is>
       </c>
       <c r="D437" t="n">
-        <v>217.96</v>
+        <v>79.92</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>KREN27646SH022</t>
+          <t>KREN27645SH022</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -25384,21 +25384,21 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>8KMAOCPT_NTX</t>
+          <t>7RSP2AYV_NTX</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>DEUDINTX220024</t>
+          <t>GBRDINTX220019</t>
         </is>
       </c>
       <c r="D438" t="n">
-        <v>242.05</v>
+        <v>217.96</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -25406,17 +25406,17 @@
         </is>
       </c>
       <c r="F438" s="2" t="n">
-        <v>44881</v>
+        <v>44876</v>
       </c>
       <c r="G438" s="2" t="n">
-        <v>44881</v>
+        <v>44879</v>
       </c>
       <c r="H438" s="2" t="n">
-        <v>44971</v>
+        <v>44966</v>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>KREN27841SH022</t>
+          <t>KREN27646SH022</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -25431,30 +25431,30 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N438" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>4586N5QV_NTX</t>
+          <t>8KMAOCPT_NTX</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>GBRDINTX220020</t>
+          <t>DEUDINTX220024</t>
         </is>
       </c>
       <c r="D439" t="n">
-        <v>47.72</v>
+        <v>242.05</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>KREN27842SH022</t>
+          <t>KREN27841SH022</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -25496,7 +25496,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2J9SF6LV_NTX</t>
+          <t>4586N5QV_NTX</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -25510,7 +25510,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>915.64</v>
+        <v>47.72</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -25552,21 +25552,21 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>49KX4R5M_LTR</t>
+          <t>2J9SF6LV_NTX</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>JPNDILTR220041</t>
+          <t>GBRDINTX220020</t>
         </is>
       </c>
       <c r="D441" t="n">
-        <v>149</v>
+        <v>915.64</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -25574,17 +25574,17 @@
         </is>
       </c>
       <c r="F441" s="2" t="n">
-        <v>44879</v>
+        <v>44881</v>
       </c>
       <c r="G441" s="2" t="n">
-        <v>44882</v>
+        <v>44881</v>
       </c>
       <c r="H441" s="2" t="n">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KREN27842SH022</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -25592,18 +25592,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>KRJN04560SH022</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N441" t="n">
         <v>55</v>
@@ -25612,7 +25608,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>4TEIDKGK_LTR</t>
+          <t>49KX4R5M_LTR</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -25626,7 +25622,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>382</v>
+        <v>149</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -25672,7 +25668,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>5I9JFA8A_LTR</t>
+          <t>4TEIDKGK_LTR</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -25686,7 +25682,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>564</v>
+        <v>382</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -25732,7 +25728,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>8LWFC7PX_LTR</t>
+          <t>5I9JFA8A_LTR</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -25742,11 +25738,11 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>JPNDILTR220043</t>
+          <t>JPNDILTR220041</t>
         </is>
       </c>
       <c r="D444" t="n">
-        <v>92</v>
+        <v>564</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -25764,7 +25760,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>KRJN04572SH022</t>
+          <t>KRJN04560SH022</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -25774,7 +25770,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>KRJN04572SH022</t>
+          <t>KRJN04560SH022</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -25792,21 +25788,21 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>4RP8J8IG_LTR</t>
+          <t>8LWFC7PX_LTR</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>GBRDILTR220023</t>
+          <t>JPNDILTR220043</t>
         </is>
       </c>
       <c r="D445" t="n">
-        <v>29.63</v>
+        <v>92</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -25820,11 +25816,11 @@
         <v>44882</v>
       </c>
       <c r="H445" s="2" t="n">
-        <v>44969</v>
+        <v>44972</v>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>KREN28041SH022</t>
+          <t>KRJN04572SH022</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -25832,14 +25828,18 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>KRJN04572SH022</t>
+        </is>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N445" t="n">
         <v>55</v>
@@ -25848,7 +25848,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>6NR25R3R_LTR</t>
+          <t>4RP8J8IG_LTR</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>52.76</v>
+        <v>29.63</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>7RSP2AYV_LTR</t>
+          <t>6NR25R3R_LTR</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -25918,7 +25918,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>546.87</v>
+        <v>52.76</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -25960,21 +25960,21 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>8KMAOCPT_LTN</t>
+          <t>7RSP2AYV_LTR</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>DEUDILTN220024</t>
+          <t>GBRDILTR220023</t>
         </is>
       </c>
       <c r="D448" t="n">
-        <v>11.99</v>
+        <v>546.87</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -25982,17 +25982,17 @@
         </is>
       </c>
       <c r="F448" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="G448" s="2" t="n">
         <v>44882</v>
       </c>
-      <c r="G448" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="H448" s="2" t="n">
-        <v>44972</v>
+        <v>44969</v>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>KREN27837SH022</t>
+          <t>KREN28041SH022</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N448" t="n">
         <v>55</v>
@@ -26016,7 +26016,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>1ER7N9JP_LTN</t>
+          <t>8KMAOCPT_LTN</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -26030,7 +26030,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>157.32</v>
+        <v>11.99</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -26072,21 +26072,21 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>4586N5QV_LTN</t>
+          <t>1ER7N9JP_LTN</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>GBRDILTN220026</t>
+          <t>DEUDILTN220024</t>
         </is>
       </c>
       <c r="D450" t="n">
-        <v>46.77</v>
+        <v>157.32</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>KREN27838SH022</t>
+          <t>KREN27837SH022</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -26128,7 +26128,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2J9SF6LV_LTN</t>
+          <t>4586N5QV_LTN</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -26142,7 +26142,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>2567.44</v>
+        <v>46.77</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -26184,21 +26184,21 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>252LPA6W_NTX</t>
+          <t>2J9SF6LV_LTN</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>GBRDILTN220026</t>
         </is>
       </c>
       <c r="D452" t="n">
-        <v>23</v>
+        <v>2567.44</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -26206,17 +26206,17 @@
         </is>
       </c>
       <c r="F452" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="G452" s="2" t="n">
         <v>44887</v>
-      </c>
-      <c r="G452" s="2" t="n">
-        <v>44890</v>
       </c>
       <c r="H452" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KREN27838SH022</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -26224,14 +26224,10 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>KRJN04561SH022</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M452" t="n">
@@ -26244,7 +26240,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>3FNT4X2I_NTX</t>
+          <t>252LPA6W_NTX</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -26258,7 +26254,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -26304,7 +26300,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>3PZDZWZO_NTX</t>
+          <t>3FNT4X2I_NTX</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -26318,7 +26314,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -26364,7 +26360,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>6YF9IC8D_NTX</t>
+          <t>3PZDZWZO_NTX</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -26378,7 +26374,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -26424,7 +26420,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>7HC3LGGK_NTX</t>
+          <t>6YF9IC8D_NTX</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -26438,7 +26434,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -26484,21 +26480,21 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>8KMAOCPT_LTR</t>
+          <t>7HC3LGGK_NTX</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>DEUDILTR220019</t>
+          <t>JPNDINTX220024</t>
         </is>
       </c>
       <c r="D457" t="n">
-        <v>188.2</v>
+        <v>173</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -26506,17 +26502,17 @@
         </is>
       </c>
       <c r="F457" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="G457" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="H457" s="2" t="n">
-        <v>44978</v>
+        <v>44972</v>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>KREN28093SH022</t>
+          <t>KRJN04561SH022</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -26524,37 +26520,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>KRJN04561SH022</t>
+        </is>
+      </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N457" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>4586N5QV_LTR</t>
+          <t>8KMAOCPT_LTR</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>GBRDILTR220024</t>
+          <t>DEUDILTR220019</t>
         </is>
       </c>
       <c r="D458" t="n">
-        <v>157.74</v>
+        <v>188.2</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>KREN28094SH022</t>
+          <t>KREN28093SH022</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -26596,7 +26596,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2J9SF6LV_LTR</t>
+          <t>4586N5QV_LTR</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -26610,7 +26610,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>191.43</v>
+        <v>157.74</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -26652,21 +26652,21 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>641IA5TL_LTN</t>
+          <t>2J9SF6LV_LTR</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>JPNDILTN220061</t>
+          <t>GBRDILTR220024</t>
         </is>
       </c>
       <c r="D460" t="n">
-        <v>706</v>
+        <v>191.43</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -26674,17 +26674,17 @@
         </is>
       </c>
       <c r="F460" s="2" t="n">
-        <v>44893</v>
+        <v>44888</v>
       </c>
       <c r="G460" s="2" t="n">
-        <v>44894</v>
+        <v>44890</v>
       </c>
       <c r="H460" s="2" t="n">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KREN28094SH022</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -26692,27 +26692,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>KRJN04599SH022</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N460" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTN</t>
+          <t>641IA5TL_LTN</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -26726,7 +26722,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>1500</v>
+        <v>706</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -26772,7 +26768,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTN</t>
+          <t>6A7CD2BK_LTN</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -26786,7 +26782,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>3949</v>
+        <v>1500</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -26832,7 +26828,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>29OK49DG_LTN</t>
+          <t>6QJEN9KM_LTN</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -26842,11 +26838,11 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>JPNDILTN220061</t>
         </is>
       </c>
       <c r="D463" t="n">
-        <v>40</v>
+        <v>3949</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -26854,7 +26850,7 @@
         </is>
       </c>
       <c r="F463" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G463" s="2" t="n">
         <v>44894</v>
@@ -26864,7 +26860,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -26874,7 +26870,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -26892,7 +26888,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2AWNNE7S_LTN</t>
+          <t>29OK49DG_LTN</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -26906,7 +26902,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -26952,7 +26948,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>3FNT4X2I_LTN</t>
+          <t>2AWNNE7S_LTN</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -26966,7 +26962,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -27012,7 +27008,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTN</t>
+          <t>3FNT4X2I_LTN</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -27026,7 +27022,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -27072,21 +27068,21 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>4V86CXCZ_LTN</t>
+          <t>3PZDZWZO_LTN</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>JPNDILTN220060</t>
         </is>
       </c>
       <c r="D467" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -27100,11 +27096,11 @@
         <v>44894</v>
       </c>
       <c r="H467" s="2" t="n">
-        <v>44980</v>
+        <v>44972</v>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KRJN04567SH022</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -27112,23 +27108,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>KRJN04567SH022</t>
+        </is>
+      </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N467" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>5L15ABDW_LTN</t>
+          <t>4V86CXCZ_LTN</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -27142,7 +27142,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>104.34</v>
+        <v>48</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>6INHXIPT_LTN</t>
+          <t>5L15ABDW_LTN</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -27198,7 +27198,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>2316.84</v>
+        <v>104.34</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -27240,21 +27240,21 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>11KVXSVJ_LTN</t>
+          <t>6INHXIPT_LTN</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D470" t="n">
-        <v>80.02</v>
+        <v>2316.84</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -27262,17 +27262,17 @@
         </is>
       </c>
       <c r="F470" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="G470" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H470" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N470" t="n">
         <v>65</v>
@@ -27296,7 +27296,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>4BMEMP8C_LTN</t>
+          <t>11KVXSVJ_LTN</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -27310,7 +27310,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>104.34</v>
+        <v>80.02</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>4L57XNKE_LTN</t>
+          <t>4BMEMP8C_LTN</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -27366,7 +27366,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>274.2</v>
+        <v>104.34</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -27408,21 +27408,21 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>6QJEN9KM_ROG</t>
+          <t>4L57XNKE_LTN</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>JPNDIROG220001</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D473" t="n">
-        <v>850</v>
+        <v>274.2</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -27430,17 +27430,17 @@
         </is>
       </c>
       <c r="F473" s="2" t="n">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="G473" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="H473" s="2" t="n">
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>KRJN04633SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -27448,41 +27448,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>KRJN04633SH022</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N473" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>4V86CXCZ_NTX</t>
+          <t>6QJEN9KM_ROG</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>DEUDINTX220025</t>
+          <t>JPNDIROG220001</t>
         </is>
       </c>
       <c r="D474" t="n">
-        <v>35.98</v>
+        <v>850</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -27490,17 +27486,17 @@
         </is>
       </c>
       <c r="F474" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="G474" s="2" t="n">
-        <v>44896</v>
+        <v>44895</v>
       </c>
       <c r="H474" s="2" t="n">
-        <v>44984</v>
+        <v>44972</v>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>KREN28031SH022</t>
+          <t>KRJN04633SH022</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -27508,37 +27504,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>KRJN04633SH022</t>
+        </is>
+      </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="N474" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>4L57XNKE_NTX</t>
+          <t>4V86CXCZ_NTX</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>GBRDINTX220021</t>
+          <t>DEUDINTX220025</t>
         </is>
       </c>
       <c r="D475" t="n">
-        <v>53.97</v>
+        <v>35.98</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>KREN28030SH022</t>
+          <t>KREN28031SH022</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -27580,21 +27580,21 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>641IA5TL_NTX</t>
+          <t>4L57XNKE_NTX</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>JPNDINTX220025</t>
+          <t>GBRDINTX220021</t>
         </is>
       </c>
       <c r="D476" t="n">
-        <v>773</v>
+        <v>53.97</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -27608,11 +27608,11 @@
         <v>44896</v>
       </c>
       <c r="H476" s="2" t="n">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>KRJN04595SH022</t>
+          <t>KREN28030SH022</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -27627,16 +27627,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="N476" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>6A7CD2BK_NTX</t>
+          <t>641IA5TL_NTX</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -27650,7 +27650,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>136</v>
+        <v>773</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>6QJEN9KM_NTX</t>
+          <t>6A7CD2BK_NTX</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -27706,7 +27706,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>1729</v>
+        <v>136</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>4GOUUIUT_LTR</t>
+          <t>6QJEN9KM_NTX</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -27758,11 +27758,11 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>JPNDILTR220042</t>
+          <t>JPNDINTX220025</t>
         </is>
       </c>
       <c r="D479" t="n">
-        <v>20</v>
+        <v>1729</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -27770,17 +27770,17 @@
         </is>
       </c>
       <c r="F479" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="G479" s="2" t="n">
-        <v>44900</v>
+        <v>44896</v>
       </c>
       <c r="H479" s="2" t="n">
-        <v>45000</v>
+        <v>44972</v>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KRJN04595SH022</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -27788,27 +27788,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>KRJN04629SH022</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="N479" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>27J1DD2O_LTR</t>
+          <t>4GOUUIUT_LTR</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -27818,11 +27814,11 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>JPNDILTR220042</t>
         </is>
       </c>
       <c r="D480" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -27840,7 +27836,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04629SH022</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -27850,7 +27846,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04629SH022</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -27868,7 +27864,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTR</t>
+          <t>27J1DD2O_LTR</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -27882,7 +27878,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>522</v>
+        <v>45</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -27928,7 +27924,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>6YF9IC8D_LTR</t>
+          <t>3PZDZWZO_LTR</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -27942,7 +27938,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>45</v>
+        <v>522</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -27988,7 +27984,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>7HC3LGGK_LTR</t>
+          <t>6YF9IC8D_LTR</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -28002,7 +27998,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>859</v>
+        <v>45</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -28048,21 +28044,21 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>5L15ABDW_LTR</t>
+          <t>7HC3LGGK_LTR</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>DEUDILTR220020</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D484" t="n">
-        <v>96.84999999999999</v>
+        <v>859</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -28076,11 +28072,11 @@
         <v>44900</v>
       </c>
       <c r="H484" s="2" t="n">
-        <v>44987</v>
+        <v>45000</v>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>KREN28246SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -28088,23 +28084,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="N484" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>4V86CXCZ_LTR</t>
+          <t>5L15ABDW_LTR</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -28118,7 +28118,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>78.87</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>6INHXIPT_LTR</t>
+          <t>4V86CXCZ_LTR</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -28174,7 +28174,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>12.89</v>
+        <v>78.87</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -28216,17 +28216,21 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>641IA5TL_LTR</t>
+          <t>6INHXIPT_LTR</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr"/>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>DEUDILTR220020</t>
+        </is>
+      </c>
       <c r="D487" t="n">
-        <v>1638</v>
+        <v>12.89</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -28234,18 +28238,22 @@
         </is>
       </c>
       <c r="F487" s="2" t="n">
-        <v>44905</v>
+        <v>44897</v>
       </c>
       <c r="G487" s="2" t="n">
-        <v>44907</v>
+        <v>44900</v>
       </c>
       <c r="H487" s="2" t="n">
-        <v>45000</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>44987</v>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>KREN28246SH022</t>
+        </is>
+      </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K487" t="inlineStr"/>
@@ -28255,16 +28263,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="N487" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTR</t>
+          <t>641IA5TL_LTR</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -28274,7 +28282,7 @@
       </c>
       <c r="C488" t="inlineStr"/>
       <c r="D488" t="n">
-        <v>696</v>
+        <v>1638</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -28312,7 +28320,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTR</t>
+          <t>6A7CD2BK_LTR</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -28322,7 +28330,7 @@
       </c>
       <c r="C489" t="inlineStr"/>
       <c r="D489" t="n">
-        <v>1822</v>
+        <v>696</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -28360,17 +28368,17 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_NTX</t>
+          <t>6QJEN9KM_LTR</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="n">
-        <v>506.74</v>
+        <v>1822</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -28378,22 +28386,18 @@
         </is>
       </c>
       <c r="F490" s="2" t="n">
+        <v>44905</v>
+      </c>
+      <c r="G490" s="2" t="n">
         <v>44907</v>
       </c>
-      <c r="G490" s="2" t="n">
-        <v>44908</v>
-      </c>
       <c r="H490" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="I490" t="inlineStr">
-        <is>
-          <t>KREN28277SH022</t>
-        </is>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K490" t="inlineStr"/>
@@ -28403,16 +28407,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N490" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_NTX</t>
+          <t>4ENMCJ1U_NTX</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -28422,7 +28426,7 @@
       </c>
       <c r="C491" t="inlineStr"/>
       <c r="D491" t="n">
-        <v>702.38</v>
+        <v>506.74</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -28464,7 +28468,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>6HC5NJSR_NTX</t>
+          <t>8KQ7ECIO_NTX</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -28474,7 +28478,7 @@
       </c>
       <c r="C492" t="inlineStr"/>
       <c r="D492" t="n">
-        <v>697.6799999999999</v>
+        <v>702.38</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -28482,18 +28486,22 @@
         </is>
       </c>
       <c r="F492" s="2" t="n">
-        <v>44909</v>
+        <v>44907</v>
       </c>
       <c r="G492" s="2" t="n">
-        <v>44911</v>
+        <v>44908</v>
       </c>
       <c r="H492" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>44997</v>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>KREN28277SH022</t>
+        </is>
+      </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K492" t="inlineStr"/>
@@ -28503,16 +28511,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N492" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>8OQ7OJMR_NTX</t>
+          <t>6HC5NJSR_NTX</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -28522,7 +28530,7 @@
       </c>
       <c r="C493" t="inlineStr"/>
       <c r="D493" t="n">
-        <v>718.1799999999999</v>
+        <v>697.6799999999999</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -28554,6 +28562,54 @@
         <v>84</v>
       </c>
       <c r="N493" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>8OQ7OJMR_NTX</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="n">
+        <v>718.1799999999999</v>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G494" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="H494" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M494" t="n">
+        <v>84</v>
+      </c>
+      <c r="N494" t="n">
         <v>85</v>
       </c>
     </row>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
         <v>25</v>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
         <v>25</v>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N7" t="n">
         <v>90</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" t="n">
         <v>25</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N9" t="n">
         <v>10</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10" t="n">
         <v>25</v>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
         <v>5</v>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>5</v>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
         <v>5</v>
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
         <v>5</v>
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
         <v>5</v>
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
         <v>5</v>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N22" t="n">
         <v>100</v>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
         <v>5</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
         <v>5</v>
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
         <v>5</v>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
         <v>5</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
         <v>5</v>
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
         <v>5</v>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="n">
         <v>5</v>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
         <v>5</v>
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2387,10 +2387,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N33" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2627,10 +2627,10 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
         <v>5</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
         <v>5</v>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
         <v>5</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="n">
         <v>5</v>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="n">
         <v>5</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="n">
         <v>5</v>
@@ -3103,7 +3103,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" t="n">
         <v>5</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="n">
         <v>5</v>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="n">
         <v>5</v>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="n">
         <v>5</v>
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="n">
         <v>5</v>
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -3459,10 +3459,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N51" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="n">
         <v>5</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="n">
         <v>5</v>
@@ -3639,7 +3639,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="n">
         <v>5</v>
@@ -3699,10 +3699,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N55" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N56" t="n">
         <v>5</v>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N57" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N59" t="n">
         <v>5</v>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60" t="n">
         <v>5</v>
@@ -4059,7 +4059,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61" t="n">
         <v>5</v>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="n">
         <v>5</v>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N63" t="n">
         <v>100</v>
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N64" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -4291,10 +4291,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N66" t="n">
         <v>5</v>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N67" t="n">
         <v>5</v>
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N68" t="n">
         <v>5</v>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" t="n">
         <v>5</v>
@@ -4583,7 +4583,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N70" t="n">
         <v>5</v>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N71" t="n">
         <v>5</v>
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N72" t="n">
         <v>5</v>
@@ -4763,10 +4763,10 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N73" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -4823,7 +4823,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N74" t="n">
         <v>5</v>
@@ -4875,7 +4875,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N75" t="n">
         <v>10</v>
@@ -4935,7 +4935,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N76" t="n">
         <v>10</v>
@@ -4995,7 +4995,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N77" t="n">
         <v>90</v>
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N78" t="n">
         <v>90</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N79" t="n">
         <v>90</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N80" t="n">
         <v>90</v>
@@ -5235,7 +5235,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N81" t="n">
         <v>90</v>
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N82" t="n">
         <v>90</v>
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N83" t="n">
         <v>90</v>
@@ -5415,7 +5415,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N84" t="n">
         <v>90</v>
@@ -5475,7 +5475,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N85" t="n">
         <v>90</v>
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N86" t="n">
         <v>90</v>
@@ -5595,7 +5595,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N87" t="n">
         <v>90</v>
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N88" t="n">
         <v>5</v>
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N89" t="n">
         <v>5</v>
@@ -5754,10 +5754,14 @@
       <c r="H90" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>KAUN00570SH022</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5771,7 +5775,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N90" t="n">
         <v>110</v>
@@ -5831,7 +5835,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N91" t="n">
         <v>5</v>
@@ -5891,7 +5895,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N92" t="n">
         <v>5</v>
@@ -5951,7 +5955,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N93" t="n">
         <v>5</v>
@@ -6011,7 +6015,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N94" t="n">
         <v>50</v>
@@ -6063,10 +6067,10 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N95" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96">
@@ -6123,7 +6127,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N96" t="n">
         <v>110</v>
@@ -6162,10 +6166,14 @@
       <c r="H97" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>KAUN00567SH022</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6179,7 +6187,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N97" t="n">
         <v>110</v>
@@ -6239,7 +6247,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N98" t="n">
         <v>110</v>
@@ -6299,7 +6307,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N99" t="n">
         <v>75</v>
@@ -6338,10 +6346,14 @@
       <c r="H100" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>KAUN00570SH022</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6355,7 +6367,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N100" t="n">
         <v>110</v>
@@ -6394,10 +6406,14 @@
       <c r="H101" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>KAUN00571SH022</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6411,7 +6427,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N101" t="n">
         <v>110</v>
@@ -6463,7 +6479,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N102" t="n">
         <v>110</v>
@@ -6523,10 +6539,10 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N103" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -6583,7 +6599,7 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N104" t="n">
         <v>105</v>
@@ -6643,7 +6659,7 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N105" t="n">
         <v>50</v>
@@ -6703,7 +6719,7 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N106" t="n">
         <v>10</v>
@@ -6763,7 +6779,7 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
@@ -6823,10 +6839,10 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N108" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -6883,10 +6899,10 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N109" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -6943,7 +6959,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N110" t="n">
         <v>20</v>
@@ -7003,7 +7019,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N111" t="n">
         <v>20</v>
@@ -7063,7 +7079,7 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N112" t="n">
         <v>25</v>
@@ -7123,7 +7139,7 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N113" t="n">
         <v>25</v>
@@ -7183,10 +7199,10 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N114" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
@@ -7243,10 +7259,10 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N115" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
@@ -7303,7 +7319,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N116" t="n">
         <v>55</v>
@@ -7363,7 +7379,7 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N117" t="n">
         <v>55</v>
@@ -7423,7 +7439,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N118" t="n">
         <v>55</v>
@@ -7483,10 +7499,10 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N119" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120">
@@ -7543,10 +7559,10 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N120" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121">
@@ -7603,10 +7619,10 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N121" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122">
@@ -7663,10 +7679,10 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N122" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123">
@@ -7723,10 +7739,10 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N123" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124">
@@ -7783,10 +7799,10 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N124" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125">
@@ -7843,10 +7859,10 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N125" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126">
@@ -7903,10 +7919,10 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N126" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127">
@@ -7963,10 +7979,10 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N127" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128">
@@ -8023,7 +8039,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N128" t="n">
         <v>75</v>
@@ -8083,7 +8099,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N129" t="n">
         <v>75</v>
@@ -8143,7 +8159,7 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N130" t="n">
         <v>75</v>
@@ -8203,7 +8219,7 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N131" t="n">
         <v>75</v>
@@ -8263,7 +8279,7 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N132" t="n">
         <v>75</v>
@@ -8323,7 +8339,7 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N133" t="n">
         <v>75</v>
@@ -8383,7 +8399,7 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N134" t="n">
         <v>75</v>
@@ -8443,10 +8459,10 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N135" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136">
@@ -8503,10 +8519,10 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N136" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137">
@@ -8563,10 +8579,10 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N137" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138">
@@ -8623,10 +8639,10 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N138" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139">
@@ -8683,10 +8699,10 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N139" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140">
@@ -8743,10 +8759,10 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N140" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141">
@@ -8803,10 +8819,10 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N141" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142">
@@ -8863,10 +8879,10 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N142" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143">
@@ -8923,7 +8939,7 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N143" t="n">
         <v>80</v>
@@ -8983,10 +8999,10 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N144" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145">
@@ -9043,10 +9059,10 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N145" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146">
@@ -9103,7 +9119,7 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N146" t="n">
         <v>80</v>
@@ -9163,7 +9179,7 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N147" t="n">
         <v>85</v>
@@ -9223,7 +9239,7 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N148" t="n">
         <v>85</v>
@@ -9283,7 +9299,7 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N149" t="n">
         <v>85</v>
@@ -9343,7 +9359,7 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N150" t="n">
         <v>85</v>
@@ -9403,7 +9419,7 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N151" t="n">
         <v>85</v>
@@ -9463,7 +9479,7 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N152" t="n">
         <v>90</v>
@@ -9523,7 +9539,7 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N153" t="n">
         <v>90</v>
@@ -9583,7 +9599,7 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N154" t="n">
         <v>90</v>
@@ -9643,7 +9659,7 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N155" t="n">
         <v>95</v>
@@ -9703,7 +9719,7 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N156" t="n">
         <v>95</v>
@@ -9763,7 +9779,7 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N157" t="n">
         <v>95</v>
@@ -9823,7 +9839,7 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N158" t="n">
         <v>95</v>
@@ -9883,7 +9899,7 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N159" t="n">
         <v>95</v>
@@ -9943,7 +9959,7 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N160" t="n">
         <v>95</v>
@@ -10003,7 +10019,7 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N161" t="n">
         <v>95</v>
@@ -10063,7 +10079,7 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N162" t="n">
         <v>95</v>
@@ -10123,7 +10139,7 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N163" t="n">
         <v>95</v>
@@ -10183,7 +10199,7 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N164" t="n">
         <v>95</v>
@@ -10243,7 +10259,7 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N165" t="n">
         <v>95</v>
@@ -10303,7 +10319,7 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N166" t="n">
         <v>95</v>
@@ -10363,7 +10379,7 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N167" t="n">
         <v>95</v>
@@ -10423,7 +10439,7 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N168" t="n">
         <v>100</v>
@@ -10483,7 +10499,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N169" t="n">
         <v>100</v>
@@ -10543,7 +10559,7 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N170" t="n">
         <v>100</v>
@@ -10603,7 +10619,7 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N171" t="n">
         <v>100</v>
@@ -10663,7 +10679,7 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N172" t="n">
         <v>100</v>
@@ -10723,7 +10739,7 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N173" t="n">
         <v>100</v>
@@ -10783,7 +10799,7 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N174" t="n">
         <v>100</v>
@@ -10843,7 +10859,7 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N175" t="n">
         <v>105</v>
@@ -10903,7 +10919,7 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N176" t="n">
         <v>105</v>
@@ -10963,7 +10979,7 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N177" t="n">
         <v>105</v>
@@ -11023,7 +11039,7 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N178" t="n">
         <v>105</v>
@@ -11062,10 +11078,14 @@
       <c r="H179" s="2" t="n">
         <v>44930</v>
       </c>
-      <c r="I179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>KRCN02297NB022</t>
+        </is>
+      </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -11079,7 +11099,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N179" t="n">
         <v>10</v>
@@ -11114,10 +11134,14 @@
       <c r="H180" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>KRCN03462SH022</t>
+        </is>
+      </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K180" t="inlineStr"/>
@@ -11127,7 +11151,7 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N180" t="n">
         <v>110</v>
@@ -11187,7 +11211,7 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N181" t="n">
         <v>110</v>
@@ -11247,7 +11271,7 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N182" t="n">
         <v>110</v>
@@ -11307,7 +11331,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N183" t="n">
         <v>110</v>
@@ -11367,7 +11391,7 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N184" t="n">
         <v>110</v>
@@ -11406,10 +11430,14 @@
       <c r="H185" s="2" t="n">
         <v>45026</v>
       </c>
-      <c r="I185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>KRCN03570SH022</t>
+        </is>
+      </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -11423,10 +11451,10 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N185" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="186">
@@ -11483,7 +11511,7 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N186" t="n">
         <v>110</v>
@@ -11543,7 +11571,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N187" t="n">
         <v>110</v>
@@ -11603,7 +11631,7 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N188" t="n">
         <v>110</v>
@@ -11663,7 +11691,7 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N189" t="n">
         <v>110</v>
@@ -11698,10 +11726,14 @@
       <c r="H190" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>KRCN03465SH022</t>
+        </is>
+      </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K190" t="inlineStr"/>
@@ -11711,7 +11743,7 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N190" t="n">
         <v>110</v>
@@ -11746,10 +11778,14 @@
       <c r="H191" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>KRCN03464SH022</t>
+        </is>
+      </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K191" t="inlineStr"/>
@@ -11759,7 +11795,7 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N191" t="n">
         <v>110</v>
@@ -11819,7 +11855,7 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N192" t="n">
         <v>110</v>
@@ -11879,7 +11915,7 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N193" t="n">
         <v>110</v>
@@ -11939,7 +11975,7 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N194" t="n">
         <v>110</v>
@@ -11991,7 +12027,7 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N195" t="n">
         <v>110</v>
@@ -12051,7 +12087,7 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N196" t="n">
         <v>110</v>
@@ -12111,7 +12147,7 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N197" t="n">
         <v>110</v>
@@ -12171,7 +12207,7 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N198" t="n">
         <v>110</v>
@@ -12231,7 +12267,7 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N199" t="n">
         <v>110</v>
@@ -12291,7 +12327,7 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N200" t="n">
         <v>110</v>
@@ -12351,7 +12387,7 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N201" t="n">
         <v>110</v>
@@ -12386,10 +12422,14 @@
       <c r="H202" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>KRCN03466SH022</t>
+        </is>
+      </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K202" t="inlineStr"/>
@@ -12399,7 +12439,7 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N202" t="n">
         <v>110</v>
@@ -12459,7 +12499,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N203" t="n">
         <v>110</v>
@@ -12519,7 +12559,7 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N204" t="n">
         <v>110</v>
@@ -12554,10 +12594,14 @@
       <c r="H205" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I205" t="inlineStr"/>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>KRCN03463SH022</t>
+        </is>
+      </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K205" t="inlineStr"/>
@@ -12567,7 +12611,7 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N205" t="n">
         <v>110</v>
@@ -12606,10 +12650,14 @@
       <c r="H206" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>KRCN03517SH022</t>
+        </is>
+      </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -12623,7 +12671,7 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N206" t="n">
         <v>110</v>
@@ -12662,10 +12710,14 @@
       <c r="H207" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>KRCN03490SH022</t>
+        </is>
+      </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -12679,7 +12731,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N207" t="n">
         <v>110</v>
@@ -12718,10 +12770,14 @@
       <c r="H208" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>KRCN03516SH022</t>
+        </is>
+      </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -12735,7 +12791,7 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N208" t="n">
         <v>110</v>
@@ -12774,10 +12830,14 @@
       <c r="H209" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>KRCN03520SH022</t>
+        </is>
+      </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -12791,7 +12851,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N209" t="n">
         <v>110</v>
@@ -12830,10 +12890,14 @@
       <c r="H210" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>KRCN03519SH022</t>
+        </is>
+      </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -12847,7 +12911,7 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N210" t="n">
         <v>110</v>
@@ -12886,10 +12950,14 @@
       <c r="H211" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>KRCN03514SH022</t>
+        </is>
+      </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -12903,7 +12971,7 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N211" t="n">
         <v>110</v>
@@ -12942,10 +13010,14 @@
       <c r="H212" s="2" t="n">
         <v>45030</v>
       </c>
-      <c r="I212" t="inlineStr"/>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>KRCN03515SH022</t>
+        </is>
+      </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -12959,7 +13031,7 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N212" t="n">
         <v>110</v>
@@ -12998,10 +13070,14 @@
       <c r="H213" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>KRCN03490SH022</t>
+        </is>
+      </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -13015,7 +13091,7 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N213" t="n">
         <v>110</v>
@@ -13054,10 +13130,14 @@
       <c r="H214" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>KRCN03521SH022</t>
+        </is>
+      </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -13071,7 +13151,7 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N214" t="n">
         <v>110</v>
@@ -13110,10 +13190,14 @@
       <c r="H215" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>KRCN03518SH022</t>
+        </is>
+      </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -13127,7 +13211,7 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N215" t="n">
         <v>110</v>
@@ -13187,10 +13271,10 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N216" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217">
@@ -13222,10 +13306,14 @@
       <c r="H217" s="2" t="n">
         <v>45036</v>
       </c>
-      <c r="I217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>KRCN03568SH022</t>
+        </is>
+      </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K217" t="inlineStr"/>
@@ -13235,10 +13323,10 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N217" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="218">
@@ -13270,10 +13358,14 @@
       <c r="H218" s="2" t="n">
         <v>45036</v>
       </c>
-      <c r="I218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>KRCN03564SH022</t>
+        </is>
+      </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K218" t="inlineStr"/>
@@ -13283,10 +13375,10 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N218" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="219">
@@ -13318,10 +13410,14 @@
       <c r="H219" s="2" t="n">
         <v>45036</v>
       </c>
-      <c r="I219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>KRCN03567SH022</t>
+        </is>
+      </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K219" t="inlineStr"/>
@@ -13331,10 +13427,10 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N219" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="220">
@@ -13366,10 +13462,14 @@
       <c r="H220" s="2" t="n">
         <v>45036</v>
       </c>
-      <c r="I220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>KRCN03569SH022</t>
+        </is>
+      </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K220" t="inlineStr"/>
@@ -13379,10 +13479,10 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N220" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="221">
@@ -13414,10 +13514,14 @@
       <c r="H221" s="2" t="n">
         <v>45036</v>
       </c>
-      <c r="I221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>KRCN03565SH022</t>
+        </is>
+      </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K221" t="inlineStr"/>
@@ -13427,10 +13531,10 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N221" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="222">
@@ -13462,10 +13566,14 @@
       <c r="H222" s="2" t="n">
         <v>45036</v>
       </c>
-      <c r="I222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>KRCN03566SH022</t>
+        </is>
+      </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K222" t="inlineStr"/>
@@ -13475,10 +13583,10 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N222" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="223">
@@ -13535,7 +13643,7 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N223" t="n">
         <v>75</v>
@@ -13595,10 +13703,10 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N224" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225">
@@ -13655,10 +13763,10 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N225" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
@@ -13715,7 +13823,7 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N226" t="n">
         <v>75</v>
@@ -13775,7 +13883,7 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N227" t="n">
         <v>75</v>
@@ -13835,7 +13943,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N228" t="n">
         <v>75</v>
@@ -13895,7 +14003,7 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N229" t="n">
         <v>75</v>
@@ -13955,7 +14063,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N230" t="n">
         <v>75</v>
@@ -14015,7 +14123,7 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N231" t="n">
         <v>75</v>
@@ -14075,7 +14183,7 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N232" t="n">
         <v>75</v>
@@ -14135,7 +14243,7 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N233" t="n">
         <v>75</v>
@@ -14195,7 +14303,7 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N234" t="n">
         <v>90</v>
@@ -14255,7 +14363,7 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N235" t="n">
         <v>90</v>
@@ -14315,7 +14423,7 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N236" t="n">
         <v>90</v>
@@ -14363,7 +14471,7 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N237" t="n">
         <v>55</v>
@@ -14423,7 +14531,7 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N238" t="n">
         <v>110</v>
@@ -14471,7 +14579,7 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N239" t="n">
         <v>20</v>
@@ -14531,7 +14639,7 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N240" t="n">
         <v>110</v>
@@ -14591,7 +14699,7 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N241" t="n">
         <v>25</v>
@@ -14651,7 +14759,7 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N242" t="n">
         <v>90</v>
@@ -14711,7 +14819,7 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N243" t="n">
         <v>90</v>
@@ -14771,7 +14879,7 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N244" t="n">
         <v>25</v>
@@ -14831,7 +14939,7 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N245" t="n">
         <v>90</v>
@@ -14891,7 +14999,7 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N246" t="n">
         <v>110</v>
@@ -14947,7 +15055,7 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N247" t="n">
         <v>110</v>
@@ -15007,7 +15115,7 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N248" t="n">
         <v>25</v>
@@ -15063,7 +15171,7 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N249" t="n">
         <v>110</v>
@@ -15119,7 +15227,7 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N250" t="n">
         <v>110</v>
@@ -15179,7 +15287,7 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N251" t="n">
         <v>75</v>
@@ -15239,7 +15347,7 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N252" t="n">
         <v>75</v>
@@ -15299,7 +15407,7 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N253" t="n">
         <v>85</v>
@@ -15359,7 +15467,7 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N254" t="n">
         <v>75</v>
@@ -15419,7 +15527,7 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N255" t="n">
         <v>85</v>
@@ -15479,7 +15587,7 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N256" t="n">
         <v>90</v>
@@ -15539,7 +15647,7 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N257" t="n">
         <v>90</v>
@@ -15599,7 +15707,7 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N258" t="n">
         <v>90</v>
@@ -15659,7 +15767,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N259" t="n">
         <v>25</v>
@@ -15707,7 +15815,7 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N260" t="n">
         <v>30</v>
@@ -15767,7 +15875,7 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N261" t="n">
         <v>25</v>
@@ -15827,7 +15935,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N262" t="n">
         <v>25</v>
@@ -15887,7 +15995,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N263" t="n">
         <v>110</v>
@@ -15947,7 +16055,7 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N264" t="n">
         <v>50</v>
@@ -16007,7 +16115,7 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N265" t="n">
         <v>5</v>
@@ -16067,7 +16175,7 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N266" t="n">
         <v>45</v>
@@ -16123,7 +16231,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N267" t="n">
         <v>5</v>
@@ -16179,7 +16287,7 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N268" t="n">
         <v>5</v>
@@ -16235,7 +16343,7 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N269" t="n">
         <v>5</v>
@@ -16291,7 +16399,7 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N270" t="n">
         <v>5</v>
@@ -16347,7 +16455,7 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N271" t="n">
         <v>5</v>
@@ -16403,7 +16511,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N272" t="n">
         <v>5</v>
@@ -16459,10 +16567,10 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N273" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -16515,10 +16623,10 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N274" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -16571,10 +16679,10 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N275" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -16627,10 +16735,10 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N276" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -16683,10 +16791,10 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N277" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -16739,10 +16847,10 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N278" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -16795,10 +16903,10 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N279" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -16851,7 +16959,7 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N280" t="n">
         <v>5</v>
@@ -16907,7 +17015,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N281" t="n">
         <v>5</v>
@@ -16963,7 +17071,7 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N282" t="n">
         <v>5</v>
@@ -17019,7 +17127,7 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N283" t="n">
         <v>5</v>
@@ -17075,7 +17183,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N284" t="n">
         <v>10</v>
@@ -17131,7 +17239,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N285" t="n">
         <v>10</v>
@@ -17187,7 +17295,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N286" t="n">
         <v>10</v>
@@ -17243,7 +17351,7 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N287" t="n">
         <v>10</v>
@@ -17299,7 +17407,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N288" t="n">
         <v>10</v>
@@ -17355,7 +17463,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N289" t="n">
         <v>5</v>
@@ -17411,7 +17519,7 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N290" t="n">
         <v>10</v>
@@ -17467,7 +17575,7 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N291" t="n">
         <v>5</v>
@@ -17523,7 +17631,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N292" t="n">
         <v>10</v>
@@ -17579,7 +17687,7 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N293" t="n">
         <v>10</v>
@@ -17635,7 +17743,7 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N294" t="n">
         <v>10</v>
@@ -17691,7 +17799,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N295" t="n">
         <v>10</v>
@@ -17747,7 +17855,7 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N296" t="n">
         <v>10</v>
@@ -17803,7 +17911,7 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N297" t="n">
         <v>15</v>
@@ -17859,7 +17967,7 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N298" t="n">
         <v>15</v>
@@ -17915,7 +18023,7 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N299" t="n">
         <v>15</v>
@@ -17971,7 +18079,7 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N300" t="n">
         <v>15</v>
@@ -18027,7 +18135,7 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N301" t="n">
         <v>15</v>
@@ -18083,7 +18191,7 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N302" t="n">
         <v>15</v>
@@ -18139,7 +18247,7 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N303" t="n">
         <v>15</v>
@@ -18195,7 +18303,7 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N304" t="n">
         <v>15</v>
@@ -18251,7 +18359,7 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N305" t="n">
         <v>5</v>
@@ -18311,10 +18419,10 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N306" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="307">
@@ -18371,10 +18479,10 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N307" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308">
@@ -18427,7 +18535,7 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N308" t="n">
         <v>15</v>
@@ -18483,7 +18591,7 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N309" t="n">
         <v>15</v>
@@ -18539,7 +18647,7 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N310" t="n">
         <v>15</v>
@@ -18595,7 +18703,7 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N311" t="n">
         <v>15</v>
@@ -18651,7 +18759,7 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N312" t="n">
         <v>15</v>
@@ -18707,7 +18815,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N313" t="n">
         <v>15</v>
@@ -18763,7 +18871,7 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N314" t="n">
         <v>15</v>
@@ -18819,7 +18927,7 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N315" t="n">
         <v>15</v>
@@ -18875,7 +18983,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N316" t="n">
         <v>15</v>
@@ -18931,7 +19039,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N317" t="n">
         <v>20</v>
@@ -18987,7 +19095,7 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N318" t="n">
         <v>20</v>
@@ -19043,7 +19151,7 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N319" t="n">
         <v>20</v>
@@ -19103,10 +19211,10 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N320" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321">
@@ -19163,10 +19271,10 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N321" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="322">
@@ -19223,10 +19331,10 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N322" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323">
@@ -19279,7 +19387,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N323" t="n">
         <v>20</v>
@@ -19335,7 +19443,7 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N324" t="n">
         <v>20</v>
@@ -19391,7 +19499,7 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N325" t="n">
         <v>20</v>
@@ -19447,7 +19555,7 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N326" t="n">
         <v>20</v>
@@ -19503,7 +19611,7 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N327" t="n">
         <v>20</v>
@@ -19559,7 +19667,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N328" t="n">
         <v>15</v>
@@ -19615,7 +19723,7 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N329" t="n">
         <v>20</v>
@@ -19671,7 +19779,7 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N330" t="n">
         <v>20</v>
@@ -19727,7 +19835,7 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N331" t="n">
         <v>20</v>
@@ -19783,7 +19891,7 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N332" t="n">
         <v>15</v>
@@ -19839,7 +19947,7 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N333" t="n">
         <v>20</v>
@@ -19895,7 +20003,7 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N334" t="n">
         <v>20</v>
@@ -19955,10 +20063,10 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N335" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336">
@@ -20015,10 +20123,10 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N336" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="337">
@@ -20075,10 +20183,10 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N337" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338">
@@ -20131,7 +20239,7 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N338" t="n">
         <v>25</v>
@@ -20187,7 +20295,7 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N339" t="n">
         <v>25</v>
@@ -20243,7 +20351,7 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N340" t="n">
         <v>20</v>
@@ -20299,7 +20407,7 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N341" t="n">
         <v>25</v>
@@ -20355,7 +20463,7 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N342" t="n">
         <v>25</v>
@@ -20411,7 +20519,7 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N343" t="n">
         <v>25</v>
@@ -20467,7 +20575,7 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N344" t="n">
         <v>25</v>
@@ -20523,7 +20631,7 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N345" t="n">
         <v>25</v>
@@ -20579,7 +20687,7 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N346" t="n">
         <v>25</v>
@@ -20635,7 +20743,7 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N347" t="n">
         <v>30</v>
@@ -20691,7 +20799,7 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N348" t="n">
         <v>30</v>
@@ -20747,7 +20855,7 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N349" t="n">
         <v>30</v>
@@ -20803,7 +20911,7 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N350" t="n">
         <v>30</v>
@@ -20859,7 +20967,7 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N351" t="n">
         <v>30</v>
@@ -20915,7 +21023,7 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N352" t="n">
         <v>30</v>
@@ -20971,7 +21079,7 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N353" t="n">
         <v>30</v>
@@ -21027,7 +21135,7 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N354" t="n">
         <v>30</v>
@@ -21083,7 +21191,7 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N355" t="n">
         <v>30</v>
@@ -21139,7 +21247,7 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N356" t="n">
         <v>20</v>
@@ -21195,7 +21303,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N357" t="n">
         <v>30</v>
@@ -21251,7 +21359,7 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N358" t="n">
         <v>30</v>
@@ -21307,7 +21415,7 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N359" t="n">
         <v>30</v>
@@ -21363,7 +21471,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N360" t="n">
         <v>30</v>
@@ -21419,7 +21527,7 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N361" t="n">
         <v>30</v>
@@ -21475,7 +21583,7 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N362" t="n">
         <v>20</v>
@@ -21535,10 +21643,10 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N363" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364">
@@ -21595,10 +21703,10 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N364" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365">
@@ -21655,10 +21763,10 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N365" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="366">
@@ -21715,10 +21823,10 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N366" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367">
@@ -21771,7 +21879,7 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N367" t="n">
         <v>25</v>
@@ -21827,7 +21935,7 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N368" t="n">
         <v>25</v>
@@ -21883,7 +21991,7 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N369" t="n">
         <v>25</v>
@@ -21939,7 +22047,7 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N370" t="n">
         <v>25</v>
@@ -21995,7 +22103,7 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N371" t="n">
         <v>25</v>
@@ -22051,7 +22159,7 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N372" t="n">
         <v>25</v>
@@ -22107,7 +22215,7 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N373" t="n">
         <v>25</v>
@@ -22163,7 +22271,7 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N374" t="n">
         <v>25</v>
@@ -22219,7 +22327,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N375" t="n">
         <v>25</v>
@@ -22275,7 +22383,7 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N376" t="n">
         <v>30</v>
@@ -22331,7 +22439,7 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N377" t="n">
         <v>30</v>
@@ -22387,7 +22495,7 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N378" t="n">
         <v>30</v>
@@ -22443,7 +22551,7 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N379" t="n">
         <v>30</v>
@@ -22499,7 +22607,7 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N380" t="n">
         <v>25</v>
@@ -22555,7 +22663,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N381" t="n">
         <v>30</v>
@@ -22611,7 +22719,7 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N382" t="n">
         <v>30</v>
@@ -22667,7 +22775,7 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N383" t="n">
         <v>30</v>
@@ -22723,7 +22831,7 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N384" t="n">
         <v>30</v>
@@ -22779,7 +22887,7 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N385" t="n">
         <v>30</v>
@@ -22835,7 +22943,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N386" t="n">
         <v>30</v>
@@ -22891,7 +22999,7 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N387" t="n">
         <v>30</v>
@@ -22947,7 +23055,7 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N388" t="n">
         <v>30</v>
@@ -23003,10 +23111,10 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N389" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="390">
@@ -23059,10 +23167,10 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N390" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="391">
@@ -23115,10 +23223,10 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N391" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="392">
@@ -23171,10 +23279,10 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N392" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="393">
@@ -23227,7 +23335,7 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N393" t="n">
         <v>35</v>
@@ -23283,7 +23391,7 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N394" t="n">
         <v>35</v>
@@ -23339,7 +23447,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N395" t="n">
         <v>35</v>
@@ -23395,7 +23503,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N396" t="n">
         <v>35</v>
@@ -23451,7 +23559,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N397" t="n">
         <v>35</v>
@@ -23507,7 +23615,7 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N398" t="n">
         <v>35</v>
@@ -23563,7 +23671,7 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N399" t="n">
         <v>35</v>
@@ -23619,7 +23727,7 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N400" t="n">
         <v>35</v>
@@ -23675,7 +23783,7 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N401" t="n">
         <v>35</v>
@@ -23735,7 +23843,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N402" t="n">
         <v>55</v>
@@ -23795,7 +23903,7 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N403" t="n">
         <v>55</v>
@@ -23851,7 +23959,7 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N404" t="n">
         <v>40</v>
@@ -23907,7 +24015,7 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N405" t="n">
         <v>40</v>
@@ -23963,7 +24071,7 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N406" t="n">
         <v>40</v>
@@ -24019,7 +24127,7 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N407" t="n">
         <v>40</v>
@@ -24075,7 +24183,7 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N408" t="n">
         <v>40</v>
@@ -24131,7 +24239,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N409" t="n">
         <v>40</v>
@@ -24187,7 +24295,7 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N410" t="n">
         <v>40</v>
@@ -24243,7 +24351,7 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N411" t="n">
         <v>40</v>
@@ -24299,7 +24407,7 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N412" t="n">
         <v>40</v>
@@ -24355,7 +24463,7 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N413" t="n">
         <v>35</v>
@@ -24415,7 +24523,7 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N414" t="n">
         <v>55</v>
@@ -24475,7 +24583,7 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N415" t="n">
         <v>55</v>
@@ -24535,7 +24643,7 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N416" t="n">
         <v>55</v>
@@ -24595,7 +24703,7 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N417" t="n">
         <v>55</v>
@@ -24655,7 +24763,7 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N418" t="n">
         <v>55</v>
@@ -24715,7 +24823,7 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N419" t="n">
         <v>55</v>
@@ -24771,7 +24879,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N420" t="n">
         <v>40</v>
@@ -24827,7 +24935,7 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N421" t="n">
         <v>40</v>
@@ -24883,7 +24991,7 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N422" t="n">
         <v>40</v>
@@ -24939,7 +25047,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N423" t="n">
         <v>40</v>
@@ -24995,7 +25103,7 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N424" t="n">
         <v>40</v>
@@ -25051,7 +25159,7 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N425" t="n">
         <v>40</v>
@@ -25107,7 +25215,7 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N426" t="n">
         <v>40</v>
@@ -25163,7 +25271,7 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N427" t="n">
         <v>40</v>
@@ -25219,7 +25327,7 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N428" t="n">
         <v>45</v>
@@ -25275,7 +25383,7 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N429" t="n">
         <v>45</v>
@@ -25331,7 +25439,7 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N430" t="n">
         <v>45</v>
@@ -25387,7 +25495,7 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N431" t="n">
         <v>45</v>
@@ -25443,7 +25551,7 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N432" t="n">
         <v>45</v>
@@ -25499,7 +25607,7 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N433" t="n">
         <v>45</v>
@@ -25555,7 +25663,7 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N434" t="n">
         <v>45</v>
@@ -25611,10 +25719,10 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N435" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="436">
@@ -25667,10 +25775,10 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N436" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="437">
@@ -25723,10 +25831,10 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N437" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="438">
@@ -25779,10 +25887,10 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N438" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="439">
@@ -25835,10 +25943,10 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N439" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="440">
@@ -25891,10 +25999,10 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N440" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="441">
@@ -25951,7 +26059,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N441" t="n">
         <v>55</v>
@@ -26011,7 +26119,7 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N442" t="n">
         <v>55</v>
@@ -26071,7 +26179,7 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N443" t="n">
         <v>55</v>
@@ -26131,7 +26239,7 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N444" t="n">
         <v>55</v>
@@ -26187,7 +26295,7 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N445" t="n">
         <v>50</v>
@@ -26243,7 +26351,7 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N446" t="n">
         <v>50</v>
@@ -26299,7 +26407,7 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N447" t="n">
         <v>50</v>
@@ -26355,7 +26463,7 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N448" t="n">
         <v>55</v>
@@ -26411,7 +26519,7 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N449" t="n">
         <v>55</v>
@@ -26467,7 +26575,7 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N450" t="n">
         <v>55</v>
@@ -26523,7 +26631,7 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N451" t="n">
         <v>55</v>
@@ -26583,7 +26691,7 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N452" t="n">
         <v>55</v>
@@ -26643,7 +26751,7 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N453" t="n">
         <v>55</v>
@@ -26703,7 +26811,7 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N454" t="n">
         <v>55</v>
@@ -26763,7 +26871,7 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N455" t="n">
         <v>55</v>
@@ -26823,7 +26931,7 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N456" t="n">
         <v>55</v>
@@ -26879,7 +26987,7 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N457" t="n">
         <v>60</v>
@@ -26935,7 +27043,7 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N458" t="n">
         <v>60</v>
@@ -26991,7 +27099,7 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N459" t="n">
         <v>60</v>
@@ -27051,7 +27159,7 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N460" t="n">
         <v>55</v>
@@ -27111,7 +27219,7 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N461" t="n">
         <v>55</v>
@@ -27171,7 +27279,7 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N462" t="n">
         <v>55</v>
@@ -27231,7 +27339,7 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N463" t="n">
         <v>55</v>
@@ -27291,7 +27399,7 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N464" t="n">
         <v>55</v>
@@ -27351,7 +27459,7 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N465" t="n">
         <v>55</v>
@@ -27411,7 +27519,7 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N466" t="n">
         <v>55</v>
@@ -27467,7 +27575,7 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N467" t="n">
         <v>60</v>
@@ -27523,7 +27631,7 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N468" t="n">
         <v>60</v>
@@ -27579,7 +27687,7 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N469" t="n">
         <v>60</v>
@@ -27635,7 +27743,7 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N470" t="n">
         <v>60</v>
@@ -27691,7 +27799,7 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N471" t="n">
         <v>60</v>
@@ -27747,7 +27855,7 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N472" t="n">
         <v>60</v>
@@ -27807,7 +27915,7 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N473" t="n">
         <v>55</v>
@@ -27863,7 +27971,7 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N474" t="n">
         <v>65</v>
@@ -27919,7 +28027,7 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N475" t="n">
         <v>65</v>
@@ -27975,7 +28083,7 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N476" t="n">
         <v>55</v>
@@ -28031,7 +28139,7 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N477" t="n">
         <v>55</v>
@@ -28087,7 +28195,7 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N478" t="n">
         <v>55</v>
@@ -28147,7 +28255,7 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N479" t="n">
         <v>80</v>
@@ -28207,7 +28315,7 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N480" t="n">
         <v>80</v>
@@ -28267,7 +28375,7 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N481" t="n">
         <v>80</v>
@@ -28327,7 +28435,7 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N482" t="n">
         <v>80</v>
@@ -28387,7 +28495,7 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N483" t="n">
         <v>80</v>
@@ -28443,7 +28551,7 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N484" t="n">
         <v>70</v>
@@ -28499,7 +28607,7 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N485" t="n">
         <v>70</v>
@@ -28555,7 +28663,7 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N486" t="n">
         <v>70</v>
@@ -28611,7 +28719,7 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N487" t="n">
         <v>80</v>
@@ -28667,7 +28775,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N488" t="n">
         <v>80</v>
@@ -28723,7 +28831,7 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N489" t="n">
         <v>80</v>
@@ -28779,7 +28887,7 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N490" t="n">
         <v>80</v>
@@ -28835,7 +28943,7 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N491" t="n">
         <v>80</v>
@@ -28874,10 +28982,14 @@
       <c r="H492" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="I492" t="inlineStr"/>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>KREN28507SH022</t>
+        </is>
+      </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K492" t="inlineStr"/>
@@ -28887,7 +28999,7 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N492" t="n">
         <v>80</v>
@@ -28926,10 +29038,14 @@
       <c r="H493" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="I493" t="inlineStr"/>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>KREN28507SH022</t>
+        </is>
+      </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K493" t="inlineStr"/>
@@ -28939,7 +29055,7 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N493" t="n">
         <v>80</v>
@@ -28974,10 +29090,14 @@
       <c r="H494" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I494" t="inlineStr"/>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>KREN28306SH022</t>
+        </is>
+      </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K494" t="inlineStr"/>
@@ -28987,7 +29107,7 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N494" t="n">
         <v>80</v>
@@ -29022,10 +29142,14 @@
       <c r="H495" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I495" t="inlineStr"/>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>KREN28306SH022</t>
+        </is>
+      </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K495" t="inlineStr"/>
@@ -29035,7 +29159,7 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N495" t="n">
         <v>80</v>
@@ -29070,10 +29194,14 @@
       <c r="H496" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I496" t="inlineStr"/>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>KREN28306SH022</t>
+        </is>
+      </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K496" t="inlineStr"/>
@@ -29083,7 +29211,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N496" t="n">
         <v>80</v>
@@ -29118,10 +29246,14 @@
       <c r="H497" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I497" t="inlineStr"/>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>KREN28307SH022</t>
+        </is>
+      </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K497" t="inlineStr"/>
@@ -29131,7 +29263,7 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N497" t="n">
         <v>80</v>
@@ -29166,10 +29298,14 @@
       <c r="H498" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I498" t="inlineStr"/>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>KREN28307SH022</t>
+        </is>
+      </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K498" t="inlineStr"/>
@@ -29179,7 +29315,7 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N498" t="n">
         <v>80</v>
@@ -29227,7 +29363,7 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N499" t="n">
         <v>90</v>
@@ -29275,7 +29411,7 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N500" t="n">
         <v>90</v>
@@ -29323,7 +29459,7 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N501" t="n">
         <v>90</v>
@@ -29371,7 +29507,7 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N502" t="n">
         <v>90</v>
@@ -29419,7 +29555,7 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N503" t="n">
         <v>90</v>
@@ -29467,7 +29603,7 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N504" t="n">
         <v>90</v>
@@ -29515,7 +29651,7 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N505" t="n">
         <v>90</v>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
         <v>5</v>
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N5" t="n">
         <v>25</v>
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N6" t="n">
         <v>25</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>80</v>
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1043,10 +1043,10 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>5</v>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
         <v>5</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>5</v>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
         <v>5</v>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
         <v>5</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N16" t="n">
         <v>95</v>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
         <v>5</v>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
         <v>5</v>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
         <v>5</v>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
         <v>5</v>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
         <v>5</v>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
         <v>5</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
         <v>5</v>
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
         <v>5</v>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
         <v>5</v>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
         <v>5</v>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
         <v>5</v>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
         <v>5</v>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
         <v>5</v>
@@ -2194,10 +2194,14 @@
       <c r="H30" s="2" t="n">
         <v>45018</v>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>KAUN00561SH022</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2207,10 +2211,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N30" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -2267,7 +2271,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
         <v>5</v>
@@ -2327,7 +2331,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
         <v>5</v>
@@ -2387,7 +2391,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
         <v>5</v>
@@ -2439,7 +2443,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
         <v>5</v>
@@ -2499,7 +2503,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
         <v>5</v>
@@ -2559,7 +2563,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N36" t="n">
         <v>80</v>
@@ -2619,7 +2623,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N37" t="n">
         <v>80</v>
@@ -2679,7 +2683,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N38" t="n">
         <v>80</v>
@@ -2739,7 +2743,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N39" t="n">
         <v>80</v>
@@ -2799,7 +2803,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N40" t="n">
         <v>80</v>
@@ -2859,10 +2863,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N41" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -2919,7 +2923,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
         <v>80</v>
@@ -2979,10 +2983,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N43" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -3039,7 +3043,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N44" t="n">
         <v>80</v>
@@ -3099,10 +3103,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N45" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
@@ -3159,10 +3163,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N46" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -3219,10 +3223,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N47" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -3279,10 +3283,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N48" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
@@ -3318,20 +3322,28 @@
       <c r="H49" s="2" t="n">
         <v>45026</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>KAUN00227NB022</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>KAUN00227NB022</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N49" t="n">
         <v>100</v>
@@ -3391,10 +3403,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N50" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -3451,10 +3463,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N51" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
@@ -3511,10 +3523,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N52" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
@@ -3571,10 +3583,10 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N53" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
@@ -3631,10 +3643,10 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N54" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
@@ -3691,10 +3703,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N55" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
@@ -3730,10 +3742,14 @@
       <c r="H56" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>KAUN00572SH022</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3743,10 +3759,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N56" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
@@ -3791,10 +3807,10 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N57" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
@@ -3851,7 +3867,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N58" t="n">
         <v>5</v>
@@ -3911,10 +3927,10 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N59" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
@@ -3971,7 +3987,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N60" t="n">
         <v>40</v>
@@ -4031,10 +4047,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N61" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -4079,10 +4095,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N62" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63">
@@ -4127,7 +4143,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N63" t="n">
         <v>110</v>
@@ -4187,7 +4203,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N64" t="n">
         <v>5</v>
@@ -4247,7 +4263,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N65" t="n">
         <v>5</v>
@@ -4307,10 +4323,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -4367,10 +4383,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N67" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -4427,7 +4443,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N68" t="n">
         <v>25</v>
@@ -4487,10 +4503,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N69" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
@@ -4547,10 +4563,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N70" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
@@ -4607,10 +4623,10 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N71" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
@@ -4667,7 +4683,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N72" t="n">
         <v>55</v>
@@ -4727,7 +4743,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N73" t="n">
         <v>65</v>
@@ -4787,7 +4803,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N74" t="n">
         <v>65</v>
@@ -4847,7 +4863,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N75" t="n">
         <v>65</v>
@@ -4907,7 +4923,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N76" t="n">
         <v>65</v>
@@ -4967,10 +4983,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N77" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78">
@@ -5027,10 +5043,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N78" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79">
@@ -5087,10 +5103,10 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N79" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80">
@@ -5147,7 +5163,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N80" t="n">
         <v>70</v>
@@ -5207,10 +5223,10 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N81" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82">
@@ -5267,7 +5283,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N82" t="n">
         <v>70</v>
@@ -5327,10 +5343,10 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N83" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84">
@@ -5387,7 +5403,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N84" t="n">
         <v>70</v>
@@ -5447,7 +5463,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N85" t="n">
         <v>70</v>
@@ -5507,7 +5523,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N86" t="n">
         <v>70</v>
@@ -5567,7 +5583,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N87" t="n">
         <v>70</v>
@@ -5627,7 +5643,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N88" t="n">
         <v>70</v>
@@ -5687,7 +5703,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N89" t="n">
         <v>70</v>
@@ -5747,7 +5763,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N90" t="n">
         <v>70</v>
@@ -5807,7 +5823,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N91" t="n">
         <v>70</v>
@@ -5867,10 +5883,10 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N92" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93">
@@ -5927,7 +5943,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N93" t="n">
         <v>70</v>
@@ -5987,7 +6003,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N94" t="n">
         <v>70</v>
@@ -6047,10 +6063,10 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N95" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96">
@@ -6107,10 +6123,10 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N96" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97">
@@ -6167,10 +6183,10 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N97" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98">
@@ -6227,10 +6243,10 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N98" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99">
@@ -6287,10 +6303,10 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N99" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
@@ -6347,10 +6363,10 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N100" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101">
@@ -6407,7 +6423,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N101" t="n">
         <v>80</v>
@@ -6467,7 +6483,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N102" t="n">
         <v>80</v>
@@ -6527,10 +6543,10 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N103" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104">
@@ -6587,10 +6603,10 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N104" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105">
@@ -6647,10 +6663,10 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N105" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106">
@@ -6707,10 +6723,10 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N106" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107">
@@ -6767,10 +6783,10 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N107" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108">
@@ -6827,10 +6843,10 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N108" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109">
@@ -6887,10 +6903,10 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N109" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110">
@@ -6947,10 +6963,10 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N110" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111">
@@ -7007,10 +7023,10 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N111" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112">
@@ -7067,10 +7083,10 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N112" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113">
@@ -7127,10 +7143,10 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N113" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114">
@@ -7187,10 +7203,10 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N114" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115">
@@ -7247,10 +7263,10 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N115" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116">
@@ -7307,10 +7323,10 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N116" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117">
@@ -7367,7 +7383,7 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N117" t="n">
         <v>90</v>
@@ -7427,7 +7443,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N118" t="n">
         <v>90</v>
@@ -7487,7 +7503,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N119" t="n">
         <v>90</v>
@@ -7547,7 +7563,7 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N120" t="n">
         <v>90</v>
@@ -7607,7 +7623,7 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N121" t="n">
         <v>90</v>
@@ -7667,7 +7683,7 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N122" t="n">
         <v>90</v>
@@ -7727,7 +7743,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N123" t="n">
         <v>90</v>
@@ -7787,10 +7803,10 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N124" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125">
@@ -7847,10 +7863,10 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N125" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126">
@@ -7907,10 +7923,10 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N126" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127">
@@ -7967,10 +7983,10 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N127" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128">
@@ -8019,10 +8035,10 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N128" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129">
@@ -8079,7 +8095,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N129" t="n">
         <v>100</v>
@@ -8139,7 +8155,7 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N130" t="n">
         <v>100</v>
@@ -8199,7 +8215,7 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N131" t="n">
         <v>100</v>
@@ -8259,10 +8275,10 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N132" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133">
@@ -8319,7 +8335,7 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N133" t="n">
         <v>100</v>
@@ -8379,7 +8395,7 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N134" t="n">
         <v>100</v>
@@ -8439,7 +8455,7 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N135" t="n">
         <v>100</v>
@@ -8499,7 +8515,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N136" t="n">
         <v>100</v>
@@ -8559,7 +8575,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
         <v>100</v>
@@ -8611,10 +8627,10 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N138" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139">
@@ -8663,10 +8679,10 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N139" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140">
@@ -8723,7 +8739,7 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N140" t="n">
         <v>100</v>
@@ -8783,7 +8799,7 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N141" t="n">
         <v>100</v>
@@ -8843,7 +8859,7 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N142" t="n">
         <v>100</v>
@@ -8882,10 +8898,14 @@
       <c r="H143" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>KRCN03459SH022</t>
+        </is>
+      </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K143" t="inlineStr"/>
@@ -8895,10 +8915,10 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N143" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144">
@@ -8955,7 +8975,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N144" t="n">
         <v>100</v>
@@ -9015,7 +9035,7 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N145" t="n">
         <v>100</v>
@@ -9075,10 +9095,10 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N146" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147">
@@ -9135,7 +9155,7 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N147" t="n">
         <v>100</v>
@@ -9195,10 +9215,10 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N148" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149">
@@ -9255,10 +9275,10 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N149" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150">
@@ -9307,10 +9327,10 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N150" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151">
@@ -9367,7 +9387,7 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N151" t="n">
         <v>100</v>
@@ -9427,10 +9447,10 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N152" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153">
@@ -9479,10 +9499,10 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N153" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154">
@@ -9539,10 +9559,10 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N154" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155">
@@ -9599,10 +9619,10 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N155" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156">
@@ -9659,10 +9679,10 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N156" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157">
@@ -9719,10 +9739,10 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N157" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158">
@@ -9779,10 +9799,10 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N158" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159">
@@ -9839,10 +9859,10 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N159" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160">
@@ -9899,7 +9919,7 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N160" t="n">
         <v>105</v>
@@ -9959,10 +9979,10 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N161" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162">
@@ -10019,10 +10039,10 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N162" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163">
@@ -10079,10 +10099,10 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N163" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164">
@@ -10139,7 +10159,7 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N164" t="n">
         <v>65</v>
@@ -10191,7 +10211,7 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N165" t="n">
         <v>110</v>
@@ -10243,7 +10263,7 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N166" t="n">
         <v>110</v>
@@ -10295,7 +10315,7 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N167" t="n">
         <v>110</v>
@@ -10347,7 +10367,7 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N168" t="n">
         <v>110</v>
@@ -10399,7 +10419,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N169" t="n">
         <v>110</v>
@@ -10451,7 +10471,7 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N170" t="n">
         <v>110</v>
@@ -10499,10 +10519,10 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N171" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="172">
@@ -10547,10 +10567,10 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N172" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="173">
@@ -10595,10 +10615,10 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N173" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="174">
@@ -10643,10 +10663,10 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N174" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175">
@@ -10691,10 +10711,10 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N175" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176">
@@ -10739,10 +10759,10 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N176" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="177">
@@ -10787,10 +10807,10 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N177" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="178">
@@ -10835,10 +10855,10 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N178" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="179">
@@ -10883,10 +10903,10 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N179" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="180">
@@ -10931,10 +10951,10 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N180" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="181">
@@ -10979,10 +10999,10 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N181" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="182">
@@ -11027,10 +11047,10 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N182" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="183">
@@ -11075,10 +11095,10 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N183" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="184">
@@ -11123,10 +11143,10 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N184" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="185">
@@ -11158,10 +11178,14 @@
       <c r="H185" s="2" t="n">
         <v>45038</v>
       </c>
-      <c r="I185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>KRCN03525SH022</t>
+        </is>
+      </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K185" t="inlineStr"/>
@@ -11171,10 +11195,10 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N185" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="186">
@@ -11206,10 +11230,14 @@
       <c r="H186" s="2" t="n">
         <v>45038</v>
       </c>
-      <c r="I186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>KRCN03526SH022</t>
+        </is>
+      </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K186" t="inlineStr"/>
@@ -11219,10 +11247,10 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N186" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="187">
@@ -11279,7 +11307,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N187" t="n">
         <v>50</v>
@@ -11339,7 +11367,7 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N188" t="n">
         <v>50</v>
@@ -11399,7 +11427,7 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N189" t="n">
         <v>50</v>
@@ -11459,7 +11487,7 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N190" t="n">
         <v>25</v>
@@ -11519,10 +11547,10 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N191" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192">
@@ -11579,10 +11607,10 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N192" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
@@ -11639,7 +11667,7 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N193" t="n">
         <v>5</v>
@@ -11687,10 +11715,10 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N194" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="195">
@@ -11722,10 +11750,14 @@
       <c r="H195" s="2" t="n">
         <v>45044</v>
       </c>
-      <c r="I195" t="inlineStr"/>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>KRCN03914SH022</t>
+        </is>
+      </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K195" t="inlineStr"/>
@@ -11735,10 +11767,10 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N195" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="196">
@@ -11783,10 +11815,10 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N196" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="197">
@@ -11818,10 +11850,14 @@
       <c r="H197" s="2" t="n">
         <v>45044</v>
       </c>
-      <c r="I197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>KRCN03910SH022</t>
+        </is>
+      </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K197" t="inlineStr"/>
@@ -11831,10 +11867,10 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N197" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="198">
@@ -11891,7 +11927,7 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N198" t="n">
         <v>50</v>
@@ -11951,7 +11987,7 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N199" t="n">
         <v>65</v>
@@ -12011,7 +12047,7 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N200" t="n">
         <v>5</v>
@@ -12071,7 +12107,7 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N201" t="n">
         <v>5</v>
@@ -12131,7 +12167,7 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N202" t="n">
         <v>65</v>
@@ -12191,7 +12227,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N203" t="n">
         <v>65</v>
@@ -12251,7 +12287,7 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N204" t="n">
         <v>65</v>
@@ -12311,7 +12347,7 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N205" t="n">
         <v>65</v>
@@ -12371,7 +12407,7 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N206" t="n">
         <v>65</v>
@@ -12431,7 +12467,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N207" t="n">
         <v>65</v>
@@ -12491,7 +12527,7 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N208" t="n">
         <v>80</v>
@@ -12551,7 +12587,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N209" t="n">
         <v>80</v>
@@ -12611,7 +12647,7 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N210" t="n">
         <v>80</v>
@@ -12659,10 +12695,10 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N211" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212">
@@ -12719,10 +12755,10 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N212" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213">
@@ -12767,7 +12803,7 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N213" t="n">
         <v>10</v>
@@ -12827,10 +12863,10 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N214" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215">
@@ -12887,10 +12923,10 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N215" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216">
@@ -12947,10 +12983,10 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N216" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217">
@@ -13007,10 +13043,10 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N217" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218">
@@ -13067,10 +13103,10 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N218" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219">
@@ -13127,10 +13163,10 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N219" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="220">
@@ -13187,10 +13223,10 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N220" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="221">
@@ -13226,10 +13262,14 @@
       <c r="H221" s="2" t="n">
         <v>45030</v>
       </c>
-      <c r="I221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>KRMN00146SH022</t>
+        </is>
+      </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -13243,7 +13283,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N221" t="n">
         <v>105</v>
@@ -13303,10 +13343,10 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N222" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223">
@@ -13342,10 +13382,14 @@
       <c r="H223" s="2" t="n">
         <v>45030</v>
       </c>
-      <c r="I223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>KRMN00146SH022</t>
+        </is>
+      </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -13359,7 +13403,7 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N223" t="n">
         <v>105</v>
@@ -13398,10 +13442,14 @@
       <c r="H224" s="2" t="n">
         <v>45030</v>
       </c>
-      <c r="I224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>KRMN00146SH022</t>
+        </is>
+      </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -13415,7 +13463,7 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N224" t="n">
         <v>105</v>
@@ -13475,7 +13523,7 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N225" t="n">
         <v>70</v>
@@ -13535,7 +13583,7 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N226" t="n">
         <v>70</v>
@@ -13595,7 +13643,7 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N227" t="n">
         <v>75</v>
@@ -13655,7 +13703,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N228" t="n">
         <v>70</v>
@@ -13715,7 +13763,7 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N229" t="n">
         <v>75</v>
@@ -13775,10 +13823,10 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N230" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231">
@@ -13835,10 +13883,10 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N231" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232">
@@ -13895,10 +13943,10 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N232" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="233">
@@ -13955,10 +14003,10 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N233" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234">
@@ -14003,7 +14051,7 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N234" t="n">
         <v>20</v>
@@ -14063,10 +14111,10 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N235" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236">
@@ -14123,10 +14171,10 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N236" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237">
@@ -14183,7 +14231,7 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N237" t="n">
         <v>65</v>
@@ -14243,7 +14291,7 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N238" t="n">
         <v>65</v>
@@ -14303,7 +14351,7 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N239" t="n">
         <v>100</v>
@@ -14363,10 +14411,10 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N240" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="241">
@@ -14423,10 +14471,10 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N241" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="242">
@@ -14479,10 +14527,10 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N242" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -14535,10 +14583,10 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N243" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -14591,10 +14639,10 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N244" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -14647,10 +14695,10 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N245" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -14703,10 +14751,10 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N246" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -14759,10 +14807,10 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N247" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -14815,7 +14863,7 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N248" t="n">
         <v>5</v>
@@ -14871,7 +14919,7 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N249" t="n">
         <v>5</v>
@@ -14927,7 +14975,7 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N250" t="n">
         <v>5</v>
@@ -14983,7 +15031,7 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N251" t="n">
         <v>5</v>
@@ -15039,7 +15087,7 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N252" t="n">
         <v>5</v>
@@ -15095,7 +15143,7 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N253" t="n">
         <v>10</v>
@@ -15151,7 +15199,7 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N254" t="n">
         <v>10</v>
@@ -15207,7 +15255,7 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N255" t="n">
         <v>10</v>
@@ -15263,7 +15311,7 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N256" t="n">
         <v>10</v>
@@ -15319,7 +15367,7 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N257" t="n">
         <v>10</v>
@@ -15375,7 +15423,7 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N258" t="n">
         <v>10</v>
@@ -15431,7 +15479,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N259" t="n">
         <v>10</v>
@@ -15487,7 +15535,7 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N260" t="n">
         <v>10</v>
@@ -15547,7 +15595,7 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N261" t="n">
         <v>15</v>
@@ -15607,7 +15655,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N262" t="n">
         <v>15</v>
@@ -15663,7 +15711,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N263" t="n">
         <v>5</v>
@@ -15719,7 +15767,7 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N264" t="n">
         <v>5</v>
@@ -15775,7 +15823,7 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N265" t="n">
         <v>5</v>
@@ -15831,7 +15879,7 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N266" t="n">
         <v>5</v>
@@ -15887,7 +15935,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N267" t="n">
         <v>5</v>
@@ -15943,7 +15991,7 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N268" t="n">
         <v>10</v>
@@ -15999,7 +16047,7 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N269" t="n">
         <v>10</v>
@@ -16055,7 +16103,7 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N270" t="n">
         <v>10</v>
@@ -16111,7 +16159,7 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N271" t="n">
         <v>10</v>
@@ -16167,7 +16215,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N272" t="n">
         <v>10</v>
@@ -16223,7 +16271,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N273" t="n">
         <v>10</v>
@@ -16279,7 +16327,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N274" t="n">
         <v>10</v>
@@ -16339,7 +16387,7 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N275" t="n">
         <v>15</v>
@@ -16399,7 +16447,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N276" t="n">
         <v>15</v>
@@ -16459,7 +16507,7 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N277" t="n">
         <v>15</v>
@@ -16515,10 +16563,10 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N278" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
@@ -16571,10 +16619,10 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N279" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280">
@@ -16627,7 +16675,7 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N280" t="n">
         <v>15</v>
@@ -16683,10 +16731,10 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N281" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -16739,10 +16787,10 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N282" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283">
@@ -16795,10 +16843,10 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N283" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284">
@@ -16851,7 +16899,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N284" t="n">
         <v>15</v>
@@ -16907,7 +16955,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N285" t="n">
         <v>15</v>
@@ -16963,7 +17011,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N286" t="n">
         <v>15</v>
@@ -17019,10 +17067,10 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N287" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288">
@@ -17075,10 +17123,10 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N288" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289">
@@ -17131,10 +17179,10 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N289" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290">
@@ -17191,7 +17239,7 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N290" t="n">
         <v>15</v>
@@ -17251,7 +17299,7 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N291" t="n">
         <v>15</v>
@@ -17311,7 +17359,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N292" t="n">
         <v>15</v>
@@ -17367,10 +17415,10 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N293" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294">
@@ -17423,10 +17471,10 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N294" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295">
@@ -17479,7 +17527,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N295" t="n">
         <v>10</v>
@@ -17535,7 +17583,7 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N296" t="n">
         <v>15</v>
@@ -17591,7 +17639,7 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N297" t="n">
         <v>15</v>
@@ -17647,10 +17695,10 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N298" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299">
@@ -17703,10 +17751,10 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N299" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300">
@@ -17759,10 +17807,10 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N300" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301">
@@ -17815,10 +17863,10 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N301" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302">
@@ -17871,7 +17919,7 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N302" t="n">
         <v>20</v>
@@ -17927,7 +17975,7 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N303" t="n">
         <v>20</v>
@@ -17983,7 +18031,7 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N304" t="n">
         <v>20</v>
@@ -18039,7 +18087,7 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N305" t="n">
         <v>20</v>
@@ -18095,7 +18143,7 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N306" t="n">
         <v>20</v>
@@ -18151,7 +18199,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N307" t="n">
         <v>20</v>
@@ -18207,7 +18255,7 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N308" t="n">
         <v>20</v>
@@ -18263,7 +18311,7 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N309" t="n">
         <v>20</v>
@@ -18319,7 +18367,7 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N310" t="n">
         <v>20</v>
@@ -18375,7 +18423,7 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N311" t="n">
         <v>15</v>
@@ -18431,7 +18479,7 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N312" t="n">
         <v>20</v>
@@ -18487,7 +18535,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N313" t="n">
         <v>20</v>
@@ -18543,7 +18591,7 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N314" t="n">
         <v>20</v>
@@ -18599,7 +18647,7 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N315" t="n">
         <v>20</v>
@@ -18655,7 +18703,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N316" t="n">
         <v>20</v>
@@ -18711,7 +18759,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N317" t="n">
         <v>15</v>
@@ -18771,7 +18819,7 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N318" t="n">
         <v>15</v>
@@ -18831,7 +18879,7 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N319" t="n">
         <v>15</v>
@@ -18891,7 +18939,7 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N320" t="n">
         <v>15</v>
@@ -18951,7 +18999,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N321" t="n">
         <v>15</v>
@@ -19007,7 +19055,7 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N322" t="n">
         <v>20</v>
@@ -19063,7 +19111,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N323" t="n">
         <v>20</v>
@@ -19119,7 +19167,7 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N324" t="n">
         <v>20</v>
@@ -19175,7 +19223,7 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N325" t="n">
         <v>20</v>
@@ -19231,7 +19279,7 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N326" t="n">
         <v>20</v>
@@ -19287,7 +19335,7 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N327" t="n">
         <v>15</v>
@@ -19343,7 +19391,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N328" t="n">
         <v>15</v>
@@ -19399,7 +19447,7 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N329" t="n">
         <v>15</v>
@@ -19455,7 +19503,7 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N330" t="n">
         <v>15</v>
@@ -19511,7 +19559,7 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N331" t="n">
         <v>25</v>
@@ -19567,7 +19615,7 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N332" t="n">
         <v>25</v>
@@ -19623,7 +19671,7 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N333" t="n">
         <v>25</v>
@@ -19679,7 +19727,7 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N334" t="n">
         <v>25</v>
@@ -19735,7 +19783,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N335" t="n">
         <v>20</v>
@@ -19791,7 +19839,7 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N336" t="n">
         <v>25</v>
@@ -19847,7 +19895,7 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N337" t="n">
         <v>25</v>
@@ -19903,7 +19951,7 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N338" t="n">
         <v>25</v>
@@ -19959,7 +20007,7 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N339" t="n">
         <v>25</v>
@@ -20015,10 +20063,10 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N340" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="341">
@@ -20071,10 +20119,10 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N341" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342">
@@ -20127,10 +20175,10 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N342" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="343">
@@ -20183,10 +20231,10 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N343" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="344">
@@ -20239,7 +20287,7 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N344" t="n">
         <v>25</v>
@@ -20295,7 +20343,7 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N345" t="n">
         <v>25</v>
@@ -20351,7 +20399,7 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N346" t="n">
         <v>25</v>
@@ -20407,7 +20455,7 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N347" t="n">
         <v>25</v>
@@ -20463,7 +20511,7 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N348" t="n">
         <v>25</v>
@@ -20519,7 +20567,7 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N349" t="n">
         <v>25</v>
@@ -20575,7 +20623,7 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N350" t="n">
         <v>25</v>
@@ -20631,7 +20679,7 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N351" t="n">
         <v>25</v>
@@ -20687,7 +20735,7 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N352" t="n">
         <v>25</v>
@@ -20743,7 +20791,7 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N353" t="n">
         <v>30</v>
@@ -20799,7 +20847,7 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N354" t="n">
         <v>30</v>
@@ -20855,7 +20903,7 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N355" t="n">
         <v>30</v>
@@ -20911,7 +20959,7 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N356" t="n">
         <v>30</v>
@@ -20971,7 +21019,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N357" t="n">
         <v>45</v>
@@ -21031,7 +21079,7 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N358" t="n">
         <v>45</v>
@@ -21087,10 +21135,10 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N359" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="360">
@@ -21143,10 +21191,10 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N360" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="361">
@@ -21199,10 +21247,10 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N361" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="362">
@@ -21255,10 +21303,10 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N362" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="363">
@@ -21311,10 +21359,10 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N363" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364">
@@ -21367,10 +21415,10 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N364" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="365">
@@ -21423,10 +21471,10 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N365" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="366">
@@ -21479,10 +21527,10 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N366" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="367">
@@ -21535,10 +21583,10 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N367" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="368">
@@ -21591,7 +21639,7 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N368" t="n">
         <v>25</v>
@@ -21651,7 +21699,7 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N369" t="n">
         <v>45</v>
@@ -21711,7 +21759,7 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N370" t="n">
         <v>45</v>
@@ -21771,7 +21819,7 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N371" t="n">
         <v>45</v>
@@ -21831,7 +21879,7 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N372" t="n">
         <v>45</v>
@@ -21891,7 +21939,7 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N373" t="n">
         <v>45</v>
@@ -21951,7 +21999,7 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N374" t="n">
         <v>45</v>
@@ -22007,10 +22055,10 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N375" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="376">
@@ -22063,10 +22111,10 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N376" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="377">
@@ -22119,10 +22167,10 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N377" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="378">
@@ -22175,10 +22223,10 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N378" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="379">
@@ -22231,10 +22279,10 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N379" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="380">
@@ -22287,10 +22335,10 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N380" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="381">
@@ -22343,10 +22391,10 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N381" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="382">
@@ -22399,10 +22447,10 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N382" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="383">
@@ -22455,7 +22503,7 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N383" t="n">
         <v>40</v>
@@ -22511,7 +22559,7 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N384" t="n">
         <v>40</v>
@@ -22567,7 +22615,7 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N385" t="n">
         <v>40</v>
@@ -22623,7 +22671,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N386" t="n">
         <v>40</v>
@@ -22679,7 +22727,7 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N387" t="n">
         <v>40</v>
@@ -22735,7 +22783,7 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N388" t="n">
         <v>40</v>
@@ -22791,7 +22839,7 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N389" t="n">
         <v>40</v>
@@ -22847,7 +22895,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N390" t="n">
         <v>40</v>
@@ -22903,7 +22951,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N391" t="n">
         <v>40</v>
@@ -22959,7 +23007,7 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N392" t="n">
         <v>40</v>
@@ -23015,7 +23063,7 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N393" t="n">
         <v>45</v>
@@ -23071,7 +23119,7 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N394" t="n">
         <v>45</v>
@@ -23127,7 +23175,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N395" t="n">
         <v>45</v>
@@ -23187,7 +23235,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N396" t="n">
         <v>45</v>
@@ -23247,7 +23295,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N397" t="n">
         <v>45</v>
@@ -23307,7 +23355,7 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N398" t="n">
         <v>45</v>
@@ -23367,7 +23415,7 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N399" t="n">
         <v>45</v>
@@ -23423,10 +23471,10 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N400" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="401">
@@ -23479,10 +23527,10 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N401" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="402">
@@ -23535,10 +23583,10 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N402" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="403">
@@ -23591,7 +23639,7 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N403" t="n">
         <v>45</v>
@@ -23647,7 +23695,7 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N404" t="n">
         <v>45</v>
@@ -23703,7 +23751,7 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N405" t="n">
         <v>45</v>
@@ -23759,7 +23807,7 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N406" t="n">
         <v>45</v>
@@ -23819,7 +23867,7 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N407" t="n">
         <v>45</v>
@@ -23879,7 +23927,7 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N408" t="n">
         <v>45</v>
@@ -23939,7 +23987,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N409" t="n">
         <v>45</v>
@@ -23999,7 +24047,7 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N410" t="n">
         <v>45</v>
@@ -24059,7 +24107,7 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N411" t="n">
         <v>45</v>
@@ -24115,10 +24163,10 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N412" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="413">
@@ -24171,10 +24219,10 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N413" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="414">
@@ -24227,10 +24275,10 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N414" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="415">
@@ -24287,7 +24335,7 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N415" t="n">
         <v>45</v>
@@ -24347,7 +24395,7 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N416" t="n">
         <v>45</v>
@@ -24407,7 +24455,7 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N417" t="n">
         <v>45</v>
@@ -24467,7 +24515,7 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N418" t="n">
         <v>45</v>
@@ -24527,7 +24575,7 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N419" t="n">
         <v>45</v>
@@ -24587,7 +24635,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N420" t="n">
         <v>45</v>
@@ -24647,7 +24695,7 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N421" t="n">
         <v>45</v>
@@ -24703,7 +24751,7 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N422" t="n">
         <v>55</v>
@@ -24759,7 +24807,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N423" t="n">
         <v>55</v>
@@ -24815,7 +24863,7 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N424" t="n">
         <v>55</v>
@@ -24871,10 +24919,10 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N425" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="426">
@@ -24927,10 +24975,10 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N426" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="427">
@@ -24983,10 +25031,10 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N427" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="428">
@@ -25043,7 +25091,7 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N428" t="n">
         <v>45</v>
@@ -25099,10 +25147,10 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N429" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="430">
@@ -25155,10 +25203,10 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N430" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="431">
@@ -25211,7 +25259,7 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N431" t="n">
         <v>45</v>
@@ -25267,7 +25315,7 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N432" t="n">
         <v>45</v>
@@ -25323,7 +25371,7 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N433" t="n">
         <v>45</v>
@@ -25383,7 +25431,7 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N434" t="n">
         <v>75</v>
@@ -25443,7 +25491,7 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N435" t="n">
         <v>75</v>
@@ -25503,7 +25551,7 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N436" t="n">
         <v>75</v>
@@ -25563,7 +25611,7 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N437" t="n">
         <v>75</v>
@@ -25623,7 +25671,7 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N438" t="n">
         <v>75</v>
@@ -25679,7 +25727,7 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N439" t="n">
         <v>60</v>
@@ -25735,7 +25783,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N440" t="n">
         <v>60</v>
@@ -25791,7 +25839,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N441" t="n">
         <v>60</v>
@@ -25830,10 +25878,14 @@
       <c r="H442" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I442" t="inlineStr"/>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>KRJN04631SH022</t>
+        </is>
+      </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -25847,7 +25899,7 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N442" t="n">
         <v>75</v>
@@ -25886,10 +25938,14 @@
       <c r="H443" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I443" t="inlineStr"/>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>KRJN04631SH022</t>
+        </is>
+      </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -25903,7 +25959,7 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N443" t="n">
         <v>75</v>
@@ -25942,10 +25998,14 @@
       <c r="H444" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="I444" t="inlineStr"/>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>KRJN04631SH022</t>
+        </is>
+      </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -25959,7 +26019,7 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N444" t="n">
         <v>75</v>
@@ -26015,7 +26075,7 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N445" t="n">
         <v>70</v>
@@ -26071,7 +26131,7 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N446" t="n">
         <v>70</v>
@@ -26127,10 +26187,10 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N447" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="448">
@@ -26183,10 +26243,10 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N448" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="449">
@@ -26235,7 +26295,7 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N449" t="n">
         <v>75</v>
@@ -26287,7 +26347,7 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N450" t="n">
         <v>75</v>
@@ -26339,7 +26399,7 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N451" t="n">
         <v>75</v>
@@ -26391,7 +26451,7 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N452" t="n">
         <v>75</v>
@@ -26443,7 +26503,7 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N453" t="n">
         <v>75</v>
@@ -26491,7 +26551,7 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N454" t="n">
         <v>80</v>
@@ -26539,7 +26599,7 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N455" t="n">
         <v>80</v>
@@ -26587,7 +26647,7 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N456" t="n">
         <v>80</v>
@@ -26635,7 +26695,7 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N457" t="n">
         <v>80</v>
@@ -26683,7 +26743,7 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N458" t="n">
         <v>80</v>
@@ -26731,7 +26791,7 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N459" t="n">
         <v>80</v>
@@ -26779,7 +26839,7 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N460" t="n">
         <v>80</v>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
         <v>10</v>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N3" t="n">
         <v>10</v>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4" t="n">
         <v>20</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" t="n">
         <v>20</v>
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N6" t="n">
         <v>75</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
         <v>10</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
         <v>10</v>
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N10" t="n">
         <v>85</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N11" t="n">
         <v>75</v>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N12" t="n">
         <v>75</v>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N13" t="n">
         <v>75</v>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N14" t="n">
         <v>75</v>
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N15" t="n">
         <v>75</v>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N16" t="n">
         <v>75</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N17" t="n">
         <v>75</v>
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18" t="n">
         <v>75</v>
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N19" t="n">
         <v>75</v>
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N20" t="n">
         <v>75</v>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
         <v>75</v>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N22" t="n">
         <v>95</v>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N23" t="n">
         <v>35</v>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N24" t="n">
         <v>95</v>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N25" t="n">
         <v>95</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N26" t="n">
         <v>95</v>
@@ -2059,7 +2059,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N27" t="n">
         <v>95</v>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N28" t="n">
         <v>60</v>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N29" t="n">
         <v>95</v>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N30" t="n">
         <v>95</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N31" t="n">
         <v>95</v>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N32" t="n">
         <v>105</v>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N33" t="n">
         <v>90</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N34" t="n">
         <v>35</v>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
         <v>25</v>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N36" t="n">
         <v>105</v>
@@ -2647,10 +2647,10 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N37" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N38" t="n">
         <v>5</v>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N39" t="n">
         <v>5</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N40" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
         <v>40</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N42" t="n">
         <v>40</v>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N43" t="n">
         <v>60</v>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N44" t="n">
         <v>60</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N45" t="n">
         <v>60</v>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N46" t="n">
         <v>60</v>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N47" t="n">
         <v>60</v>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N48" t="n">
         <v>60</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N49" t="n">
         <v>60</v>
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N50" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N51" t="n">
         <v>60</v>
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N52" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N53" t="n">
         <v>60</v>
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N54" t="n">
         <v>65</v>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N55" t="n">
         <v>65</v>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N56" t="n">
         <v>65</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N57" t="n">
         <v>65</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N58" t="n">
         <v>65</v>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N59" t="n">
         <v>65</v>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N60" t="n">
         <v>65</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N61" t="n">
         <v>65</v>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N62" t="n">
         <v>65</v>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N63" t="n">
         <v>65</v>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N64" t="n">
         <v>65</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N65" t="n">
         <v>65</v>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N66" t="n">
         <v>70</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N67" t="n">
         <v>70</v>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N68" t="n">
         <v>70</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N69" t="n">
         <v>70</v>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N70" t="n">
         <v>70</v>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N71" t="n">
         <v>75</v>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N72" t="n">
         <v>75</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N73" t="n">
         <v>75</v>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N74" t="n">
         <v>80</v>
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N75" t="n">
         <v>80</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N76" t="n">
         <v>80</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N77" t="n">
         <v>80</v>
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N78" t="n">
         <v>80</v>
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N79" t="n">
         <v>80</v>
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N80" t="n">
         <v>80</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N81" t="n">
         <v>80</v>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N82" t="n">
         <v>80</v>
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N83" t="n">
         <v>80</v>
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N84" t="n">
         <v>80</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N85" t="n">
         <v>80</v>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N86" t="n">
         <v>80</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N87" t="n">
         <v>85</v>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N88" t="n">
         <v>85</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N89" t="n">
         <v>85</v>
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N90" t="n">
         <v>85</v>
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N91" t="n">
         <v>85</v>
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N92" t="n">
         <v>85</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N93" t="n">
         <v>85</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N94" t="n">
         <v>90</v>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N95" t="n">
         <v>90</v>
@@ -6187,7 +6187,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N96" t="n">
         <v>90</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N97" t="n">
         <v>90</v>
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N98" t="n">
         <v>95</v>
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N99" t="n">
         <v>95</v>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N100" t="n">
         <v>95</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N101" t="n">
         <v>95</v>
@@ -6547,7 +6547,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N102" t="n">
         <v>95</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N103" t="n">
         <v>95</v>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N104" t="n">
         <v>95</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N105" t="n">
         <v>95</v>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N106" t="n">
         <v>95</v>
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N107" t="n">
         <v>95</v>
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N108" t="n">
         <v>95</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N109" t="n">
         <v>95</v>
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N110" t="n">
         <v>95</v>
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N111" t="n">
         <v>95</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N112" t="n">
         <v>95</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N113" t="n">
         <v>95</v>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N114" t="n">
         <v>95</v>
@@ -7327,7 +7327,7 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N115" t="n">
         <v>95</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N116" t="n">
         <v>95</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N117" t="n">
         <v>95</v>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N118" t="n">
         <v>95</v>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N119" t="n">
         <v>95</v>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N120" t="n">
         <v>95</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N121" t="n">
         <v>95</v>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N122" t="n">
         <v>95</v>
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N123" t="n">
         <v>95</v>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N124" t="n">
         <v>95</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N125" t="n">
         <v>95</v>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N126" t="n">
         <v>95</v>
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N127" t="n">
         <v>95</v>
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N128" t="n">
         <v>95</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N129" t="n">
         <v>95</v>
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N130" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131">
@@ -8287,7 +8287,7 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N131" t="n">
         <v>95</v>
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N132" t="n">
         <v>95</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N133" t="n">
         <v>95</v>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N134" t="n">
         <v>60</v>
@@ -8527,7 +8527,7 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N135" t="n">
         <v>105</v>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N136" t="n">
         <v>105</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N137" t="n">
         <v>105</v>
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N138" t="n">
         <v>105</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N139" t="n">
         <v>105</v>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N140" t="n">
         <v>105</v>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N141" t="n">
         <v>105</v>
@@ -8939,7 +8939,7 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N142" t="n">
         <v>105</v>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N143" t="n">
         <v>105</v>
@@ -9051,7 +9051,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N144" t="n">
         <v>105</v>
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N145" t="n">
         <v>105</v>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N146" t="n">
         <v>105</v>
@@ -9219,7 +9219,7 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N147" t="n">
         <v>105</v>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N148" t="n">
         <v>105</v>
@@ -9331,7 +9331,7 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N149" t="n">
         <v>105</v>
@@ -9387,7 +9387,7 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N150" t="n">
         <v>105</v>
@@ -9443,7 +9443,7 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N151" t="n">
         <v>105</v>
@@ -9499,7 +9499,7 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N152" t="n">
         <v>105</v>
@@ -9555,7 +9555,7 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N153" t="n">
         <v>105</v>
@@ -9611,7 +9611,7 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N154" t="n">
         <v>105</v>
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N155" t="n">
         <v>105</v>
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N156" t="n">
         <v>105</v>
@@ -9791,7 +9791,7 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N157" t="n">
         <v>45</v>
@@ -9851,7 +9851,7 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N158" t="n">
         <v>45</v>
@@ -9911,7 +9911,7 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N159" t="n">
         <v>45</v>
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N160" t="n">
         <v>20</v>
@@ -10031,7 +10031,7 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N161" t="n">
         <v>10</v>
@@ -10091,7 +10091,7 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N162" t="n">
         <v>10</v>
@@ -10147,7 +10147,7 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N163" t="n">
         <v>110</v>
@@ -10207,7 +10207,7 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N164" t="n">
         <v>110</v>
@@ -10263,7 +10263,7 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N165" t="n">
         <v>110</v>
@@ -10323,7 +10323,7 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N166" t="n">
         <v>110</v>
@@ -10383,7 +10383,7 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N167" t="n">
         <v>45</v>
@@ -10443,7 +10443,7 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N168" t="n">
         <v>40</v>
@@ -10503,7 +10503,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N169" t="n">
         <v>50</v>
@@ -10563,7 +10563,7 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N170" t="n">
         <v>60</v>
@@ -10623,7 +10623,7 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N171" t="n">
         <v>60</v>
@@ -10683,7 +10683,7 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N172" t="n">
         <v>60</v>
@@ -10743,7 +10743,7 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N173" t="n">
         <v>60</v>
@@ -10803,7 +10803,7 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N174" t="n">
         <v>60</v>
@@ -10863,7 +10863,7 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N175" t="n">
         <v>60</v>
@@ -10923,7 +10923,7 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N176" t="n">
         <v>60</v>
@@ -10983,7 +10983,7 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N177" t="n">
         <v>75</v>
@@ -11043,7 +11043,7 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N178" t="n">
         <v>75</v>
@@ -11103,7 +11103,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N179" t="n">
         <v>75</v>
@@ -11151,7 +11151,7 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N180" t="n">
         <v>40</v>
@@ -11211,7 +11211,7 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N181" t="n">
         <v>95</v>
@@ -11259,7 +11259,7 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N182" t="n">
         <v>5</v>
@@ -11319,7 +11319,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N183" t="n">
         <v>95</v>
@@ -11379,7 +11379,7 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N184" t="n">
         <v>10</v>
@@ -11439,7 +11439,7 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N185" t="n">
         <v>75</v>
@@ -11499,7 +11499,7 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N186" t="n">
         <v>75</v>
@@ -11559,7 +11559,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N187" t="n">
         <v>10</v>
@@ -11619,7 +11619,7 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N188" t="n">
         <v>75</v>
@@ -11679,7 +11679,7 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N189" t="n">
         <v>95</v>
@@ -11739,10 +11739,10 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N190" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="191">
@@ -11799,7 +11799,7 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N191" t="n">
         <v>10</v>
@@ -11859,10 +11859,10 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N192" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="193">
@@ -11919,10 +11919,10 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N193" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194">
@@ -11979,10 +11979,10 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N194" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195">
@@ -12039,10 +12039,10 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N195" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196">
@@ -12099,7 +12099,7 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N196" t="n">
         <v>70</v>
@@ -12159,10 +12159,10 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N197" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198">
@@ -12219,7 +12219,7 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N198" t="n">
         <v>70</v>
@@ -12279,7 +12279,7 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N199" t="n">
         <v>75</v>
@@ -12339,7 +12339,7 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N200" t="n">
         <v>75</v>
@@ -12399,7 +12399,7 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N201" t="n">
         <v>75</v>
@@ -12459,7 +12459,7 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N202" t="n">
         <v>10</v>
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N203" t="n">
         <v>15</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N204" t="n">
         <v>10</v>
@@ -12627,7 +12627,7 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N205" t="n">
         <v>10</v>
@@ -12687,7 +12687,7 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N206" t="n">
         <v>60</v>
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N207" t="n">
         <v>60</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N208" t="n">
         <v>95</v>
@@ -12867,7 +12867,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N209" t="n">
         <v>35</v>
@@ -12927,7 +12927,7 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N210" t="n">
         <v>30</v>
@@ -12987,10 +12987,10 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N211" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212">
@@ -13043,10 +13043,10 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N212" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -13099,10 +13099,10 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N213" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -13155,10 +13155,10 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N214" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -13211,10 +13211,10 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N215" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N216" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -13323,10 +13323,10 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N217" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -13379,10 +13379,10 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N218" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -13435,10 +13435,10 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N219" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -13491,10 +13491,10 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N220" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -13551,7 +13551,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N221" t="n">
         <v>10</v>
@@ -13611,7 +13611,7 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N222" t="n">
         <v>10</v>
@@ -13667,10 +13667,10 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N223" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -13723,10 +13723,10 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N224" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -13779,10 +13779,10 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N225" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -13835,10 +13835,10 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N226" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -13891,7 +13891,7 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N227" t="n">
         <v>5</v>
@@ -13947,7 +13947,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N228" t="n">
         <v>5</v>
@@ -14003,7 +14003,7 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N229" t="n">
         <v>5</v>
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N230" t="n">
         <v>10</v>
@@ -14123,7 +14123,7 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N231" t="n">
         <v>10</v>
@@ -14183,7 +14183,7 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N232" t="n">
         <v>10</v>
@@ -14239,7 +14239,7 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N233" t="n">
         <v>5</v>
@@ -14295,7 +14295,7 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N234" t="n">
         <v>5</v>
@@ -14351,10 +14351,10 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N235" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N236" t="n">
         <v>5</v>
@@ -14463,7 +14463,7 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N237" t="n">
         <v>5</v>
@@ -14519,7 +14519,7 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N238" t="n">
         <v>0</v>
@@ -14575,10 +14575,10 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N239" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240">
@@ -14631,10 +14631,10 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N240" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
@@ -14687,10 +14687,10 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N241" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
@@ -14743,7 +14743,7 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N242" t="n">
         <v>0</v>
@@ -14799,7 +14799,7 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N243" t="n">
         <v>5</v>
@@ -14855,7 +14855,7 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N244" t="n">
         <v>5</v>
@@ -14915,7 +14915,7 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N245" t="n">
         <v>10</v>
@@ -14975,7 +14975,7 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N246" t="n">
         <v>10</v>
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N247" t="n">
         <v>10</v>
@@ -15091,7 +15091,7 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N248" t="n">
         <v>10</v>
@@ -15147,7 +15147,7 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N249" t="n">
         <v>10</v>
@@ -15203,7 +15203,7 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N250" t="n">
         <v>5</v>
@@ -15259,7 +15259,7 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N251" t="n">
         <v>10</v>
@@ -15315,7 +15315,7 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N252" t="n">
         <v>10</v>
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N253" t="n">
         <v>10</v>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N254" t="n">
         <v>10</v>
@@ -15483,7 +15483,7 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N255" t="n">
         <v>10</v>
@@ -15539,7 +15539,7 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N256" t="n">
         <v>10</v>
@@ -15595,7 +15595,7 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N257" t="n">
         <v>15</v>
@@ -15651,7 +15651,7 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N258" t="n">
         <v>15</v>
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N259" t="n">
         <v>15</v>
@@ -15763,7 +15763,7 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N260" t="n">
         <v>15</v>
@@ -15819,7 +15819,7 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N261" t="n">
         <v>15</v>
@@ -15875,7 +15875,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N262" t="n">
         <v>15</v>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N263" t="n">
         <v>15</v>
@@ -15987,7 +15987,7 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N264" t="n">
         <v>15</v>
@@ -16043,7 +16043,7 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N265" t="n">
         <v>15</v>
@@ -16099,10 +16099,10 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N266" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267">
@@ -16155,7 +16155,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N267" t="n">
         <v>15</v>
@@ -16211,7 +16211,7 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N268" t="n">
         <v>15</v>
@@ -16267,7 +16267,7 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N269" t="n">
         <v>15</v>
@@ -16323,7 +16323,7 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N270" t="n">
         <v>15</v>
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N271" t="n">
         <v>15</v>
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N272" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273">
@@ -16495,7 +16495,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N273" t="n">
         <v>10</v>
@@ -16555,7 +16555,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N274" t="n">
         <v>10</v>
@@ -16615,7 +16615,7 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N275" t="n">
         <v>10</v>
@@ -16675,7 +16675,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N276" t="n">
         <v>10</v>
@@ -16731,10 +16731,10 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N277" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278">
@@ -16787,10 +16787,10 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N278" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
@@ -16843,10 +16843,10 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N279" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280">
@@ -16899,10 +16899,10 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N280" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281">
@@ -16955,10 +16955,10 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N281" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N282" t="n">
         <v>10</v>
@@ -17067,7 +17067,7 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N283" t="n">
         <v>10</v>
@@ -17123,7 +17123,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N284" t="n">
         <v>10</v>
@@ -17179,7 +17179,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N285" t="n">
         <v>10</v>
@@ -17235,10 +17235,10 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N286" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287">
@@ -17291,10 +17291,10 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N287" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288">
@@ -17347,10 +17347,10 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N288" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289">
@@ -17403,10 +17403,10 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N289" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290">
@@ -17459,10 +17459,10 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N290" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N291" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292">
@@ -17571,10 +17571,10 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N292" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293">
@@ -17627,10 +17627,10 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N293" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294">
@@ -17683,10 +17683,10 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N294" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295">
@@ -17739,7 +17739,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N295" t="n">
         <v>15</v>
@@ -17795,7 +17795,7 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N296" t="n">
         <v>15</v>
@@ -17851,7 +17851,7 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N297" t="n">
         <v>15</v>
@@ -17907,7 +17907,7 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N298" t="n">
         <v>15</v>
@@ -17963,7 +17963,7 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N299" t="n">
         <v>20</v>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N300" t="n">
         <v>20</v>
@@ -18075,7 +18075,7 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N301" t="n">
         <v>20</v>
@@ -18131,7 +18131,7 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N302" t="n">
         <v>20</v>
@@ -18187,7 +18187,7 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N303" t="n">
         <v>20</v>
@@ -18243,7 +18243,7 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N304" t="n">
         <v>20</v>
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N305" t="n">
         <v>20</v>
@@ -18355,7 +18355,7 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N306" t="n">
         <v>20</v>
@@ -18411,7 +18411,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N307" t="n">
         <v>20</v>
@@ -18467,10 +18467,10 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N308" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N309" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310">
@@ -18579,10 +18579,10 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N310" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311">
@@ -18635,10 +18635,10 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N311" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312">
@@ -18695,7 +18695,7 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N312" t="n">
         <v>40</v>
@@ -18755,7 +18755,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N313" t="n">
         <v>40</v>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N314" t="n">
         <v>25</v>
@@ -18867,7 +18867,7 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N315" t="n">
         <v>25</v>
@@ -18923,7 +18923,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N316" t="n">
         <v>25</v>
@@ -18979,7 +18979,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N317" t="n">
         <v>25</v>
@@ -19035,7 +19035,7 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N318" t="n">
         <v>25</v>
@@ -19091,7 +19091,7 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N319" t="n">
         <v>25</v>
@@ -19147,7 +19147,7 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N320" t="n">
         <v>25</v>
@@ -19203,7 +19203,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N321" t="n">
         <v>25</v>
@@ -19259,7 +19259,7 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N322" t="n">
         <v>25</v>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N323" t="n">
         <v>20</v>
@@ -19375,7 +19375,7 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N324" t="n">
         <v>40</v>
@@ -19435,7 +19435,7 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N325" t="n">
         <v>40</v>
@@ -19495,7 +19495,7 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N326" t="n">
         <v>40</v>
@@ -19555,7 +19555,7 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N327" t="n">
         <v>40</v>
@@ -19615,7 +19615,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N328" t="n">
         <v>40</v>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N329" t="n">
         <v>40</v>
@@ -19731,7 +19731,7 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N330" t="n">
         <v>25</v>
@@ -19787,7 +19787,7 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N331" t="n">
         <v>25</v>
@@ -19843,7 +19843,7 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N332" t="n">
         <v>25</v>
@@ -19899,7 +19899,7 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N333" t="n">
         <v>25</v>
@@ -19955,7 +19955,7 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N334" t="n">
         <v>25</v>
@@ -20011,7 +20011,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N335" t="n">
         <v>25</v>
@@ -20067,7 +20067,7 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N336" t="n">
         <v>25</v>
@@ -20123,7 +20123,7 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N337" t="n">
         <v>25</v>
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N338" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="339">
@@ -20235,10 +20235,10 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N339" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="340">
@@ -20291,10 +20291,10 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N340" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="341">
@@ -20347,10 +20347,10 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N341" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="342">
@@ -20403,10 +20403,10 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N342" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="343">
@@ -20459,10 +20459,10 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N343" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="344">
@@ -20515,10 +20515,10 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N344" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="345">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N345" t="n">
         <v>35</v>
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N346" t="n">
         <v>35</v>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N347" t="n">
         <v>35</v>
@@ -20739,7 +20739,7 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N348" t="n">
         <v>40</v>
@@ -20795,7 +20795,7 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N349" t="n">
         <v>40</v>
@@ -20851,7 +20851,7 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N350" t="n">
         <v>40</v>
@@ -20911,7 +20911,7 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N351" t="n">
         <v>40</v>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N352" t="n">
         <v>40</v>
@@ -21031,7 +21031,7 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N353" t="n">
         <v>40</v>
@@ -21091,7 +21091,7 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N354" t="n">
         <v>40</v>
@@ -21147,7 +21147,7 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N355" t="n">
         <v>35</v>
@@ -21203,7 +21203,7 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N356" t="n">
         <v>35</v>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N357" t="n">
         <v>35</v>
@@ -21315,7 +21315,7 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N358" t="n">
         <v>40</v>
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N359" t="n">
         <v>40</v>
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N360" t="n">
         <v>40</v>
@@ -21483,7 +21483,7 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N361" t="n">
         <v>40</v>
@@ -21543,7 +21543,7 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N362" t="n">
         <v>40</v>
@@ -21603,7 +21603,7 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N363" t="n">
         <v>40</v>
@@ -21663,7 +21663,7 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N364" t="n">
         <v>40</v>
@@ -21723,7 +21723,7 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N365" t="n">
         <v>40</v>
@@ -21783,7 +21783,7 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N366" t="n">
         <v>40</v>
@@ -21839,7 +21839,7 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N367" t="n">
         <v>45</v>
@@ -21895,7 +21895,7 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N368" t="n">
         <v>45</v>
@@ -21951,7 +21951,7 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N369" t="n">
         <v>45</v>
@@ -22011,7 +22011,7 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N370" t="n">
         <v>40</v>
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N371" t="n">
         <v>40</v>
@@ -22131,7 +22131,7 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N372" t="n">
         <v>40</v>
@@ -22191,7 +22191,7 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N373" t="n">
         <v>40</v>
@@ -22251,7 +22251,7 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N374" t="n">
         <v>40</v>
@@ -22311,7 +22311,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N375" t="n">
         <v>40</v>
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N376" t="n">
         <v>40</v>
@@ -22427,10 +22427,10 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N377" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="378">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N378" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="379">
@@ -22539,10 +22539,10 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N379" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="380">
@@ -22595,7 +22595,7 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N380" t="n">
         <v>45</v>
@@ -22651,7 +22651,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N381" t="n">
         <v>45</v>
@@ -22707,7 +22707,7 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N382" t="n">
         <v>45</v>
@@ -22767,7 +22767,7 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N383" t="n">
         <v>40</v>
@@ -22823,7 +22823,7 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N384" t="n">
         <v>50</v>
@@ -22879,7 +22879,7 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N385" t="n">
         <v>50</v>
@@ -22935,7 +22935,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N386" t="n">
         <v>40</v>
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N387" t="n">
         <v>40</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N388" t="n">
         <v>40</v>
@@ -23107,10 +23107,10 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N389" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="390">
@@ -23167,10 +23167,10 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N390" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="391">
@@ -23227,10 +23227,10 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N391" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="392">
@@ -23287,10 +23287,10 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N392" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="393">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N393" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="394">
@@ -23403,7 +23403,7 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N394" t="n">
         <v>55</v>
@@ -23459,7 +23459,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N395" t="n">
         <v>55</v>
@@ -23515,7 +23515,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N396" t="n">
         <v>55</v>
@@ -23575,10 +23575,10 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N397" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="398">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N398" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="399">
@@ -23695,10 +23695,10 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N399" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="400">
@@ -23751,7 +23751,7 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N400" t="n">
         <v>65</v>
@@ -23807,7 +23807,7 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N401" t="n">
         <v>65</v>
@@ -23863,7 +23863,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N402" t="n">
         <v>65</v>
@@ -23919,7 +23919,7 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N403" t="n">
         <v>65</v>
@@ -23975,10 +23975,10 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N404" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="405">
@@ -24031,10 +24031,10 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N405" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="406">
@@ -24087,10 +24087,10 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N406" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="407">
@@ -24143,10 +24143,10 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N407" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="408">
@@ -24199,10 +24199,10 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N408" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="409">
@@ -24238,10 +24238,14 @@
       <c r="H409" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="I409" t="inlineStr"/>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>KREN29466SH022</t>
+        </is>
+      </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K409" t="inlineStr"/>
@@ -24251,7 +24255,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N409" t="n">
         <v>75</v>
@@ -24290,10 +24294,14 @@
       <c r="H410" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="I410" t="inlineStr"/>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>KREN29455SH022</t>
+        </is>
+      </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K410" t="inlineStr"/>
@@ -24303,7 +24311,7 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N410" t="n">
         <v>75</v>
@@ -24342,10 +24350,14 @@
       <c r="H411" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="I411" t="inlineStr"/>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>KREN29455SH022</t>
+        </is>
+      </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K411" t="inlineStr"/>
@@ -24355,7 +24367,7 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N411" t="n">
         <v>75</v>
@@ -24394,10 +24406,14 @@
       <c r="H412" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="I412" t="inlineStr"/>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>KREN29456SH022</t>
+        </is>
+      </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K412" t="inlineStr"/>
@@ -24407,7 +24423,7 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N412" t="n">
         <v>75</v>
@@ -24446,10 +24462,14 @@
       <c r="H413" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="I413" t="inlineStr"/>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>KREN29457SH022</t>
+        </is>
+      </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K413" t="inlineStr"/>
@@ -24459,7 +24479,7 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N413" t="n">
         <v>75</v>
@@ -24498,10 +24518,14 @@
       <c r="H414" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="I414" t="inlineStr"/>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>KREN29458SH022</t>
+        </is>
+      </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K414" t="inlineStr"/>
@@ -24511,7 +24535,7 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N414" t="n">
         <v>75</v>
@@ -24550,10 +24574,14 @@
       <c r="H415" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="I415" t="inlineStr"/>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>KREN29459SH022</t>
+        </is>
+      </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K415" t="inlineStr"/>
@@ -24563,7 +24591,7 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N415" t="n">
         <v>75</v>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N333"/>
+  <dimension ref="A1:N346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19193,6 +19193,630 @@
         <v>110</v>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>1DNERX2U_LTN</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="n">
+        <v>995.22</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F334" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G334" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H334" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M334" t="n">
+        <v>118</v>
+      </c>
+      <c r="N334" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1844YLHB_LTN</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="n">
+        <v>907.92</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F335" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G335" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H335" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M335" t="n">
+        <v>118</v>
+      </c>
+      <c r="N335" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>7U5QTCIN_LTN</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="n">
+        <v>1588.86</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F336" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G336" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H336" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M336" t="n">
+        <v>118</v>
+      </c>
+      <c r="N336" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>7LEE3TFL_LTN</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="n">
+        <v>119.16</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F337" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G337" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H337" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M337" t="n">
+        <v>88</v>
+      </c>
+      <c r="N337" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>8N7YEA8D_LTN</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="n">
+        <v>37.05</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F338" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G338" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H338" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M338" t="n">
+        <v>88</v>
+      </c>
+      <c r="N338" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1EXT8UGA_LTN</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="n">
+        <v>362.6</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F339" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G339" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H339" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M339" t="n">
+        <v>88</v>
+      </c>
+      <c r="N339" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>3RU4253N_LTN</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="n">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F340" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G340" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H340" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M340" t="n">
+        <v>88</v>
+      </c>
+      <c r="N340" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>73163DYB_LTN</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="n">
+        <v>410.02</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F341" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G341" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H341" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M341" t="n">
+        <v>88</v>
+      </c>
+      <c r="N341" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>77NBCJAU_LTN</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="n">
+        <v>3008</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F342" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G342" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H342" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M342" t="n">
+        <v>92</v>
+      </c>
+      <c r="N342" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>7KWEP3QY_LTN</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="n">
+        <v>19224</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F343" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G343" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H343" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M343" t="n">
+        <v>92</v>
+      </c>
+      <c r="N343" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>5TY3VS9Y_LTN</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="n">
+        <v>313.02</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G344" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H344" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M344" t="n">
+        <v>88</v>
+      </c>
+      <c r="N344" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>3MOXC2DD_LTN</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="n">
+        <v>939.0599999999999</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F345" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G345" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H345" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M345" t="n">
+        <v>88</v>
+      </c>
+      <c r="N345" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>7MNV9Y8K_LTN</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="n">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F346" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G346" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="H346" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M346" t="n">
+        <v>88</v>
+      </c>
+      <c r="N346" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
         <v>5</v>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
         <v>5</v>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N4" t="n">
         <v>60</v>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N5" t="n">
         <v>75</v>
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N7" t="n">
         <v>60</v>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N8" t="n">
         <v>60</v>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" t="n">
         <v>60</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N10" t="n">
         <v>60</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N11" t="n">
         <v>60</v>
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N13" t="n">
         <v>60</v>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N14" t="n">
         <v>65</v>
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N15" t="n">
         <v>60</v>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N17" t="n">
         <v>65</v>
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N18" t="n">
         <v>85</v>
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N19" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N20" t="n">
         <v>80</v>
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N22" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N24" t="n">
         <v>50</v>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N25" t="n">
         <v>85</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N26" t="n">
         <v>85</v>
@@ -2059,7 +2059,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N27" t="n">
         <v>85</v>
@@ -2119,10 +2119,10 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N28" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N30" t="n">
         <v>20</v>
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N32" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N33" t="n">
         <v>90</v>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
         <v>5</v>
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N35" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N36" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N37" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N38" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -2779,10 +2779,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N39" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N40" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N41" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
@@ -2959,10 +2959,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N42" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
@@ -3019,10 +3019,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N43" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
@@ -3079,10 +3079,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N44" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N45" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
@@ -3199,10 +3199,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N46" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N47" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
@@ -3319,10 +3319,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N48" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
@@ -3379,10 +3379,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N49" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
@@ -3439,10 +3439,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N50" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N51" t="n">
         <v>30</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N52" t="n">
         <v>30</v>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N53" t="n">
         <v>100</v>
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N54" t="n">
         <v>100</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N55" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N56" t="n">
         <v>35</v>
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N57" t="n">
         <v>110</v>
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N58" t="n">
         <v>110</v>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N59" t="n">
         <v>110</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N60" t="n">
         <v>110</v>
@@ -4059,7 +4059,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N61" t="n">
         <v>110</v>
@@ -4111,7 +4111,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N62" t="n">
         <v>110</v>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N63" t="n">
         <v>110</v>
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N64" t="n">
         <v>110</v>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N65" t="n">
         <v>110</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N66" t="n">
         <v>110</v>
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N67" t="n">
         <v>110</v>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N68" t="n">
         <v>110</v>
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N69" t="n">
         <v>110</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N70" t="n">
         <v>110</v>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N71" t="n">
         <v>110</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N72" t="n">
         <v>110</v>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N73" t="n">
         <v>110</v>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N74" t="n">
         <v>110</v>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N75" t="n">
         <v>110</v>
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N76" t="n">
         <v>110</v>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N77" t="n">
         <v>110</v>
@@ -4999,7 +4999,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N78" t="n">
         <v>110</v>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N79" t="n">
         <v>110</v>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N80" t="n">
         <v>110</v>
@@ -5179,7 +5179,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N81" t="n">
         <v>110</v>
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N82" t="n">
         <v>110</v>
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N83" t="n">
         <v>110</v>
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N84" t="n">
         <v>110</v>
@@ -5415,7 +5415,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N85" t="n">
         <v>110</v>
@@ -5475,7 +5475,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N86" t="n">
         <v>110</v>
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N87" t="n">
         <v>110</v>
@@ -5595,7 +5595,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N88" t="n">
         <v>110</v>
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N89" t="n">
         <v>110</v>
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N90" t="n">
         <v>110</v>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N91" t="n">
         <v>110</v>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N92" t="n">
         <v>30</v>
@@ -5895,7 +5895,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N93" t="n">
         <v>30</v>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N94" t="n">
         <v>5</v>
@@ -6015,10 +6015,10 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N95" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96">
@@ -6075,10 +6075,10 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N96" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97">
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N97" t="n">
         <v>50</v>
@@ -6195,7 +6195,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N98" t="n">
         <v>45</v>
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N99" t="n">
         <v>45</v>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N100" t="n">
         <v>45</v>
@@ -6375,7 +6375,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N101" t="n">
         <v>45</v>
@@ -6435,7 +6435,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N102" t="n">
         <v>55</v>
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N103" t="n">
         <v>60</v>
@@ -6555,7 +6555,7 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N104" t="n">
         <v>60</v>
@@ -6603,7 +6603,7 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N105" t="n">
         <v>30</v>
@@ -6663,10 +6663,10 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N106" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107">
@@ -6723,10 +6723,10 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N107" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
@@ -6783,10 +6783,10 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N108" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109">
@@ -6843,10 +6843,10 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N109" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110">
@@ -6903,7 +6903,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N110" t="n">
         <v>85</v>
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N111" t="n">
         <v>85</v>
@@ -7023,7 +7023,7 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N112" t="n">
         <v>85</v>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N113" t="n">
         <v>50</v>
@@ -7143,7 +7143,7 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N114" t="n">
         <v>50</v>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N115" t="n">
         <v>55</v>
@@ -7263,10 +7263,10 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N116" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117">
@@ -7311,7 +7311,7 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N117" t="n">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N118" t="n">
         <v>45</v>
@@ -7431,7 +7431,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N119" t="n">
         <v>45</v>
@@ -7491,10 +7491,10 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N120" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121">
@@ -7551,7 +7551,7 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N121" t="n">
         <v>60</v>
@@ -7611,10 +7611,10 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N122" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N123" t="n">
         <v>45</v>
@@ -7731,7 +7731,7 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N124" t="n">
         <v>45</v>
@@ -7791,7 +7791,7 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N125" t="n">
         <v>45</v>
@@ -7851,7 +7851,7 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N126" t="n">
         <v>80</v>
@@ -7911,10 +7911,10 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N127" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N128" t="n">
         <v>20</v>
@@ -8031,7 +8031,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N129" t="n">
         <v>5</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
@@ -8199,7 +8199,7 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -8423,7 +8423,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N140" t="n">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N141" t="n">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
@@ -8815,7 +8815,7 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N144" t="n">
         <v>5</v>
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N145" t="n">
         <v>5</v>
@@ -8983,7 +8983,7 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N146" t="n">
         <v>5</v>
@@ -9039,7 +9039,7 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N147" t="n">
         <v>5</v>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N148" t="n">
         <v>5</v>
@@ -9151,7 +9151,7 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N149" t="n">
         <v>5</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N150" t="n">
         <v>5</v>
@@ -9263,7 +9263,7 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N151" t="n">
         <v>5</v>
@@ -9319,7 +9319,7 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N152" t="n">
         <v>5</v>
@@ -9375,7 +9375,7 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N153" t="n">
         <v>5</v>
@@ -9431,7 +9431,7 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N154" t="n">
         <v>5</v>
@@ -9487,7 +9487,7 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N155" t="n">
         <v>5</v>
@@ -9543,7 +9543,7 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N156" t="n">
         <v>5</v>
@@ -9599,7 +9599,7 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N157" t="n">
         <v>5</v>
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N158" t="n">
         <v>5</v>
@@ -9711,7 +9711,7 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N159" t="n">
         <v>5</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N160" t="n">
         <v>5</v>
@@ -9823,7 +9823,7 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N161" t="n">
         <v>5</v>
@@ -9879,7 +9879,7 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N162" t="n">
         <v>5</v>
@@ -9935,7 +9935,7 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N163" t="n">
         <v>5</v>
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N164" t="n">
         <v>5</v>
@@ -10047,7 +10047,7 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N165" t="n">
         <v>10</v>
@@ -10103,7 +10103,7 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N166" t="n">
         <v>10</v>
@@ -10159,7 +10159,7 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N167" t="n">
         <v>10</v>
@@ -10215,7 +10215,7 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N168" t="n">
         <v>10</v>
@@ -10275,7 +10275,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N169" t="n">
         <v>25</v>
@@ -10335,7 +10335,7 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N170" t="n">
         <v>25</v>
@@ -10391,10 +10391,10 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N171" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -10447,10 +10447,10 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N172" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -10503,10 +10503,10 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N173" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
@@ -10559,10 +10559,10 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N174" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
@@ -10615,10 +10615,10 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N175" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
@@ -10671,10 +10671,10 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N176" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177">
@@ -10727,10 +10727,10 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N177" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
@@ -10783,10 +10783,10 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N178" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -10839,10 +10839,10 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N179" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -10895,7 +10895,7 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N180" t="n">
         <v>5</v>
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N181" t="n">
         <v>25</v>
@@ -11015,7 +11015,7 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N182" t="n">
         <v>25</v>
@@ -11075,7 +11075,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N183" t="n">
         <v>25</v>
@@ -11135,7 +11135,7 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N184" t="n">
         <v>25</v>
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N185" t="n">
         <v>25</v>
@@ -11255,7 +11255,7 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N186" t="n">
         <v>25</v>
@@ -11311,10 +11311,10 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N187" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
@@ -11367,10 +11367,10 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N188" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
@@ -11423,10 +11423,10 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N189" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
@@ -11479,10 +11479,10 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N190" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
@@ -11535,10 +11535,10 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N191" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
@@ -11591,10 +11591,10 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N192" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -11647,10 +11647,10 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N193" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194">
@@ -11703,10 +11703,10 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N194" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
@@ -11759,7 +11759,7 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N195" t="n">
         <v>20</v>
@@ -11815,7 +11815,7 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N196" t="n">
         <v>20</v>
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N197" t="n">
         <v>20</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N198" t="n">
         <v>20</v>
@@ -11983,7 +11983,7 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N199" t="n">
         <v>20</v>
@@ -12039,7 +12039,7 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N200" t="n">
         <v>20</v>
@@ -12095,7 +12095,7 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N201" t="n">
         <v>20</v>
@@ -12151,7 +12151,7 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N202" t="n">
         <v>20</v>
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N203" t="n">
         <v>20</v>
@@ -12263,7 +12263,7 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N204" t="n">
         <v>20</v>
@@ -12319,7 +12319,7 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N205" t="n">
         <v>25</v>
@@ -12375,7 +12375,7 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N206" t="n">
         <v>25</v>
@@ -12431,7 +12431,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N207" t="n">
         <v>25</v>
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N208" t="n">
         <v>25</v>
@@ -12551,7 +12551,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N209" t="n">
         <v>25</v>
@@ -12611,7 +12611,7 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N210" t="n">
         <v>25</v>
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N211" t="n">
         <v>25</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N212" t="n">
         <v>25</v>
@@ -12783,7 +12783,7 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N213" t="n">
         <v>25</v>
@@ -12839,7 +12839,7 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N214" t="n">
         <v>25</v>
@@ -12895,7 +12895,7 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N215" t="n">
         <v>25</v>
@@ -12951,7 +12951,7 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N216" t="n">
         <v>25</v>
@@ -13007,7 +13007,7 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N217" t="n">
         <v>25</v>
@@ -13063,7 +13063,7 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N218" t="n">
         <v>25</v>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N219" t="n">
         <v>25</v>
@@ -13183,7 +13183,7 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N220" t="n">
         <v>25</v>
@@ -13243,7 +13243,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N221" t="n">
         <v>25</v>
@@ -13303,7 +13303,7 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N222" t="n">
         <v>25</v>
@@ -13363,7 +13363,7 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N223" t="n">
         <v>25</v>
@@ -13419,10 +13419,10 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N224" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225">
@@ -13475,10 +13475,10 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N225" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226">
@@ -13531,10 +13531,10 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N226" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227">
@@ -13591,7 +13591,7 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N227" t="n">
         <v>25</v>
@@ -13651,7 +13651,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N228" t="n">
         <v>25</v>
@@ -13711,7 +13711,7 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N229" t="n">
         <v>25</v>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N230" t="n">
         <v>25</v>
@@ -13831,7 +13831,7 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N231" t="n">
         <v>25</v>
@@ -13891,7 +13891,7 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N232" t="n">
         <v>25</v>
@@ -13951,7 +13951,7 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N233" t="n">
         <v>25</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N234" t="n">
         <v>35</v>
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N235" t="n">
         <v>35</v>
@@ -14119,7 +14119,7 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N236" t="n">
         <v>35</v>
@@ -14175,7 +14175,7 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N237" t="n">
         <v>35</v>
@@ -14231,7 +14231,7 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N238" t="n">
         <v>35</v>
@@ -14287,7 +14287,7 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N239" t="n">
         <v>35</v>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N240" t="n">
         <v>25</v>
@@ -14403,7 +14403,7 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N241" t="n">
         <v>25</v>
@@ -14459,7 +14459,7 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N242" t="n">
         <v>25</v>
@@ -14515,7 +14515,7 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N243" t="n">
         <v>25</v>
@@ -14575,7 +14575,7 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N244" t="n">
         <v>55</v>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N245" t="n">
         <v>55</v>
@@ -14695,7 +14695,7 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N246" t="n">
         <v>55</v>
@@ -14755,7 +14755,7 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N247" t="n">
         <v>55</v>
@@ -14815,7 +14815,7 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N248" t="n">
         <v>55</v>
@@ -14875,7 +14875,7 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N249" t="n">
         <v>55</v>
@@ -14935,7 +14935,7 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N250" t="n">
         <v>55</v>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N251" t="n">
         <v>55</v>
@@ -15051,7 +15051,7 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N252" t="n">
         <v>50</v>
@@ -15107,7 +15107,7 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N253" t="n">
         <v>50</v>
@@ -15163,7 +15163,7 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N254" t="n">
         <v>55</v>
@@ -15219,7 +15219,7 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N255" t="n">
         <v>55</v>
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N256" t="n">
         <v>55</v>
@@ -15331,7 +15331,7 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N257" t="n">
         <v>55</v>
@@ -15387,7 +15387,7 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N258" t="n">
         <v>75</v>
@@ -15443,7 +15443,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N259" t="n">
         <v>75</v>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N260" t="n">
         <v>75</v>
@@ -15551,7 +15551,7 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N261" t="n">
         <v>105</v>
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N262" t="n">
         <v>85</v>
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N263" t="n">
         <v>85</v>
@@ -15731,7 +15731,7 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N264" t="n">
         <v>85</v>
@@ -15791,7 +15791,7 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N265" t="n">
         <v>85</v>
@@ -15851,7 +15851,7 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N266" t="n">
         <v>85</v>
@@ -15911,7 +15911,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N267" t="n">
         <v>85</v>
@@ -15967,7 +15967,7 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N268" t="n">
         <v>75</v>
@@ -16023,7 +16023,7 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N269" t="n">
         <v>75</v>
@@ -16079,7 +16079,7 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N270" t="n">
         <v>75</v>
@@ -16135,7 +16135,7 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N271" t="n">
         <v>75</v>
@@ -16191,7 +16191,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N272" t="n">
         <v>75</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N273" t="n">
         <v>75</v>
@@ -16303,7 +16303,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N274" t="n">
         <v>75</v>
@@ -16355,7 +16355,7 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N275" t="n">
         <v>85</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N276" t="n">
         <v>85</v>
@@ -16459,7 +16459,7 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N277" t="n">
         <v>85</v>
@@ -16511,7 +16511,7 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N278" t="n">
         <v>85</v>
@@ -16563,7 +16563,7 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N279" t="n">
         <v>85</v>
@@ -16615,7 +16615,7 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N280" t="n">
         <v>85</v>
@@ -16663,7 +16663,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N281" t="n">
         <v>110</v>
@@ -16711,7 +16711,7 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N282" t="n">
         <v>110</v>
@@ -16759,7 +16759,7 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N283" t="n">
         <v>110</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N284" t="n">
         <v>110</v>
@@ -16859,7 +16859,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N285" t="n">
         <v>80</v>
@@ -16911,7 +16911,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N286" t="n">
         <v>80</v>
@@ -16963,7 +16963,7 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N287" t="n">
         <v>80</v>
@@ -17015,7 +17015,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N288" t="n">
         <v>80</v>
@@ -17067,7 +17067,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N289" t="n">
         <v>80</v>
@@ -17119,7 +17119,7 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N290" t="n">
         <v>80</v>
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N291" t="n">
         <v>80</v>
@@ -17223,7 +17223,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N292" t="n">
         <v>80</v>
@@ -17275,7 +17275,7 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N293" t="n">
         <v>80</v>
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N294" t="n">
         <v>80</v>
@@ -17379,7 +17379,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N295" t="n">
         <v>80</v>
@@ -17431,7 +17431,7 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N296" t="n">
         <v>80</v>
@@ -17483,7 +17483,7 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N297" t="n">
         <v>80</v>
@@ -17535,7 +17535,7 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N298" t="n">
         <v>80</v>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N299" t="n">
         <v>80</v>
@@ -17639,7 +17639,7 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N300" t="n">
         <v>80</v>
@@ -17691,7 +17691,7 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N301" t="n">
         <v>80</v>
@@ -17743,7 +17743,7 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N302" t="n">
         <v>80</v>
@@ -17795,7 +17795,7 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N303" t="n">
         <v>80</v>
@@ -17851,7 +17851,7 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N304" t="n">
         <v>80</v>
@@ -17907,7 +17907,7 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N305" t="n">
         <v>80</v>
@@ -17967,7 +17967,7 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N306" t="n">
         <v>85</v>
@@ -18023,7 +18023,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N307" t="n">
         <v>80</v>
@@ -18079,7 +18079,7 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N308" t="n">
         <v>80</v>
@@ -18135,7 +18135,7 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N309" t="n">
         <v>80</v>
@@ -18191,7 +18191,7 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N310" t="n">
         <v>80</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N311" t="n">
         <v>80</v>
@@ -18303,7 +18303,7 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N312" t="n">
         <v>85</v>
@@ -18359,7 +18359,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N313" t="n">
         <v>85</v>
@@ -18415,7 +18415,7 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N314" t="n">
         <v>80</v>
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N315" t="n">
         <v>80</v>
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N316" t="n">
         <v>80</v>
@@ -18575,7 +18575,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N317" t="n">
         <v>115</v>
@@ -18623,7 +18623,7 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N318" t="n">
         <v>115</v>
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N319" t="n">
         <v>115</v>
@@ -18719,7 +18719,7 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N320" t="n">
         <v>115</v>
@@ -18767,7 +18767,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N321" t="n">
         <v>115</v>
@@ -18815,7 +18815,7 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N322" t="n">
         <v>115</v>
@@ -18863,7 +18863,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N323" t="n">
         <v>115</v>
@@ -18911,7 +18911,7 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N324" t="n">
         <v>115</v>
@@ -18959,7 +18959,7 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N325" t="n">
         <v>85</v>
@@ -19007,7 +19007,7 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N326" t="n">
         <v>85</v>
@@ -19055,7 +19055,7 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N327" t="n">
         <v>85</v>
@@ -19103,7 +19103,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N328" t="n">
         <v>85</v>
@@ -19151,10 +19151,10 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N329" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="330">
@@ -19199,10 +19199,10 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N330" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="331">
@@ -19247,10 +19247,10 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N331" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="332">
@@ -19295,10 +19295,10 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N332" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="333">
@@ -19343,10 +19343,10 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N333" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="334">
@@ -19391,10 +19391,10 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N334" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="335">
@@ -19439,7 +19439,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N335" t="n">
         <v>85</v>
@@ -19487,7 +19487,7 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N336" t="n">
         <v>85</v>
@@ -19535,7 +19535,7 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N337" t="n">
         <v>85</v>
@@ -19583,7 +19583,7 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N338" t="n">
         <v>85</v>
@@ -19631,7 +19631,7 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N339" t="n">
         <v>85</v>
@@ -19679,7 +19679,7 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N340" t="n">
         <v>85</v>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N337"/>
+  <dimension ref="A1:N339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3838,10 +3838,14 @@
       <c r="H57" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>KRCN03768SH022</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3894,10 +3898,14 @@
       <c r="H58" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>KRCN03764SH022</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3950,10 +3958,14 @@
       <c r="H59" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>KRCN03769SH022</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4006,10 +4018,14 @@
       <c r="H60" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>KRCN03766SH022</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4062,10 +4078,14 @@
       <c r="H61" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>KRCN03763SH022</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4118,10 +4138,14 @@
       <c r="H62" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>KRCN03763SH022</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4174,10 +4198,14 @@
       <c r="H63" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>KRCN03771SH022</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4230,10 +4258,14 @@
       <c r="H64" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>KRCN03772SH022</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4286,10 +4318,14 @@
       <c r="H65" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>KRCN03765SH022</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4342,10 +4378,14 @@
       <c r="H66" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>KRCN03846SH022</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4398,10 +4438,14 @@
       <c r="H67" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>KRCN03764SH022</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4454,10 +4498,14 @@
       <c r="H68" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>KRCN03770SH022</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4510,10 +4558,14 @@
       <c r="H69" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>KRCN03762SH022</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4566,10 +4618,14 @@
       <c r="H70" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>KRCN03767SH022</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5334,10 +5390,14 @@
       <c r="H83" s="2" t="n">
         <v>45056</v>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>KRCN03789SH022</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6046,10 +6106,14 @@
       <c r="H95" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>KRCN03848SH022</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -6094,10 +6158,14 @@
       <c r="H96" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>KRCN03849SH022</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -6190,10 +6258,14 @@
       <c r="H98" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>KRCN03918SH022</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -6238,10 +6310,14 @@
       <c r="H99" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>KRCN03847SH022</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -6286,10 +6362,14 @@
       <c r="H100" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>KRCN03851SH022</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -6334,10 +6414,14 @@
       <c r="H101" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>KRCN03850SH022</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -6382,10 +6466,14 @@
       <c r="H102" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>KRCN03852SH022</t>
+        </is>
+      </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -8480,21 +8568,21 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2FQP51ZX_LTR</t>
+          <t>4EJSQ32M_LTN</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DEUDILTR220015</t>
+          <t>GBRDILTN220022</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>68.95</v>
+        <v>41.17</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -8502,17 +8590,17 @@
         </is>
       </c>
       <c r="F138" s="2" t="n">
-        <v>44855</v>
+        <v>44852</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44860</v>
+        <v>44858</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>44950</v>
+        <v>44948</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>KREN27459SH022</t>
+          <t>KREN27030SH022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8527,30 +8615,30 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N138" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>349M1F6E_LTR</t>
+          <t>6VIMP9UD_LTN</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DEUDILTR220015</t>
+          <t>GBRDILTN220022</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>32.1</v>
+        <v>257.11</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -8558,17 +8646,17 @@
         </is>
       </c>
       <c r="F139" s="2" t="n">
-        <v>44855</v>
+        <v>44852</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44860</v>
+        <v>44858</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>44950</v>
+        <v>44948</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>KREN27459SH022</t>
+          <t>KREN27030SH022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8583,16 +8671,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N139" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3PHOUNVX_LTR</t>
+          <t>2FQP51ZX_LTR</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -8606,7 +8694,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>461.23</v>
+        <v>68.95</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -8648,7 +8736,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>7G9N9DKE_LTR</t>
+          <t>349M1F6E_LTR</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -8662,7 +8750,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>12.89</v>
+        <v>32.1</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -8704,21 +8792,21 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>17VCXV4H_LTR</t>
+          <t>3PHOUNVX_LTR</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>GBRDILTR220017</t>
+          <t>DEUDILTR220015</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>148.92</v>
+        <v>461.23</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -8726,7 +8814,7 @@
         </is>
       </c>
       <c r="F142" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>44860</v>
@@ -8736,7 +8824,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>KREN27460SH022</t>
+          <t>KREN27459SH022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8760,21 +8848,21 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>4EJSQ32M_LTR</t>
+          <t>7G9N9DKE_LTR</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>GBRDILTR220017</t>
+          <t>DEUDILTR220015</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>184.9</v>
+        <v>12.89</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -8782,7 +8870,7 @@
         </is>
       </c>
       <c r="F143" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="G143" s="2" t="n">
         <v>44860</v>
@@ -8792,7 +8880,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>KREN27460SH022</t>
+          <t>KREN27459SH022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8816,7 +8904,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>542JAALG_LTR</t>
+          <t>17VCXV4H_LTR</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -8830,7 +8918,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>142.94</v>
+        <v>148.92</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -8872,7 +8960,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6VIMP9UD_LTR</t>
+          <t>4EJSQ32M_LTR</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -8886,7 +8974,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>37.77</v>
+        <v>184.9</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -8928,21 +9016,21 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>3GFYNSZZ_NTX</t>
+          <t>542JAALG_LTR</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DEUDINTX220021</t>
+          <t>GBRDILTR220017</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>179.24</v>
+        <v>142.94</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -8950,17 +9038,17 @@
         </is>
       </c>
       <c r="F146" s="2" t="n">
-        <v>44859</v>
+        <v>44854</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>44861</v>
+        <v>44860</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>KREN27225SH022</t>
+          <t>KREN27460SH022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -8975,30 +9063,30 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>4496Y4LI_NTX</t>
+          <t>6VIMP9UD_LTR</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DEUDINTX220021</t>
+          <t>GBRDILTR220017</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>350.67</v>
+        <v>37.77</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -9006,17 +9094,17 @@
         </is>
       </c>
       <c r="F147" s="2" t="n">
-        <v>44859</v>
+        <v>44854</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>44861</v>
+        <v>44860</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>KREN27225SH022</t>
+          <t>KREN27460SH022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9031,30 +9119,30 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>3BMHYPDT_NTX</t>
+          <t>3GFYNSZZ_NTX</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>GBRDINTX220017</t>
+          <t>DEUDINTX220021</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>43.17</v>
+        <v>179.24</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -9072,7 +9160,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>KREN27224SH022</t>
+          <t>KREN27225SH022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9096,21 +9184,21 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>6E81GOFC_NTX</t>
+          <t>4496Y4LI_NTX</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>GBRDINTX220017</t>
+          <t>DEUDINTX220021</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>328.99</v>
+        <v>350.67</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -9128,7 +9216,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>KREN27224SH022</t>
+          <t>KREN27225SH022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9152,7 +9240,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>189IU9PE_LTN</t>
+          <t>3BMHYPDT_NTX</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -9162,11 +9250,11 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>GBRDILTN220023</t>
+          <t>GBRDINTX220017</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>24.5</v>
+        <v>43.17</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -9174,17 +9262,17 @@
         </is>
       </c>
       <c r="F150" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="G150" s="2" t="n">
         <v>44861</v>
       </c>
-      <c r="G150" s="2" t="n">
-        <v>44862</v>
-      </c>
       <c r="H150" s="2" t="n">
-        <v>44951</v>
+        <v>44949</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>KREN27462SH022</t>
+          <t>KREN27224SH022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9199,16 +9287,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N150" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3BMHYPDT_LTN</t>
+          <t>6E81GOFC_NTX</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -9218,11 +9306,11 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>GBRDILTN220023</t>
+          <t>GBRDINTX220017</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>14.37</v>
+        <v>328.99</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -9230,17 +9318,17 @@
         </is>
       </c>
       <c r="F151" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="G151" s="2" t="n">
         <v>44861</v>
       </c>
-      <c r="G151" s="2" t="n">
-        <v>44862</v>
-      </c>
       <c r="H151" s="2" t="n">
-        <v>44951</v>
+        <v>44949</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>KREN27462SH022</t>
+          <t>KREN27224SH022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9255,16 +9343,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N151" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>4FODYS4Z_LTN</t>
+          <t>189IU9PE_LTN</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -9278,7 +9366,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>228.59</v>
+        <v>24.5</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -9320,7 +9408,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>6E81GOFC_LTN</t>
+          <t>3BMHYPDT_LTN</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -9376,21 +9464,21 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3GFYNSZZ_LTN</t>
+          <t>4FODYS4Z_LTN</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DEUDILTN220021</t>
+          <t>GBRDILTN220023</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>334.18</v>
+        <v>228.59</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -9398,17 +9486,17 @@
         </is>
       </c>
       <c r="F154" s="2" t="n">
-        <v>44862</v>
+        <v>44861</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="H154" s="2" t="n">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>KREN27461SH022</t>
+          <t>KREN27462SH022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -9423,7 +9511,7 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N154" t="n">
         <v>5</v>
@@ -9432,21 +9520,21 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3SANQWFP_LTN</t>
+          <t>6E81GOFC_LTN</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DEUDILTN220021</t>
+          <t>GBRDILTN220023</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>31.92</v>
+        <v>14.37</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -9454,17 +9542,17 @@
         </is>
       </c>
       <c r="F155" s="2" t="n">
-        <v>44862</v>
+        <v>44861</v>
       </c>
       <c r="G155" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="H155" s="2" t="n">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>KREN27461SH022</t>
+          <t>KREN27462SH022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -9479,7 +9567,7 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N155" t="n">
         <v>5</v>
@@ -9488,7 +9576,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>41M9IUHY_LTN</t>
+          <t>3GFYNSZZ_LTN</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -9502,7 +9590,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>15.71</v>
+        <v>334.18</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -9544,7 +9632,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>4496Y4LI_LTN</t>
+          <t>3SANQWFP_LTN</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -9558,7 +9646,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>395.42</v>
+        <v>31.92</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -9600,7 +9688,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>69LEEWKJ_LTN</t>
+          <t>41M9IUHY_LTN</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -9614,7 +9702,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>173.28</v>
+        <v>15.71</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -9656,7 +9744,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>382Y6DXE_NTX</t>
+          <t>4496Y4LI_LTN</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -9666,11 +9754,11 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DEUDINTX220022</t>
+          <t>DEUDILTN220021</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>57.55</v>
+        <v>395.42</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -9678,17 +9766,17 @@
         </is>
       </c>
       <c r="F159" s="2" t="n">
-        <v>44865</v>
+        <v>44862</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>44867</v>
+        <v>44862</v>
       </c>
       <c r="H159" s="2" t="n">
-        <v>44955</v>
+        <v>44952</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>KREN27299SH022</t>
+          <t>KREN27461SH022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -9703,16 +9791,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N159" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>3UHBMIIO_NTX</t>
+          <t>69LEEWKJ_LTN</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -9722,11 +9810,11 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DEUDINTX220022</t>
+          <t>DEUDILTN220021</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>34.17</v>
+        <v>173.28</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -9734,17 +9822,17 @@
         </is>
       </c>
       <c r="F160" s="2" t="n">
-        <v>44865</v>
+        <v>44862</v>
       </c>
       <c r="G160" s="2" t="n">
-        <v>44867</v>
+        <v>44862</v>
       </c>
       <c r="H160" s="2" t="n">
-        <v>44955</v>
+        <v>44952</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>KREN27299SH022</t>
+          <t>KREN27461SH022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -9759,30 +9847,30 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N160" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>3U9BWVFX_NTX</t>
+          <t>382Y6DXE_NTX</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>GBRDINTX220018</t>
+          <t>DEUDINTX220022</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>244.82</v>
+        <v>57.55</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -9800,7 +9888,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>KREN27400SH022</t>
+          <t>KREN27299SH022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -9824,21 +9912,21 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>6JYK4DOZ_NTX</t>
+          <t>3UHBMIIO_NTX</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>GBRDINTX220018</t>
+          <t>DEUDINTX220022</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>67.02</v>
+        <v>34.17</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -9856,7 +9944,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>KREN27400SH022</t>
+          <t>KREN27299SH022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -9880,21 +9968,21 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>5JO3V5NY_LTR</t>
+          <t>3U9BWVFX_NTX</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>JPNDILTR220040</t>
+          <t>GBRDINTX220018</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>87</v>
+        <v>244.82</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -9902,17 +9990,17 @@
         </is>
       </c>
       <c r="F163" s="2" t="n">
-        <v>44866</v>
+        <v>44865</v>
       </c>
       <c r="G163" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="H163" s="2" t="n">
-        <v>44972</v>
+        <v>44955</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>KRJN04458SH022</t>
+          <t>KREN27400SH022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -9920,41 +10008,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>KRJN04458SH022</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N163" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>7VCI939K_LTR</t>
+          <t>6JYK4DOZ_NTX</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>JPNDILTR220040</t>
+          <t>GBRDINTX220018</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>659</v>
+        <v>67.02</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -9962,17 +10046,17 @@
         </is>
       </c>
       <c r="F164" s="2" t="n">
-        <v>44866</v>
+        <v>44865</v>
       </c>
       <c r="G164" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="H164" s="2" t="n">
-        <v>44972</v>
+        <v>44955</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>KRJN04458SH022</t>
+          <t>KREN27400SH022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9980,41 +10064,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>KRJN04458SH022</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N164" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>3GFYNSZZ_LTR</t>
+          <t>5JO3V5NY_LTR</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DEUDILTR220016</t>
+          <t>JPNDILTR220040</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>253.35</v>
+        <v>87</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -10022,17 +10102,17 @@
         </is>
       </c>
       <c r="F165" s="2" t="n">
-        <v>44868</v>
+        <v>44866</v>
       </c>
       <c r="G165" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="H165" s="2" t="n">
-        <v>44958</v>
+        <v>44972</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>KREN27641SH022</t>
+          <t>KRJN04458SH022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -10040,37 +10120,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>KRJN04458SH022</t>
+        </is>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N165" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>3SANQWFP_LTR</t>
+          <t>7VCI939K_LTR</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DEUDILTR220016</t>
+          <t>JPNDILTR220040</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>30.58</v>
+        <v>659</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -10078,17 +10162,17 @@
         </is>
       </c>
       <c r="F166" s="2" t="n">
-        <v>44868</v>
+        <v>44866</v>
       </c>
       <c r="G166" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="H166" s="2" t="n">
-        <v>44958</v>
+        <v>44972</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>KREN27641SH022</t>
+          <t>KRJN04458SH022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -10096,23 +10180,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>KRJN04458SH022</t>
+        </is>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N166" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>3CXW97SB_LTR</t>
+          <t>3GFYNSZZ_LTR</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -10126,7 +10214,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>12.89</v>
+        <v>253.35</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -10168,7 +10256,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>4496Y4LI_LTR</t>
+          <t>3SANQWFP_LTR</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -10182,7 +10270,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>629.28</v>
+        <v>30.58</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -10224,7 +10312,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>69LEEWKJ_LTR</t>
+          <t>3CXW97SB_LTR</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -10238,7 +10326,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>262.78</v>
+        <v>12.89</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -10280,7 +10368,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>41M9IUHY_LTR</t>
+          <t>4496Y4LI_LTR</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -10294,7 +10382,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>13.79</v>
+        <v>629.28</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -10336,21 +10424,21 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>189IU9PE_LTR</t>
+          <t>69LEEWKJ_LTR</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>GBRDILTR220018</t>
+          <t>DEUDILTR220016</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>37.77</v>
+        <v>262.78</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -10358,17 +10446,17 @@
         </is>
       </c>
       <c r="F171" s="2" t="n">
-        <v>44862</v>
+        <v>44868</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44868</v>
+        <v>44867</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>KREN27642SH022</t>
+          <t>KREN27641SH022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -10392,21 +10480,21 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>3BMHYPDT_LTR</t>
+          <t>41M9IUHY_LTR</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>GBRDILTR220018</t>
+          <t>DEUDILTR220016</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>201.5</v>
+        <v>13.79</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -10414,17 +10502,17 @@
         </is>
       </c>
       <c r="F172" s="2" t="n">
-        <v>44862</v>
+        <v>44868</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44868</v>
+        <v>44867</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>KREN27642SH022</t>
+          <t>KREN27641SH022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -10448,7 +10536,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>4FODYS4Z_LTR</t>
+          <t>189IU9PE_LTR</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -10504,7 +10592,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>6E81GOFC_LTR</t>
+          <t>3BMHYPDT_LTR</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -10518,7 +10606,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>208.21</v>
+        <v>201.5</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -10532,7 +10620,7 @@
         <v>44868</v>
       </c>
       <c r="H174" s="2" t="n">
-        <v>44952</v>
+        <v>44958</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -10551,30 +10639,30 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N174" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>49KX4R5M_NTX</t>
+          <t>4FODYS4Z_LTR</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>JPNDINTX220023</t>
+          <t>GBRDILTR220018</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>45</v>
+        <v>37.77</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -10582,17 +10670,17 @@
         </is>
       </c>
       <c r="F175" s="2" t="n">
-        <v>44872</v>
+        <v>44862</v>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="H175" s="2" t="n">
-        <v>44972</v>
+        <v>44958</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>KRJN04484SH022</t>
+          <t>KREN27642SH022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10600,41 +10688,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>KRJN04484SH022</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="N175" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>4KOHQFAY_NTX</t>
+          <t>6E81GOFC_LTR</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>JPNDINTX220023</t>
+          <t>GBRDILTR220018</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>145</v>
+        <v>208.21</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -10642,17 +10726,17 @@
         </is>
       </c>
       <c r="F176" s="2" t="n">
-        <v>44872</v>
+        <v>44862</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="H176" s="2" t="n">
-        <v>44972</v>
+        <v>44952</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>KRJN04484SH022</t>
+          <t>KREN27642SH022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -10660,27 +10744,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>KRJN04484SH022</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N176" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>5I9JFA8A_NTX</t>
+          <t>49KX4R5M_NTX</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -10694,7 +10774,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -10740,7 +10820,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>41CC755Q_LTN</t>
+          <t>4KOHQFAY_NTX</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -10750,11 +10830,11 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>JPNDILTN220059</t>
+          <t>JPNDINTX220023</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -10762,7 +10842,7 @@
         </is>
       </c>
       <c r="F178" s="2" t="n">
-        <v>44867</v>
+        <v>44872</v>
       </c>
       <c r="G178" s="2" t="n">
         <v>44874</v>
@@ -10772,7 +10852,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>KRJN04483SH022</t>
+          <t>KRJN04484SH022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -10782,7 +10862,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>KRJN04483SH022</t>
+          <t>KRJN04484SH022</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -10800,7 +10880,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>49KX4R5M_LTN</t>
+          <t>5I9JFA8A_NTX</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10810,11 +10890,11 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>JPNDILTN220059</t>
+          <t>JPNDINTX220023</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>282</v>
+        <v>27</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -10822,7 +10902,7 @@
         </is>
       </c>
       <c r="F179" s="2" t="n">
-        <v>44867</v>
+        <v>44872</v>
       </c>
       <c r="G179" s="2" t="n">
         <v>44874</v>
@@ -10832,7 +10912,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>KRJN04483SH022</t>
+          <t>KRJN04484SH022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10842,7 +10922,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>KRJN04483SH022</t>
+          <t>KRJN04484SH022</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -10860,7 +10940,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>5I9JFA8A_LTN</t>
+          <t>41CC755Q_LTN</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -10874,7 +10954,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -10920,21 +11000,21 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>382Y6DXE_LTN</t>
+          <t>49KX4R5M_LTN</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DEUDILTN220022</t>
+          <t>JPNDILTN220059</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>11.99</v>
+        <v>282</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -10942,17 +11022,17 @@
         </is>
       </c>
       <c r="F181" s="2" t="n">
-        <v>44868</v>
+        <v>44867</v>
       </c>
       <c r="G181" s="2" t="n">
         <v>44874</v>
       </c>
       <c r="H181" s="2" t="n">
-        <v>44958</v>
+        <v>44972</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>KREN27463SH022</t>
+          <t>KRJN04483SH022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10960,37 +11040,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>KRJN04483SH022</t>
+        </is>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N181" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>3UHBMIIO_LTN</t>
+          <t>5I9JFA8A_LTN</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DEUDILTN220022</t>
+          <t>JPNDILTN220059</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>27.2</v>
+        <v>39</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -10998,17 +11082,17 @@
         </is>
       </c>
       <c r="F182" s="2" t="n">
-        <v>44868</v>
+        <v>44867</v>
       </c>
       <c r="G182" s="2" t="n">
         <v>44874</v>
       </c>
       <c r="H182" s="2" t="n">
-        <v>44958</v>
+        <v>44972</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>KREN27463SH022</t>
+          <t>KRJN04483SH022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11016,23 +11100,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>KRJN04483SH022</t>
+        </is>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>4EMLJBIM_LTN</t>
+          <t>382Y6DXE_LTN</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -11046,7 +11134,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>111</v>
+        <v>11.99</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -11088,21 +11176,21 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>3U9BWVFX_LTN</t>
+          <t>3UHBMIIO_LTN</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>GBRDILTN220024</t>
+          <t>DEUDILTN220022</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>359.73</v>
+        <v>27.2</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -11120,7 +11208,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>KREN27424SH022</t>
+          <t>KREN27463SH022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11144,21 +11232,21 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>6JYK4DOZ_LTN</t>
+          <t>4EMLJBIM_LTN</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>GBRDILTN220024</t>
+          <t>DEUDILTN220022</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>546.97</v>
+        <v>111</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -11176,7 +11264,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>KREN27424SH022</t>
+          <t>KREN27463SH022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -11200,7 +11288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>74G7ZPMG_LTN</t>
+          <t>3U9BWVFX_LTN</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -11214,7 +11302,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>12.25</v>
+        <v>359.73</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -11256,7 +11344,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>3U9BWVFX_JSN</t>
+          <t>6JYK4DOZ_LTN</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -11266,11 +11354,11 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>GBRDIJSN220001</t>
+          <t>GBRDILTN220024</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>80.52</v>
+        <v>546.97</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -11288,7 +11376,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>KREN28042SH022</t>
+          <t>KREN27424SH022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -11312,21 +11400,21 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>4EMLJBIM_JSN</t>
+          <t>74G7ZPMG_LTN</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DEUDIJSN220001</t>
+          <t>GBRDILTN220024</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>80.83</v>
+        <v>12.25</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -11344,7 +11432,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>KREN28043SH022</t>
+          <t>KREN27424SH022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -11368,21 +11456,21 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>3LB9VBOL_LTN</t>
+          <t>3U9BWVFX_JSN</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DEUDILTN220023</t>
+          <t>GBRDIJSN220001</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>19.99</v>
+        <v>80.52</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -11390,17 +11478,17 @@
         </is>
       </c>
       <c r="F189" s="2" t="n">
-        <v>44875</v>
+        <v>44868</v>
       </c>
       <c r="G189" s="2" t="n">
-        <v>44876</v>
+        <v>44874</v>
       </c>
       <c r="H189" s="2" t="n">
-        <v>44965</v>
+        <v>44958</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>KREN27643SH022</t>
+          <t>KREN28042SH022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -11415,16 +11503,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N189" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>4VELEW6Y_LTN</t>
+          <t>4EMLJBIM_JSN</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -11434,11 +11522,11 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DEUDILTN220023</t>
+          <t>DEUDIJSN220001</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>98.67</v>
+        <v>80.83</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -11446,17 +11534,17 @@
         </is>
       </c>
       <c r="F190" s="2" t="n">
-        <v>44875</v>
+        <v>44868</v>
       </c>
       <c r="G190" s="2" t="n">
-        <v>44876</v>
+        <v>44874</v>
       </c>
       <c r="H190" s="2" t="n">
-        <v>44965</v>
+        <v>44958</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>KREN27643SH022</t>
+          <t>KREN28043SH022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -11471,16 +11559,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N190" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>5DQOLYTM_LTN</t>
+          <t>3LB9VBOL_LTN</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -11494,7 +11582,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>171.38</v>
+        <v>19.99</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -11536,7 +11624,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>5OTT41IK_LTN</t>
+          <t>4VELEW6Y_LTN</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -11550,7 +11638,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>12.92</v>
+        <v>98.67</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -11592,21 +11680,21 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>4RP8J8IG_LTN</t>
+          <t>5DQOLYTM_LTN</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>GBRDILTN220025</t>
+          <t>DEUDILTN220023</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>170.17</v>
+        <v>171.38</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -11624,7 +11712,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>KREN27644SH022</t>
+          <t>KREN27643SH022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11648,21 +11736,21 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>6NR25R3R_LTN</t>
+          <t>5OTT41IK_LTN</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>GBRDILTN220025</t>
+          <t>DEUDILTN220023</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>342.2</v>
+        <v>12.92</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -11680,7 +11768,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>KREN27644SH022</t>
+          <t>KREN27643SH022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11704,7 +11792,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>7RSP2AYV_LTN</t>
+          <t>4RP8J8IG_LTN</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -11718,7 +11806,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>919.79</v>
+        <v>170.17</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -11760,21 +11848,21 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>3LB9VBOL_NTX</t>
+          <t>6NR25R3R_LTN</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DEUDINTX220023</t>
+          <t>GBRDILTN220025</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>43.83</v>
+        <v>342.2</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -11782,17 +11870,17 @@
         </is>
       </c>
       <c r="F196" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="G196" s="2" t="n">
         <v>44876</v>
       </c>
-      <c r="G196" s="2" t="n">
-        <v>44879</v>
-      </c>
       <c r="H196" s="2" t="n">
-        <v>44966</v>
+        <v>44965</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>KREN27645SH022</t>
+          <t>KREN27644SH022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -11807,7 +11895,7 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N196" t="n">
         <v>20</v>
@@ -11816,21 +11904,21 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>7ZM683DK_NTX</t>
+          <t>7RSP2AYV_LTN</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DEUDINTX220023</t>
+          <t>GBRDILTN220025</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>79.92</v>
+        <v>919.79</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -11838,17 +11926,17 @@
         </is>
       </c>
       <c r="F197" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="G197" s="2" t="n">
         <v>44876</v>
       </c>
-      <c r="G197" s="2" t="n">
-        <v>44879</v>
-      </c>
       <c r="H197" s="2" t="n">
-        <v>44966</v>
+        <v>44965</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>KREN27645SH022</t>
+          <t>KREN27644SH022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -11863,7 +11951,7 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N197" t="n">
         <v>20</v>
@@ -11872,21 +11960,21 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>7RSP2AYV_NTX</t>
+          <t>3LB9VBOL_NTX</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>GBRDINTX220019</t>
+          <t>DEUDINTX220023</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>217.96</v>
+        <v>43.83</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -11904,7 +11992,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>KREN27646SH022</t>
+          <t>KREN27645SH022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11928,7 +12016,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>8KMAOCPT_NTX</t>
+          <t>7ZM683DK_NTX</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11938,11 +12026,11 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DEUDINTX220024</t>
+          <t>DEUDINTX220023</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>242.05</v>
+        <v>79.92</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -11950,17 +12038,17 @@
         </is>
       </c>
       <c r="F199" s="2" t="n">
-        <v>44881</v>
+        <v>44876</v>
       </c>
       <c r="G199" s="2" t="n">
-        <v>44881</v>
+        <v>44879</v>
       </c>
       <c r="H199" s="2" t="n">
-        <v>44971</v>
+        <v>44966</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>KREN27841SH022</t>
+          <t>KREN27645SH022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11975,16 +12063,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N199" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>4586N5QV_NTX</t>
+          <t>7RSP2AYV_NTX</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11994,11 +12082,11 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>GBRDINTX220020</t>
+          <t>GBRDINTX220019</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>47.72</v>
+        <v>217.96</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -12006,17 +12094,17 @@
         </is>
       </c>
       <c r="F200" s="2" t="n">
-        <v>44881</v>
+        <v>44876</v>
       </c>
       <c r="G200" s="2" t="n">
-        <v>44881</v>
+        <v>44879</v>
       </c>
       <c r="H200" s="2" t="n">
-        <v>44971</v>
+        <v>44966</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>KREN27842SH022</t>
+          <t>KREN27646SH022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -12031,30 +12119,30 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N200" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2J9SF6LV_NTX</t>
+          <t>8KMAOCPT_NTX</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>GBRDINTX220020</t>
+          <t>DEUDINTX220024</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>915.64</v>
+        <v>242.05</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -12072,7 +12160,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>KREN27842SH022</t>
+          <t>KREN27841SH022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -12096,21 +12184,21 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>49KX4R5M_LTR</t>
+          <t>4586N5QV_NTX</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>JPNDILTR220041</t>
+          <t>GBRDINTX220020</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>149</v>
+        <v>47.72</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -12118,17 +12206,17 @@
         </is>
       </c>
       <c r="F202" s="2" t="n">
-        <v>44879</v>
+        <v>44881</v>
       </c>
       <c r="G202" s="2" t="n">
-        <v>44882</v>
+        <v>44881</v>
       </c>
       <c r="H202" s="2" t="n">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KREN27842SH022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -12136,18 +12224,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>KRJN04560SH022</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N202" t="n">
         <v>25</v>
@@ -12156,21 +12240,21 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>4TEIDKGK_LTR</t>
+          <t>2J9SF6LV_NTX</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>JPNDILTR220041</t>
+          <t>GBRDINTX220020</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>382</v>
+        <v>915.64</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -12178,17 +12262,17 @@
         </is>
       </c>
       <c r="F203" s="2" t="n">
-        <v>44879</v>
+        <v>44881</v>
       </c>
       <c r="G203" s="2" t="n">
-        <v>44882</v>
+        <v>44881</v>
       </c>
       <c r="H203" s="2" t="n">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KREN27842SH022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -12196,18 +12280,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>KRJN04560SH022</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N203" t="n">
         <v>25</v>
@@ -12216,7 +12296,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>5I9JFA8A_LTR</t>
+          <t>49KX4R5M_LTR</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -12230,7 +12310,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>564</v>
+        <v>149</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -12276,7 +12356,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>8LWFC7PX_LTR</t>
+          <t>4TEIDKGK_LTR</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -12286,11 +12366,11 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>JPNDILTR220043</t>
+          <t>JPNDILTR220041</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>92</v>
+        <v>382</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -12308,7 +12388,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>KRJN04572SH022</t>
+          <t>KRJN04560SH022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -12318,7 +12398,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>KRJN04572SH022</t>
+          <t>KRJN04560SH022</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -12336,21 +12416,21 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>4RP8J8IG_LTR</t>
+          <t>5I9JFA8A_LTR</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>GBRDILTR220023</t>
+          <t>JPNDILTR220041</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>29.63</v>
+        <v>564</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -12364,11 +12444,11 @@
         <v>44882</v>
       </c>
       <c r="H206" s="2" t="n">
-        <v>44969</v>
+        <v>44972</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>KREN28041SH022</t>
+          <t>KRJN04560SH022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -12376,37 +12456,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>KRJN04560SH022</t>
+        </is>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N206" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>6NR25R3R_LTR</t>
+          <t>8LWFC7PX_LTR</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>GBRDILTR220023</t>
+          <t>JPNDILTR220043</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>52.76</v>
+        <v>92</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -12420,11 +12504,11 @@
         <v>44882</v>
       </c>
       <c r="H207" s="2" t="n">
-        <v>44969</v>
+        <v>44972</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>KREN28041SH022</t>
+          <t>KRJN04572SH022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12432,23 +12516,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>KRJN04572SH022</t>
+        </is>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N207" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>7RSP2AYV_LTR</t>
+          <t>4RP8J8IG_LTR</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -12462,7 +12550,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>546.87</v>
+        <v>29.63</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -12504,21 +12592,21 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>8KMAOCPT_LTN</t>
+          <t>6NR25R3R_LTR</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DEUDILTN220024</t>
+          <t>GBRDILTR220023</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>11.99</v>
+        <v>52.76</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -12526,17 +12614,17 @@
         </is>
       </c>
       <c r="F209" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="G209" s="2" t="n">
         <v>44882</v>
       </c>
-      <c r="G209" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="H209" s="2" t="n">
-        <v>44972</v>
+        <v>44969</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>KREN27837SH022</t>
+          <t>KREN28041SH022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -12551,30 +12639,30 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N209" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1ER7N9JP_LTN</t>
+          <t>7RSP2AYV_LTR</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DEUDILTN220024</t>
+          <t>GBRDILTR220023</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>157.32</v>
+        <v>546.87</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -12582,17 +12670,17 @@
         </is>
       </c>
       <c r="F210" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="G210" s="2" t="n">
         <v>44882</v>
       </c>
-      <c r="G210" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="H210" s="2" t="n">
-        <v>44972</v>
+        <v>44969</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>KREN27837SH022</t>
+          <t>KREN28041SH022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -12607,30 +12695,30 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N210" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>4586N5QV_LTN</t>
+          <t>8KMAOCPT_LTN</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>GBRDILTN220026</t>
+          <t>DEUDILTN220024</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>46.77</v>
+        <v>11.99</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -12648,7 +12736,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>KREN27838SH022</t>
+          <t>KREN27837SH022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -12672,21 +12760,21 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2J9SF6LV_LTN</t>
+          <t>1ER7N9JP_LTN</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>GBRDILTN220026</t>
+          <t>DEUDILTN220024</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>2567.44</v>
+        <v>157.32</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -12704,7 +12792,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>KREN27838SH022</t>
+          <t>KREN27837SH022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -12728,21 +12816,21 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>252LPA6W_NTX</t>
+          <t>4586N5QV_LTN</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>GBRDILTN220026</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>23</v>
+        <v>46.77</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -12750,17 +12838,17 @@
         </is>
       </c>
       <c r="F213" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="G213" s="2" t="n">
         <v>44887</v>
-      </c>
-      <c r="G213" s="2" t="n">
-        <v>44890</v>
       </c>
       <c r="H213" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KREN27838SH022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -12768,14 +12856,10 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>KRJN04561SH022</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M213" t="n">
@@ -12788,21 +12872,21 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>3FNT4X2I_NTX</t>
+          <t>2J9SF6LV_LTN</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>GBRDILTN220026</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>75</v>
+        <v>2567.44</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -12810,17 +12894,17 @@
         </is>
       </c>
       <c r="F214" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="G214" s="2" t="n">
         <v>44887</v>
-      </c>
-      <c r="G214" s="2" t="n">
-        <v>44890</v>
       </c>
       <c r="H214" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KREN27838SH022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -12828,14 +12912,10 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>KRJN04561SH022</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -12848,7 +12928,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>3PZDZWZO_NTX</t>
+          <t>252LPA6W_NTX</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -12862,7 +12942,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -12908,7 +12988,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>6YF9IC8D_NTX</t>
+          <t>3FNT4X2I_NTX</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -12922,7 +13002,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -12968,7 +13048,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>7HC3LGGK_NTX</t>
+          <t>3PZDZWZO_NTX</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -12982,7 +13062,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -13028,21 +13108,21 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>8KMAOCPT_LTR</t>
+          <t>6YF9IC8D_NTX</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>DEUDILTR220019</t>
+          <t>JPNDINTX220024</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>188.2</v>
+        <v>86</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -13050,17 +13130,17 @@
         </is>
       </c>
       <c r="F218" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="G218" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="H218" s="2" t="n">
-        <v>44978</v>
+        <v>44972</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>KREN28093SH022</t>
+          <t>KRJN04561SH022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -13068,37 +13148,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>KRJN04561SH022</t>
+        </is>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N218" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>4586N5QV_LTR</t>
+          <t>7HC3LGGK_NTX</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>GBRDILTR220024</t>
+          <t>JPNDINTX220024</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>157.74</v>
+        <v>173</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -13106,17 +13190,17 @@
         </is>
       </c>
       <c r="F219" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="G219" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="H219" s="2" t="n">
-        <v>44978</v>
+        <v>44972</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>KREN28094SH022</t>
+          <t>KRJN04561SH022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -13124,37 +13208,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>KRJN04561SH022</t>
+        </is>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N219" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2J9SF6LV_LTR</t>
+          <t>8KMAOCPT_LTR</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>GBRDILTR220024</t>
+          <t>DEUDILTR220019</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>191.43</v>
+        <v>188.2</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -13172,7 +13260,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>KREN28094SH022</t>
+          <t>KREN28093SH022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13196,21 +13284,21 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>641IA5TL_LTN</t>
+          <t>4586N5QV_LTR</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>JPNDILTN220061</t>
+          <t>GBRDILTR220024</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>706</v>
+        <v>157.74</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -13218,17 +13306,17 @@
         </is>
       </c>
       <c r="F221" s="2" t="n">
-        <v>44893</v>
+        <v>44888</v>
       </c>
       <c r="G221" s="2" t="n">
-        <v>44894</v>
+        <v>44890</v>
       </c>
       <c r="H221" s="2" t="n">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KREN28094SH022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -13236,41 +13324,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>KRJN04599SH022</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N221" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTN</t>
+          <t>2J9SF6LV_LTR</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>JPNDILTN220061</t>
+          <t>GBRDILTR220024</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1500</v>
+        <v>191.43</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -13278,17 +13362,17 @@
         </is>
       </c>
       <c r="F222" s="2" t="n">
-        <v>44893</v>
+        <v>44888</v>
       </c>
       <c r="G222" s="2" t="n">
-        <v>44894</v>
+        <v>44890</v>
       </c>
       <c r="H222" s="2" t="n">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KREN28094SH022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13296,27 +13380,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>KRJN04599SH022</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N222" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTN</t>
+          <t>641IA5TL_LTN</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -13330,7 +13410,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>3949</v>
+        <v>706</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -13376,7 +13456,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>29OK49DG_LTN</t>
+          <t>6A7CD2BK_LTN</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -13386,11 +13466,11 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>JPNDILTN220061</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>40</v>
+        <v>1500</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -13398,7 +13478,7 @@
         </is>
       </c>
       <c r="F224" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G224" s="2" t="n">
         <v>44894</v>
@@ -13408,7 +13488,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -13418,7 +13498,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -13436,7 +13516,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2AWNNE7S_LTN</t>
+          <t>6QJEN9KM_LTN</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -13446,11 +13526,11 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>JPNDILTN220061</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>8</v>
+        <v>3949</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -13458,7 +13538,7 @@
         </is>
       </c>
       <c r="F225" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G225" s="2" t="n">
         <v>44894</v>
@@ -13468,7 +13548,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -13478,7 +13558,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -13496,7 +13576,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>3FNT4X2I_LTN</t>
+          <t>29OK49DG_LTN</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -13510,7 +13590,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -13556,7 +13636,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTN</t>
+          <t>2AWNNE7S_LTN</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -13570,7 +13650,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -13616,21 +13696,21 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>4V86CXCZ_LTN</t>
+          <t>3FNT4X2I_LTN</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>JPNDILTN220060</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -13644,11 +13724,11 @@
         <v>44894</v>
       </c>
       <c r="H228" s="2" t="n">
-        <v>44980</v>
+        <v>44972</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KRJN04567SH022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -13656,37 +13736,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>KRJN04567SH022</t>
+        </is>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N228" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>5L15ABDW_LTN</t>
+          <t>3PZDZWZO_LTN</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>JPNDILTN220060</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>104.34</v>
+        <v>47</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -13700,11 +13784,11 @@
         <v>44894</v>
       </c>
       <c r="H229" s="2" t="n">
-        <v>44980</v>
+        <v>44972</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KRJN04567SH022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -13712,23 +13796,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>KRJN04567SH022</t>
+        </is>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N229" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>6INHXIPT_LTN</t>
+          <t>4V86CXCZ_LTN</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -13742,7 +13830,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>2316.84</v>
+        <v>48</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -13784,21 +13872,21 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>11KVXSVJ_LTN</t>
+          <t>5L15ABDW_LTN</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>80.02</v>
+        <v>104.34</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -13806,17 +13894,17 @@
         </is>
       </c>
       <c r="F231" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="G231" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H231" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13831,30 +13919,30 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N231" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>4BMEMP8C_LTN</t>
+          <t>6INHXIPT_LTN</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>104.34</v>
+        <v>2316.84</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -13862,17 +13950,17 @@
         </is>
       </c>
       <c r="F232" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="G232" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H232" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13887,16 +13975,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N232" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>4L57XNKE_LTN</t>
+          <t>11KVXSVJ_LTN</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -13910,7 +13998,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>274.2</v>
+        <v>80.02</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -13952,21 +14040,21 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>6QJEN9KM_ROG</t>
+          <t>4BMEMP8C_LTN</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>JPNDIROG220001</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>850</v>
+        <v>104.34</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -13974,17 +14062,17 @@
         </is>
       </c>
       <c r="F234" s="2" t="n">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="G234" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="H234" s="2" t="n">
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>KRJN04633SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13992,41 +14080,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>KRJN04633SH022</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N234" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>641IA5TL_NTX</t>
+          <t>4L57XNKE_LTN</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>JPNDINTX220025</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>773</v>
+        <v>274.2</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -14034,17 +14118,17 @@
         </is>
       </c>
       <c r="F235" s="2" t="n">
+        <v>44889</v>
+      </c>
+      <c r="G235" s="2" t="n">
         <v>44894</v>
       </c>
-      <c r="G235" s="2" t="n">
-        <v>44896</v>
-      </c>
       <c r="H235" s="2" t="n">
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>KRJN04595SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14059,16 +14143,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N235" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>6A7CD2BK_NTX</t>
+          <t>6QJEN9KM_ROG</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -14078,11 +14162,11 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>JPNDINTX220025</t>
+          <t>JPNDIROG220001</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>136</v>
+        <v>850</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -14090,17 +14174,17 @@
         </is>
       </c>
       <c r="F236" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="G236" s="2" t="n">
-        <v>44896</v>
+        <v>44895</v>
       </c>
       <c r="H236" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>KRJN04595SH022</t>
+          <t>KRJN04633SH022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14108,10 +14192,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>KRJN04633SH022</t>
+        </is>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M236" t="n">
@@ -14124,7 +14212,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>6QJEN9KM_NTX</t>
+          <t>641IA5TL_NTX</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -14138,7 +14226,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1729</v>
+        <v>773</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -14180,7 +14268,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>4GOUUIUT_LTR</t>
+          <t>6A7CD2BK_NTX</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -14190,11 +14278,11 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>JPNDILTR220042</t>
+          <t>JPNDINTX220025</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -14202,17 +14290,17 @@
         </is>
       </c>
       <c r="F238" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="G238" s="2" t="n">
-        <v>44900</v>
+        <v>44896</v>
       </c>
       <c r="H238" s="2" t="n">
-        <v>45000</v>
+        <v>44972</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KRJN04595SH022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14220,27 +14308,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>KRJN04629SH022</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N238" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>27J1DD2O_LTR</t>
+          <t>6QJEN9KM_NTX</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -14250,11 +14334,11 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>JPNDINTX220025</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>45</v>
+        <v>1729</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -14262,17 +14346,17 @@
         </is>
       </c>
       <c r="F239" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="G239" s="2" t="n">
-        <v>44900</v>
+        <v>44896</v>
       </c>
       <c r="H239" s="2" t="n">
-        <v>45000</v>
+        <v>44972</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04595SH022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14280,27 +14364,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>KRJN04630SH022</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N239" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTR</t>
+          <t>4GOUUIUT_LTR</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -14310,11 +14390,11 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>JPNDILTR220042</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>522</v>
+        <v>20</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -14332,7 +14412,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04629SH022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14342,7 +14422,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04629SH022</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -14360,7 +14440,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>6YF9IC8D_LTR</t>
+          <t>27J1DD2O_LTR</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -14420,7 +14500,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>7HC3LGGK_LTR</t>
+          <t>3PZDZWZO_LTR</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -14434,7 +14514,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>859</v>
+        <v>522</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -14480,7 +14560,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>641IA5TL_LTR</t>
+          <t>6YF9IC8D_LTR</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -14490,11 +14570,11 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1638</v>
+        <v>45</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -14502,17 +14582,17 @@
         </is>
       </c>
       <c r="F243" s="2" t="n">
-        <v>44905</v>
+        <v>44897</v>
       </c>
       <c r="G243" s="2" t="n">
-        <v>44907</v>
+        <v>44900</v>
       </c>
       <c r="H243" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14522,7 +14602,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -14540,7 +14620,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTR</t>
+          <t>7HC3LGGK_LTR</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -14550,11 +14630,11 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>696</v>
+        <v>859</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -14562,17 +14642,17 @@
         </is>
       </c>
       <c r="F244" s="2" t="n">
-        <v>44905</v>
+        <v>44897</v>
       </c>
       <c r="G244" s="2" t="n">
-        <v>44907</v>
+        <v>44900</v>
       </c>
       <c r="H244" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -14582,7 +14662,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -14600,7 +14680,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTR</t>
+          <t>641IA5TL_LTR</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -14614,7 +14694,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>1822</v>
+        <v>1638</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -14660,21 +14740,21 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_NTX</t>
+          <t>6A7CD2BK_LTR</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>506.74</v>
+        <v>696</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -14682,17 +14762,17 @@
         </is>
       </c>
       <c r="F246" s="2" t="n">
+        <v>44905</v>
+      </c>
+      <c r="G246" s="2" t="n">
         <v>44907</v>
       </c>
-      <c r="G246" s="2" t="n">
-        <v>44908</v>
-      </c>
       <c r="H246" s="2" t="n">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -14700,37 +14780,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>KRJN04631SH022</t>
+        </is>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N246" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_NTX</t>
+          <t>6QJEN9KM_LTR</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>702.38</v>
+        <v>1822</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -14738,17 +14822,17 @@
         </is>
       </c>
       <c r="F247" s="2" t="n">
+        <v>44905</v>
+      </c>
+      <c r="G247" s="2" t="n">
         <v>44907</v>
       </c>
-      <c r="G247" s="2" t="n">
-        <v>44908</v>
-      </c>
       <c r="H247" s="2" t="n">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -14756,23 +14840,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>KRJN04631SH022</t>
+        </is>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N247" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_LTN</t>
+          <t>4ENMCJ1U_NTX</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -14782,11 +14870,11 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>222.8</v>
+        <v>506.74</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -14794,17 +14882,17 @@
         </is>
       </c>
       <c r="F248" s="2" t="n">
-        <v>44910</v>
+        <v>44907</v>
       </c>
       <c r="G248" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="H248" s="2" t="n">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -14819,16 +14907,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N248" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_LTN</t>
+          <t>8KQ7ECIO_NTX</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -14838,11 +14926,11 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>40.18</v>
+        <v>702.38</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -14850,17 +14938,17 @@
         </is>
       </c>
       <c r="F249" s="2" t="n">
-        <v>44910</v>
+        <v>44907</v>
       </c>
       <c r="G249" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="H249" s="2" t="n">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -14875,30 +14963,30 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N249" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2LYGFEZX_LTN</t>
+          <t>4ENMCJ1U_LTN</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>351.9</v>
+        <v>222.8</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -14916,7 +15004,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -14940,21 +15028,21 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>72MCXZFM_LTN</t>
+          <t>8KQ7ECIO_LTN</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>220.5</v>
+        <v>40.18</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -14972,7 +15060,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -14996,7 +15084,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>79I9WNEX_NTX1</t>
+          <t>2LYGFEZX_LTN</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -15006,11 +15094,11 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>DEUDINTX220017</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>570</v>
+        <v>351.9</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -15018,17 +15106,17 @@
         </is>
       </c>
       <c r="F252" s="2" t="n">
-        <v>44929</v>
+        <v>44910</v>
       </c>
       <c r="G252" s="2" t="n">
-        <v>44932</v>
+        <v>44915</v>
       </c>
       <c r="H252" s="2" t="n">
-        <v>45019</v>
+        <v>45000</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>KREN29454SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -15043,30 +15131,30 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="N252" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_NTX</t>
+          <t>72MCXZFM_LTN</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>GBRDINTX220023</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>540.26</v>
+        <v>220.5</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -15074,17 +15162,17 @@
         </is>
       </c>
       <c r="F253" s="2" t="n">
-        <v>44930</v>
+        <v>44910</v>
       </c>
       <c r="G253" s="2" t="n">
-        <v>44932</v>
+        <v>44915</v>
       </c>
       <c r="H253" s="2" t="n">
-        <v>45020</v>
+        <v>45000</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>KREN28372SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -15099,30 +15187,30 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="N253" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>5OWLVR3S_NTX</t>
+          <t>79I9WNEX_NTX1</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>GBRDINTX220024</t>
+          <t>DEUDINTX220017</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>19.97</v>
+        <v>570</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -15140,7 +15228,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>KREN28373SH022</t>
+          <t>KREN29454SH022</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15164,17 +15252,21 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>4DC2KC4O_NTX</t>
+          <t>5I2CBQ7E_NTX</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>AUS</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr"/>
+          <t>GBR</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>GBRDINTX220023</t>
+        </is>
+      </c>
       <c r="D255" t="n">
-        <v>623.4299999999999</v>
+        <v>540.26</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -15182,17 +15274,17 @@
         </is>
       </c>
       <c r="F255" s="2" t="n">
-        <v>44931</v>
+        <v>44930</v>
       </c>
       <c r="G255" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H255" s="2" t="n">
-        <v>45051</v>
+        <v>45020</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>KAUN00578SH023</t>
+          <t>KREN28372SH022</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -15207,30 +15299,30 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="N255" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>3919AKDG_LTN</t>
+          <t>5OWLVR3S_NTX</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>JPNDILTN220062</t>
+          <t>GBRDINTX220024</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>11908</v>
+        <v>19.97</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -15238,17 +15330,17 @@
         </is>
       </c>
       <c r="F256" s="2" t="n">
-        <v>44931</v>
+        <v>44929</v>
       </c>
       <c r="G256" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H256" s="2" t="n">
-        <v>45031</v>
+        <v>45019</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>KRJN04679SH022</t>
+          <t>KREN28373SH022</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15256,41 +15348,33 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>KRJN04679SH022</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="N256" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>3Z8NUVTL_LTN</t>
+          <t>4DC2KC4O_NTX</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>JPNDILTN220062</t>
-        </is>
-      </c>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
       <c r="D257" t="n">
-        <v>16029</v>
+        <v>623.4299999999999</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -15304,11 +15388,11 @@
         <v>44932</v>
       </c>
       <c r="H257" s="2" t="n">
-        <v>45031</v>
+        <v>45051</v>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>KRJN04679SH022</t>
+          <t>KAUN00578SH023</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -15316,27 +15400,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>KRJN04679SH022</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="N257" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2KR1C4YE_LTN</t>
+          <t>3919AKDG_LTN</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -15346,11 +15426,11 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>JPNDILTN220063</t>
+          <t>JPNDILTN220062</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>384</v>
+        <v>11908</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -15358,7 +15438,7 @@
         </is>
       </c>
       <c r="F258" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="G258" s="2" t="n">
         <v>44932</v>
@@ -15368,7 +15448,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>KRJN04724SH022</t>
+          <t>KRJN04679SH022</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15378,7 +15458,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>KRJN04724SH022</t>
+          <t>KRJN04679SH022</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -15396,7 +15476,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2SGTVCUP_LTN</t>
+          <t>3Z8NUVTL_LTN</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -15406,11 +15486,11 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>JPNDILTN220063</t>
+          <t>JPNDILTN220062</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>239</v>
+        <v>16029</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -15418,17 +15498,17 @@
         </is>
       </c>
       <c r="F259" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="G259" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H259" s="2" t="n">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>KRJN04724SH022</t>
+          <t>KRJN04679SH022</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -15438,7 +15518,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>KRJN04724SH022</t>
+          <t>KRJN04679SH022</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -15447,7 +15527,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N259" t="n">
         <v>85</v>
@@ -15456,7 +15536,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2JXR4XZW_LTN</t>
+          <t>2KR1C4YE_LTN</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -15466,11 +15546,11 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>JPNDILTN220064</t>
+          <t>JPNDILTN220063</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>16284</v>
+        <v>384</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -15484,7 +15564,7 @@
         <v>44932</v>
       </c>
       <c r="H260" s="2" t="n">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="I260" t="inlineStr">
         <is>
@@ -15507,7 +15587,7 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N260" t="n">
         <v>85</v>
@@ -15516,7 +15596,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2W53M2SR_LTN</t>
+          <t>2SGTVCUP_LTN</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -15526,11 +15606,11 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>JPNDILTN220064</t>
+          <t>JPNDILTN220063</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>3810</v>
+        <v>239</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -15576,21 +15656,21 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTN</t>
+          <t>2JXR4XZW_LTN</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>DEUDILTN220028</t>
+          <t>JPNDILTN220064</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>987.99</v>
+        <v>16284</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -15604,11 +15684,11 @@
         <v>44932</v>
       </c>
       <c r="H262" s="2" t="n">
-        <v>45020</v>
+        <v>45030</v>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>KREN28498SH022</t>
+          <t>KRJN04724SH022</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15616,37 +15696,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>KRJN04724SH022</t>
+        </is>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="N262" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>8HS1Z2DC_LTN</t>
+          <t>2W53M2SR_LTN</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>DEUDILTN220027</t>
+          <t>JPNDILTN220064</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>588.51</v>
+        <v>3810</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -15654,17 +15738,17 @@
         </is>
       </c>
       <c r="F263" s="2" t="n">
-        <v>44932</v>
+        <v>44930</v>
       </c>
       <c r="G263" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H263" s="2" t="n">
-        <v>45022</v>
+        <v>45030</v>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>KREN29262SH022</t>
+          <t>KRJN04724SH022</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -15672,37 +15756,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>KRJN04724SH022</t>
+        </is>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N263" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTN</t>
+          <t>6JI55VBN_LTN</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>DEUDILTN220028</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>626.04</v>
+        <v>987.99</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -15710,17 +15798,17 @@
         </is>
       </c>
       <c r="F264" s="2" t="n">
-        <v>44932</v>
+        <v>44930</v>
       </c>
       <c r="G264" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H264" s="2" t="n">
-        <v>45022</v>
+        <v>45020</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN28498SH022</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15735,7 +15823,7 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N264" t="n">
         <v>75</v>
@@ -15744,21 +15832,21 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>599B2T3L_LTN</t>
+          <t>8HS1Z2DC_LTN</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>DEUDILTN220027</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>162.26</v>
+        <v>588.51</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -15776,7 +15864,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29262SH022</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15800,7 +15888,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTN</t>
+          <t>35EWMG8M_LTN</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -15814,7 +15902,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>181.6</v>
+        <v>626.04</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -15856,7 +15944,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>6CR9FRFE_LTN</t>
+          <t>599B2T3L_LTN</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -15866,11 +15954,11 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>181.6</v>
+        <v>162.26</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -15912,7 +16000,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>8SBQDRDP_LTN</t>
+          <t>6FGU2LZW_LTN</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -15922,11 +16010,11 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>299.48</v>
+        <v>181.6</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -15968,21 +16056,21 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>3919AKDG_LTR</t>
+          <t>6CR9FRFE_LTN</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>JPNDILTR220046</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>576</v>
+        <v>181.6</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -15990,18 +16078,22 @@
         </is>
       </c>
       <c r="F269" s="2" t="n">
-        <v>44935</v>
+        <v>44932</v>
       </c>
       <c r="G269" s="2" t="n">
-        <v>44935</v>
+        <v>44932</v>
       </c>
       <c r="H269" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>45022</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>KREN29468SH022</t>
+        </is>
+      </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K269" t="inlineStr"/>
@@ -16011,30 +16103,30 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N269" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>3Z8NUVTL_LTR</t>
+          <t>8SBQDRDP_LTN</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>JPNDILTR220046</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>1300</v>
+        <v>299.48</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -16042,18 +16134,22 @@
         </is>
       </c>
       <c r="F270" s="2" t="n">
-        <v>44935</v>
+        <v>44932</v>
       </c>
       <c r="G270" s="2" t="n">
-        <v>44935</v>
+        <v>44932</v>
       </c>
       <c r="H270" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>45022</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>KREN29468SH022</t>
+        </is>
+      </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K270" t="inlineStr"/>
@@ -16063,16 +16159,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N270" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2KR1C4YE_LTR</t>
+          <t>3919AKDG_LTR</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -16082,11 +16178,11 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>JPNDILTR220047</t>
+          <t>JPNDILTR220046</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>188</v>
+        <v>576</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -16124,7 +16220,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2SGTVCUP_LTR</t>
+          <t>3Z8NUVTL_LTR</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -16134,11 +16230,11 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>JPNDILTR220047</t>
+          <t>JPNDILTR220046</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>215</v>
+        <v>1300</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -16176,7 +16272,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2JXR4XZW_LTR</t>
+          <t>2KR1C4YE_LTR</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -16186,11 +16282,11 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>JPNDILTR220048</t>
+          <t>JPNDILTR220047</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>18932</v>
+        <v>188</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -16228,7 +16324,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2W53M2SR_LTR</t>
+          <t>2SGTVCUP_LTR</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -16238,11 +16334,11 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>JPNDILTR220048</t>
+          <t>JPNDILTR220047</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>2444</v>
+        <v>215</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -16280,17 +16376,21 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1CVKTYPH_LTR</t>
+          <t>2JXR4XZW_LTR</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>AUS</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr"/>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>JPNDILTR220048</t>
+        </is>
+      </c>
       <c r="D275" t="n">
-        <v>49.47</v>
+        <v>18932</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -16304,7 +16404,7 @@
         <v>44935</v>
       </c>
       <c r="H275" s="2" t="n">
-        <v>45055</v>
+        <v>45031</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
@@ -16319,26 +16419,30 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="N275" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>36OB1OSG_LTR</t>
+          <t>2W53M2SR_LTR</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>AUS</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr"/>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>JPNDILTR220048</t>
+        </is>
+      </c>
       <c r="D276" t="n">
-        <v>96.23999999999999</v>
+        <v>2444</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -16352,7 +16456,7 @@
         <v>44935</v>
       </c>
       <c r="H276" s="2" t="n">
-        <v>45055</v>
+        <v>45031</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr">
@@ -16367,16 +16471,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="N276" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>58I14P3T_LTR</t>
+          <t>1CVKTYPH_LTR</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -16386,7 +16490,7 @@
       </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="n">
-        <v>58.2</v>
+        <v>49.47</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -16424,7 +16528,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>52XQBDIA_LTR</t>
+          <t>36OB1OSG_LTR</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -16434,7 +16538,7 @@
       </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="n">
-        <v>86.59999999999999</v>
+        <v>96.23999999999999</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -16472,21 +16576,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>6U36Y9BE_LTR</t>
+          <t>58I14P3T_LTR</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>DEUDILTR220021</t>
-        </is>
-      </c>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
       <c r="D279" t="n">
-        <v>51.56</v>
+        <v>58.2</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -16494,13 +16594,13 @@
         </is>
       </c>
       <c r="F279" s="2" t="n">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="G279" s="2" t="n">
         <v>44935</v>
       </c>
       <c r="H279" s="2" t="n">
-        <v>45026</v>
+        <v>45055</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr">
@@ -16515,30 +16615,26 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="N279" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>7GLNNL6Y_LTR</t>
+          <t>52XQBDIA_LTR</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>DEUDILTR220022</t>
-        </is>
-      </c>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
       <c r="D280" t="n">
-        <v>1614.82</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -16546,13 +16642,13 @@
         </is>
       </c>
       <c r="F280" s="2" t="n">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="G280" s="2" t="n">
         <v>44935</v>
       </c>
       <c r="H280" s="2" t="n">
-        <v>45026</v>
+        <v>45055</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
@@ -16567,16 +16663,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="N280" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>13BSIFPT_LTR</t>
+          <t>6U36Y9BE_LTR</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -16586,11 +16682,11 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>DEUDILTR220021</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>591.71</v>
+        <v>51.56</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -16628,7 +16724,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTR</t>
+          <t>7GLNNL6Y_LTR</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -16638,11 +16734,11 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>DEUDILTR220022</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>48.98</v>
+        <v>1614.82</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -16680,7 +16776,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1P2OJBUW_LTR</t>
+          <t>13BSIFPT_LTR</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -16690,11 +16786,11 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>146.94</v>
+        <v>591.71</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -16732,7 +16828,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>26V9GOMZ_LTR</t>
+          <t>6JI55VBN_LTR</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -16742,11 +16838,11 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>80.83</v>
+        <v>48.98</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -16784,7 +16880,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2FWLGF1V_LTR</t>
+          <t>1P2OJBUW_LTR</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -16798,7 +16894,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>489.28</v>
+        <v>146.94</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -16836,7 +16932,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>8AQ6IAUN_LTR</t>
+          <t>26V9GOMZ_LTR</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -16850,7 +16946,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>213.01</v>
+        <v>80.83</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -16888,21 +16984,21 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_LTR</t>
+          <t>2FWLGF1V_LTR</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>342.84</v>
+        <v>489.28</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -16940,21 +17036,21 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>73K6F7AM_LTR</t>
+          <t>8AQ6IAUN_LTR</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>420.03</v>
+        <v>213.01</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -16992,7 +17088,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>7JC4WZOP_LTR</t>
+          <t>5I2CBQ7E_LTR</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -17006,7 +17102,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>361.04</v>
+        <v>342.84</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -17044,7 +17140,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1R3Z24JZ_LTR</t>
+          <t>73K6F7AM_LTR</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -17054,11 +17150,11 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>GBRDILTR220026</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1375.06</v>
+        <v>420.03</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -17096,7 +17192,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>5OWLVR3S_LTR</t>
+          <t>7JC4WZOP_LTR</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -17106,11 +17202,11 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>GBRDILTR220026</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>4296.03</v>
+        <v>361.04</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -17148,7 +17244,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>5WON4CZR_LTR</t>
+          <t>1R3Z24JZ_LTR</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -17158,11 +17254,11 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>GBRDILTR220028</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>1133.44</v>
+        <v>1375.06</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -17200,7 +17296,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>7QYV88DI_LTR</t>
+          <t>5OWLVR3S_LTR</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -17210,11 +17306,11 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>GBRDILTR220028</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>269.39</v>
+        <v>4296.03</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -17252,7 +17348,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTR</t>
+          <t>5WON4CZR_LTR</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -17262,11 +17358,11 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>80.52</v>
+        <v>1133.44</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -17304,7 +17400,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>599B2T3L_LTR</t>
+          <t>7QYV88DI_LTR</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -17314,11 +17410,11 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>68.88</v>
+        <v>269.39</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -17356,7 +17452,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTR</t>
+          <t>35EWMG8M_LTR</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -17370,7 +17466,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>49.38</v>
+        <v>80.52</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -17408,7 +17504,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>6HJO8FGL_LTR</t>
+          <t>599B2T3L_LTR</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -17422,7 +17518,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>100.32</v>
+        <v>68.88</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -17460,21 +17556,21 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>5GJMWY3U_NTX</t>
+          <t>6FGU2LZW_LTR</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>DEUDINTX220026</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>409.91</v>
+        <v>49.38</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -17485,19 +17581,15 @@
         <v>44936</v>
       </c>
       <c r="G298" s="2" t="n">
-        <v>44938</v>
+        <v>44935</v>
       </c>
       <c r="H298" s="2" t="n">
         <v>45026</v>
       </c>
-      <c r="I298" t="inlineStr">
-        <is>
-          <t>KREN29413SH022</t>
-        </is>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K298" t="inlineStr"/>
@@ -17516,21 +17608,21 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>5QSJP7CC_NTX</t>
+          <t>6HJO8FGL_LTR</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>DEUDINTX220026</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>211.99</v>
+        <v>100.32</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -17541,19 +17633,15 @@
         <v>44936</v>
       </c>
       <c r="G299" s="2" t="n">
-        <v>44938</v>
+        <v>44935</v>
       </c>
       <c r="H299" s="2" t="n">
         <v>45026</v>
       </c>
-      <c r="I299" t="inlineStr">
-        <is>
-          <t>KREN29413SH022</t>
-        </is>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K299" t="inlineStr"/>
@@ -17572,21 +17660,21 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>7KWEP3QY_NTX</t>
+          <t>5GJMWY3U_NTX</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>JPNDINTX220029</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>540</v>
+        <v>409.91</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -17600,11 +17688,11 @@
         <v>44938</v>
       </c>
       <c r="H300" s="2" t="n">
-        <v>45031</v>
+        <v>45026</v>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>KRJN04732SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -17612,27 +17700,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>KRJN04732SH022</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N300" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>7LEE3TFL_LTN</t>
+          <t>5QSJP7CC_NTX</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -17642,11 +17726,11 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>DEUDILTN220029</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>119.16</v>
+        <v>211.99</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -17654,17 +17738,17 @@
         </is>
       </c>
       <c r="F301" s="2" t="n">
-        <v>44937</v>
+        <v>44936</v>
       </c>
       <c r="G301" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H301" s="2" t="n">
-        <v>45027</v>
+        <v>45026</v>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>KREN29418SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -17679,7 +17763,7 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N301" t="n">
         <v>80</v>
@@ -17688,21 +17772,21 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>8N7YEA8D_LTN</t>
+          <t>7KWEP3QY_NTX</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>DEUDILTN220029</t>
+          <t>JPNDINTX220029</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>37.05</v>
+        <v>540</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -17710,17 +17794,17 @@
         </is>
       </c>
       <c r="F302" s="2" t="n">
-        <v>44937</v>
+        <v>44936</v>
       </c>
       <c r="G302" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H302" s="2" t="n">
-        <v>45027</v>
+        <v>45031</v>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>KREN29418SH022</t>
+          <t>KRJN04732SH022</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -17728,37 +17812,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>KRJN04732SH022</t>
+        </is>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N302" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1EXT8UGA_LTN</t>
+          <t>7LEE3TFL_LTN</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>362.6</v>
+        <v>119.16</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -17776,7 +17864,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -17800,21 +17888,21 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>3RU4253N_LTN</t>
+          <t>8N7YEA8D_LTN</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>87.34999999999999</v>
+        <v>37.05</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -17832,7 +17920,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -17856,7 +17944,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>73163DYB_LTN</t>
+          <t>1EXT8UGA_LTN</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -17870,7 +17958,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>410.02</v>
+        <v>362.6</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -17912,21 +18000,21 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>77NBCJAU_LTN</t>
+          <t>3RU4253N_LTN</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>JPNDILTN220065</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>3008</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -17940,49 +18028,49 @@
         <v>44938</v>
       </c>
       <c r="H306" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>45027</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>KREN28811SH022</t>
+        </is>
+      </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>KRJN04756SH022</t>
-        </is>
-      </c>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N306" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>7KWEP3QY_LTN</t>
+          <t>73163DYB_LTN</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>JPNDILTN220065</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>19224</v>
+        <v>410.02</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -17996,49 +18084,49 @@
         <v>44938</v>
       </c>
       <c r="H307" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>45027</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>KREN28811SH022</t>
+        </is>
+      </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>KRJN04756SH022</t>
-        </is>
-      </c>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N307" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>5TY3VS9Y_LTN</t>
+          <t>77NBCJAU_LTN</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>DEUDILTN220030</t>
+          <t>JPNDILTN220065</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>313.02</v>
+        <v>3008</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -18052,49 +18140,49 @@
         <v>44938</v>
       </c>
       <c r="H308" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>KREN29467SH022</t>
-        </is>
-      </c>
+        <v>45031</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K308" t="inlineStr"/>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>KRJN04756SH022</t>
+        </is>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N308" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>3MOXC2DD_LTN</t>
+          <t>7KWEP3QY_LTN</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>DEUDILTN220031</t>
+          <t>JPNDILTN220065</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>939.0599999999999</v>
+        <v>19224</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -18108,35 +18196,35 @@
         <v>44938</v>
       </c>
       <c r="H309" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="I309" t="inlineStr">
-        <is>
-          <t>KREN29467SH022</t>
-        </is>
-      </c>
+        <v>45031</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K309" t="inlineStr"/>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>KRJN04756SH022</t>
+        </is>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N309" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>7MNV9Y8K_LTN</t>
+          <t>5TY3VS9Y_LTN</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -18146,11 +18234,11 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>DEUDILTN220031</t>
+          <t>DEUDILTN220030</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>87.34999999999999</v>
+        <v>313.02</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -18192,7 +18280,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>259STCHZ_LTR</t>
+          <t>3MOXC2DD_LTN</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -18200,9 +18288,13 @@
           <t>DEU</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr"/>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>DEUDILTN220031</t>
+        </is>
+      </c>
       <c r="D311" t="n">
-        <v>474.84</v>
+        <v>939.0599999999999</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -18210,18 +18302,22 @@
         </is>
       </c>
       <c r="F311" s="2" t="n">
-        <v>44942</v>
+        <v>44937</v>
       </c>
       <c r="G311" s="2" t="n">
-        <v>44943</v>
+        <v>44938</v>
       </c>
       <c r="H311" s="2" t="n">
-        <v>45032</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>45027</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>KREN29467SH022</t>
+        </is>
+      </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K311" t="inlineStr"/>
@@ -18231,16 +18327,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N311" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>5K5OX5HO_LTR</t>
+          <t>7MNV9Y8K_LTN</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -18248,9 +18344,13 @@
           <t>DEU</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr"/>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>DEUDILTN220031</t>
+        </is>
+      </c>
       <c r="D312" t="n">
-        <v>91.19</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -18258,18 +18358,22 @@
         </is>
       </c>
       <c r="F312" s="2" t="n">
-        <v>44942</v>
+        <v>44937</v>
       </c>
       <c r="G312" s="2" t="n">
-        <v>44943</v>
+        <v>44938</v>
       </c>
       <c r="H312" s="2" t="n">
-        <v>45032</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>45027</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>KREN29467SH022</t>
+        </is>
+      </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K312" t="inlineStr"/>
@@ -18279,16 +18383,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N312" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>3MOXC2DD_LTR</t>
+          <t>259STCHZ_LTR</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -18298,7 +18402,7 @@
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="n">
-        <v>191.43</v>
+        <v>474.84</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -18314,10 +18418,14 @@
       <c r="H313" s="2" t="n">
         <v>45032</v>
       </c>
-      <c r="I313" t="inlineStr"/>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>KREN29957SH022</t>
+        </is>
+      </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K313" t="inlineStr"/>
@@ -18336,7 +18444,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>7MNV9Y8K_LTR</t>
+          <t>5K5OX5HO_LTR</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -18346,7 +18454,7 @@
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="n">
-        <v>161.04</v>
+        <v>91.19</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -18362,10 +18470,14 @@
       <c r="H314" s="2" t="n">
         <v>45032</v>
       </c>
-      <c r="I314" t="inlineStr"/>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>KREN29957SH022</t>
+        </is>
+      </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K314" t="inlineStr"/>
@@ -18384,17 +18496,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2CMW4QFF_LTR</t>
+          <t>3MOXC2DD_LTR</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="n">
-        <v>116.86</v>
+        <v>191.43</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -18402,18 +18514,22 @@
         </is>
       </c>
       <c r="F315" s="2" t="n">
-        <v>44943</v>
+        <v>44942</v>
       </c>
       <c r="G315" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H315" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>45032</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>KREN29957SH022</t>
+        </is>
+      </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K315" t="inlineStr"/>
@@ -18423,7 +18539,7 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N315" t="n">
         <v>85</v>
@@ -18432,17 +18548,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>3F2V83FP_LTR</t>
+          <t>7MNV9Y8K_LTR</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="n">
-        <v>891.95</v>
+        <v>161.04</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -18450,18 +18566,22 @@
         </is>
       </c>
       <c r="F316" s="2" t="n">
-        <v>44943</v>
+        <v>44942</v>
       </c>
       <c r="G316" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H316" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>45032</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>KREN29957SH022</t>
+        </is>
+      </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K316" t="inlineStr"/>
@@ -18471,7 +18591,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N316" t="n">
         <v>85</v>
@@ -18480,7 +18600,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>3RU4253N_LTR</t>
+          <t>2CMW4QFF_LTR</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -18490,7 +18610,7 @@
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="n">
-        <v>2530.96</v>
+        <v>116.86</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -18506,10 +18626,14 @@
       <c r="H317" s="2" t="n">
         <v>45033</v>
       </c>
-      <c r="I317" t="inlineStr"/>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>KREN29038SH022</t>
+        </is>
+      </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K317" t="inlineStr"/>
@@ -18528,7 +18652,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>73163DYB_LTR</t>
+          <t>3F2V83FP_LTR</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -18538,7 +18662,7 @@
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="n">
-        <v>280.17</v>
+        <v>891.95</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -18554,10 +18678,14 @@
       <c r="H318" s="2" t="n">
         <v>45033</v>
       </c>
-      <c r="I318" t="inlineStr"/>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>KREN29038SH022</t>
+        </is>
+      </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K318" t="inlineStr"/>
@@ -18576,7 +18704,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>7EXUP6MF_LTR</t>
+          <t>3RU4253N_LTR</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -18586,7 +18714,7 @@
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="n">
-        <v>902.88</v>
+        <v>2530.96</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -18602,10 +18730,14 @@
       <c r="H319" s="2" t="n">
         <v>45033</v>
       </c>
-      <c r="I319" t="inlineStr"/>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>KREN29038SH022</t>
+        </is>
+      </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K319" t="inlineStr"/>
@@ -18624,7 +18756,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>7KFB8OMK_LTR</t>
+          <t>73163DYB_LTR</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -18634,7 +18766,7 @@
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="n">
-        <v>238.75</v>
+        <v>280.17</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -18650,10 +18782,14 @@
       <c r="H320" s="2" t="n">
         <v>45033</v>
       </c>
-      <c r="I320" t="inlineStr"/>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>KREN29038SH022</t>
+        </is>
+      </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K320" t="inlineStr"/>
@@ -18672,17 +18808,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>77NBCJAU_LTR</t>
+          <t>7EXUP6MF_LTR</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="n">
-        <v>2350</v>
+        <v>902.88</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -18690,18 +18826,22 @@
         </is>
       </c>
       <c r="F321" s="2" t="n">
-        <v>44941</v>
+        <v>44943</v>
       </c>
       <c r="G321" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H321" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>45033</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>KREN29038SH022</t>
+        </is>
+      </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K321" t="inlineStr"/>
@@ -18711,7 +18851,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N321" t="n">
         <v>85</v>
@@ -18720,17 +18860,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>7KWEP3QY_LTR</t>
+          <t>7KFB8OMK_LTR</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="n">
-        <v>12726</v>
+        <v>238.75</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -18738,18 +18878,22 @@
         </is>
       </c>
       <c r="F322" s="2" t="n">
-        <v>44941</v>
+        <v>44943</v>
       </c>
       <c r="G322" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H322" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>45033</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>KREN29038SH022</t>
+        </is>
+      </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K322" t="inlineStr"/>
@@ -18759,7 +18903,7 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N322" t="n">
         <v>85</v>
@@ -18768,7 +18912,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>8LG8682I_LTR</t>
+          <t>77NBCJAU_LTR</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -18778,7 +18922,7 @@
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="n">
-        <v>603</v>
+        <v>2350</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -18794,10 +18938,14 @@
       <c r="H323" s="2" t="n">
         <v>45031</v>
       </c>
-      <c r="I323" t="inlineStr"/>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>KRJN04793SH022</t>
+        </is>
+      </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K323" t="inlineStr"/>
@@ -18816,7 +18964,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>8PGII88P_LTR</t>
+          <t>7KWEP3QY_LTR</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -18826,7 +18974,7 @@
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="n">
-        <v>548</v>
+        <v>12726</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -18842,10 +18990,14 @@
       <c r="H324" s="2" t="n">
         <v>45031</v>
       </c>
-      <c r="I324" t="inlineStr"/>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>KRJN04793SH022</t>
+        </is>
+      </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K324" t="inlineStr"/>
@@ -18864,7 +19016,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>8LG8682I_NTX</t>
+          <t>8LG8682I_LTR</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -18874,7 +19026,7 @@
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="n">
-        <v>35</v>
+        <v>603</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -18882,7 +19034,7 @@
         </is>
       </c>
       <c r="F325" s="2" t="n">
-        <v>44939</v>
+        <v>44941</v>
       </c>
       <c r="G325" s="2" t="n">
         <v>44943</v>
@@ -18890,10 +19042,14 @@
       <c r="H325" s="2" t="n">
         <v>45031</v>
       </c>
-      <c r="I325" t="inlineStr"/>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>KRJN04793SH022</t>
+        </is>
+      </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K325" t="inlineStr"/>
@@ -18912,7 +19068,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>8PGII88P_NTX</t>
+          <t>8PGII88P_LTR</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -18922,7 +19078,7 @@
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="n">
-        <v>251</v>
+        <v>548</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -18930,7 +19086,7 @@
         </is>
       </c>
       <c r="F326" s="2" t="n">
-        <v>44939</v>
+        <v>44941</v>
       </c>
       <c r="G326" s="2" t="n">
         <v>44943</v>
@@ -18938,10 +19094,14 @@
       <c r="H326" s="2" t="n">
         <v>45031</v>
       </c>
-      <c r="I326" t="inlineStr"/>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>KRJN04793SH022</t>
+        </is>
+      </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K326" t="inlineStr"/>
@@ -18960,17 +19120,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1M25IK8S_NTX</t>
+          <t>8LG8682I_NTX</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="n">
-        <v>707.4</v>
+        <v>35</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -18978,18 +19138,22 @@
         </is>
       </c>
       <c r="F327" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="G327" s="2" t="n">
         <v>44943</v>
       </c>
-      <c r="G327" s="2" t="n">
-        <v>44945</v>
-      </c>
       <c r="H327" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>45031</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>KRJN04767SH022</t>
+        </is>
+      </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K327" t="inlineStr"/>
@@ -18999,26 +19163,26 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="N327" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>6DY7R8CB_NTX</t>
+          <t>8PGII88P_NTX</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="n">
-        <v>3183.3</v>
+        <v>251</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -19026,18 +19190,22 @@
         </is>
       </c>
       <c r="F328" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="G328" s="2" t="n">
         <v>44943</v>
       </c>
-      <c r="G328" s="2" t="n">
-        <v>44945</v>
-      </c>
       <c r="H328" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>45031</v>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>KRJN04767SH022</t>
+        </is>
+      </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K328" t="inlineStr"/>
@@ -19047,16 +19215,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="N328" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1ZGOC7YW_NTX</t>
+          <t>1M25IK8S_NTX</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -19066,7 +19234,7 @@
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="n">
-        <v>884.25</v>
+        <v>707.4</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -19082,10 +19250,14 @@
       <c r="H329" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I329" t="inlineStr"/>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>KRCN03919SH022</t>
+        </is>
+      </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K329" t="inlineStr"/>
@@ -19104,7 +19276,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6GVQ8RUZ_NTX</t>
+          <t>6DY7R8CB_NTX</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -19114,7 +19286,7 @@
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="n">
-        <v>3360.15</v>
+        <v>3183.3</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -19130,10 +19302,14 @@
       <c r="H330" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I330" t="inlineStr"/>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>KRCN03920SH022</t>
+        </is>
+      </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K330" t="inlineStr"/>
@@ -19152,17 +19328,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>3919AKDG_NTX</t>
+          <t>1ZGOC7YW_NTX</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="n">
-        <v>432</v>
+        <v>884.25</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -19170,18 +19346,22 @@
         </is>
       </c>
       <c r="F331" s="2" t="n">
-        <v>44941</v>
+        <v>44943</v>
       </c>
       <c r="G331" s="2" t="n">
         <v>44945</v>
       </c>
       <c r="H331" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>45063</v>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>KRCN03921SH022</t>
+        </is>
+      </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K331" t="inlineStr"/>
@@ -19191,26 +19371,26 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="N331" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>3Z8NUVTL_NTX</t>
+          <t>6GVQ8RUZ_NTX</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="n">
-        <v>4752</v>
+        <v>3360.15</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -19218,18 +19398,22 @@
         </is>
       </c>
       <c r="F332" s="2" t="n">
-        <v>44941</v>
+        <v>44943</v>
       </c>
       <c r="G332" s="2" t="n">
         <v>44945</v>
       </c>
       <c r="H332" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>45063</v>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>KRCN03922SH022</t>
+        </is>
+      </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K332" t="inlineStr"/>
@@ -19239,16 +19423,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="N332" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>291WFVWM_NTX</t>
+          <t>3919AKDG_NTX</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -19258,7 +19442,7 @@
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="n">
-        <v>49</v>
+        <v>432</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -19274,10 +19458,14 @@
       <c r="H333" s="2" t="n">
         <v>45031</v>
       </c>
-      <c r="I333" t="inlineStr"/>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>KRJN04660SH022</t>
+        </is>
+      </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K333" t="inlineStr"/>
@@ -19296,7 +19484,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2KR1C4YE_NTX</t>
+          <t>3Z8NUVTL_NTX</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -19306,7 +19494,7 @@
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="n">
-        <v>33</v>
+        <v>4752</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -19322,10 +19510,14 @@
       <c r="H334" s="2" t="n">
         <v>45031</v>
       </c>
-      <c r="I334" t="inlineStr"/>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>KRJN04660SH022</t>
+        </is>
+      </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K334" t="inlineStr"/>
@@ -19344,7 +19536,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2SGTVCUP_NTX</t>
+          <t>291WFVWM_NTX</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -19354,7 +19546,7 @@
       </c>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -19370,10 +19562,14 @@
       <c r="H335" s="2" t="n">
         <v>45031</v>
       </c>
-      <c r="I335" t="inlineStr"/>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>KRJN04705SH022</t>
+        </is>
+      </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K335" t="inlineStr"/>
@@ -19392,7 +19588,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2JXR4XZW_NTX</t>
+          <t>2KR1C4YE_NTX</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -19402,7 +19598,7 @@
       </c>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="n">
-        <v>1118</v>
+        <v>33</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -19418,10 +19614,14 @@
       <c r="H336" s="2" t="n">
         <v>45031</v>
       </c>
-      <c r="I336" t="inlineStr"/>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>KRJN04705SH022</t>
+        </is>
+      </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K336" t="inlineStr"/>
@@ -19440,7 +19640,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2W53M2SR_NTX</t>
+          <t>2SGTVCUP_NTX</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -19450,7 +19650,7 @@
       </c>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="n">
-        <v>534</v>
+        <v>60</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -19466,10 +19666,14 @@
       <c r="H337" s="2" t="n">
         <v>45031</v>
       </c>
-      <c r="I337" t="inlineStr"/>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>KRJN04705SH022</t>
+        </is>
+      </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K337" t="inlineStr"/>
@@ -19482,6 +19686,110 @@
         <v>84</v>
       </c>
       <c r="N337" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2JXR4XZW_NTX</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="n">
+        <v>1118</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F338" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="G338" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="H338" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>KRJN04705SH022</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M338" t="n">
+        <v>84</v>
+      </c>
+      <c r="N338" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2W53M2SR_NTX</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="n">
+        <v>534</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F339" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="G339" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="H339" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>KRJN04705SH022</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M339" t="n">
+        <v>84</v>
+      </c>
+      <c r="N339" t="n">
         <v>85</v>
       </c>
     </row>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -2248,7 +2248,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1B19ANQK_LTR</t>
+          <t>7A2EB4DZ_LTR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2258,11 +2258,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CANDILTR220040</t>
+          <t>CANDILTR220041</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10312.6</v>
+        <v>2521.4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>KRCN03159SH022</t>
+          <t>KRCN03160SH022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>KRCN03159SH022</t>
+          <t>KRCN03160SH022</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7A2EB4DZ_LTR</t>
+          <t>1G47WN4F_LTR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2318,11 +2318,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CANDILTR220041</t>
+          <t>CANDILTR220068</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2521.4</v>
+        <v>5933.16</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2330,17 +2330,17 @@
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44847</v>
+        <v>44918</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44853</v>
+        <v>44918</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>44973</v>
+        <v>45038</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>KRCN03160SH022</t>
+          <t>KRCN03702SH022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>KRCN03160SH022</t>
+          <t>KRCN03702SH022</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2359,16 +2359,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1G47WN4F_LTR</t>
+          <t>1QKBM11O_LTR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2378,11 +2378,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CANDILTR220068</t>
+          <t>CANDILTR220066</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5933.16</v>
+        <v>335.04</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>KRCN03702SH022</t>
+          <t>KRCN03578SH022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>KRCN03702SH022</t>
+          <t>KRCN03578SH022</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1QKBM11O_LTR</t>
+          <t>29782DRI_LTR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2438,11 +2438,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CANDILTR220066</t>
+          <t>CANDILTR220061</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>335.04</v>
+        <v>860.4</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>KRCN03578SH022</t>
+          <t>KRCN03699SH022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>KRCN03578SH022</t>
+          <t>KRCN03699SH022</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>29782DRI_LTR</t>
+          <t>2C4QIXAG_LTR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2498,11 +2498,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CANDILTR220061</t>
+          <t>CANDILTR220063</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>860.4</v>
+        <v>3433.68</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>KRCN03699SH022</t>
+          <t>KRCN03576SH022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>KRCN03699SH022</t>
+          <t>KRCN03576SH022</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2C4QIXAG_LTR</t>
+          <t>2FJ937CM_LTR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2558,11 +2558,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CANDILTR220063</t>
+          <t>CANDILTR220066</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3433.68</v>
+        <v>3652.54</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>KRCN03576SH022</t>
+          <t>KRCN03578SH022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>KRCN03576SH022</t>
+          <t>KRCN03578SH022</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2FJ937CM_LTR</t>
+          <t>2Z3UHWRK_LTR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2618,11 +2618,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CANDILTR220066</t>
+          <t>CANDILTR220070</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3652.54</v>
+        <v>3150.36</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>KRCN03578SH022</t>
+          <t>KRCN03704SH022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>KRCN03578SH022</t>
+          <t>KRCN03704SH022</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2Z3UHWRK_LTR</t>
+          <t>3JN54A2L_LTR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2678,11 +2678,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CANDILTR220070</t>
+          <t>CANDILTR220064</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3150.36</v>
+        <v>3668.69</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>KRCN03704SH022</t>
+          <t>KRCN03577SH022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>KRCN03704SH022</t>
+          <t>KRCN03577SH022</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3JN54A2L_LTR</t>
+          <t>4JM55BFY_LTR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2738,11 +2738,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CANDILTR220064</t>
+          <t>CANDILTR220063</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3668.69</v>
+        <v>1071.77</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>KRCN03577SH022</t>
+          <t>KRCN03576SH022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>KRCN03577SH022</t>
+          <t>KRCN03576SH022</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4JM55BFY_LTR</t>
+          <t>4TDXYM9R_LTR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2798,11 +2798,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CANDILTR220063</t>
+          <t>CANDILTR220065</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1071.77</v>
+        <v>1242.8</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>KRCN03576SH022</t>
+          <t>KRCN03701SH022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>KRCN03576SH022</t>
+          <t>KRCN03701SH022</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4TDXYM9R_LTR</t>
+          <t>4WV4PGRF_LTR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2858,11 +2858,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CANDILTR220065</t>
+          <t>CANDILTR220067</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1242.8</v>
+        <v>5345.67</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>KRCN03701SH022</t>
+          <t>KRCN03579SH022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>KRCN03701SH022</t>
+          <t>KRCN03579SH022</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4WV4PGRF_LTR</t>
+          <t>4XN4G4YL_LTR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2918,11 +2918,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CANDILTR220067</t>
+          <t>CANDILTR220064</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5345.67</v>
+        <v>682.6900000000001</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>KRCN03579SH022</t>
+          <t>KRCN03577SH022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>KRCN03579SH022</t>
+          <t>KRCN03577SH022</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4XN4G4YL_LTR</t>
+          <t>5L4GBG6O_LTR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2978,11 +2978,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CANDILTR220064</t>
+          <t>CANDILTR220062</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>682.6900000000001</v>
+        <v>478</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>KRCN03577SH022</t>
+          <t>KRCN03700SH022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>KRCN03577SH022</t>
+          <t>KRCN03700SH022</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5L4GBG6O_LTR</t>
+          <t>6BEIH9VN_LTR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3038,11 +3038,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CANDILTR220062</t>
+          <t>CANDILTR220063</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>478</v>
+        <v>3900.35</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>KRCN03700SH022</t>
+          <t>KRCN03576SH022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>KRCN03700SH022</t>
+          <t>KRCN03576SH022</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6BEIH9VN_LTR</t>
+          <t>88FAHEWJ_LTR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CANDILTR220063</t>
+          <t>CANDILTR220069</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3900.35</v>
+        <v>3441.6</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>KRCN03576SH022</t>
+          <t>KRCN03703SH022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>KRCN03576SH022</t>
+          <t>KRCN03703SH022</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>88FAHEWJ_LTR</t>
+          <t>29SO7MML_LTR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3158,11 +3158,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CANDILTR220069</t>
+          <t>CANDILTR220038</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3441.6</v>
+        <v>693.5</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3170,17 +3170,17 @@
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44918</v>
+        <v>44924</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44918</v>
+        <v>44923</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45038</v>
+        <v>45044</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>KRCN03703SH022</t>
+          <t>KRCN03923SH022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>KRCN03703SH022</t>
+          <t>KRCN03923SH022</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3199,16 +3199,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N46" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>29SO7MML_LTR</t>
+          <t>8J9I4ECV_LTR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>693.5</v>
+        <v>22473.3</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8J9I4ECV_LTR</t>
+          <t>6CJJ7EDU_LTN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3278,29 +3278,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CANDILTR220038</t>
+          <t>CANDILTN220062</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>22473.3</v>
+        <v>72.75</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44924</v>
+        <v>44861</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44923</v>
+        <v>44862</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45044</v>
+        <v>44981</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>KRCN03923SH022</t>
+          <t>KRCN03239SH022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>KRCN03923SH022</t>
+          <t>KRCN03239SH022</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3319,16 +3319,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="N48" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6CJJ7EDU_LTN</t>
+          <t>1UHIMKCQ_LTR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3338,29 +3338,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CANDILTN220062</t>
+          <t>CANDILTR220076</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>72.75</v>
+        <v>582.96</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44861</v>
+        <v>44935</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44862</v>
+        <v>44935</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>44981</v>
+        <v>45055</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>KRCN03239SH022</t>
+          <t>KRCN03768SH022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>KRCN03239SH022</t>
+          <t>KRCN03768SH022</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3379,16 +3379,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="N49" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1UHIMKCQ_LTR</t>
+          <t>2RXJCCOB_LTR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3398,11 +3398,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CANDILTR220076</t>
+          <t>CANDILTR220078</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>582.96</v>
+        <v>277.6</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>KRCN03768SH022</t>
+          <t>KRCN03764SH022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>KRCN03768SH022</t>
+          <t>KRCN03764SH022</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3448,7 +3448,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2RXJCCOB_LTR</t>
+          <t>31U1SB4F_LTR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3458,11 +3458,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CANDILTR220078</t>
+          <t>CANDILTR220077</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>277.6</v>
+        <v>2406</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>KRCN03764SH022</t>
+          <t>KRCN03769SH022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>KRCN03764SH022</t>
+          <t>KRCN03769SH022</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>31U1SB4F_LTR</t>
+          <t>33OSEEYU_LTR</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3518,11 +3518,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CANDILTR220077</t>
+          <t>CANDILTR220072</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2406</v>
+        <v>749.52</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>KRCN03769SH022</t>
+          <t>KRCN03766SH022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>KRCN03769SH022</t>
+          <t>KRCN03766SH022</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3568,7 +3568,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>33OSEEYU_LTR</t>
+          <t>3QIGWB6Y_LTR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3578,11 +3578,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CANDILTR220072</t>
+          <t>CANDILTR220075</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>749.52</v>
+        <v>83.28</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>KRCN03766SH022</t>
+          <t>KRCN03763SH022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>KRCN03766SH022</t>
+          <t>KRCN03763SH022</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3628,7 +3628,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3QIGWB6Y_LTR</t>
+          <t>4S4FMFLR_LTR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>83.28</v>
+        <v>1425.6</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4S4FMFLR_LTR</t>
+          <t>53UHQ92I_LTR</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3698,11 +3698,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CANDILTR220075</t>
+          <t>CANDILTR220080</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1425.6</v>
+        <v>7314.24</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>KRCN03763SH022</t>
+          <t>KRCN03771SH022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>KRCN03763SH022</t>
+          <t>KRCN03771SH022</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3748,7 +3748,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>53UHQ92I_LTR</t>
+          <t>5UTW28PT_LTR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3758,11 +3758,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CANDILTR220080</t>
+          <t>CANDILTR220081</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>7314.24</v>
+        <v>1221.44</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>KRCN03771SH022</t>
+          <t>KRCN03772SH022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>KRCN03771SH022</t>
+          <t>KRCN03772SH022</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3808,7 +3808,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5UTW28PT_LTR</t>
+          <t>5W8G2GTF_LTR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3818,11 +3818,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CANDILTR220081</t>
+          <t>CANDILTR220071</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1221.44</v>
+        <v>555.2</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>KRCN03772SH022</t>
+          <t>KRCN03765SH022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>KRCN03772SH022</t>
+          <t>KRCN03765SH022</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3868,7 +3868,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5W8G2GTF_LTR</t>
+          <t>5WLGGWRF_LTR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3878,11 +3878,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CANDILTR220071</t>
+          <t>CANDILTR220084</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>555.2</v>
+        <v>5282.8</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>KRCN03765SH022</t>
+          <t>KRCN03846SH022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>KRCN03765SH022</t>
+          <t>KRCN03846SH022</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3928,7 +3928,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5WLGGWRF_LTR</t>
+          <t>78HBKV5S_LTR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3938,11 +3938,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CANDILTR220084</t>
+          <t>CANDILTR220078</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5282.8</v>
+        <v>1425.6</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>KRCN03846SH022</t>
+          <t>KRCN03764SH022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>KRCN03846SH022</t>
+          <t>KRCN03764SH022</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3988,7 +3988,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>78HBKV5S_LTR</t>
+          <t>8134OI2N_LTR</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3998,11 +3998,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CANDILTR220078</t>
+          <t>CANDILTR220079</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1425.6</v>
+        <v>577.4400000000001</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>KRCN03764SH022</t>
+          <t>KRCN03770SH022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>KRCN03764SH022</t>
+          <t>KRCN03770SH022</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4048,7 +4048,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8134OI2N_LTR</t>
+          <t>82NLHWNR_LTR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4058,11 +4058,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CANDILTR220079</t>
+          <t>CANDILTR220074</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>577.4400000000001</v>
+        <v>8685.32</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>KRCN03770SH022</t>
+          <t>KRCN03762SH022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>KRCN03770SH022</t>
+          <t>KRCN03762SH022</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4108,7 +4108,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>82NLHWNR_LTR</t>
+          <t>86X6MM3J_LTR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4118,11 +4118,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CANDILTR220074</t>
+          <t>CANDILTR220073</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8685.32</v>
+        <v>1347.36</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>KRCN03762SH022</t>
+          <t>KRCN03767SH022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>KRCN03762SH022</t>
+          <t>KRCN03767SH022</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>86X6MM3J_LTR</t>
+          <t>1792OODC_LTN</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4178,11 +4178,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CANDILTR220073</t>
+          <t>CANDILTN220113</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1347.36</v>
+        <v>261.8</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4193,14 +4193,14 @@
         <v>44935</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>45055</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>KRCN03767SH022</t>
+          <t>KRCN03781SH022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>KRCN03767SH022</t>
+          <t>KRCN03781SH022</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4228,7 +4228,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1792OODC_LTN</t>
+          <t>1844YLHB_LTN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4238,11 +4238,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CANDILTN220113</t>
+          <t>CANDILTN220109</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>261.8</v>
+        <v>907.92</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4250,17 +4250,17 @@
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44935</v>
+        <v>44937</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>45055</v>
+        <v>45057</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>KRCN03781SH022</t>
+          <t>KRCN03640SH022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>KRCN03781SH022</t>
+          <t>KRCN03640SH022</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4279,16 +4279,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N64" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1844YLHB_LTN</t>
+          <t>1DNERX2U_LTN</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4298,11 +4298,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CANDILTN220109</t>
+          <t>CANDILTN220108</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>907.92</v>
+        <v>995.22</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>KRCN03640SH022</t>
+          <t>KRCN03639SH022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>KRCN03640SH022</t>
+          <t>KRCN03639SH022</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4348,7 +4348,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1DNERX2U_LTN</t>
+          <t>1RAN74CI_LTN</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4358,11 +4358,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CANDILTN220108</t>
+          <t>CANDILTN220112</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>995.22</v>
+        <v>333.2</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -4370,17 +4370,17 @@
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44937</v>
+        <v>44935</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45057</v>
+        <v>45055</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>KRCN03639SH022</t>
+          <t>KRCN03780SH022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>KRCN03639SH022</t>
+          <t>KRCN03780SH022</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4399,16 +4399,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N66" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1RAN74CI_LTN</t>
+          <t>25BIV48P_NTX</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4418,11 +4418,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CANDILTN220112</t>
+          <t>CANDINTX220033</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>333.2</v>
+        <v>343.98</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>KRCN03780SH022</t>
+          <t>KRCN03913SH022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>KRCN03780SH022</t>
+          <t>KRCN03913SH022</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>25BIV48P_NTX</t>
+          <t>2CED6AEI_NTX</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4478,11 +4478,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CANDINTX220033</t>
+          <t>CANDINTX220035</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>343.98</v>
+        <v>73.34999999999999</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4490,17 +4490,17 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44938</v>
+        <v>44937</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45055</v>
+        <v>45057</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>KRCN03913SH022</t>
+          <t>KRCN03915SH022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4508,27 +4508,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>KRCN03913SH022</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N68" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2CED6AEI_NTX</t>
+          <t>2HSMHZHN_NTX</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4538,11 +4534,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CANDINTX220035</t>
+          <t>CANDINTX220032</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>73.34999999999999</v>
+        <v>7223.58</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4550,17 +4546,17 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>45057</v>
+        <v>45055</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>KRCN03915SH022</t>
+          <t>KRCN03912SH022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4568,23 +4564,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>KRCN03912SH022</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N69" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2HSMHZHN_NTX</t>
+          <t>2SQFGHNK_NTX</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4594,11 +4594,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CANDINTX220032</t>
+          <t>CANDINTX220036</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>7223.58</v>
+        <v>146.7</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4606,17 +4606,17 @@
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44938</v>
+        <v>44937</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>45055</v>
+        <v>45057</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>KRCN03912SH022</t>
+          <t>KRCN03916SH022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4624,27 +4624,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>KRCN03912SH022</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N70" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2SQFGHNK_NTX</t>
+          <t>5F9BKBKS_LTN</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4654,11 +4650,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CANDINTX220036</t>
+          <t>CANDILTN220111</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>146.7</v>
+        <v>333.2</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4666,17 +4662,17 @@
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>45057</v>
+        <v>45055</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>KRCN03916SH022</t>
+          <t>KRCN03779SH022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4684,23 +4680,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>KRCN03779SH022</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N71" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5F9BKBKS_LTN</t>
+          <t>5JGT7A5Q_NTX</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4710,11 +4710,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CANDILTN220111</t>
+          <t>CANDINTX220031</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>333.2</v>
+        <v>2063.88</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>KRCN03779SH022</t>
+          <t>KRCN03911SH022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>KRCN03779SH022</t>
+          <t>KRCN03911SH022</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4760,7 +4760,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5JGT7A5Q_NTX</t>
+          <t>5MNCYQZA_LTN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4770,11 +4770,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CANDINTX220031</t>
+          <t>CANDILTN220114</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2063.88</v>
+        <v>214.2</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>KRCN03911SH022</t>
+          <t>KRCN03782SH022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>KRCN03911SH022</t>
+          <t>KRCN03782SH022</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4820,7 +4820,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5MNCYQZA_LTN</t>
+          <t>6FCQRGGN_LTN</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4830,11 +4830,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CANDILTN220114</t>
+          <t>CANDILTN220115</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>214.2</v>
+        <v>642.6</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>KRCN03782SH022</t>
+          <t>KRCN03783SH022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>KRCN03782SH022</t>
+          <t>KRCN03783SH022</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4880,7 +4880,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6FCQRGGN_LTN</t>
+          <t>71J6BRGU_NTX</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4890,11 +4890,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CANDILTN220115</t>
+          <t>CANDINTX220070</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>642.6</v>
+        <v>5651.04</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4902,17 +4902,17 @@
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>KRCN03783SH022</t>
+          <t>KRCN03789SH022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>KRCN03783SH022</t>
+          <t>KRCN03789SH022</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4931,16 +4931,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N75" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>71J6BRGU_NTX</t>
+          <t>7CF5IW5Z_NTX</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4950,11 +4950,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CANDINTX220070</t>
+          <t>CANDINTX220064</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5651.04</v>
+        <v>6777</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>KRCN03789SH022</t>
+          <t>KRCN03695SH022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>KRCN03789SH022</t>
+          <t>KRCN03695SH022</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5000,7 +5000,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7CF5IW5Z_NTX</t>
+          <t>7J277ODB_NTX</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5010,11 +5010,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CANDINTX220064</t>
+          <t>CANDINTX220063</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6777</v>
+        <v>8283</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>KRCN03695SH022</t>
+          <t>KRCN03694SH022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>KRCN03695SH022</t>
+          <t>KRCN03694SH022</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5060,7 +5060,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7J277ODB_NTX</t>
+          <t>7SI48QQZ_NTX1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5070,11 +5070,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CANDINTX220063</t>
+          <t>CANDINTX220062</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8283</v>
+        <v>1068.3</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -5082,17 +5082,17 @@
         </is>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44938</v>
+        <v>44937</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>KRCN03694SH022</t>
+          <t>KRCN03917SH022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>KRCN03694SH022</t>
+          <t>KRCN03917SH022</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N78" t="n">
         <v>100</v>
@@ -5120,7 +5120,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7SI48QQZ_NTX1</t>
+          <t>7U5QTCIN_LTN</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5130,11 +5130,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CANDINTX220062</t>
+          <t>CANDILTN220110</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1068.3</v>
+        <v>1588.86</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -5142,17 +5142,17 @@
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44930</v>
+        <v>44937</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>45057</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>KRCN03917SH022</t>
+          <t>KRCN03641SH022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>KRCN03917SH022</t>
+          <t>KRCN03641SH022</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5180,7 +5180,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7U5QTCIN_LTN</t>
+          <t>84TPIT2X_NTX</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5190,11 +5190,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CANDILTN220110</t>
+          <t>CANDINTX220072</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1588.86</v>
+        <v>3983.52</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5202,17 +5202,17 @@
         </is>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44937</v>
+        <v>44935</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>45057</v>
+        <v>45055</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>KRCN03641SH022</t>
+          <t>KRCN03791SH022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>KRCN03641SH022</t>
+          <t>KRCN03791SH022</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5231,16 +5231,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N80" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>84TPIT2X_NTX</t>
+          <t>8FRTODWJ_NTX</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5250,11 +5250,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CANDINTX220072</t>
+          <t>CANDINTX220073</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3983.52</v>
+        <v>277.92</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>KRCN03791SH022</t>
+          <t>KRCN03792SH022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>KRCN03791SH022</t>
+          <t>KRCN03792SH022</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5300,7 +5300,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>8FRTODWJ_NTX</t>
+          <t>8GJTF24P_NTX</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5310,11 +5310,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CANDINTX220073</t>
+          <t>CANDINTX220074</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>277.92</v>
+        <v>1435.92</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>KRCN03792SH022</t>
+          <t>KRCN03793SH022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>KRCN03792SH022</t>
+          <t>KRCN03793SH022</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5360,7 +5360,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>8GJTF24P_NTX</t>
+          <t>8UKWI9RZ_NTX</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5370,11 +5370,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CANDINTX220074</t>
+          <t>CANDINTX220071</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1435.92</v>
+        <v>2501.28</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>KRCN03793SH022</t>
+          <t>KRCN03790SH022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>KRCN03793SH022</t>
+          <t>KRCN03790SH022</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5420,7 +5420,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>8UKWI9RZ_NTX</t>
+          <t>6QXJ6VLX_LTR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5430,29 +5430,29 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CANDINTX220071</t>
+          <t>CANDILTR220022</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2501.28</v>
+        <v>95.55</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Paid</t>
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44935</v>
+        <v>44856</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44938</v>
+        <v>44859</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>45055</v>
+        <v>44976</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>KRCN03790SH022</t>
+          <t>KRCN03242SH022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>KRCN03790SH022</t>
+          <t>KRCN03242SH022</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5471,16 +5471,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="N84" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6QXJ6VLX_LTR</t>
+          <t>8YUIEVEQ_LTR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>95.55</v>
+        <v>122.14</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>8YUIEVEQ_LTR</t>
+          <t>12VDZTLC_LTR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5550,29 +5550,29 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CANDILTR220022</t>
+          <t>CANDILTR220086</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>122.14</v>
+        <v>1548</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Paid</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44856</v>
+        <v>44941</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44859</v>
+        <v>44943</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>44976</v>
+        <v>45061</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>KRCN03242SH022</t>
+          <t>KRCN03848SH022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>KRCN03242SH022</t>
+          <t>KRCN03848SH022</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5591,16 +5591,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="N86" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>12VDZTLC_LTR</t>
+          <t>1EAPRA7R_LTR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5610,11 +5610,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CANDILTR220086</t>
+          <t>CANDILTR220087</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1548</v>
+        <v>1857.6</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>KRCN03848SH022</t>
+          <t>KRCN03849SH022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>KRCN03848SH022</t>
+          <t>KRCN03849SH022</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5660,7 +5660,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1EAPRA7R_LTR</t>
+          <t>4HZN2NVD_LTR1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5670,11 +5670,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CANDILTR220087</t>
+          <t>CANDILTR220082</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1857.6</v>
+        <v>7372</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>KRCN03849SH022</t>
+          <t>KRCN03967SH022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>KRCN03849SH022</t>
+          <t>KRCN03967SH022</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5720,7 +5720,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4HZN2NVD_LTR1</t>
+          <t>6VZL7G6S_NTX</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5730,11 +5730,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CANDILTR220082</t>
+          <t>CANDINTX220065</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>7372</v>
+        <v>884.25</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5742,17 +5742,17 @@
         </is>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44941</v>
+        <v>44943</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>KRCN03967SH022</t>
+          <t>KRCN03918SH022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>KRCN03967SH022</t>
+          <t>KRCN03918SH022</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N89" t="n">
         <v>105</v>
@@ -5780,7 +5780,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6VZL7G6S_NTX</t>
+          <t>7CF5IW5Z_LTR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5790,11 +5790,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CANDINTX220065</t>
+          <t>CANDILTR220085</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>884.25</v>
+        <v>337.2</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5802,17 +5802,17 @@
         </is>
       </c>
       <c r="F90" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="G90" s="2" t="n">
         <v>44943</v>
       </c>
-      <c r="G90" s="2" t="n">
-        <v>44945</v>
-      </c>
       <c r="H90" s="2" t="n">
-        <v>45063</v>
+        <v>45061</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>KRCN03918SH022</t>
+          <t>KRCN03847SH022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>KRCN03918SH022</t>
+          <t>KRCN03847SH022</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5831,7 +5831,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N90" t="n">
         <v>105</v>
@@ -5840,7 +5840,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7CF5IW5Z_LTR</t>
+          <t>81KN2B9U_LTR</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5850,11 +5850,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CANDILTR220085</t>
+          <t>CANDILTR220089</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>337.2</v>
+        <v>774</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>KRCN03847SH022</t>
+          <t>KRCN03851SH022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>KRCN03847SH022</t>
+          <t>KRCN03851SH022</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5900,7 +5900,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>81KN2B9U_LTR</t>
+          <t>8A2GC7CL_LTR</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5910,11 +5910,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CANDILTR220089</t>
+          <t>CANDILTR220088</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>774</v>
+        <v>619.2</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>KRCN03851SH022</t>
+          <t>KRCN03850SH022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>KRCN03851SH022</t>
+          <t>KRCN03850SH022</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5960,7 +5960,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>8A2GC7CL_LTR</t>
+          <t>8BW7XB7A_LTR</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5970,11 +5970,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CANDILTR220088</t>
+          <t>CANDILTR220090</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>619.2</v>
+        <v>2941.2</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>KRCN03850SH022</t>
+          <t>KRCN03852SH022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>KRCN03850SH022</t>
+          <t>KRCN03852SH022</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6020,7 +6020,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>8BW7XB7A_LTR</t>
+          <t>8J9I4ECV_LTR1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6030,11 +6030,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CANDILTR220090</t>
+          <t>CANDILTR220083</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2941.2</v>
+        <v>7372</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>KRCN03852SH022</t>
+          <t>KRCN04011SH022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>KRCN03852SH022</t>
+          <t>KRCN04011SH022</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6080,7 +6080,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8J9I4ECV_LTR1</t>
+          <t>1M25IK8S_NTX</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6090,11 +6090,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CANDILTR220083</t>
+          <t>CANDINTX220066</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>7372</v>
+        <v>707.4</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -6102,17 +6102,17 @@
         </is>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44941</v>
+        <v>44943</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>KRCN04011SH022</t>
+          <t>KRCN03919SH022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>KRCN04011SH022</t>
+          <t>KRCN03919SH022</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N95" t="n">
         <v>105</v>
@@ -6140,7 +6140,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1M25IK8S_NTX</t>
+          <t>1ZGOC7YW_NTX</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6150,11 +6150,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CANDINTX220066</t>
+          <t>CANDINTX220068</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>707.4</v>
+        <v>884.25</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>KRCN03919SH022</t>
+          <t>KRCN03921SH022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>KRCN03919SH022</t>
+          <t>KRCN03921SH022</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6200,7 +6200,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1ZGOC7YW_NTX</t>
+          <t>6DY7R8CB_NTX</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6210,11 +6210,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CANDINTX220068</t>
+          <t>CANDINTX220067</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>884.25</v>
+        <v>3183.3</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>KRCN03921SH022</t>
+          <t>KRCN03920SH022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>KRCN03921SH022</t>
+          <t>KRCN03920SH022</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6260,7 +6260,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>6DY7R8CB_NTX</t>
+          <t>6GVQ8RUZ_NTX</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6270,11 +6270,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CANDINTX220067</t>
+          <t>CANDINTX220069</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3183.3</v>
+        <v>3360.15</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>KRCN03920SH022</t>
+          <t>KRCN03922SH022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>KRCN03920SH022</t>
+          <t>KRCN03922SH022</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6320,7 +6320,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6GVQ8RUZ_NTX</t>
+          <t>2Y37S6NA_LTR</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6330,29 +6330,29 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CANDINTX220069</t>
+          <t>CANDILTR220022</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3360.15</v>
+        <v>573.3</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Paid</t>
         </is>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44943</v>
+        <v>44856</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44945</v>
+        <v>44859</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>45063</v>
+        <v>44976</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>KRCN03922SH022</t>
+          <t>KRCN03242SH022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>KRCN03922SH022</t>
+          <t>KRCN03242SH022</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6371,16 +6371,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="N99" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2Y37S6NA_LTR</t>
+          <t>32K391JU_LTR</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6390,11 +6390,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CANDILTR220022</t>
+          <t>CANDILTR220042</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>573.3</v>
+        <v>5888</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -6402,17 +6402,17 @@
         </is>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44856</v>
+        <v>44847</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44859</v>
+        <v>44853</v>
       </c>
       <c r="H100" s="2" t="n">
-        <v>44976</v>
+        <v>44973</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>KRCN03242SH022</t>
+          <t>KRCN03161SH022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>KRCN03242SH022</t>
+          <t>KRCN03161SH022</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6431,16 +6431,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N100" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>32K391JU_LTR</t>
+          <t>8V5Z7NOM_LTR</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6450,11 +6450,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CANDILTR220042</t>
+          <t>CANDILTR220025</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5888</v>
+        <v>775.21</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -6462,17 +6462,17 @@
         </is>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44847</v>
+        <v>44856</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44853</v>
+        <v>44859</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>44973</v>
+        <v>44976</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>KRCN03161SH022</t>
+          <t>KRCN03243SH022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>KRCN03161SH022</t>
+          <t>KRCN03243SH022</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6491,16 +6491,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N101" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>8V5Z7NOM_LTR</t>
+          <t>1B19ANQK_LTR</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6510,29 +6510,29 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CANDILTR220025</t>
+          <t>CANDILTR220040</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>775.21</v>
+        <v>10312.6</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Paid</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44856</v>
+        <v>44847</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44859</v>
+        <v>44853</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>44976</v>
+        <v>44973</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>KRCN03243SH022</t>
+          <t>KRCN03159SH022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>KRCN03243SH022</t>
+          <t>KRCN03159SH022</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -6551,10 +6551,10 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N102" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>60</v>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N4" t="n">
         <v>60</v>
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N10" t="n">
         <v>50</v>
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N12" t="n">
         <v>50</v>
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N14" t="n">
         <v>50</v>
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N15" t="n">
         <v>50</v>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N16" t="n">
         <v>70</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N17" t="n">
         <v>10</v>
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N19" t="n">
         <v>70</v>
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N20" t="n">
         <v>70</v>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N21" t="n">
         <v>70</v>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N22" t="n">
         <v>35</v>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N23" t="n">
         <v>70</v>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N24" t="n">
         <v>70</v>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N25" t="n">
         <v>70</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N26" t="n">
         <v>80</v>
@@ -2059,7 +2059,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N27" t="n">
         <v>65</v>
@@ -2119,10 +2119,10 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N29" t="n">
         <v>80</v>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N30" t="n">
         <v>75</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N31" t="n">
         <v>15</v>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N32" t="n">
         <v>80</v>
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N33" t="n">
         <v>80</v>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N34" t="n">
         <v>80</v>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N35" t="n">
         <v>80</v>
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N36" t="n">
         <v>80</v>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N37" t="n">
         <v>80</v>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N38" t="n">
         <v>80</v>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N39" t="n">
         <v>80</v>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N40" t="n">
         <v>80</v>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N41" t="n">
         <v>80</v>
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N42" t="n">
         <v>80</v>
@@ -3019,7 +3019,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N43" t="n">
         <v>80</v>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N44" t="n">
         <v>80</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N45" t="n">
         <v>80</v>
@@ -3199,7 +3199,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N46" t="n">
         <v>85</v>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N47" t="n">
         <v>85</v>
@@ -3319,10 +3319,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N48" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N49" t="n">
         <v>95</v>
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N50" t="n">
         <v>95</v>
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N51" t="n">
         <v>95</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N52" t="n">
         <v>95</v>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N53" t="n">
         <v>95</v>
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N54" t="n">
         <v>95</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N55" t="n">
         <v>95</v>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N56" t="n">
         <v>95</v>
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N57" t="n">
         <v>95</v>
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N58" t="n">
         <v>95</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N59" t="n">
         <v>95</v>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N60" t="n">
         <v>95</v>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N61" t="n">
         <v>95</v>
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N62" t="n">
         <v>95</v>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N63" t="n">
         <v>95</v>
@@ -4279,10 +4279,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N64" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N65" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N66" t="n">
         <v>95</v>
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N67" t="n">
         <v>95</v>
@@ -4515,10 +4515,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N68" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69">
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N69" t="n">
         <v>95</v>
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N70" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N71" t="n">
         <v>95</v>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N72" t="n">
         <v>95</v>
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N73" t="n">
         <v>95</v>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N74" t="n">
         <v>95</v>
@@ -4931,10 +4931,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N75" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76">
@@ -4991,10 +4991,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N76" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N77" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78">
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N78" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79">
@@ -5171,10 +5171,10 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N79" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80">
@@ -5231,7 +5231,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N80" t="n">
         <v>95</v>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N81" t="n">
         <v>95</v>
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N82" t="n">
         <v>95</v>
@@ -5411,7 +5411,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N83" t="n">
         <v>95</v>
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N84" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -5531,10 +5531,10 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N85" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N86" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N87" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N88" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N89" t="n">
         <v>105</v>
@@ -5831,10 +5831,10 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N90" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N91" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92">
@@ -5951,10 +5951,10 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N92" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N93" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
@@ -6071,10 +6071,10 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N94" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N95" t="n">
         <v>105</v>
@@ -6191,7 +6191,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N96" t="n">
         <v>105</v>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N97" t="n">
         <v>105</v>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N98" t="n">
         <v>105</v>
@@ -6371,10 +6371,10 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N99" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N100" t="n">
         <v>15</v>
@@ -6491,10 +6491,10 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N101" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
@@ -6551,7 +6551,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N102" t="n">
         <v>15</v>
@@ -6560,7 +6560,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>7Z852YQD_LTR</t>
+          <t>68E6O96Z_LTN</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6570,11 +6570,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTN220016</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>51.48</v>
+        <v>5271.33</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6582,17 +6582,17 @@
         </is>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44888</v>
+        <v>44872</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44890</v>
+        <v>44874</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>45008</v>
+        <v>44992</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -6611,16 +6611,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N103" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3UR9YW4M_NTX</t>
+          <t>7Z852YQD_LTR</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6630,11 +6630,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MEXDINTX220007</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>816.48</v>
+        <v>51.48</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -6642,17 +6642,17 @@
         </is>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44875</v>
+        <v>44888</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44876</v>
+        <v>44890</v>
       </c>
       <c r="H104" s="2" t="n">
-        <v>44995</v>
+        <v>45008</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>KRMN00134SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6662,7 +6662,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>KRMN00134SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -6671,16 +6671,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N104" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3UR9YW4M_LTN</t>
+          <t>3UR9YW4M_NTX</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6690,29 +6690,29 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MEXDILTN220017</t>
+          <t>MEXDINTX220007</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>902.1</v>
+        <v>816.48</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44872</v>
+        <v>44875</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44874</v>
+        <v>44876</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00134SH022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00134SH022</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N105" t="n">
         <v>35</v>
@@ -6740,7 +6740,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3XX7FXEC_LTN</t>
+          <t>3UR9YW4M_LTN</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6750,15 +6750,15 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>MEXDILTN220016</t>
+          <t>MEXDILTN220017</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>285.01</v>
+        <v>902.1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F106" s="2" t="n">
@@ -6791,16 +6791,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N106" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>68E6O96Z_LTN</t>
+          <t>3XX7FXEC_LTN</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6814,11 +6814,11 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5271.33</v>
+        <v>285.01</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F107" s="2" t="n">
@@ -6851,10 +6851,10 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N107" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N108" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109">
@@ -6971,10 +6971,10 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N109" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110">
@@ -7031,10 +7031,10 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N110" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111">
@@ -7079,7 +7079,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N111" t="n">
         <v>15</v>
@@ -7139,7 +7139,7 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N112" t="n">
         <v>70</v>
@@ -7199,7 +7199,7 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N113" t="n">
         <v>70</v>
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N114" t="n">
         <v>50</v>
@@ -7319,10 +7319,10 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N115" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N116" t="n">
         <v>70</v>
@@ -7439,7 +7439,7 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N117" t="n">
         <v>35</v>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N118" t="n">
         <v>70</v>
@@ -7559,7 +7559,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N119" t="n">
         <v>35</v>
@@ -7619,10 +7619,10 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N120" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121">
@@ -7679,7 +7679,7 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N121" t="n">
         <v>50</v>
@@ -7739,7 +7739,7 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N122" t="n">
         <v>70</v>
@@ -7799,7 +7799,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N123" t="n">
         <v>70</v>
@@ -7859,7 +7859,7 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N124" t="n">
         <v>50</v>
@@ -7919,10 +7919,10 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N125" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126">
@@ -7979,10 +7979,10 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N126" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
@@ -8039,7 +8039,7 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N127" t="n">
         <v>50</v>
@@ -8099,10 +8099,10 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N128" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129">
@@ -8159,7 +8159,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N129" t="n">
         <v>50</v>
@@ -8219,10 +8219,10 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N130" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
@@ -8279,10 +8279,10 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N131" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132">
@@ -8339,10 +8339,10 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N132" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133">
@@ -8399,10 +8399,10 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N133" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134">
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N134" t="n">
         <v>10</v>
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N135" t="n">
         <v>5</v>
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N136" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
@@ -8639,10 +8639,10 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N137" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -8699,10 +8699,10 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N138" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
@@ -8759,10 +8759,10 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N139" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
@@ -8819,10 +8819,10 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N140" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
@@ -8879,10 +8879,10 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N141" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -8939,10 +8939,10 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N142" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
@@ -8999,10 +8999,10 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N143" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -9055,7 +9055,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N144" t="n">
         <v>5</v>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N145" t="n">
         <v>5</v>
@@ -9167,7 +9167,7 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N146" t="n">
         <v>5</v>
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N147" t="n">
         <v>5</v>
@@ -9279,7 +9279,7 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N148" t="n">
         <v>5</v>
@@ -9335,7 +9335,7 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N149" t="n">
         <v>5</v>
@@ -9391,7 +9391,7 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N150" t="n">
         <v>5</v>
@@ -9447,10 +9447,10 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N151" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
@@ -9503,10 +9503,10 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N152" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
@@ -9559,10 +9559,10 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N153" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
@@ -9615,10 +9615,10 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N154" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
@@ -9671,10 +9671,10 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N155" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
@@ -9727,10 +9727,10 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N156" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
@@ -9787,10 +9787,10 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N157" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
@@ -9847,10 +9847,10 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N158" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
@@ -9907,10 +9907,10 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N159" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
@@ -9967,10 +9967,10 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N160" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
@@ -10023,7 +10023,7 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N161" t="n">
         <v>10</v>
@@ -10079,7 +10079,7 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N162" t="n">
         <v>10</v>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N163" t="n">
         <v>10</v>
@@ -10191,10 +10191,10 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N164" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -10247,10 +10247,10 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N165" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
@@ -10303,10 +10303,10 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N166" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -10359,10 +10359,10 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N167" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
@@ -10419,10 +10419,10 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N168" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
@@ -10479,10 +10479,10 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N169" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -10539,10 +10539,10 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N170" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
@@ -10599,10 +10599,10 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N171" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -10659,10 +10659,10 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N172" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -10715,7 +10715,7 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N173" t="n">
         <v>20</v>
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N174" t="n">
         <v>20</v>
@@ -10827,7 +10827,7 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N175" t="n">
         <v>20</v>
@@ -10887,10 +10887,10 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N176" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177">
@@ -10947,10 +10947,10 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N177" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
@@ -11007,10 +11007,10 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N178" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -11067,10 +11067,10 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N179" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -11127,10 +11127,10 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N180" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
@@ -11187,10 +11187,10 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N181" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -11247,10 +11247,10 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N182" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N183" t="n">
         <v>20</v>
@@ -11359,7 +11359,7 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N184" t="n">
         <v>20</v>
@@ -11415,7 +11415,7 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N185" t="n">
         <v>20</v>
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N186" t="n">
         <v>20</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N187" t="n">
         <v>20</v>
@@ -11583,7 +11583,7 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N188" t="n">
         <v>20</v>
@@ -11643,10 +11643,10 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N189" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
@@ -11699,10 +11699,10 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N190" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N191" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
@@ -11811,10 +11811,10 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N192" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N193" t="n">
         <v>40</v>
@@ -11931,7 +11931,7 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N194" t="n">
         <v>40</v>
@@ -11991,7 +11991,7 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N195" t="n">
         <v>40</v>
@@ -12051,7 +12051,7 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N196" t="n">
         <v>40</v>
@@ -12111,7 +12111,7 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N197" t="n">
         <v>40</v>
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N198" t="n">
         <v>40</v>
@@ -12231,7 +12231,7 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N199" t="n">
         <v>40</v>
@@ -12291,7 +12291,7 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N200" t="n">
         <v>40</v>
@@ -12347,10 +12347,10 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N201" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N202" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="203">
@@ -12459,7 +12459,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N203" t="n">
         <v>40</v>
@@ -12515,7 +12515,7 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N204" t="n">
         <v>40</v>
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N205" t="n">
         <v>40</v>
@@ -12627,7 +12627,7 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N206" t="n">
         <v>40</v>
@@ -12683,7 +12683,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N207" t="n">
         <v>60</v>
@@ -12739,7 +12739,7 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N208" t="n">
         <v>60</v>
@@ -12795,7 +12795,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N209" t="n">
         <v>60</v>
@@ -12847,10 +12847,10 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N210" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="211">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N211" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212">
@@ -12967,10 +12967,10 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N212" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213">
@@ -13027,10 +13027,10 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N213" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214">
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N214" t="n">
         <v>70</v>
@@ -13147,7 +13147,7 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N215" t="n">
         <v>70</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N216" t="n">
         <v>70</v>
@@ -13263,7 +13263,7 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N217" t="n">
         <v>60</v>
@@ -13319,10 +13319,10 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N218" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219">
@@ -13375,10 +13375,10 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N219" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="220">
@@ -13431,10 +13431,10 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N220" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221">
@@ -13487,10 +13487,10 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N221" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222">
@@ -13543,10 +13543,10 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N222" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223">
@@ -13599,10 +13599,10 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N223" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224">
@@ -13655,10 +13655,10 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N224" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="225">
@@ -13711,10 +13711,10 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N225" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="226">
@@ -13767,10 +13767,10 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N226" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227">
@@ -13823,10 +13823,10 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N227" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228">
@@ -13879,10 +13879,10 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N228" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229">
@@ -13935,10 +13935,10 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N229" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230">
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N230" t="n">
         <v>95</v>
@@ -14039,7 +14039,7 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N231" t="n">
         <v>95</v>
@@ -14091,7 +14091,7 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N232" t="n">
         <v>95</v>
@@ -14143,7 +14143,7 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N233" t="n">
         <v>95</v>
@@ -14199,10 +14199,10 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N234" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="235">
@@ -14255,10 +14255,10 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N235" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="236">
@@ -14311,10 +14311,10 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N236" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237">
@@ -14367,10 +14367,10 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N237" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="238">
@@ -14423,10 +14423,10 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N238" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="239">
@@ -14479,10 +14479,10 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N239" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="240">
@@ -14535,10 +14535,10 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N240" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241">
@@ -14591,10 +14591,10 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N241" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="242">
@@ -14647,10 +14647,10 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N242" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="243">
@@ -14703,10 +14703,10 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N243" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="244">
@@ -14759,10 +14759,10 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N244" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="245">
@@ -14815,10 +14815,10 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N245" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="246">
@@ -14871,10 +14871,10 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N246" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="247">
@@ -14927,10 +14927,10 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N247" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="248">
@@ -14983,10 +14983,10 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N248" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="249">
@@ -15039,10 +15039,10 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N249" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="250">
@@ -15095,10 +15095,10 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N250" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="251">
@@ -15151,10 +15151,10 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N251" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="252">
@@ -15207,10 +15207,10 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N252" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="253">
@@ -15263,10 +15263,10 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N253" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="254">
@@ -15319,10 +15319,10 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N254" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="255">
@@ -15379,10 +15379,10 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N255" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="256">
@@ -15435,10 +15435,10 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N256" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="257">
@@ -15491,10 +15491,10 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N257" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="258">
@@ -15547,10 +15547,10 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N258" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="259">
@@ -15603,10 +15603,10 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N259" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="260">
@@ -15659,10 +15659,10 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N260" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="261">
@@ -15719,10 +15719,10 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N261" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="262">
@@ -15779,10 +15779,10 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N262" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="263">
@@ -15835,10 +15835,10 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N263" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="264">
@@ -15891,10 +15891,10 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N264" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="265">
@@ -15947,10 +15947,10 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N265" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="266">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N266" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="267">
@@ -16059,10 +16059,10 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N267" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="268">
@@ -16115,10 +16115,10 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N268" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="269">
@@ -16171,10 +16171,10 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N269" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="270">
@@ -16227,7 +16227,7 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N270" t="n">
         <v>75</v>
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N271" t="n">
         <v>75</v>
@@ -16339,7 +16339,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N272" t="n">
         <v>75</v>
@@ -16395,7 +16395,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N273" t="n">
         <v>75</v>
@@ -16451,7 +16451,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N274" t="n">
         <v>75</v>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N275" t="n">
         <v>75</v>
@@ -16567,10 +16567,10 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N276" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="277">
@@ -16627,10 +16627,10 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N277" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="278">
@@ -16687,10 +16687,10 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N278" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="279">
@@ -16747,10 +16747,10 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N279" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="280">
@@ -16807,10 +16807,10 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N280" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="281">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N281" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="282">
@@ -16927,10 +16927,10 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N282" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="283">
@@ -16987,10 +16987,10 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N283" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="284">
@@ -17047,10 +17047,10 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N284" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="285">
@@ -17107,10 +17107,10 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N285" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="286">
@@ -17167,10 +17167,10 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N286" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="287">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N287" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="288">
@@ -17287,10 +17287,10 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N288" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -598,10 +598,14 @@
       <c r="H3" s="2" t="n">
         <v>45077</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>KRQN01553SH023</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" t="n">
         <v>40</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N3" t="n">
         <v>110</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N4" t="n">
         <v>85</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
         <v>40</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6" t="n">
         <v>40</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" t="n">
         <v>40</v>
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" t="n">
         <v>60</v>
@@ -972,7 +972,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4N63QGJJ_NTX</t>
+          <t>25KSEKCV_LTN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -982,29 +982,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AUSDINTX220018</t>
+          <t>AUSDILTN220028</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>780.16</v>
+        <v>315.72</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44848</v>
+        <v>44908</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44851</v>
+        <v>44908</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>44968</v>
+        <v>45028</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>KAUN00551SH022</t>
+          <t>KAUN00566SH022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>KAUN00551SH022</t>
+          <t>KAUN00566SH022</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1023,16 +1023,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25KSEKCV_LTN</t>
+          <t>25KSEKCV_LTN1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1042,11 +1042,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AUSDILTN220028</t>
+          <t>AUSDILTN220030</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>315.72</v>
+        <v>1963.85</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>KAUN00566SH022</t>
+          <t>KAUN00567SH022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>KAUN00566SH022</t>
+          <t>KAUN00567SH022</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
         <v>60</v>
@@ -1092,7 +1092,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25KSEKCV_LTN1</t>
+          <t>2M8MTK2A_LTN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AUSDILTN220030</t>
+          <t>AUSDILTN220027</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1963.85</v>
+        <v>546.14</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>KAUN00567SH022</t>
+          <t>KAUN00565SH022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>KAUN00567SH022</t>
+          <t>KAUN00565SH022</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
         <v>60</v>
@@ -1152,7 +1152,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2M8MTK2A_LTN</t>
+          <t>2OX8J8EC_LTN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1162,29 +1162,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AUSDILTN220027</t>
+          <t>AUSDILTN220026</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>546.14</v>
+        <v>2208</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44908</v>
+        <v>44867</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44908</v>
+        <v>44874</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45028</v>
+        <v>44994</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>KAUN00565SH022</t>
+          <t>KAUN00555SH022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>KAUN00565SH022</t>
+          <t>KAUN00555SH022</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="N13" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2OX8J8EC_LTN</t>
+          <t>25KSEKCV_NTX1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1222,29 +1222,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AUSDILTN220026</t>
+          <t>AUSDINTX220022</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2208</v>
+        <v>23.09</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44867</v>
+        <v>44909</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44874</v>
+        <v>44911</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>44994</v>
+        <v>45029</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>KAUN00555SH022</t>
+          <t>KAUN00570SH022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>KAUN00555SH022</t>
+          <t>KAUN00570SH022</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1263,16 +1263,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="N14" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25KSEKCV_NTX1</t>
+          <t>2M8MTK2A_NTX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1282,11 +1282,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AUSDINTX220022</t>
+          <t>AUSDINTX220019</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>23.09</v>
+        <v>616.53</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>KAUN00570SH022</t>
+          <t>KAUN00571SH022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>KAUN00570SH022</t>
+          <t>KAUN00571SH022</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N15" t="n">
         <v>60</v>
@@ -1332,7 +1332,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2M8MTK2A_NTX</t>
+          <t>6RU4ISRM_LTR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1342,11 +1342,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AUSDINTX220019</t>
+          <t>AUSDILTR220019</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>616.53</v>
+        <v>108.8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>KAUN00571SH022</t>
+          <t>KAUN00572SH022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>KAUN00571SH022</t>
+          <t>KAUN00572SH022</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N16" t="n">
         <v>60</v>
@@ -1392,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6RU4ISRM_LTR</t>
+          <t>3HXQXOSR_LTR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1402,11 +1402,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AUSDILTR220019</t>
+          <t>AUSDILTR220020</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>108.8</v>
+        <v>121.92</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1414,17 +1414,17 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44909</v>
+        <v>44914</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45029</v>
+        <v>45038</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>KAUN00572SH022</t>
+          <t>KAUN00569SH022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>KAUN00572SH022</t>
+          <t>KAUN00569SH022</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1443,16 +1443,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3HXQXOSR_LTR</t>
+          <t>1JQCW99G_ROG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1462,29 +1462,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AUSDILTR220020</t>
+          <t>AUSDIROG220003</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>121.92</v>
+        <v>262</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44914</v>
+        <v>44906</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44918</v>
+        <v>44909</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45038</v>
+        <v>45026</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>KAUN00569SH022</t>
+          <t>KAUN00227NB022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>KAUN00569SH022</t>
+          <t>KAUN00227NB022</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1503,16 +1503,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="N18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1JQCW99G_ROG</t>
+          <t>1EEDBITD_NTX</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1522,29 +1522,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AUSDIROG220003</t>
+          <t>AUSDINTX220025</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>262</v>
+        <v>531.0700000000001</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44906</v>
+        <v>44903</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44909</v>
+        <v>44904</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45026</v>
+        <v>45023</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>KAUN00227NB022</t>
+          <t>KAUN00563SH022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>KAUN00227NB022</t>
+          <t>KAUN00563SH022</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1563,16 +1563,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1EEDBITD_NTX</t>
+          <t>6R2UDO5K_NTX</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1582,29 +1582,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AUSDINTX220025</t>
+          <t>AUSDINTX220023</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>531.0700000000001</v>
+        <v>148.47</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44903</v>
+        <v>44888</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44904</v>
+        <v>44890</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45023</v>
+        <v>45008</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>KAUN00563SH022</t>
+          <t>KAUN00558SH022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>KAUN00563SH022</t>
+          <t>KAUN00558SH022</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1623,16 +1623,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6R2UDO5K_NTX</t>
+          <t>7WVOUC7R_LTR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1642,29 +1642,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AUSDINTX220023</t>
+          <t>AUSDILTR220020</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>148.47</v>
+        <v>102.4</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44888</v>
+        <v>44914</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44890</v>
+        <v>44918</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45008</v>
+        <v>45038</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>KAUN00558SH022</t>
+          <t>KAUN00569SH022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>KAUN00558SH022</t>
+          <t>KAUN00569SH022</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7WVOUC7R_LTR</t>
+          <t>25KSEKCV_LTR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1702,11 +1702,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AUSDILTR220020</t>
+          <t>AUSDILTR220017</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>102.4</v>
+        <v>440.19</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1714,17 +1714,17 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>44918</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45038</v>
+        <v>45035</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>KAUN00569SH022</t>
+          <t>KAUN00568SH022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>KAUN00569SH022</t>
+          <t>KAUN00568SH022</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1743,16 +1743,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25KSEKCV_LTR</t>
+          <t>5YHE8SYY_LTR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1762,29 +1762,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AUSDILTR220017</t>
+          <t>AUSDILTR220018</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>440.19</v>
+        <v>215.96</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44915</v>
+        <v>44898</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44918</v>
+        <v>44900</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45035</v>
+        <v>45018</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>KAUN00568SH022</t>
+          <t>KAUN00561SH022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>KAUN00568SH022</t>
+          <t>KAUN00561SH022</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1803,16 +1803,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5YHE8SYY_LTR</t>
+          <t>125KDVSR_LTN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1822,11 +1822,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AUSDILTR220018</t>
+          <t>AUSDILTN220031</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>215.96</v>
+        <v>293.4</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1834,17 +1834,17 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44898</v>
+        <v>44887</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44900</v>
+        <v>44887</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45018</v>
+        <v>45007</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>KAUN00561SH022</t>
+          <t>KAUN00560SH022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>KAUN00561SH022</t>
+          <t>KAUN00560SH022</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1863,16 +1863,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N24" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>125KDVSR_LTN</t>
+          <t>25FINV1W_LTN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>293.4</v>
+        <v>195.6</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N25" t="n">
         <v>40</v>
@@ -1932,7 +1932,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25FINV1W_LTN</t>
+          <t>57WF317J_LTN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N26" t="n">
         <v>40</v>
@@ -1992,7 +1992,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>57WF317J_LTN</t>
+          <t>6R2UDO5K_LTN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>195.6</v>
+        <v>183.6</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N27" t="n">
         <v>40</v>
@@ -2052,7 +2052,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6R2UDO5K_LTN</t>
+          <t>2LBDD7JV_LTN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2062,11 +2062,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AUSDILTN220031</t>
+          <t>AUSDILTN220029</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>183.6</v>
+        <v>92.36</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>KAUN00560SH022</t>
+          <t>KAUN00559SH022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>KAUN00560SH022</t>
+          <t>KAUN00559SH022</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N28" t="n">
         <v>40</v>
@@ -2112,7 +2112,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2LBDD7JV_LTN</t>
+          <t>36CFMZ4T_LTN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>92.36</v>
+        <v>29.78</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N29" t="n">
         <v>40</v>
@@ -2172,7 +2172,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>36CFMZ4T_LTN</t>
+          <t>4FOG2WMF_LTN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>29.78</v>
+        <v>14.89</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N30" t="n">
         <v>40</v>
@@ -2232,7 +2232,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4FOG2WMF_LTN</t>
+          <t>1CVKTYPH_LTR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2240,31 +2240,27 @@
           <t>AUS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>AUSDILTN220029</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>14.89</v>
+        <v>49.47</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44887</v>
+        <v>44935</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44887</v>
+        <v>44935</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45007</v>
+        <v>45055</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>KAUN00559SH022</t>
+          <t>KAUN00576SH023</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2272,27 +2268,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>KAUN00559SH022</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="N31" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1CVKTYPH_LTR</t>
+          <t>36OB1OSG_LTR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2302,7 +2294,7 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>49.47</v>
+        <v>96.23999999999999</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2335,16 +2327,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>36OB1OSG_LTR</t>
+          <t>52XQBDIA_LTR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2354,7 +2346,7 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>96.23999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2372,7 +2364,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>KAUN00576SH023</t>
+          <t>KAUN00577SH023</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2387,16 +2379,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N33" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>52XQBDIA_LTR</t>
+          <t>58I14P3T_LTR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2406,7 +2398,7 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>86.59999999999999</v>
+        <v>58.2</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2424,7 +2416,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>KAUN00577SH023</t>
+          <t>KAUN00576SH023</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2439,26 +2431,30 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N34" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>58I14P3T_LTR</t>
+          <t>7A2EB4DZ_LTR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AUS</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CANDILTR220041</t>
+        </is>
+      </c>
       <c r="D35" t="n">
-        <v>58.2</v>
+        <v>2521.4</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2466,17 +2462,17 @@
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44935</v>
+        <v>44847</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44935</v>
+        <v>44853</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45055</v>
+        <v>44973</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>KAUN00576SH023</t>
+          <t>KRCN03160SH022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2484,23 +2480,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>KRCN03160SH022</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="N35" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7A2EB4DZ_LTR</t>
+          <t>6CJJ7EDU_LTN</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2510,29 +2510,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CANDILTR220041</t>
+          <t>CANDILTN220062</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2521.4</v>
+        <v>72.75</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44847</v>
+        <v>44861</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44853</v>
+        <v>44862</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>44973</v>
+        <v>44981</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>KRCN03160SH022</t>
+          <t>KRCN03239SH022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>KRCN03160SH022</t>
+          <t>KRCN03239SH022</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2551,16 +2551,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6CJJ7EDU_LTN</t>
+          <t>6QXJ6VLX_LTR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2570,29 +2570,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CANDILTN220062</t>
+          <t>CANDILTR220022</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>72.75</v>
+        <v>95.55</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Paid</t>
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44861</v>
+        <v>44856</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44862</v>
+        <v>44859</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>44981</v>
+        <v>44976</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>KRCN03239SH022</t>
+          <t>KRCN03242SH022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>KRCN03239SH022</t>
+          <t>KRCN03242SH022</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2611,16 +2611,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6QXJ6VLX_LTR</t>
+          <t>8YUIEVEQ_LTR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>95.55</v>
+        <v>122.14</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N38" t="n">
         <v>10</v>
@@ -2680,7 +2680,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8YUIEVEQ_LTR</t>
+          <t>2Y37S6NA_LTR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>122.14</v>
+        <v>573.3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N39" t="n">
         <v>10</v>
@@ -2740,7 +2740,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2Y37S6NA_LTR</t>
+          <t>32K391JU_LTR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2750,11 +2750,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CANDILTR220022</t>
+          <t>CANDILTR220042</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>573.3</v>
+        <v>5888</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2762,17 +2762,17 @@
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44856</v>
+        <v>44847</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44859</v>
+        <v>44853</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>44976</v>
+        <v>44973</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>KRCN03242SH022</t>
+          <t>KRCN03161SH022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>KRCN03242SH022</t>
+          <t>KRCN03161SH022</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>32K391JU_LTR</t>
+          <t>8V5Z7NOM_LTR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2810,11 +2810,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CANDILTR220042</t>
+          <t>CANDILTR220025</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5888</v>
+        <v>775.21</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2822,17 +2822,17 @@
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44847</v>
+        <v>44856</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44853</v>
+        <v>44859</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>44973</v>
+        <v>44976</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>KRCN03161SH022</t>
+          <t>KRCN03243SH022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>KRCN03161SH022</t>
+          <t>KRCN03243SH022</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2851,16 +2851,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8V5Z7NOM_LTR</t>
+          <t>1B19ANQK_LTR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2870,29 +2870,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CANDILTR220025</t>
+          <t>CANDILTR220040</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>775.21</v>
+        <v>10312.6</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Paid</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44856</v>
+        <v>44847</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44859</v>
+        <v>44853</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>44976</v>
+        <v>44973</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>KRCN03243SH022</t>
+          <t>KRCN03159SH022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>KRCN03243SH022</t>
+          <t>KRCN03159SH022</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2911,30 +2911,30 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1B19ANQK_LTR</t>
+          <t>68E6O96Z_LTN</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>MXC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CANDILTR220040</t>
+          <t>MEXDILTN220016</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10312.6</v>
+        <v>5271.33</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2942,17 +2942,17 @@
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44847</v>
+        <v>44872</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44853</v>
+        <v>44874</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>44973</v>
+        <v>44992</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>KRCN03159SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>KRCN03159SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2971,16 +2971,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N43" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>68E6O96Z_LTN</t>
+          <t>7Z852YQD_LTR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2990,11 +2990,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MEXDILTN220016</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5271.33</v>
+        <v>51.48</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3002,17 +3002,17 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44874</v>
+        <v>44890</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>44992</v>
+        <v>45008</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N44" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7Z852YQD_LTR</t>
+          <t>3UR9YW4M_NTX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3050,11 +3050,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDINTX220007</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>51.48</v>
+        <v>816.48</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3062,17 +3062,17 @@
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44888</v>
+        <v>44875</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44890</v>
+        <v>44876</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45008</v>
+        <v>44995</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00134SH022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00134SH022</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3091,16 +3091,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N45" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3UR9YW4M_NTX</t>
+          <t>3UR9YW4M_LTN</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3110,29 +3110,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MEXDINTX220007</t>
+          <t>MEXDILTN220017</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>816.48</v>
+        <v>902.1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44875</v>
+        <v>44872</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44876</v>
+        <v>44874</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>44995</v>
+        <v>44992</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>KRMN00134SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>KRMN00134SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3151,16 +3151,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N46" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3UR9YW4M_LTN</t>
+          <t>3XX7FXEC_LTN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3170,15 +3170,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MEXDILTN220017</t>
+          <t>MEXDILTN220016</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>902.1</v>
+        <v>285.01</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F47" s="2" t="n">
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N47" t="n">
         <v>25</v>
@@ -3220,7 +3220,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3XX7FXEC_LTN</t>
+          <t>7Z852YQD_LTN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3230,15 +3230,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MEXDILTN220016</t>
+          <t>MEXDILTN220018</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>285.01</v>
+        <v>159.11</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F48" s="2" t="n">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N48" t="n">
         <v>25</v>
@@ -3280,7 +3280,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7Z852YQD_LTN</t>
+          <t>3XX7FXEC_NTX1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3290,29 +3290,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MEXDILTN220018</t>
+          <t>MEXDINTX220009</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>159.11</v>
+        <v>30.93</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44872</v>
+        <v>44882</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44874</v>
+        <v>44882</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>44992</v>
+        <v>45002</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00136SH022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00136SH022</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3331,16 +3331,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N49" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3XX7FXEC_NTX1</t>
+          <t>4WFFWHPV_LTN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3350,29 +3350,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MEXDINTX220009</t>
+          <t>MEXDILTN220024</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>30.93</v>
+        <v>197.68</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45002</v>
+        <v>45007</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>KRMN00136SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>KRMN00136SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3391,16 +3391,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N50" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4WFFWHPV_LTN</t>
+          <t>22BEQHQV_LTN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3408,59 +3408,47 @@
           <t>MXC</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>MEXDILTN220024</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>197.68</v>
+        <v>293.22</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44887</v>
+        <v>44833</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44887</v>
+        <v>44854</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>KRMN00140SH022</t>
-        </is>
-      </c>
+        <v>44974</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>KRMN00140SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="N51" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>22BEQHQV_LTN</t>
+          <t>19NQZGUC_LTN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3468,47 +3456,59 @@
           <t>MXC</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MEXDILTN220022</t>
+        </is>
+      </c>
       <c r="D52" t="n">
-        <v>293.22</v>
+        <v>204</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44833</v>
+        <v>44908</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44854</v>
+        <v>44908</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>44974</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>45028</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>KRMN00153SH022</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>KRMN00153SH022</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="N52" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>19NQZGUC_LTN</t>
+          <t>1HZ4T9NT_LTN</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3518,11 +3518,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MEXDILTN220022</t>
+          <t>MEXDILTN220023</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>204</v>
+        <v>76.5</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N53" t="n">
         <v>60</v>
@@ -3568,7 +3568,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1HZ4T9NT_LTN</t>
+          <t>3HI6MCNI_LTR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3578,11 +3578,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MEXDILTN220023</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>76.5</v>
+        <v>2327.79</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3590,17 +3590,17 @@
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44908</v>
+        <v>44888</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44908</v>
+        <v>44890</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45028</v>
+        <v>45008</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>KRMN00153SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>KRMN00153SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3619,16 +3619,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N54" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3HI6MCNI_LTR</t>
+          <t>6V78FK6B_LTN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3638,29 +3638,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTN220025</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2327.79</v>
+        <v>197.68</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44890</v>
+        <v>44887</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N55" t="n">
         <v>40</v>
@@ -3688,7 +3688,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6V78FK6B_LTN</t>
+          <t>1VPFROUA_LTN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3698,29 +3698,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MEXDILTN220025</t>
+          <t>MEXDILTN220021</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>197.68</v>
+        <v>994.5</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44887</v>
+        <v>44908</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44887</v>
+        <v>44908</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>45007</v>
+        <v>45028</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00153SH022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00153SH022</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1VPFROUA_LTN</t>
+          <t>3XX7FXEC_NTX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3758,11 +3758,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MEXDILTN220021</t>
+          <t>MEXDINTX220006</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>994.5</v>
+        <v>1975.2</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3770,17 +3770,17 @@
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44908</v>
+        <v>44875</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44908</v>
+        <v>44876</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>45028</v>
+        <v>44995</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>KRMN00153SH022</t>
+          <t>KRMN00133SH022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>KRMN00153SH022</t>
+          <t>KRMN00133SH022</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3799,16 +3799,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="N57" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3XX7FXEC_NTX</t>
+          <t>3B3XG4UX_LTR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3818,29 +3818,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MEXDINTX220006</t>
+          <t>MEXDILTR220008</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1975.2</v>
+        <v>970.38</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44875</v>
+        <v>44910</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44876</v>
+        <v>44911</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>44995</v>
+        <v>45030</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>KRMN00133SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>KRMN00133SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3859,16 +3859,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="N58" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3B3XG4UX_LTR</t>
+          <t>68E6O96Z_NTX</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3878,29 +3878,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MEXDILTR220008</t>
+          <t>MEXDINTX220006</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>970.38</v>
+        <v>2723.35</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44910</v>
+        <v>44875</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44911</v>
+        <v>44876</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>45030</v>
+        <v>44995</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00133SH022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00133SH022</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3919,16 +3919,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N59" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>68E6O96Z_NTX</t>
+          <t>68E6O96Z_NTX1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3938,11 +3938,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MEXDINTX220006</t>
+          <t>MEXDINTX220009</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2723.35</v>
+        <v>2209.11</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3950,17 +3950,17 @@
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44875</v>
+        <v>44882</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44876</v>
+        <v>44882</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>KRMN00133SH022</t>
+          <t>KRMN00136SH022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>KRMN00133SH022</t>
+          <t>KRMN00136SH022</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3979,16 +3979,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N60" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>68E6O96Z_NTX1</t>
+          <t>68E6O96Z_LTR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3998,11 +3998,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MEXDINTX220009</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2209.11</v>
+        <v>2676</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4010,17 +4010,17 @@
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44882</v>
+        <v>44888</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44882</v>
+        <v>44890</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>45002</v>
+        <v>45008</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>KRMN00136SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>KRMN00136SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N61" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>68E6O96Z_LTR</t>
+          <t>4KUEZVQL_LTR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4058,29 +4058,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTR220008</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2676</v>
+        <v>323.46</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44888</v>
+        <v>44910</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44890</v>
+        <v>44911</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>45008</v>
+        <v>45030</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4099,16 +4099,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="N62" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4KUEZVQL_LTR</t>
+          <t>4LGYAGNR_LTR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>323.46</v>
+        <v>4097.16</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4159,16 +4159,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N63" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4LGYAGNR_LTR</t>
+          <t>3XX7FXEC_LTR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4178,11 +4178,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MEXDILTR220008</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4097.16</v>
+        <v>1712.24</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4190,17 +4190,17 @@
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44910</v>
+        <v>44888</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44911</v>
+        <v>44890</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>45030</v>
+        <v>45008</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4219,16 +4219,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="N64" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3XX7FXEC_LTR</t>
+          <t>3HI6MCNI_LTN</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4238,11 +4238,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTN220015</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1712.24</v>
+        <v>192.54</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -4250,17 +4250,17 @@
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44888</v>
+        <v>44872</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44890</v>
+        <v>44874</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45008</v>
+        <v>44992</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4279,16 +4279,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N65" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3HI6MCNI_LTN</t>
+          <t>3HI6MCNI_NTX</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4298,11 +4298,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MEXDILTN220015</t>
+          <t>MEXDINTX220005</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>192.54</v>
+        <v>580.0599999999999</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00131SH022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00131SH022</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N66" t="n">
         <v>25</v>
@@ -4348,7 +4348,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3HI6MCNI_NTX</t>
+          <t>3UR9YW4M_LTR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4358,11 +4358,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MEXDINTX220005</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>580.0599999999999</v>
+        <v>259.3</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -4370,17 +4370,17 @@
         </is>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44874</v>
+        <v>44890</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>44992</v>
+        <v>45008</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>KRMN00131SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>KRMN00131SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4399,16 +4399,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N67" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3UR9YW4M_LTR</t>
+          <t>4PQN8C1H_LTN</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4418,11 +4418,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTN220024</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>259.3</v>
+        <v>197.68</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4430,17 +4430,17 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44890</v>
+        <v>44887</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N68" t="n">
         <v>40</v>
@@ -4468,7 +4468,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4PQN8C1H_LTN</t>
+          <t>6MF9RGTJ_LTR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4478,11 +4478,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MEXDILTN220024</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>197.68</v>
+        <v>27.93</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4490,17 +4490,17 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44887</v>
+        <v>44890</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4528,7 +4528,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6MF9RGTJ_LTR</t>
+          <t>1WBSTEVQ_LTN</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4538,11 +4538,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTN220020</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>27.93</v>
+        <v>1377</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4550,17 +4550,17 @@
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44888</v>
+        <v>44872</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44890</v>
+        <v>44874</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>45008</v>
+        <v>44992</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126NB022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126NB022</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4579,16 +4579,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N70" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1WBSTEVQ_LTN</t>
+          <t>4ZGV189E_LTN</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4598,11 +4598,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MEXDILTN220020</t>
+          <t>MEXDILTN220019</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1377</v>
+        <v>148.26</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N71" t="n">
         <v>25</v>
@@ -4648,7 +4648,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4ZGV189E_LTN</t>
+          <t>7Z852YQD_NTX</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4658,11 +4658,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MEXDILTN220019</t>
+          <t>MEXDINTX220008</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>148.26</v>
+        <v>86.73</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>KRMN00126NB022</t>
+          <t>KRMN00132SH022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>KRMN00126NB022</t>
+          <t>KRMN00132SH022</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N72" t="n">
         <v>25</v>
@@ -4708,39 +4708,39 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7Z852YQD_NTX</t>
+          <t>3SGP1HHC_NTX</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MXC</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MEXDINTX220008</t>
+          <t>SGPDINTX220007</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>86.73</v>
+        <v>468.96</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44872</v>
+        <v>44907</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44874</v>
+        <v>44908</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>44992</v>
+        <v>45027</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>KRMN00132SH022</t>
+          <t>KRSN00178SH022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>KRMN00132SH022</t>
+          <t>KRSN00178SH022</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4759,30 +4759,30 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="N73" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3SGP1HHC_NTX</t>
+          <t>5JO3V5NY_LTR</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SGPDINTX220007</t>
+          <t>JPNDILTR220040</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>468.96</v>
+        <v>87</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4790,17 +4790,17 @@
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44907</v>
+        <v>44866</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44908</v>
+        <v>44867</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>45027</v>
+        <v>44972</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>KRSN00178SH022</t>
+          <t>KRJN04458SH022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>KRSN00178SH022</t>
+          <t>KRJN04458SH022</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4819,48 +4819,48 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="N74" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1HQACL8R_NTX</t>
+          <t>7VCI939K_LTR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SGPDINTX220006</t>
+          <t>JPNDILTR220040</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>844</v>
+        <v>659</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44848</v>
+        <v>44866</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44851</v>
+        <v>44867</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>44968</v>
+        <v>44972</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>KRSN00111SH022</t>
+          <t>KRJN04458SH022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>KRSN00111SH022</t>
+          <t>KRJN04458SH022</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4879,16 +4879,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5JO3V5NY_LTR</t>
+          <t>49KX4R5M_NTX</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4898,11 +4898,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>JPNDILTR220040</t>
+          <t>JPNDINTX220023</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4910,17 +4910,17 @@
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44866</v>
+        <v>44872</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44867</v>
+        <v>44874</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>KRJN04458SH022</t>
+          <t>KRJN04484SH022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>KRJN04458SH022</t>
+          <t>KRJN04484SH022</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N76" t="n">
         <v>5</v>
@@ -4948,7 +4948,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7VCI939K_LTR</t>
+          <t>4KOHQFAY_NTX</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4958,11 +4958,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JPNDILTR220040</t>
+          <t>JPNDINTX220023</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>659</v>
+        <v>145</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4970,17 +4970,17 @@
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44866</v>
+        <v>44872</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44867</v>
+        <v>44874</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>KRJN04458SH022</t>
+          <t>KRJN04484SH022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>KRJN04458SH022</t>
+          <t>KRJN04484SH022</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4999,7 +4999,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N77" t="n">
         <v>5</v>
@@ -5008,7 +5008,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>49KX4R5M_NTX</t>
+          <t>5I9JFA8A_NTX</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N78" t="n">
         <v>5</v>
@@ -5068,7 +5068,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4KOHQFAY_NTX</t>
+          <t>41CC755Q_LTN</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5078,11 +5078,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>JPNDINTX220023</t>
+          <t>JPNDILTN220059</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44872</v>
+        <v>44867</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>44874</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>KRJN04484SH022</t>
+          <t>KRJN04483SH022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>KRJN04484SH022</t>
+          <t>KRJN04483SH022</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N79" t="n">
         <v>5</v>
@@ -5128,7 +5128,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>5I9JFA8A_NTX</t>
+          <t>49KX4R5M_LTN</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5138,11 +5138,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JPNDINTX220023</t>
+          <t>JPNDILTN220059</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44872</v>
+        <v>44867</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>44874</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>KRJN04484SH022</t>
+          <t>KRJN04483SH022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>KRJN04484SH022</t>
+          <t>KRJN04483SH022</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5179,7 +5179,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N80" t="n">
         <v>5</v>
@@ -5188,7 +5188,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>41CC755Q_LTN</t>
+          <t>5I9JFA8A_LTN</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N81" t="n">
         <v>5</v>
@@ -5248,21 +5248,21 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>49KX4R5M_LTN</t>
+          <t>8KMAOCPT_NTX</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JPNDILTN220059</t>
+          <t>DEUDINTX220024</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>282</v>
+        <v>242.05</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5270,17 +5270,17 @@
         </is>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44867</v>
+        <v>44881</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44874</v>
+        <v>44881</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>KRJN04483SH022</t>
+          <t>KREN27841SH022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5288,18 +5288,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>KRJN04483SH022</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N82" t="n">
         <v>5</v>
@@ -5308,21 +5304,21 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5I9JFA8A_LTN</t>
+          <t>4586N5QV_NTX</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>JPNDILTN220059</t>
+          <t>GBRDINTX220020</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>39</v>
+        <v>47.72</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5330,17 +5326,17 @@
         </is>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44867</v>
+        <v>44881</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44874</v>
+        <v>44881</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>KRJN04483SH022</t>
+          <t>KREN27842SH022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5348,18 +5344,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>KRJN04483SH022</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N83" t="n">
         <v>5</v>
@@ -5368,21 +5360,21 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>8KMAOCPT_NTX</t>
+          <t>2J9SF6LV_NTX</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DEUDINTX220024</t>
+          <t>GBRDINTX220020</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>242.05</v>
+        <v>915.64</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5400,7 +5392,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>KREN27841SH022</t>
+          <t>KREN27842SH022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5415,7 +5407,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N84" t="n">
         <v>5</v>
@@ -5424,21 +5416,21 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4586N5QV_NTX</t>
+          <t>49KX4R5M_LTR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GBRDINTX220020</t>
+          <t>JPNDILTR220041</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>47.72</v>
+        <v>149</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -5446,17 +5438,17 @@
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44881</v>
+        <v>44879</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="H85" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>KREN27842SH022</t>
+          <t>KRJN04560SH022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5464,10 +5456,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>KRJN04560SH022</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -5480,21 +5476,21 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2J9SF6LV_NTX</t>
+          <t>4TEIDKGK_LTR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GBRDINTX220020</t>
+          <t>JPNDILTR220041</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>915.64</v>
+        <v>382</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -5502,17 +5498,17 @@
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44881</v>
+        <v>44879</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>KREN27842SH022</t>
+          <t>KRJN04560SH022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5520,10 +5516,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>KRJN04560SH022</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -5536,7 +5536,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>49KX4R5M_LTR</t>
+          <t>5I9JFA8A_LTR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>149</v>
+        <v>564</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N87" t="n">
         <v>5</v>
@@ -5596,7 +5596,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4TEIDKGK_LTR</t>
+          <t>8LWFC7PX_LTR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5606,11 +5606,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JPNDILTR220041</t>
+          <t>JPNDILTR220043</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>382</v>
+        <v>92</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KRJN04572SH022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KRJN04572SH022</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N88" t="n">
         <v>5</v>
@@ -5656,21 +5656,21 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>5I9JFA8A_LTR</t>
+          <t>4RP8J8IG_LTR</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JPNDILTR220041</t>
+          <t>GBRDILTR220023</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>564</v>
+        <v>29.63</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5684,11 +5684,11 @@
         <v>44882</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>44972</v>
+        <v>44969</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KREN28041SH022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5696,41 +5696,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>KRJN04560SH022</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>8LWFC7PX_LTR</t>
+          <t>6NR25R3R_LTR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>JPNDILTR220043</t>
+          <t>GBRDILTR220023</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>92</v>
+        <v>52.76</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5744,11 +5740,11 @@
         <v>44882</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>44972</v>
+        <v>44969</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>KRJN04572SH022</t>
+          <t>KREN28041SH022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5756,27 +5752,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>KRJN04572SH022</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4RP8J8IG_LTR</t>
+          <t>7RSP2AYV_LTR</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5790,7 +5782,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>29.63</v>
+        <v>546.87</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5823,7 +5815,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5832,21 +5824,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>6NR25R3R_LTR</t>
+          <t>8KMAOCPT_LTN</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>GBRDILTR220023</t>
+          <t>DEUDILTN220024</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>52.76</v>
+        <v>11.99</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5854,17 +5846,17 @@
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44879</v>
+        <v>44882</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>44969</v>
+        <v>44972</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>KREN28041SH022</t>
+          <t>KREN27837SH022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5879,30 +5871,30 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7RSP2AYV_LTR</t>
+          <t>1ER7N9JP_LTN</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>GBRDILTR220023</t>
+          <t>DEUDILTN220024</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>546.87</v>
+        <v>157.32</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5910,17 +5902,17 @@
         </is>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44879</v>
+        <v>44882</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>44969</v>
+        <v>44972</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>KREN28041SH022</t>
+          <t>KREN27837SH022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5935,30 +5927,30 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>8KMAOCPT_LTN</t>
+          <t>4586N5QV_LTN</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DEUDILTN220024</t>
+          <t>GBRDILTN220026</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11.99</v>
+        <v>46.77</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5976,7 +5968,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>KREN27837SH022</t>
+          <t>KREN27838SH022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5991,7 +5983,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N94" t="n">
         <v>5</v>
@@ -6000,21 +5992,21 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1ER7N9JP_LTN</t>
+          <t>2J9SF6LV_LTN</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DEUDILTN220024</t>
+          <t>GBRDILTN220026</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>157.32</v>
+        <v>2567.44</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -6032,7 +6024,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>KREN27837SH022</t>
+          <t>KREN27838SH022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6047,7 +6039,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N95" t="n">
         <v>5</v>
@@ -6056,21 +6048,21 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4586N5QV_LTN</t>
+          <t>252LPA6W_NTX</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GBRDILTN220026</t>
+          <t>JPNDINTX220024</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>46.77</v>
+        <v>23</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -6078,17 +6070,17 @@
         </is>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44887</v>
+        <v>44890</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>KREN27838SH022</t>
+          <t>KRJN04561SH022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6096,14 +6088,18 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>KRJN04561SH022</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N96" t="n">
         <v>5</v>
@@ -6112,21 +6108,21 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2J9SF6LV_LTN</t>
+          <t>3FNT4X2I_NTX</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>GBRDILTN220026</t>
+          <t>JPNDINTX220024</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2567.44</v>
+        <v>75</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -6134,17 +6130,17 @@
         </is>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44887</v>
+        <v>44890</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>KREN27838SH022</t>
+          <t>KRJN04561SH022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6152,14 +6148,18 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>KRJN04561SH022</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N97" t="n">
         <v>5</v>
@@ -6168,7 +6168,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>252LPA6W_NTX</t>
+          <t>3PZDZWZO_NTX</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N98" t="n">
         <v>5</v>
@@ -6228,7 +6228,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3FNT4X2I_NTX</t>
+          <t>6YF9IC8D_NTX</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N99" t="n">
         <v>5</v>
@@ -6288,7 +6288,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3PZDZWZO_NTX</t>
+          <t>7HC3LGGK_NTX</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N100" t="n">
         <v>5</v>
@@ -6348,21 +6348,21 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>6YF9IC8D_NTX</t>
+          <t>8KMAOCPT_LTR</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>DEUDILTR220019</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>86</v>
+        <v>188.2</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -6370,17 +6370,17 @@
         </is>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KREN28093SH022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6388,41 +6388,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>KRJN04561SH022</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N101" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>7HC3LGGK_NTX</t>
+          <t>4586N5QV_LTR</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>GBRDILTR220024</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>173</v>
+        <v>157.74</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6430,17 +6426,17 @@
         </is>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KREN28094SH022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6448,41 +6444,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>KRJN04561SH022</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N102" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>8KMAOCPT_LTR</t>
+          <t>2J9SF6LV_LTR</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DEUDILTR220019</t>
+          <t>GBRDILTR220024</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>188.2</v>
+        <v>191.43</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6500,7 +6492,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>KREN28093SH022</t>
+          <t>KREN28094SH022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6515,7 +6507,7 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N103" t="n">
         <v>10</v>
@@ -6524,21 +6516,21 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>4586N5QV_LTR</t>
+          <t>641IA5TL_LTN</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>GBRDILTR220024</t>
+          <t>JPNDILTN220061</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>157.74</v>
+        <v>706</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -6546,17 +6538,17 @@
         </is>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44888</v>
+        <v>44893</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="H104" s="2" t="n">
-        <v>44978</v>
+        <v>44972</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>KREN28094SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6564,37 +6556,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>KRJN04599SH022</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N104" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2J9SF6LV_LTR</t>
+          <t>6A7CD2BK_LTN</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>GBRDILTR220024</t>
+          <t>JPNDILTN220061</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>191.43</v>
+        <v>1500</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -6602,17 +6598,17 @@
         </is>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44888</v>
+        <v>44893</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>44978</v>
+        <v>44972</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>KREN28094SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6620,23 +6616,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>KRJN04599SH022</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N105" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>641IA5TL_LTN</t>
+          <t>6QJEN9KM_LTN</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6650,7 +6650,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>706</v>
+        <v>3949</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6696,7 +6696,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTN</t>
+          <t>29OK49DG_LTN</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6706,11 +6706,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>JPNDILTN220061</t>
+          <t>JPNDILTN220060</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1500</v>
+        <v>40</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         </is>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>44894</v>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KRJN04567SH022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KRJN04567SH022</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
@@ -6756,7 +6756,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTN</t>
+          <t>2AWNNE7S_LTN</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6766,11 +6766,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>JPNDILTN220061</t>
+          <t>JPNDILTN220060</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3949</v>
+        <v>8</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>44894</v>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KRJN04567SH022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KRJN04567SH022</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N108" t="n">
         <v>5</v>
@@ -6816,7 +6816,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>29OK49DG_LTN</t>
+          <t>3FNT4X2I_LTN</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6830,7 +6830,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N109" t="n">
         <v>5</v>
@@ -6876,7 +6876,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2AWNNE7S_LTN</t>
+          <t>3PZDZWZO_LTN</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6890,7 +6890,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N110" t="n">
         <v>5</v>
@@ -6936,21 +6936,21 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3FNT4X2I_LTN</t>
+          <t>4V86CXCZ_LTN</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -6964,11 +6964,11 @@
         <v>44894</v>
       </c>
       <c r="H111" s="2" t="n">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -6976,41 +6976,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>KRJN04567SH022</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N111" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTN</t>
+          <t>5L15ABDW_LTN</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>47</v>
+        <v>104.34</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -7024,11 +7020,11 @@
         <v>44894</v>
       </c>
       <c r="H112" s="2" t="n">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7036,27 +7032,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>KRJN04567SH022</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N112" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>4V86CXCZ_LTN</t>
+          <t>6INHXIPT_LTN</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -7070,7 +7062,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>48</v>
+        <v>2316.84</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -7103,30 +7095,30 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N113" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>5L15ABDW_LTN</t>
+          <t>11KVXSVJ_LTN</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>104.34</v>
+        <v>80.02</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -7134,17 +7126,17 @@
         </is>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H114" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7159,30 +7151,30 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N114" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6INHXIPT_LTN</t>
+          <t>4BMEMP8C_LTN</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2316.84</v>
+        <v>104.34</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -7190,17 +7182,17 @@
         </is>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7215,16 +7207,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N115" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>11KVXSVJ_LTN</t>
+          <t>4L57XNKE_LTN</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7238,7 +7230,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>80.02</v>
+        <v>274.2</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -7271,7 +7263,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N116" t="n">
         <v>10</v>
@@ -7280,21 +7272,21 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>4BMEMP8C_LTN</t>
+          <t>6QJEN9KM_ROG</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>JPNDIROG220001</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>104.34</v>
+        <v>850</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -7302,17 +7294,17 @@
         </is>
       </c>
       <c r="F117" s="2" t="n">
-        <v>44889</v>
+        <v>44893</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="H117" s="2" t="n">
-        <v>44979</v>
+        <v>44972</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KRJN04633SH022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7320,37 +7312,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>KRJN04633SH022</t>
+        </is>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N117" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>4L57XNKE_LTN</t>
+          <t>641IA5TL_NTX</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>JPNDINTX220025</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>274.2</v>
+        <v>773</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -7358,17 +7354,17 @@
         </is>
       </c>
       <c r="F118" s="2" t="n">
-        <v>44889</v>
+        <v>44894</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="H118" s="2" t="n">
-        <v>44979</v>
+        <v>44972</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KRJN04595SH022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7383,16 +7379,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N118" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>6QJEN9KM_ROG</t>
+          <t>6A7CD2BK_NTX</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7402,11 +7398,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>JPNDIROG220001</t>
+          <t>JPNDINTX220025</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>850</v>
+        <v>136</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -7414,17 +7410,17 @@
         </is>
       </c>
       <c r="F119" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="H119" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>KRJN04633SH022</t>
+          <t>KRJN04595SH022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7432,18 +7428,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>KRJN04633SH022</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N119" t="n">
         <v>5</v>
@@ -7452,7 +7444,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>641IA5TL_NTX</t>
+          <t>6QJEN9KM_NTX</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -7466,7 +7458,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>773</v>
+        <v>1729</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -7499,7 +7491,7 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N120" t="n">
         <v>5</v>
@@ -7508,7 +7500,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6A7CD2BK_NTX</t>
+          <t>4GOUUIUT_LTR</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -7518,11 +7510,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>JPNDINTX220025</t>
+          <t>JPNDILTR220042</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -7530,17 +7522,17 @@
         </is>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44894</v>
+        <v>44897</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44896</v>
+        <v>44900</v>
       </c>
       <c r="H121" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>KRJN04595SH022</t>
+          <t>KRJN04629SH022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7548,23 +7540,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>KRJN04629SH022</t>
+        </is>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N121" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>6QJEN9KM_NTX</t>
+          <t>27J1DD2O_LTR</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7574,11 +7570,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>JPNDINTX220025</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1729</v>
+        <v>45</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -7586,17 +7582,17 @@
         </is>
       </c>
       <c r="F122" s="2" t="n">
-        <v>44894</v>
+        <v>44897</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44896</v>
+        <v>44900</v>
       </c>
       <c r="H122" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>KRJN04595SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7604,23 +7600,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N122" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4GOUUIUT_LTR</t>
+          <t>3PZDZWZO_LTR</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -7630,11 +7630,11 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>JPNDILTR220042</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>20</v>
+        <v>522</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7662,7 +7662,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -7671,16 +7671,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N123" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>27J1DD2O_LTR</t>
+          <t>6YF9IC8D_LTR</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7731,16 +7731,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N124" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTR</t>
+          <t>7HC3LGGK_LTR</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -7754,7 +7754,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>522</v>
+        <v>859</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -7791,16 +7791,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N125" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>6YF9IC8D_LTR</t>
+          <t>641IA5TL_LTR</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -7810,11 +7810,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>45</v>
+        <v>1638</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -7822,17 +7822,17 @@
         </is>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44897</v>
+        <v>44905</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -7851,16 +7851,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N126" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>7HC3LGGK_LTR</t>
+          <t>6A7CD2BK_LTR</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7870,11 +7870,11 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>859</v>
+        <v>696</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -7882,17 +7882,17 @@
         </is>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44897</v>
+        <v>44905</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -7911,16 +7911,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N127" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>641IA5TL_LTR</t>
+          <t>6QJEN9KM_LTR</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7934,7 +7934,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1638</v>
+        <v>1822</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -7971,30 +7971,30 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N128" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTR</t>
+          <t>4ENMCJ1U_NTX</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>696</v>
+        <v>506.74</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -8002,17 +8002,17 @@
         </is>
       </c>
       <c r="F129" s="2" t="n">
-        <v>44905</v>
+        <v>44907</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8020,41 +8020,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N129" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTR</t>
+          <t>8KQ7ECIO_NTX</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1822</v>
+        <v>702.38</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -8062,17 +8058,17 @@
         </is>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44905</v>
+        <v>44907</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8080,27 +8076,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N130" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_NTX</t>
+          <t>4ENMCJ1U_LTN</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8110,11 +8102,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>506.74</v>
+        <v>222.8</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -8122,17 +8114,17 @@
         </is>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44907</v>
+        <v>44910</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44908</v>
+        <v>44915</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8147,7 +8139,7 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N131" t="n">
         <v>30</v>
@@ -8156,7 +8148,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_NTX</t>
+          <t>8KQ7ECIO_LTN</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -8166,11 +8158,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>702.38</v>
+        <v>40.18</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -8178,17 +8170,17 @@
         </is>
       </c>
       <c r="F132" s="2" t="n">
-        <v>44907</v>
+        <v>44910</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44908</v>
+        <v>44915</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8203,7 +8195,7 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N132" t="n">
         <v>30</v>
@@ -8212,21 +8204,21 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_LTN</t>
+          <t>2LYGFEZX_LTN</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>222.8</v>
+        <v>351.9</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -8244,7 +8236,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8259,30 +8251,30 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N133" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_LTN</t>
+          <t>72MCXZFM_LTN</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>40.18</v>
+        <v>220.5</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -8300,7 +8292,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8315,16 +8307,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N134" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2LYGFEZX_LTN</t>
+          <t>79I9WNEX_NTX1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -8334,11 +8326,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>DEUDINTX220017</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>351.9</v>
+        <v>570</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -8346,17 +8338,17 @@
         </is>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44910</v>
+        <v>44929</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>45000</v>
+        <v>45019</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN29454SH022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8371,30 +8363,30 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="N135" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>72MCXZFM_LTN</t>
+          <t>5I2CBQ7E_NTX</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>GBRDINTX220023</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>220.5</v>
+        <v>540.26</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -8402,17 +8394,17 @@
         </is>
       </c>
       <c r="F136" s="2" t="n">
-        <v>44910</v>
+        <v>44930</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>45000</v>
+        <v>45020</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN28372SH022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8427,30 +8419,30 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="N136" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>79I9WNEX_NTX1</t>
+          <t>5OWLVR3S_NTX</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DEUDINTX220017</t>
+          <t>GBRDINTX220024</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>570</v>
+        <v>19.97</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -8468,7 +8460,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>KREN29454SH022</t>
+          <t>KREN28373SH022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8483,7 +8475,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N137" t="n">
         <v>50</v>
@@ -8492,21 +8484,21 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_NTX</t>
+          <t>6JI55VBN_LTN</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>GBRDINTX220023</t>
+          <t>DEUDILTN220028</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>540.26</v>
+        <v>987.99</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -8524,7 +8516,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>KREN28372SH022</t>
+          <t>KREN28498SH022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8539,30 +8531,30 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N138" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>5OWLVR3S_NTX</t>
+          <t>8HS1Z2DC_LTN</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>GBRDINTX220024</t>
+          <t>DEUDILTN220027</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>19.97</v>
+        <v>588.51</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -8570,17 +8562,17 @@
         </is>
       </c>
       <c r="F139" s="2" t="n">
-        <v>44929</v>
+        <v>44932</v>
       </c>
       <c r="G139" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>KREN28373SH022</t>
+          <t>KREN29262SH022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8595,30 +8587,30 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N139" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTN</t>
+          <t>35EWMG8M_LTN</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DEUDILTN220028</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>987.99</v>
+        <v>626.04</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -8626,17 +8618,17 @@
         </is>
       </c>
       <c r="F140" s="2" t="n">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="G140" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H140" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>KREN28498SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8651,7 +8643,7 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N140" t="n">
         <v>55</v>
@@ -8660,21 +8652,21 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>8HS1Z2DC_LTN</t>
+          <t>599B2T3L_LTN</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DEUDILTN220027</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>588.51</v>
+        <v>162.26</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -8692,7 +8684,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>KREN29262SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8707,7 +8699,7 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N141" t="n">
         <v>55</v>
@@ -8716,7 +8708,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTN</t>
+          <t>6FGU2LZW_LTN</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -8730,7 +8722,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>626.04</v>
+        <v>181.6</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -8763,7 +8755,7 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N142" t="n">
         <v>55</v>
@@ -8772,7 +8764,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>599B2T3L_LTN</t>
+          <t>6CR9FRFE_LTN</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -8782,11 +8774,11 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>162.26</v>
+        <v>181.6</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -8819,7 +8811,7 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N143" t="n">
         <v>55</v>
@@ -8828,7 +8820,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTN</t>
+          <t>8SBQDRDP_LTN</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -8838,11 +8830,11 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>181.6</v>
+        <v>299.48</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -8875,7 +8867,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N144" t="n">
         <v>55</v>
@@ -8884,21 +8876,21 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6CR9FRFE_LTN</t>
+          <t>6U36Y9BE_LTR</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>DEUDILTR220021</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>181.6</v>
+        <v>51.56</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -8906,17 +8898,17 @@
         </is>
       </c>
       <c r="F145" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H145" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29034SH022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -8931,30 +8923,30 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N145" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>8SBQDRDP_LTN</t>
+          <t>7GLNNL6Y_LTR</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>DEUDILTR220022</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>299.48</v>
+        <v>1614.82</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -8962,17 +8954,17 @@
         </is>
       </c>
       <c r="F146" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -8987,16 +8979,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N146" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>6U36Y9BE_LTR</t>
+          <t>13BSIFPT_LTR</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -9006,11 +8998,11 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DEUDILTR220021</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>51.56</v>
+        <v>591.71</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -9028,7 +9020,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>KREN29034SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9043,7 +9035,7 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N147" t="n">
         <v>60</v>
@@ -9052,7 +9044,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>7GLNNL6Y_LTR</t>
+          <t>6JI55VBN_LTR</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -9062,11 +9054,11 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DEUDILTR220022</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1614.82</v>
+        <v>48.98</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -9099,7 +9091,7 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N148" t="n">
         <v>60</v>
@@ -9108,7 +9100,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>13BSIFPT_LTR</t>
+          <t>1P2OJBUW_LTR</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -9118,11 +9110,11 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>591.71</v>
+        <v>146.94</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -9140,7 +9132,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9155,7 +9147,7 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N149" t="n">
         <v>60</v>
@@ -9164,7 +9156,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTR</t>
+          <t>26V9GOMZ_LTR</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -9174,11 +9166,11 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>48.98</v>
+        <v>80.83</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -9196,7 +9188,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9211,7 +9203,7 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N150" t="n">
         <v>60</v>
@@ -9220,7 +9212,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1P2OJBUW_LTR</t>
+          <t>2FWLGF1V_LTR</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -9234,7 +9226,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>146.94</v>
+        <v>489.28</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -9267,7 +9259,7 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N151" t="n">
         <v>60</v>
@@ -9276,7 +9268,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>26V9GOMZ_LTR</t>
+          <t>8AQ6IAUN_LTR</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -9290,7 +9282,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>80.83</v>
+        <v>213.01</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -9323,7 +9315,7 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N152" t="n">
         <v>60</v>
@@ -9332,21 +9324,21 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2FWLGF1V_LTR</t>
+          <t>5I2CBQ7E_LTR</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>489.28</v>
+        <v>342.84</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -9364,7 +9356,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9379,7 +9371,7 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N153" t="n">
         <v>60</v>
@@ -9388,21 +9380,21 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>8AQ6IAUN_LTR</t>
+          <t>73K6F7AM_LTR</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>213.01</v>
+        <v>420.03</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -9420,7 +9412,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -9435,7 +9427,7 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N154" t="n">
         <v>60</v>
@@ -9444,7 +9436,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_LTR</t>
+          <t>7JC4WZOP_LTR</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -9458,7 +9450,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>342.84</v>
+        <v>361.04</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -9491,7 +9483,7 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N155" t="n">
         <v>60</v>
@@ -9500,7 +9492,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>73K6F7AM_LTR</t>
+          <t>1R3Z24JZ_LTR</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -9510,11 +9502,11 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>420.03</v>
+        <v>1375.06</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -9547,7 +9539,7 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N156" t="n">
         <v>60</v>
@@ -9556,7 +9548,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>7JC4WZOP_LTR</t>
+          <t>5OWLVR3S_LTR</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -9566,11 +9558,11 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>361.04</v>
+        <v>4296.03</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -9603,7 +9595,7 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N157" t="n">
         <v>60</v>
@@ -9612,7 +9604,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1R3Z24JZ_LTR</t>
+          <t>5WON4CZR_LTR</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -9622,11 +9614,11 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>GBRDILTR220026</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1375.06</v>
+        <v>1133.44</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -9644,7 +9636,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29037SH022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -9659,7 +9651,7 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N158" t="n">
         <v>60</v>
@@ -9668,7 +9660,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>5OWLVR3S_LTR</t>
+          <t>7QYV88DI_LTR</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -9678,11 +9670,11 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>GBRDILTR220026</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4296.03</v>
+        <v>269.39</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -9700,7 +9692,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29037SH022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -9715,7 +9707,7 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N159" t="n">
         <v>60</v>
@@ -9724,7 +9716,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>5WON4CZR_LTR</t>
+          <t>35EWMG8M_LTR</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -9734,11 +9726,11 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>GBRDILTR220028</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1133.44</v>
+        <v>80.52</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -9756,7 +9748,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>KREN29037SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -9771,7 +9763,7 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N160" t="n">
         <v>60</v>
@@ -9780,7 +9772,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>7QYV88DI_LTR</t>
+          <t>599B2T3L_LTR</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -9790,11 +9782,11 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>GBRDILTR220028</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>269.39</v>
+        <v>68.88</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -9812,7 +9804,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>KREN29037SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -9827,7 +9819,7 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N161" t="n">
         <v>60</v>
@@ -9836,7 +9828,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTR</t>
+          <t>6FGU2LZW_LTR</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -9850,7 +9842,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>80.52</v>
+        <v>49.38</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -9883,7 +9875,7 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N162" t="n">
         <v>60</v>
@@ -9892,7 +9884,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>599B2T3L_LTR</t>
+          <t>6HJO8FGL_LTR</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -9906,7 +9898,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>68.88</v>
+        <v>100.32</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -9939,7 +9931,7 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N163" t="n">
         <v>60</v>
@@ -9948,21 +9940,21 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTR</t>
+          <t>5GJMWY3U_NTX</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>49.38</v>
+        <v>409.91</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -9973,14 +9965,14 @@
         <v>44936</v>
       </c>
       <c r="G164" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H164" s="2" t="n">
         <v>45026</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9995,7 +9987,7 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N164" t="n">
         <v>60</v>
@@ -10004,21 +9996,21 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>6HJO8FGL_LTR</t>
+          <t>5QSJP7CC_NTX</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>100.32</v>
+        <v>211.99</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -10029,14 +10021,14 @@
         <v>44936</v>
       </c>
       <c r="G165" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H165" s="2" t="n">
         <v>45026</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -10051,7 +10043,7 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N165" t="n">
         <v>60</v>
@@ -10060,7 +10052,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>5GJMWY3U_NTX</t>
+          <t>7LEE3TFL_LTN</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -10070,11 +10062,11 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DEUDINTX220026</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>409.91</v>
+        <v>119.16</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -10082,17 +10074,17 @@
         </is>
       </c>
       <c r="F166" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G166" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H166" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>KREN29413SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -10116,7 +10108,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>5QSJP7CC_NTX</t>
+          <t>8N7YEA8D_LTN</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -10126,11 +10118,11 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DEUDINTX220026</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>211.99</v>
+        <v>37.05</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -10138,17 +10130,17 @@
         </is>
       </c>
       <c r="F167" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G167" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H167" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>KREN29413SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -10172,21 +10164,21 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>7LEE3TFL_LTN</t>
+          <t>1EXT8UGA_LTN</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DEUDILTN220029</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>119.16</v>
+        <v>362.6</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -10204,7 +10196,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>KREN29418SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -10219,7 +10211,7 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N168" t="n">
         <v>60</v>
@@ -10228,21 +10220,21 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>8N7YEA8D_LTN</t>
+          <t>3RU4253N_LTN</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>DEUDILTN220029</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>37.05</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -10260,7 +10252,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>KREN29418SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -10275,7 +10267,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N169" t="n">
         <v>60</v>
@@ -10284,7 +10276,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1EXT8UGA_LTN</t>
+          <t>73163DYB_LTN</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -10298,7 +10290,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>362.6</v>
+        <v>410.02</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -10331,7 +10323,7 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N170" t="n">
         <v>60</v>
@@ -10340,21 +10332,21 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>3RU4253N_LTN</t>
+          <t>5TY3VS9Y_LTN</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTN220030</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>87.34999999999999</v>
+        <v>313.02</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -10372,7 +10364,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -10387,7 +10379,7 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N171" t="n">
         <v>60</v>
@@ -10396,21 +10388,21 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>73163DYB_LTN</t>
+          <t>3MOXC2DD_LTN</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTN220031</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>410.02</v>
+        <v>939.0599999999999</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -10428,7 +10420,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -10443,7 +10435,7 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N172" t="n">
         <v>60</v>
@@ -10452,7 +10444,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>5TY3VS9Y_LTN</t>
+          <t>7MNV9Y8K_LTN</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -10462,11 +10454,11 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DEUDILTN220030</t>
+          <t>DEUDILTN220031</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>313.02</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -10499,7 +10491,7 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N173" t="n">
         <v>60</v>
@@ -10508,7 +10500,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>3MOXC2DD_LTN</t>
+          <t>259STCHZ_LTR</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -10518,11 +10510,11 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DEUDILTN220031</t>
+          <t>DEUDILTR220025</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>939.0599999999999</v>
+        <v>474.84</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -10530,17 +10522,17 @@
         </is>
       </c>
       <c r="F174" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H174" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>KREN29467SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -10555,16 +10547,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N174" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>7MNV9Y8K_LTN</t>
+          <t>5K5OX5HO_LTR</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -10574,11 +10566,11 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DEUDILTN220031</t>
+          <t>DEUDILTR220025</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>87.34999999999999</v>
+        <v>91.19</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -10586,17 +10578,17 @@
         </is>
       </c>
       <c r="F175" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H175" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>KREN29467SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10611,16 +10603,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N175" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>259STCHZ_LTR</t>
+          <t>3MOXC2DD_LTR</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -10630,11 +10622,11 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DEUDILTR220025</t>
+          <t>DEUDILTR220026</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>474.84</v>
+        <v>191.43</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -10667,7 +10659,7 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N176" t="n">
         <v>65</v>
@@ -10676,7 +10668,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>5K5OX5HO_LTR</t>
+          <t>7MNV9Y8K_LTR</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -10686,11 +10678,11 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DEUDILTR220025</t>
+          <t>DEUDILTR220026</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>91.19</v>
+        <v>161.04</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -10723,7 +10715,7 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N177" t="n">
         <v>65</v>
@@ -10732,21 +10724,21 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>3MOXC2DD_LTR</t>
+          <t>2CMW4QFF_LTR</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DEUDILTR220026</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>191.43</v>
+        <v>116.86</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -10754,17 +10746,17 @@
         </is>
       </c>
       <c r="F178" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G178" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H178" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -10788,21 +10780,21 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>7MNV9Y8K_LTR</t>
+          <t>3F2V83FP_LTR</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DEUDILTR220026</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>161.04</v>
+        <v>891.95</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -10810,17 +10802,17 @@
         </is>
       </c>
       <c r="F179" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G179" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H179" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10844,7 +10836,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2CMW4QFF_LTR</t>
+          <t>3RU4253N_LTR</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -10858,7 +10850,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>116.86</v>
+        <v>2530.96</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -10891,7 +10883,7 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N180" t="n">
         <v>65</v>
@@ -10900,7 +10892,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>3F2V83FP_LTR</t>
+          <t>73163DYB_LTR</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -10914,7 +10906,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>891.95</v>
+        <v>280.17</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -10947,7 +10939,7 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N181" t="n">
         <v>65</v>
@@ -10956,7 +10948,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>3RU4253N_LTR</t>
+          <t>7EXUP6MF_LTR</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -10970,7 +10962,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2530.96</v>
+        <v>902.88</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -11003,7 +10995,7 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N182" t="n">
         <v>65</v>
@@ -11012,7 +11004,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>73163DYB_LTR</t>
+          <t>7KFB8OMK_LTR</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -11026,7 +11018,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>280.17</v>
+        <v>238.75</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -11059,7 +11051,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N183" t="n">
         <v>65</v>
@@ -11068,21 +11060,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>7EXUP6MF_LTR</t>
+          <t>1O5WRWAR_LTN</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>902.88</v>
+        <v>851</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -11090,22 +11078,18 @@
         </is>
       </c>
       <c r="F184" s="2" t="n">
-        <v>44943</v>
+        <v>44964</v>
       </c>
       <c r="G184" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="H184" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K184" t="inlineStr"/>
@@ -11115,30 +11099,26 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="N184" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>7KFB8OMK_LTR</t>
+          <t>8ZMIO23Z_LTN</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>238.75</v>
+        <v>2558</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -11146,22 +11126,18 @@
         </is>
       </c>
       <c r="F185" s="2" t="n">
-        <v>44943</v>
+        <v>44964</v>
       </c>
       <c r="G185" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="H185" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K185" t="inlineStr"/>
@@ -11171,16 +11147,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="N185" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1O5WRWAR_LTN</t>
+          <t>1O5WRWAR_NTX</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -11190,7 +11166,7 @@
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>851</v>
+        <v>126</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -11198,10 +11174,10 @@
         </is>
       </c>
       <c r="F186" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="G186" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="H186" s="2" t="n">
         <v>45061</v>
@@ -11219,7 +11195,7 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N186" t="n">
         <v>95</v>
@@ -11228,7 +11204,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>8ZMIO23Z_LTN</t>
+          <t>7QMYDGUO_NTX</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -11238,7 +11214,7 @@
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>2558</v>
+        <v>1476</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -11246,10 +11222,10 @@
         </is>
       </c>
       <c r="F187" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="G187" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="H187" s="2" t="n">
         <v>45061</v>
@@ -11267,9 +11243,57 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N187" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>8ZMIO23Z_NTX</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="n">
+        <v>972</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="G188" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H188" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>93</v>
+      </c>
+      <c r="N188" t="n">
         <v>95</v>
       </c>
     </row>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N188"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N3" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N5" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N6" t="n">
         <v>40</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N7" t="n">
         <v>40</v>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N8" t="n">
         <v>50</v>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N9" t="n">
         <v>60</v>
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N13" t="n">
         <v>25</v>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N14" t="n">
         <v>60</v>
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N15" t="n">
         <v>60</v>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N16" t="n">
         <v>60</v>
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -1563,10 +1563,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N20" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N22" t="n">
         <v>65</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N23" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N24" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N25" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -1983,10 +1983,10 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N26" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N27" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N28" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -2163,10 +2163,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N29" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N30" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N31" t="n">
         <v>85</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N32" t="n">
         <v>85</v>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N33" t="n">
         <v>85</v>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N34" t="n">
         <v>85</v>
@@ -2491,10 +2491,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -2731,10 +2731,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2851,10 +2851,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -2911,10 +2911,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -3031,10 +3031,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N44" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
@@ -3091,7 +3091,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N45" t="n">
         <v>25</v>
@@ -3151,10 +3151,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N46" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -3211,10 +3211,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N47" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -3271,10 +3271,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N48" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N49" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N50" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
         <v>5</v>
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N52" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N53" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N54" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N55" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N56" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N57" t="n">
         <v>25</v>
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N58" t="n">
         <v>60</v>
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N59" t="n">
         <v>25</v>
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N60" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N61" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N62" t="n">
         <v>60</v>
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N63" t="n">
         <v>60</v>
@@ -4219,10 +4219,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N64" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
@@ -4279,10 +4279,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N65" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N66" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -4399,10 +4399,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N67" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
@@ -4459,10 +4459,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N68" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N69" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
@@ -4579,10 +4579,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N70" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -4639,10 +4639,10 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N71" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N72" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -4759,10 +4759,10 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N73" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74">
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4879,10 +4879,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -4999,10 +4999,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -5119,10 +5119,10 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -5179,10 +5179,10 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -5239,30 +5239,30 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>8KMAOCPT_NTX</t>
+          <t>49KX4R5M_LTR</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>DEUDINTX220024</t>
+          <t>JPNDILTR220041</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>242.05</v>
+        <v>149</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5270,17 +5270,17 @@
         </is>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44881</v>
+        <v>44879</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>KREN27841SH022</t>
+          <t>KRJN04560SH022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5288,37 +5288,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>KRJN04560SH022</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4586N5QV_NTX</t>
+          <t>4TEIDKGK_LTR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GBRDINTX220020</t>
+          <t>JPNDILTR220041</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47.72</v>
+        <v>382</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5326,17 +5330,17 @@
         </is>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44881</v>
+        <v>44879</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>KREN27842SH022</t>
+          <t>KRJN04560SH022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5344,37 +5348,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>KRJN04560SH022</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2J9SF6LV_NTX</t>
+          <t>5I9JFA8A_LTR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GBRDINTX220020</t>
+          <t>JPNDILTR220041</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>915.64</v>
+        <v>564</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5382,17 +5390,17 @@
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44881</v>
+        <v>44879</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>KREN27842SH022</t>
+          <t>KRJN04560SH022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5400,23 +5408,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>KRJN04560SH022</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>49KX4R5M_LTR</t>
+          <t>8LWFC7PX_LTR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5426,11 +5438,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>JPNDILTR220041</t>
+          <t>JPNDILTR220043</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -5448,7 +5460,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KRJN04572SH022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5458,7 +5470,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KRJN04572SH022</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5467,30 +5479,30 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>4TEIDKGK_LTR</t>
+          <t>8KMAOCPT_LTN</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>JPNDILTR220041</t>
+          <t>DEUDILTN220024</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>382</v>
+        <v>11.99</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -5498,17 +5510,17 @@
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44879</v>
+        <v>44882</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KREN27837SH022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5516,41 +5528,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>KRJN04560SH022</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>5I9JFA8A_LTR</t>
+          <t>1ER7N9JP_LTN</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>JPNDILTR220041</t>
+          <t>DEUDILTN220024</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>564</v>
+        <v>157.32</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -5558,17 +5566,17 @@
         </is>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44879</v>
+        <v>44882</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KREN27837SH022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5576,41 +5584,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>KRJN04560SH022</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>8LWFC7PX_LTR</t>
+          <t>4586N5QV_LTN</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JPNDILTR220043</t>
+          <t>GBRDILTN220026</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>92</v>
+        <v>46.77</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5618,17 +5622,17 @@
         </is>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44879</v>
+        <v>44882</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>KRJN04572SH022</t>
+          <t>KREN27838SH022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5636,27 +5640,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>KRJN04572SH022</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4RP8J8IG_LTR</t>
+          <t>2J9SF6LV_LTN</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5666,11 +5666,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GBRDILTR220023</t>
+          <t>GBRDILTN220026</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>29.63</v>
+        <v>2567.44</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5678,17 +5678,17 @@
         </is>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44879</v>
+        <v>44882</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>44969</v>
+        <v>44972</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>KREN28041SH022</t>
+          <t>KREN27838SH022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5712,21 +5712,21 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6NR25R3R_LTR</t>
+          <t>252LPA6W_NTX</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GBRDILTR220023</t>
+          <t>JPNDINTX220024</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>52.76</v>
+        <v>23</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5734,17 +5734,17 @@
         </is>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44879</v>
+        <v>44887</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44882</v>
+        <v>44890</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>44969</v>
+        <v>44972</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>KREN28041SH022</t>
+          <t>KRJN04561SH022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5752,10 +5752,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>KRJN04561SH022</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -5768,21 +5772,21 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7RSP2AYV_LTR</t>
+          <t>3FNT4X2I_NTX</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GBRDILTR220023</t>
+          <t>JPNDINTX220024</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>546.87</v>
+        <v>75</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5790,17 +5794,17 @@
         </is>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44879</v>
+        <v>44887</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44882</v>
+        <v>44890</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>44969</v>
+        <v>44972</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>KREN28041SH022</t>
+          <t>KRJN04561SH022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5808,10 +5812,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>KRJN04561SH022</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -5824,21 +5832,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>8KMAOCPT_LTN</t>
+          <t>3PZDZWZO_NTX</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DEUDILTN220024</t>
+          <t>JPNDINTX220024</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>11.99</v>
+        <v>166</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5846,17 +5854,17 @@
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44887</v>
+        <v>44890</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>KREN27837SH022</t>
+          <t>KRJN04561SH022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5864,37 +5872,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>KRJN04561SH022</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1ER7N9JP_LTN</t>
+          <t>6YF9IC8D_NTX</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DEUDILTN220024</t>
+          <t>JPNDINTX220024</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>157.32</v>
+        <v>86</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5902,17 +5914,17 @@
         </is>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44887</v>
+        <v>44890</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>KREN27837SH022</t>
+          <t>KRJN04561SH022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5920,37 +5932,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>KRJN04561SH022</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>4586N5QV_LTN</t>
+          <t>7HC3LGGK_NTX</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GBRDILTN220026</t>
+          <t>JPNDINTX220024</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>46.77</v>
+        <v>173</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5958,17 +5974,17 @@
         </is>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44887</v>
+        <v>44890</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>KREN27838SH022</t>
+          <t>KRJN04561SH022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5976,37 +5992,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>KRJN04561SH022</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2J9SF6LV_LTN</t>
+          <t>8KMAOCPT_LTR</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GBRDILTN220026</t>
+          <t>DEUDILTR220019</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2567.44</v>
+        <v>188.2</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -6014,17 +6034,17 @@
         </is>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44882</v>
+        <v>44888</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44887</v>
+        <v>44890</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>KREN27838SH022</t>
+          <t>KREN28093SH022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6039,7 +6059,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N95" t="n">
         <v>5</v>
@@ -6048,21 +6068,21 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>252LPA6W_NTX</t>
+          <t>4586N5QV_LTR</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>GBRDILTR220024</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>23</v>
+        <v>157.74</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -6070,17 +6090,17 @@
         </is>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KREN28094SH022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6088,18 +6108,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>KRJN04561SH022</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N96" t="n">
         <v>5</v>
@@ -6108,21 +6124,21 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3FNT4X2I_NTX</t>
+          <t>2J9SF6LV_LTR</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>GBRDILTR220024</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>75</v>
+        <v>191.43</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -6130,17 +6146,17 @@
         </is>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KREN28094SH022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6148,18 +6164,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>KRJN04561SH022</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N97" t="n">
         <v>5</v>
@@ -6168,7 +6180,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3PZDZWZO_NTX</t>
+          <t>641IA5TL_LTN</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6178,11 +6190,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>JPNDILTN220061</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>166</v>
+        <v>706</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -6190,17 +6202,17 @@
         </is>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6210,7 +6222,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6219,16 +6231,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6YF9IC8D_NTX</t>
+          <t>6A7CD2BK_LTN</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6238,11 +6250,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>JPNDILTN220061</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>86</v>
+        <v>1500</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -6250,17 +6262,17 @@
         </is>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6270,7 +6282,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6279,16 +6291,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>7HC3LGGK_NTX</t>
+          <t>6QJEN9KM_LTN</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6298,11 +6310,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>JPNDILTN220061</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>173</v>
+        <v>3949</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -6310,17 +6322,17 @@
         </is>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6330,7 +6342,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KRJN04599SH022</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6339,30 +6351,30 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8KMAOCPT_LTR</t>
+          <t>29OK49DG_LTN</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DEUDILTR220019</t>
+          <t>JPNDILTN220060</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>188.2</v>
+        <v>40</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -6370,17 +6382,17 @@
         </is>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>44978</v>
+        <v>44972</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>KREN28093SH022</t>
+          <t>KRJN04567SH022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6388,37 +6400,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>KRJN04567SH022</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>4586N5QV_LTR</t>
+          <t>2AWNNE7S_LTN</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>GBRDILTR220024</t>
+          <t>JPNDILTN220060</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>157.74</v>
+        <v>8</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6426,17 +6442,17 @@
         </is>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>44978</v>
+        <v>44972</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>KREN28094SH022</t>
+          <t>KRJN04567SH022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6444,37 +6460,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>KRJN04567SH022</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N102" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2J9SF6LV_LTR</t>
+          <t>3FNT4X2I_LTN</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>GBRDILTR220024</t>
+          <t>JPNDILTN220060</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>191.43</v>
+        <v>72</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6482,17 +6502,17 @@
         </is>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>44978</v>
+        <v>44972</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>KREN28094SH022</t>
+          <t>KRJN04567SH022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6500,23 +6520,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>KRJN04567SH022</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N103" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>641IA5TL_LTN</t>
+          <t>3PZDZWZO_LTN</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6526,11 +6550,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>JPNDILTN220061</t>
+          <t>JPNDILTN220060</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>706</v>
+        <v>47</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -6538,7 +6562,7 @@
         </is>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>44894</v>
@@ -6548,7 +6572,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KRJN04567SH022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6558,7 +6582,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KRJN04567SH022</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -6567,30 +6591,30 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N104" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTN</t>
+          <t>4V86CXCZ_LTN</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>JPNDILTN220061</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1500</v>
+        <v>48</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -6598,17 +6622,17 @@
         </is>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6616,41 +6640,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>KRJN04599SH022</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N105" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTN</t>
+          <t>5L15ABDW_LTN</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>JPNDILTN220061</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3949</v>
+        <v>104.34</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -6658,17 +6678,17 @@
         </is>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H106" s="2" t="n">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6676,41 +6696,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>KRJN04599SH022</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N106" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>29OK49DG_LTN</t>
+          <t>6INHXIPT_LTN</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>40</v>
+        <v>2316.84</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -6724,11 +6740,11 @@
         <v>44894</v>
       </c>
       <c r="H107" s="2" t="n">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6736,41 +6752,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>KRJN04567SH022</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N107" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2AWNNE7S_LTN</t>
+          <t>11KVXSVJ_LTN</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>8</v>
+        <v>80.02</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -6778,17 +6790,17 @@
         </is>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H108" s="2" t="n">
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6796,41 +6808,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>KRJN04567SH022</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N108" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3FNT4X2I_LTN</t>
+          <t>4BMEMP8C_LTN</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>72</v>
+        <v>104.34</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -6838,17 +6846,17 @@
         </is>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H109" s="2" t="n">
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -6856,41 +6864,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>KRJN04567SH022</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N109" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTN</t>
+          <t>4L57XNKE_LTN</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>47</v>
+        <v>274.2</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -6898,17 +6902,17 @@
         </is>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H110" s="2" t="n">
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6916,41 +6920,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>KRJN04567SH022</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N110" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>4V86CXCZ_LTN</t>
+          <t>6QJEN9KM_ROG</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>JPNDIROG220001</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>48</v>
+        <v>850</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -6958,17 +6958,17 @@
         </is>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="H111" s="2" t="n">
-        <v>44980</v>
+        <v>44972</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KRJN04633SH022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -6976,37 +6976,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>KRJN04633SH022</t>
+        </is>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N111" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>5L15ABDW_LTN</t>
+          <t>641IA5TL_NTX</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>JPNDINTX220025</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>104.34</v>
+        <v>773</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -7014,17 +7018,17 @@
         </is>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="H112" s="2" t="n">
-        <v>44980</v>
+        <v>44972</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KRJN04595SH022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7039,30 +7043,30 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N112" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6INHXIPT_LTN</t>
+          <t>6A7CD2BK_NTX</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>JPNDINTX220025</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2316.84</v>
+        <v>136</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -7070,17 +7074,17 @@
         </is>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="H113" s="2" t="n">
-        <v>44980</v>
+        <v>44972</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KRJN04595SH022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7095,30 +7099,30 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>11KVXSVJ_LTN</t>
+          <t>6QJEN9KM_NTX</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>JPNDINTX220025</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>80.02</v>
+        <v>1729</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -7126,17 +7130,17 @@
         </is>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44889</v>
+        <v>44894</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="H114" s="2" t="n">
-        <v>44979</v>
+        <v>44972</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KRJN04595SH022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7151,30 +7155,30 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N114" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4BMEMP8C_LTN</t>
+          <t>4GOUUIUT_LTR</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>JPNDILTR220042</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>104.34</v>
+        <v>20</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -7182,17 +7186,17 @@
         </is>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44889</v>
+        <v>44897</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>44979</v>
+        <v>45000</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KRJN04629SH022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7200,37 +7204,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>KRJN04629SH022</t>
+        </is>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N115" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>4L57XNKE_LTN</t>
+          <t>27J1DD2O_LTR</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>274.2</v>
+        <v>45</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -7238,17 +7246,17 @@
         </is>
       </c>
       <c r="F116" s="2" t="n">
-        <v>44889</v>
+        <v>44897</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="H116" s="2" t="n">
-        <v>44979</v>
+        <v>45000</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7256,23 +7264,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N116" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6QJEN9KM_ROG</t>
+          <t>3PZDZWZO_LTR</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7282,11 +7294,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>JPNDIROG220001</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>850</v>
+        <v>522</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -7294,17 +7306,17 @@
         </is>
       </c>
       <c r="F117" s="2" t="n">
-        <v>44893</v>
+        <v>44897</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>44895</v>
+        <v>44900</v>
       </c>
       <c r="H117" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>KRJN04633SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7314,7 +7326,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>KRJN04633SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -7323,16 +7335,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N117" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>641IA5TL_NTX</t>
+          <t>6YF9IC8D_LTR</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7342,11 +7354,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>JPNDINTX220025</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>773</v>
+        <v>45</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -7354,17 +7366,17 @@
         </is>
       </c>
       <c r="F118" s="2" t="n">
-        <v>44894</v>
+        <v>44897</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44896</v>
+        <v>44900</v>
       </c>
       <c r="H118" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>KRJN04595SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7372,23 +7384,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N118" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>6A7CD2BK_NTX</t>
+          <t>7HC3LGGK_LTR</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7398,11 +7414,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>JPNDINTX220025</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>136</v>
+        <v>859</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -7410,17 +7426,17 @@
         </is>
       </c>
       <c r="F119" s="2" t="n">
-        <v>44894</v>
+        <v>44897</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44896</v>
+        <v>44900</v>
       </c>
       <c r="H119" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>KRJN04595SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7428,23 +7444,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N119" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>6QJEN9KM_NTX</t>
+          <t>641IA5TL_LTR</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -7454,11 +7474,11 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>JPNDINTX220025</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1729</v>
+        <v>1638</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -7466,17 +7486,17 @@
         </is>
       </c>
       <c r="F120" s="2" t="n">
-        <v>44894</v>
+        <v>44905</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44896</v>
+        <v>44907</v>
       </c>
       <c r="H120" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>KRJN04595SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7484,23 +7504,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>KRJN04631SH022</t>
+        </is>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N120" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>4GOUUIUT_LTR</t>
+          <t>6A7CD2BK_LTR</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -7510,11 +7534,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>JPNDILTR220042</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>20</v>
+        <v>696</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -7522,17 +7546,17 @@
         </is>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44897</v>
+        <v>44905</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7542,7 +7566,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -7551,7 +7575,7 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N121" t="n">
         <v>30</v>
@@ -7560,7 +7584,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>27J1DD2O_LTR</t>
+          <t>6QJEN9KM_LTR</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7570,11 +7594,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>45</v>
+        <v>1822</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -7582,17 +7606,17 @@
         </is>
       </c>
       <c r="F122" s="2" t="n">
-        <v>44897</v>
+        <v>44905</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7602,7 +7626,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -7611,7 +7635,7 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N122" t="n">
         <v>30</v>
@@ -7620,21 +7644,21 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTR</t>
+          <t>4ENMCJ1U_NTX</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>522</v>
+        <v>506.74</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -7642,17 +7666,17 @@
         </is>
       </c>
       <c r="F123" s="2" t="n">
-        <v>44897</v>
+        <v>44907</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44900</v>
+        <v>44908</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7660,41 +7684,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>KRJN04630SH022</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N123" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>6YF9IC8D_LTR</t>
+          <t>8KQ7ECIO_NTX</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>45</v>
+        <v>702.38</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -7702,17 +7722,17 @@
         </is>
       </c>
       <c r="F124" s="2" t="n">
-        <v>44897</v>
+        <v>44907</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44900</v>
+        <v>44908</v>
       </c>
       <c r="H124" s="2" t="n">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7720,41 +7740,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>KRJN04630SH022</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N124" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>7HC3LGGK_LTR</t>
+          <t>4ENMCJ1U_LTN</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>859</v>
+        <v>222.8</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -7762,17 +7778,17 @@
         </is>
       </c>
       <c r="F125" s="2" t="n">
-        <v>44897</v>
+        <v>44910</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44900</v>
+        <v>44915</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7780,18 +7796,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>KRJN04630SH022</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N125" t="n">
         <v>30</v>
@@ -7800,21 +7812,21 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>641IA5TL_LTR</t>
+          <t>8KQ7ECIO_LTN</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1638</v>
+        <v>40.18</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -7822,17 +7834,17 @@
         </is>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44905</v>
+        <v>44910</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44907</v>
+        <v>44915</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7840,18 +7852,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N126" t="n">
         <v>30</v>
@@ -7860,21 +7868,21 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTR</t>
+          <t>2LYGFEZX_LTN</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>696</v>
+        <v>351.9</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -7882,17 +7890,17 @@
         </is>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44905</v>
+        <v>44910</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44907</v>
+        <v>44915</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7900,18 +7908,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N127" t="n">
         <v>30</v>
@@ -7920,21 +7924,21 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTR</t>
+          <t>72MCXZFM_LTN</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1822</v>
+        <v>220.5</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -7942,17 +7946,17 @@
         </is>
       </c>
       <c r="F128" s="2" t="n">
-        <v>44905</v>
+        <v>44910</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44907</v>
+        <v>44915</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7960,18 +7964,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N128" t="n">
         <v>30</v>
@@ -7980,21 +7980,21 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_NTX</t>
+          <t>79I9WNEX_NTX1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>DEUDINTX220017</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>506.74</v>
+        <v>570</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -8002,17 +8002,17 @@
         </is>
       </c>
       <c r="F129" s="2" t="n">
-        <v>44907</v>
+        <v>44929</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44908</v>
+        <v>44932</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>44997</v>
+        <v>45019</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KREN29454SH022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8027,16 +8027,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N129" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_NTX</t>
+          <t>5I2CBQ7E_NTX</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -8046,11 +8046,11 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>GBRDINTX220023</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>702.38</v>
+        <v>540.26</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -8058,17 +8058,17 @@
         </is>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44907</v>
+        <v>44930</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44908</v>
+        <v>44932</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>44997</v>
+        <v>45020</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KREN28372SH022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8083,16 +8083,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N130" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_LTN</t>
+          <t>5OWLVR3S_NTX</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8102,11 +8102,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>GBRDINTX220024</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>222.8</v>
+        <v>19.97</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -8114,17 +8114,17 @@
         </is>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44910</v>
+        <v>44929</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>45000</v>
+        <v>45019</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN28373SH022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8139,30 +8139,30 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N131" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_LTN</t>
+          <t>6JI55VBN_LTN</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>DEUDILTN220028</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>40.18</v>
+        <v>987.99</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -8170,17 +8170,17 @@
         </is>
       </c>
       <c r="F132" s="2" t="n">
-        <v>44910</v>
+        <v>44930</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>45000</v>
+        <v>45020</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN28498SH022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8195,16 +8195,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N132" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2LYGFEZX_LTN</t>
+          <t>8HS1Z2DC_LTN</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8214,11 +8214,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>DEUDILTN220027</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>351.9</v>
+        <v>588.51</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -8226,17 +8226,17 @@
         </is>
       </c>
       <c r="F133" s="2" t="n">
-        <v>44910</v>
+        <v>44932</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>45000</v>
+        <v>45022</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN29262SH022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8251,30 +8251,30 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N133" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>72MCXZFM_LTN</t>
+          <t>35EWMG8M_LTN</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>220.5</v>
+        <v>626.04</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -8282,17 +8282,17 @@
         </is>
       </c>
       <c r="F134" s="2" t="n">
-        <v>44910</v>
+        <v>44932</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>45000</v>
+        <v>45022</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8307,30 +8307,30 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N134" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>79I9WNEX_NTX1</t>
+          <t>599B2T3L_LTN</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DEUDINTX220017</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>570</v>
+        <v>162.26</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -8338,17 +8338,17 @@
         </is>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44929</v>
+        <v>44932</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>KREN29454SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8372,7 +8372,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_NTX</t>
+          <t>6FGU2LZW_LTN</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>GBRDINTX220023</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>540.26</v>
+        <v>181.6</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -8394,17 +8394,17 @@
         </is>
       </c>
       <c r="F136" s="2" t="n">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="G136" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>KREN28372SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8419,7 +8419,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N136" t="n">
         <v>50</v>
@@ -8428,7 +8428,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>5OWLVR3S_NTX</t>
+          <t>6CR9FRFE_LTN</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -8438,11 +8438,11 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>GBRDINTX220024</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19.97</v>
+        <v>181.6</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -8450,17 +8450,17 @@
         </is>
       </c>
       <c r="F137" s="2" t="n">
-        <v>44929</v>
+        <v>44932</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>KREN28373SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8484,21 +8484,21 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTN</t>
+          <t>8SBQDRDP_LTN</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DEUDILTN220028</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>987.99</v>
+        <v>299.48</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -8506,17 +8506,17 @@
         </is>
       </c>
       <c r="F138" s="2" t="n">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="G138" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>KREN28498SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N138" t="n">
         <v>50</v>
@@ -8540,7 +8540,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>8HS1Z2DC_LTN</t>
+          <t>6U36Y9BE_LTR</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -8550,11 +8550,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DEUDILTN220027</t>
+          <t>DEUDILTR220021</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>588.51</v>
+        <v>51.56</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -8562,17 +8562,17 @@
         </is>
       </c>
       <c r="F139" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>KREN29262SH022</t>
+          <t>KREN29034SH022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N139" t="n">
         <v>55</v>
@@ -8596,21 +8596,21 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTN</t>
+          <t>7GLNNL6Y_LTR</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>DEUDILTR220022</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>626.04</v>
+        <v>1614.82</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -8618,17 +8618,17 @@
         </is>
       </c>
       <c r="F140" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H140" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8643,7 +8643,7 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N140" t="n">
         <v>55</v>
@@ -8652,21 +8652,21 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>599B2T3L_LTN</t>
+          <t>13BSIFPT_LTR</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>162.26</v>
+        <v>591.71</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -8674,17 +8674,17 @@
         </is>
       </c>
       <c r="F141" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N141" t="n">
         <v>55</v>
@@ -8708,21 +8708,21 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTN</t>
+          <t>6JI55VBN_LTR</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>181.6</v>
+        <v>48.98</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -8730,17 +8730,17 @@
         </is>
       </c>
       <c r="F142" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H142" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8755,7 +8755,7 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N142" t="n">
         <v>55</v>
@@ -8764,21 +8764,21 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>6CR9FRFE_LTN</t>
+          <t>1P2OJBUW_LTR</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>181.6</v>
+        <v>146.94</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -8786,17 +8786,17 @@
         </is>
       </c>
       <c r="F143" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8811,7 +8811,7 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N143" t="n">
         <v>55</v>
@@ -8820,21 +8820,21 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>8SBQDRDP_LTN</t>
+          <t>26V9GOMZ_LTR</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>299.48</v>
+        <v>80.83</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -8842,17 +8842,17 @@
         </is>
       </c>
       <c r="F144" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H144" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -8867,7 +8867,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N144" t="n">
         <v>55</v>
@@ -8876,7 +8876,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6U36Y9BE_LTR</t>
+          <t>2FWLGF1V_LTR</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -8886,11 +8886,11 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DEUDILTR220021</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>51.56</v>
+        <v>489.28</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>KREN29034SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -8923,16 +8923,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N145" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>7GLNNL6Y_LTR</t>
+          <t>8AQ6IAUN_LTR</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -8942,11 +8942,11 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DEUDILTR220022</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1614.82</v>
+        <v>213.01</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -8979,30 +8979,30 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N146" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>13BSIFPT_LTR</t>
+          <t>5I2CBQ7E_LTR</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>591.71</v>
+        <v>342.84</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9035,30 +9035,30 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N147" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTR</t>
+          <t>73K6F7AM_LTR</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>48.98</v>
+        <v>420.03</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9091,30 +9091,30 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N148" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1P2OJBUW_LTR</t>
+          <t>7JC4WZOP_LTR</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>146.94</v>
+        <v>361.04</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9147,30 +9147,30 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N149" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>26V9GOMZ_LTR</t>
+          <t>1R3Z24JZ_LTR</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>80.83</v>
+        <v>1375.06</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9203,30 +9203,30 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N150" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2FWLGF1V_LTR</t>
+          <t>5OWLVR3S_LTR</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>489.28</v>
+        <v>4296.03</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9259,30 +9259,30 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N151" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>8AQ6IAUN_LTR</t>
+          <t>5WON4CZR_LTR</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>213.01</v>
+        <v>1133.44</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29037SH022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9315,16 +9315,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N152" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_LTR</t>
+          <t>7QYV88DI_LTR</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -9334,11 +9334,11 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>342.84</v>
+        <v>269.39</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29037SH022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9371,16 +9371,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N153" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>73K6F7AM_LTR</t>
+          <t>35EWMG8M_LTR</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -9390,11 +9390,11 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>420.03</v>
+        <v>80.52</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -9427,16 +9427,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N154" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>7JC4WZOP_LTR</t>
+          <t>599B2T3L_LTR</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -9446,11 +9446,11 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>361.04</v>
+        <v>68.88</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -9483,16 +9483,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N155" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1R3Z24JZ_LTR</t>
+          <t>6FGU2LZW_LTR</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -9502,11 +9502,11 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>GBRDILTR220026</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1375.06</v>
+        <v>49.38</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -9539,16 +9539,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N156" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>5OWLVR3S_LTR</t>
+          <t>6HJO8FGL_LTR</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -9558,11 +9558,11 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>GBRDILTR220026</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>4296.03</v>
+        <v>100.32</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -9595,30 +9595,30 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N157" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>5WON4CZR_LTR</t>
+          <t>5GJMWY3U_NTX</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>GBRDILTR220028</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1133.44</v>
+        <v>409.91</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -9629,14 +9629,14 @@
         <v>44936</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>45026</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>KREN29037SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -9651,30 +9651,30 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N158" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>7QYV88DI_LTR</t>
+          <t>5QSJP7CC_NTX</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>GBRDILTR220028</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>269.39</v>
+        <v>211.99</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -9685,14 +9685,14 @@
         <v>44936</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H159" s="2" t="n">
         <v>45026</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>KREN29037SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -9707,30 +9707,30 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N159" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTR</t>
+          <t>7LEE3TFL_LTN</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>80.52</v>
+        <v>119.16</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -9738,17 +9738,17 @@
         </is>
       </c>
       <c r="F160" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G160" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H160" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -9763,30 +9763,30 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N160" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>599B2T3L_LTR</t>
+          <t>8N7YEA8D_LTN</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>68.88</v>
+        <v>37.05</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -9794,17 +9794,17 @@
         </is>
       </c>
       <c r="F161" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G161" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H161" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -9819,16 +9819,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N161" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTR</t>
+          <t>1EXT8UGA_LTN</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -9838,11 +9838,11 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>49.38</v>
+        <v>362.6</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -9850,17 +9850,17 @@
         </is>
       </c>
       <c r="F162" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G162" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H162" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -9875,16 +9875,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N162" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>6HJO8FGL_LTR</t>
+          <t>3RU4253N_LTN</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -9894,11 +9894,11 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>100.32</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -9906,17 +9906,17 @@
         </is>
       </c>
       <c r="F163" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H163" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -9931,30 +9931,30 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N163" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>5GJMWY3U_NTX</t>
+          <t>73163DYB_LTN</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DEUDINTX220026</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>409.91</v>
+        <v>410.02</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -9962,17 +9962,17 @@
         </is>
       </c>
       <c r="F164" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G164" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H164" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>KREN29413SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9987,16 +9987,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N164" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>5QSJP7CC_NTX</t>
+          <t>5TY3VS9Y_LTN</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -10006,11 +10006,11 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DEUDINTX220026</t>
+          <t>DEUDILTN220030</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>211.99</v>
+        <v>313.02</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -10018,17 +10018,17 @@
         </is>
       </c>
       <c r="F165" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G165" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H165" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>KREN29413SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -10043,16 +10043,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N165" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>7LEE3TFL_LTN</t>
+          <t>3MOXC2DD_LTN</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -10062,11 +10062,11 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DEUDILTN220029</t>
+          <t>DEUDILTN220031</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>119.16</v>
+        <v>939.0599999999999</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>KREN29418SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -10099,16 +10099,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N166" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>8N7YEA8D_LTN</t>
+          <t>7MNV9Y8K_LTN</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -10118,11 +10118,11 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DEUDILTN220029</t>
+          <t>DEUDILTN220031</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>37.05</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>KREN29418SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -10155,30 +10155,30 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N167" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1EXT8UGA_LTN</t>
+          <t>259STCHZ_LTR</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTR220025</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>362.6</v>
+        <v>474.84</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -10186,17 +10186,17 @@
         </is>
       </c>
       <c r="F168" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H168" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -10211,7 +10211,7 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N168" t="n">
         <v>60</v>
@@ -10220,21 +10220,21 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>3RU4253N_LTN</t>
+          <t>5K5OX5HO_LTR</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTR220025</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>87.34999999999999</v>
+        <v>91.19</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -10242,17 +10242,17 @@
         </is>
       </c>
       <c r="F169" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G169" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H169" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -10267,7 +10267,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N169" t="n">
         <v>60</v>
@@ -10276,21 +10276,21 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>73163DYB_LTN</t>
+          <t>3MOXC2DD_LTR</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTR220026</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>410.02</v>
+        <v>191.43</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -10298,17 +10298,17 @@
         </is>
       </c>
       <c r="F170" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G170" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H170" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -10323,7 +10323,7 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N170" t="n">
         <v>60</v>
@@ -10332,7 +10332,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>5TY3VS9Y_LTN</t>
+          <t>7MNV9Y8K_LTR</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -10342,11 +10342,11 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DEUDILTN220030</t>
+          <t>DEUDILTR220026</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>313.02</v>
+        <v>161.04</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -10354,17 +10354,17 @@
         </is>
       </c>
       <c r="F171" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H171" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>KREN29467SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -10379,7 +10379,7 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N171" t="n">
         <v>60</v>
@@ -10388,21 +10388,21 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>3MOXC2DD_LTN</t>
+          <t>2CMW4QFF_LTR</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DEUDILTN220031</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>939.0599999999999</v>
+        <v>116.86</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -10410,17 +10410,17 @@
         </is>
       </c>
       <c r="F172" s="2" t="n">
-        <v>44937</v>
+        <v>44943</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H172" s="2" t="n">
-        <v>45027</v>
+        <v>45033</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>KREN29467SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -10435,7 +10435,7 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N172" t="n">
         <v>60</v>
@@ -10444,21 +10444,21 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>7MNV9Y8K_LTN</t>
+          <t>3F2V83FP_LTR</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DEUDILTN220031</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>87.34999999999999</v>
+        <v>891.95</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -10466,17 +10466,17 @@
         </is>
       </c>
       <c r="F173" s="2" t="n">
-        <v>44937</v>
+        <v>44943</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H173" s="2" t="n">
-        <v>45027</v>
+        <v>45033</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>KREN29467SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10491,7 +10491,7 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N173" t="n">
         <v>60</v>
@@ -10500,21 +10500,21 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>259STCHZ_LTR</t>
+          <t>3RU4253N_LTR</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DEUDILTR220025</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>474.84</v>
+        <v>2530.96</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -10522,17 +10522,17 @@
         </is>
       </c>
       <c r="F174" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G174" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H174" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -10547,30 +10547,30 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N174" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>5K5OX5HO_LTR</t>
+          <t>73163DYB_LTR</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DEUDILTR220025</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>91.19</v>
+        <v>280.17</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -10578,17 +10578,17 @@
         </is>
       </c>
       <c r="F175" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G175" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H175" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10603,30 +10603,30 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N175" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>3MOXC2DD_LTR</t>
+          <t>7EXUP6MF_LTR</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DEUDILTR220026</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>191.43</v>
+        <v>902.88</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -10634,17 +10634,17 @@
         </is>
       </c>
       <c r="F176" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G176" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H176" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -10659,30 +10659,30 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N176" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>7MNV9Y8K_LTR</t>
+          <t>7KFB8OMK_LTR</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DEUDILTR220026</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>161.04</v>
+        <v>238.75</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -10690,17 +10690,17 @@
         </is>
       </c>
       <c r="F177" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G177" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H177" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -10715,30 +10715,26 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N177" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2CMW4QFF_LTR</t>
+          <t>1O5WRWAR_LTN</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>116.86</v>
+        <v>851</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -10746,22 +10742,18 @@
         </is>
       </c>
       <c r="F178" s="2" t="n">
-        <v>44943</v>
+        <v>44964</v>
       </c>
       <c r="G178" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="H178" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K178" t="inlineStr"/>
@@ -10771,30 +10763,26 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N178" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>3F2V83FP_LTR</t>
+          <t>8ZMIO23Z_LTN</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>891.95</v>
+        <v>2558</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -10802,22 +10790,18 @@
         </is>
       </c>
       <c r="F179" s="2" t="n">
-        <v>44943</v>
+        <v>44964</v>
       </c>
       <c r="G179" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="H179" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K179" t="inlineStr"/>
@@ -10827,30 +10811,26 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N179" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>3RU4253N_LTR</t>
+          <t>1O5WRWAR_NTX</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>2530.96</v>
+        <v>126</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -10858,22 +10838,18 @@
         </is>
       </c>
       <c r="F180" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="G180" s="2" t="n">
-        <v>44943</v>
+        <v>44966</v>
       </c>
       <c r="H180" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K180" t="inlineStr"/>
@@ -10883,30 +10859,26 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N180" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>73163DYB_LTR</t>
+          <t>7QMYDGUO_NTX</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>280.17</v>
+        <v>1476</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -10914,22 +10886,18 @@
         </is>
       </c>
       <c r="F181" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>44943</v>
+        <v>44966</v>
       </c>
       <c r="H181" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K181" t="inlineStr"/>
@@ -10939,30 +10907,26 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N181" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>7EXUP6MF_LTR</t>
+          <t>8ZMIO23Z_NTX</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>902.88</v>
+        <v>972</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -10970,22 +10934,18 @@
         </is>
       </c>
       <c r="F182" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>44943</v>
+        <v>44966</v>
       </c>
       <c r="H182" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K182" t="inlineStr"/>
@@ -10995,30 +10955,26 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N182" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>7KFB8OMK_LTR</t>
+          <t>4BYTXB4L_LTR1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>238.75</v>
+        <v>2009.25</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -11026,22 +10982,18 @@
         </is>
       </c>
       <c r="F183" s="2" t="n">
-        <v>44943</v>
+        <v>44967</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>44943</v>
+        <v>44967</v>
       </c>
       <c r="H183" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45087</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K183" t="inlineStr"/>
@@ -11051,250 +11003,10 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="N183" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>1O5WRWAR_LTN</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="n">
-        <v>851</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="n">
-        <v>44964</v>
-      </c>
-      <c r="G184" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="H184" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>93</v>
-      </c>
-      <c r="N184" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>8ZMIO23Z_LTN</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="n">
-        <v>2558</v>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="n">
-        <v>44964</v>
-      </c>
-      <c r="G185" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="H185" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>93</v>
-      </c>
-      <c r="N185" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>1O5WRWAR_NTX</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="n">
-        <v>126</v>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="G186" s="2" t="n">
-        <v>44966</v>
-      </c>
-      <c r="H186" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>93</v>
-      </c>
-      <c r="N186" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>7QMYDGUO_NTX</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="n">
-        <v>1476</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="G187" s="2" t="n">
-        <v>44966</v>
-      </c>
-      <c r="H187" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>93</v>
-      </c>
-      <c r="N187" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>8ZMIO23Z_NTX</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="n">
-        <v>972</v>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="G188" s="2" t="n">
-        <v>44966</v>
-      </c>
-      <c r="H188" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>93</v>
-      </c>
-      <c r="N188" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
         <v>35</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N3" t="n">
         <v>105</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N4" t="n">
         <v>80</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" t="n">
         <v>35</v>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" t="n">
         <v>50</v>
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N10" t="n">
         <v>55</v>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N11" t="n">
         <v>55</v>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N12" t="n">
         <v>55</v>
@@ -1203,10 +1203,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N17" t="n">
         <v>65</v>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N18" t="n">
         <v>55</v>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N19" t="n">
         <v>50</v>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N20" t="n">
         <v>35</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N21" t="n">
         <v>65</v>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N22" t="n">
         <v>65</v>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N23" t="n">
         <v>45</v>
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
         <v>35</v>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N25" t="n">
         <v>35</v>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
         <v>35</v>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N27" t="n">
         <v>35</v>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N28" t="n">
         <v>35</v>
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N29" t="n">
         <v>35</v>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N30" t="n">
         <v>35</v>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N31" t="n">
         <v>85</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N32" t="n">
         <v>85</v>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N33" t="n">
         <v>85</v>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N34" t="n">
         <v>85</v>
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N36" t="n">
         <v>10</v>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="n">
         <v>5</v>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
         <v>5</v>
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
         <v>5</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
         <v>5</v>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N43" t="n">
         <v>20</v>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N44" t="n">
         <v>35</v>
@@ -3091,7 +3091,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N45" t="n">
         <v>25</v>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N46" t="n">
         <v>20</v>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N47" t="n">
         <v>20</v>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N48" t="n">
         <v>20</v>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N49" t="n">
         <v>30</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N50" t="n">
         <v>35</v>
@@ -3439,10 +3439,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N52" t="n">
         <v>55</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N53" t="n">
         <v>55</v>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N54" t="n">
         <v>35</v>
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N55" t="n">
         <v>35</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N56" t="n">
         <v>55</v>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N57" t="n">
         <v>25</v>
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N58" t="n">
         <v>60</v>
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N59" t="n">
         <v>25</v>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N60" t="n">
         <v>30</v>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N61" t="n">
         <v>35</v>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N62" t="n">
         <v>60</v>
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N63" t="n">
         <v>60</v>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N64" t="n">
         <v>35</v>
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N65" t="n">
         <v>20</v>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N66" t="n">
         <v>20</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N67" t="n">
         <v>35</v>
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N68" t="n">
         <v>35</v>
@@ -4519,7 +4519,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N69" t="n">
         <v>35</v>
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N70" t="n">
         <v>20</v>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N71" t="n">
         <v>20</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N72" t="n">
         <v>20</v>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N73" t="n">
         <v>55</v>
@@ -4768,21 +4768,21 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5JO3V5NY_LTR</t>
+          <t>8KMAOCPT_LTR</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JPNDILTR220040</t>
+          <t>DEUDILTR220019</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87</v>
+        <v>188.2</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4790,17 +4790,17 @@
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44866</v>
+        <v>44888</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44867</v>
+        <v>44890</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>KRJN04458SH022</t>
+          <t>KREN28093SH022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4808,41 +4808,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>KRJN04458SH022</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7VCI939K_LTR</t>
+          <t>4586N5QV_LTR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JPNDILTR220040</t>
+          <t>GBRDILTR220024</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>659</v>
+        <v>157.74</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4850,17 +4846,17 @@
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44866</v>
+        <v>44888</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44867</v>
+        <v>44890</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>KRJN04458SH022</t>
+          <t>KREN28094SH022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4868,41 +4864,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>KRJN04458SH022</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>49KX4R5M_NTX</t>
+          <t>2J9SF6LV_LTR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>JPNDINTX220023</t>
+          <t>GBRDILTR220024</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>45</v>
+        <v>191.43</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4910,17 +4902,17 @@
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44874</v>
+        <v>44890</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>KRJN04484SH022</t>
+          <t>KREN28094SH022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4928,41 +4920,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>KRJN04484SH022</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4KOHQFAY_NTX</t>
+          <t>4V86CXCZ_LTN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JPNDINTX220023</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4970,17 +4958,17 @@
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44872</v>
+        <v>44890</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44874</v>
+        <v>44894</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>KRJN04484SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4988,41 +4976,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>KRJN04484SH022</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5I9JFA8A_NTX</t>
+          <t>5L15ABDW_LTN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>JPNDINTX220023</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>27</v>
+        <v>104.34</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -5030,17 +5014,17 @@
         </is>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44872</v>
+        <v>44890</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44874</v>
+        <v>44894</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>KRJN04484SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5048,41 +5032,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>KRJN04484SH022</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>41CC755Q_LTN</t>
+          <t>6INHXIPT_LTN</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>JPNDILTN220059</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>60</v>
+        <v>2316.84</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -5090,17 +5070,17 @@
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44867</v>
+        <v>44890</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44874</v>
+        <v>44894</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>KRJN04483SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5108,41 +5088,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>KRJN04483SH022</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>49KX4R5M_LTN</t>
+          <t>11KVXSVJ_LTN</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JPNDILTN220059</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>282</v>
+        <v>80.02</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5150,17 +5126,17 @@
         </is>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44867</v>
+        <v>44889</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44874</v>
+        <v>44894</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>KRJN04483SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5168,41 +5144,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>KRJN04483SH022</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5I9JFA8A_LTN</t>
+          <t>4BMEMP8C_LTN</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>JPNDILTN220059</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>39</v>
+        <v>104.34</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -5210,17 +5182,17 @@
         </is>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44867</v>
+        <v>44889</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44874</v>
+        <v>44894</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>KRJN04483SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5228,41 +5200,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>KRJN04483SH022</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>49KX4R5M_LTR</t>
+          <t>4L57XNKE_LTN</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JPNDILTR220041</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>149</v>
+        <v>274.2</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5270,17 +5238,17 @@
         </is>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44879</v>
+        <v>44889</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44882</v>
+        <v>44894</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5288,27 +5256,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>KRJN04560SH022</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4TEIDKGK_LTR</t>
+          <t>4GOUUIUT_LTR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5318,11 +5282,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>JPNDILTR220041</t>
+          <t>JPNDILTR220042</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5330,17 +5294,17 @@
         </is>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44879</v>
+        <v>44897</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44882</v>
+        <v>44900</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KRJN04629SH022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5350,7 +5314,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KRJN04629SH022</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5359,16 +5323,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5I9JFA8A_LTR</t>
+          <t>27J1DD2O_LTR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5378,11 +5342,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>JPNDILTR220041</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>564</v>
+        <v>45</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5390,17 +5354,17 @@
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44879</v>
+        <v>44897</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44882</v>
+        <v>44900</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5410,7 +5374,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>KRJN04560SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5419,16 +5383,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8LWFC7PX_LTR</t>
+          <t>3PZDZWZO_LTR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5438,11 +5402,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>JPNDILTR220043</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>92</v>
+        <v>522</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -5450,17 +5414,17 @@
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44879</v>
+        <v>44897</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44882</v>
+        <v>44900</v>
       </c>
       <c r="H85" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>KRJN04572SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5470,7 +5434,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>KRJN04572SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5479,30 +5443,30 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>8KMAOCPT_LTN</t>
+          <t>6YF9IC8D_LTR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DEUDILTN220024</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>11.99</v>
+        <v>45</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -5510,17 +5474,17 @@
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44882</v>
+        <v>44897</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44887</v>
+        <v>44900</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>KREN27837SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5528,37 +5492,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1ER7N9JP_LTN</t>
+          <t>7HC3LGGK_LTR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DEUDILTN220024</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>157.32</v>
+        <v>859</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -5566,17 +5534,17 @@
         </is>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44882</v>
+        <v>44897</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44887</v>
+        <v>44900</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>KREN27837SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5584,37 +5552,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4586N5QV_LTN</t>
+          <t>641IA5TL_LTR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GBRDILTN220026</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>46.77</v>
+        <v>1638</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5622,17 +5594,17 @@
         </is>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44882</v>
+        <v>44905</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44887</v>
+        <v>44907</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>KREN27838SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5640,37 +5612,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>KRJN04631SH022</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2J9SF6LV_LTN</t>
+          <t>6A7CD2BK_LTR</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GBRDILTN220026</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2567.44</v>
+        <v>696</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5678,17 +5654,17 @@
         </is>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44882</v>
+        <v>44905</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44887</v>
+        <v>44907</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>KREN27838SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5696,23 +5672,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>KRJN04631SH022</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>252LPA6W_NTX</t>
+          <t>6QJEN9KM_LTR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5722,11 +5702,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>23</v>
+        <v>1822</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5734,17 +5714,17 @@
         </is>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44887</v>
+        <v>44905</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44890</v>
+        <v>44907</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5754,7 +5734,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5763,30 +5743,30 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3FNT4X2I_NTX</t>
+          <t>4ENMCJ1U_NTX</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>75</v>
+        <v>506.74</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5794,17 +5774,17 @@
         </is>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44887</v>
+        <v>44907</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44890</v>
+        <v>44908</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>44972</v>
+        <v>44997</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5812,41 +5792,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>KRJN04561SH022</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3PZDZWZO_NTX</t>
+          <t>8KQ7ECIO_NTX</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>166</v>
+        <v>702.38</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5854,17 +5830,17 @@
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44887</v>
+        <v>44907</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44890</v>
+        <v>44908</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>44972</v>
+        <v>44997</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5872,41 +5848,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>KRJN04561SH022</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>6YF9IC8D_NTX</t>
+          <t>4ENMCJ1U_LTN</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>86</v>
+        <v>222.8</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5914,17 +5886,17 @@
         </is>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44887</v>
+        <v>44910</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44890</v>
+        <v>44915</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5932,41 +5904,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>KRJN04561SH022</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>7HC3LGGK_NTX</t>
+          <t>8KQ7ECIO_LTN</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>JPNDINTX220024</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>173</v>
+        <v>40.18</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5974,17 +5942,17 @@
         </is>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44887</v>
+        <v>44910</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44890</v>
+        <v>44915</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>44972</v>
+        <v>45000</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>KRJN04561SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5992,27 +5960,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>KRJN04561SH022</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8KMAOCPT_LTR</t>
+          <t>2LYGFEZX_LTN</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6022,11 +5986,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DEUDILTR220019</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>188.2</v>
+        <v>351.9</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -6034,17 +5998,17 @@
         </is>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44888</v>
+        <v>44910</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44890</v>
+        <v>44915</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>44978</v>
+        <v>45000</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>KREN28093SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6059,30 +6023,30 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N95" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4586N5QV_LTR</t>
+          <t>72MCXZFM_LTN</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GBRDILTR220024</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>157.74</v>
+        <v>220.5</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -6090,17 +6054,17 @@
         </is>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44888</v>
+        <v>44910</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44890</v>
+        <v>44915</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>44978</v>
+        <v>45000</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>KREN28094SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6115,30 +6079,30 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N96" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2J9SF6LV_LTR</t>
+          <t>79I9WNEX_NTX1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>GBRDILTR220024</t>
+          <t>DEUDINTX220017</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>191.43</v>
+        <v>570</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -6146,17 +6110,17 @@
         </is>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44888</v>
+        <v>44929</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44890</v>
+        <v>44932</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>44978</v>
+        <v>45019</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>KREN28094SH022</t>
+          <t>KREN29454SH022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6171,30 +6135,30 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="N97" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>641IA5TL_LTN</t>
+          <t>5I2CBQ7E_NTX</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>JPNDILTN220061</t>
+          <t>GBRDINTX220023</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>706</v>
+        <v>540.26</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -6202,17 +6166,17 @@
         </is>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44893</v>
+        <v>44930</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44894</v>
+        <v>44932</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>44972</v>
+        <v>45020</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KREN28372SH022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6220,41 +6184,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>KRJN04599SH022</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTN</t>
+          <t>5OWLVR3S_NTX</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>JPNDILTN220061</t>
+          <t>GBRDINTX220024</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1500</v>
+        <v>19.97</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -6262,17 +6222,17 @@
         </is>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44893</v>
+        <v>44929</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44894</v>
+        <v>44932</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>44972</v>
+        <v>45019</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KREN28373SH022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6280,41 +6240,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>KRJN04599SH022</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTN</t>
+          <t>6JI55VBN_LTN</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>JPNDILTN220061</t>
+          <t>DEUDILTN220028</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3949</v>
+        <v>987.99</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -6322,17 +6278,17 @@
         </is>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44893</v>
+        <v>44930</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44894</v>
+        <v>44932</v>
       </c>
       <c r="H100" s="2" t="n">
-        <v>44972</v>
+        <v>45020</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>KRJN04599SH022</t>
+          <t>KREN28498SH022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6340,41 +6296,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>KRJN04599SH022</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>29OK49DG_LTN</t>
+          <t>8HS1Z2DC_LTN</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>DEUDILTN220027</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>40</v>
+        <v>588.51</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -6382,17 +6334,17 @@
         </is>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44890</v>
+        <v>44932</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44894</v>
+        <v>44932</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>44972</v>
+        <v>45022</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KREN29262SH022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6400,41 +6352,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>KRJN04567SH022</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2AWNNE7S_LTN</t>
+          <t>35EWMG8M_LTN</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
+        <v>626.04</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6442,17 +6390,17 @@
         </is>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44890</v>
+        <v>44932</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44894</v>
+        <v>44932</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>44972</v>
+        <v>45022</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6460,41 +6408,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>KRJN04567SH022</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3FNT4X2I_LTN</t>
+          <t>599B2T3L_LTN</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>72</v>
+        <v>162.26</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6502,17 +6446,17 @@
         </is>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44890</v>
+        <v>44932</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44894</v>
+        <v>44932</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>44972</v>
+        <v>45022</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6520,41 +6464,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>KRJN04567SH022</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTN</t>
+          <t>6FGU2LZW_LTN</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>JPNDILTN220060</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>47</v>
+        <v>181.6</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -6562,17 +6502,17 @@
         </is>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44890</v>
+        <v>44932</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44894</v>
+        <v>44932</v>
       </c>
       <c r="H104" s="2" t="n">
-        <v>44972</v>
+        <v>45022</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>KRJN04567SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6580,41 +6520,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>KRJN04567SH022</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4V86CXCZ_LTN</t>
+          <t>6CR9FRFE_LTN</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>48</v>
+        <v>181.6</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -6622,17 +6558,17 @@
         </is>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44890</v>
+        <v>44932</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44894</v>
+        <v>44932</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>44980</v>
+        <v>45022</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6647,30 +6583,30 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="N105" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>5L15ABDW_LTN</t>
+          <t>8SBQDRDP_LTN</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>104.34</v>
+        <v>299.48</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -6678,17 +6614,17 @@
         </is>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44890</v>
+        <v>44932</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44894</v>
+        <v>44932</v>
       </c>
       <c r="H106" s="2" t="n">
-        <v>44980</v>
+        <v>45022</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6703,16 +6639,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="N106" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6INHXIPT_LTN</t>
+          <t>6U36Y9BE_LTR</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6722,11 +6658,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>DEUDILTR220021</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2316.84</v>
+        <v>51.56</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -6734,17 +6670,17 @@
         </is>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44890</v>
+        <v>44936</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44894</v>
+        <v>44935</v>
       </c>
       <c r="H107" s="2" t="n">
-        <v>44980</v>
+        <v>45026</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KREN29034SH022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6759,30 +6695,30 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="N107" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>11KVXSVJ_LTN</t>
+          <t>7GLNNL6Y_LTR</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>DEUDILTR220022</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>80.02</v>
+        <v>1614.82</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -6790,17 +6726,17 @@
         </is>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44889</v>
+        <v>44936</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>44894</v>
+        <v>44935</v>
       </c>
       <c r="H108" s="2" t="n">
-        <v>44979</v>
+        <v>45026</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6815,30 +6751,30 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="N108" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>4BMEMP8C_LTN</t>
+          <t>13BSIFPT_LTR</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>104.34</v>
+        <v>591.71</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -6846,17 +6782,17 @@
         </is>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44889</v>
+        <v>44936</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44894</v>
+        <v>44935</v>
       </c>
       <c r="H109" s="2" t="n">
-        <v>44979</v>
+        <v>45026</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -6871,30 +6807,30 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="N109" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4L57XNKE_LTN</t>
+          <t>6JI55VBN_LTR</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>274.2</v>
+        <v>48.98</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -6902,17 +6838,17 @@
         </is>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44889</v>
+        <v>44936</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44894</v>
+        <v>44935</v>
       </c>
       <c r="H110" s="2" t="n">
-        <v>44979</v>
+        <v>45026</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6927,30 +6863,30 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="N110" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>6QJEN9KM_ROG</t>
+          <t>1P2OJBUW_LTR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>JPNDIROG220001</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>850</v>
+        <v>146.94</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -6958,17 +6894,17 @@
         </is>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44893</v>
+        <v>44936</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44895</v>
+        <v>44935</v>
       </c>
       <c r="H111" s="2" t="n">
-        <v>44972</v>
+        <v>45026</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>KRJN04633SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -6976,41 +6912,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>KRJN04633SH022</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>641IA5TL_NTX</t>
+          <t>26V9GOMZ_LTR</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>JPNDINTX220025</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>773</v>
+        <v>80.83</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -7018,17 +6950,17 @@
         </is>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44894</v>
+        <v>44936</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44896</v>
+        <v>44935</v>
       </c>
       <c r="H112" s="2" t="n">
-        <v>44972</v>
+        <v>45026</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>KRJN04595SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7043,30 +6975,30 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6A7CD2BK_NTX</t>
+          <t>2FWLGF1V_LTR</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>JPNDINTX220025</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>136</v>
+        <v>489.28</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -7074,17 +7006,17 @@
         </is>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44894</v>
+        <v>44936</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44896</v>
+        <v>44935</v>
       </c>
       <c r="H113" s="2" t="n">
-        <v>44972</v>
+        <v>45026</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>KRJN04595SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7099,30 +7031,30 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6QJEN9KM_NTX</t>
+          <t>8AQ6IAUN_LTR</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>JPNDINTX220025</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1729</v>
+        <v>213.01</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -7130,17 +7062,17 @@
         </is>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44894</v>
+        <v>44936</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44896</v>
+        <v>44935</v>
       </c>
       <c r="H114" s="2" t="n">
-        <v>44972</v>
+        <v>45026</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>KRJN04595SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7155,30 +7087,30 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4GOUUIUT_LTR</t>
+          <t>5I2CBQ7E_LTR</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>JPNDILTR220042</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>20</v>
+        <v>342.84</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -7186,17 +7118,17 @@
         </is>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44897</v>
+        <v>44936</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44900</v>
+        <v>44935</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>45000</v>
+        <v>45026</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7204,41 +7136,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>KRJN04629SH022</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N115" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>27J1DD2O_LTR</t>
+          <t>73K6F7AM_LTR</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>45</v>
+        <v>420.03</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -7246,17 +7174,17 @@
         </is>
       </c>
       <c r="F116" s="2" t="n">
-        <v>44897</v>
+        <v>44936</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44900</v>
+        <v>44935</v>
       </c>
       <c r="H116" s="2" t="n">
-        <v>45000</v>
+        <v>45026</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7264,41 +7192,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>KRJN04630SH022</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N116" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTR</t>
+          <t>7JC4WZOP_LTR</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>522</v>
+        <v>361.04</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -7306,17 +7230,17 @@
         </is>
       </c>
       <c r="F117" s="2" t="n">
-        <v>44897</v>
+        <v>44936</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>44900</v>
+        <v>44935</v>
       </c>
       <c r="H117" s="2" t="n">
-        <v>45000</v>
+        <v>45026</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7324,41 +7248,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>KRJN04630SH022</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N117" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>6YF9IC8D_LTR</t>
+          <t>1R3Z24JZ_LTR</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>45</v>
+        <v>1375.06</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -7366,17 +7286,17 @@
         </is>
       </c>
       <c r="F118" s="2" t="n">
-        <v>44897</v>
+        <v>44936</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44900</v>
+        <v>44935</v>
       </c>
       <c r="H118" s="2" t="n">
-        <v>45000</v>
+        <v>45026</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7384,41 +7304,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>KRJN04630SH022</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N118" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>7HC3LGGK_LTR</t>
+          <t>5OWLVR3S_LTR</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>859</v>
+        <v>4296.03</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -7426,17 +7342,17 @@
         </is>
       </c>
       <c r="F119" s="2" t="n">
-        <v>44897</v>
+        <v>44936</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44900</v>
+        <v>44935</v>
       </c>
       <c r="H119" s="2" t="n">
-        <v>45000</v>
+        <v>45026</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7444,41 +7360,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>KRJN04630SH022</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N119" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>641IA5TL_LTR</t>
+          <t>5WON4CZR_LTR</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1638</v>
+        <v>1133.44</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -7486,17 +7398,17 @@
         </is>
       </c>
       <c r="F120" s="2" t="n">
-        <v>44905</v>
+        <v>44936</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44907</v>
+        <v>44935</v>
       </c>
       <c r="H120" s="2" t="n">
-        <v>45000</v>
+        <v>45026</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN29037SH022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7504,41 +7416,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N120" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTR</t>
+          <t>7QYV88DI_LTR</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>696</v>
+        <v>269.39</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -7546,17 +7454,17 @@
         </is>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44905</v>
+        <v>44936</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44907</v>
+        <v>44935</v>
       </c>
       <c r="H121" s="2" t="n">
-        <v>45000</v>
+        <v>45026</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN29037SH022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7564,41 +7472,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N121" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTR</t>
+          <t>35EWMG8M_LTR</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1822</v>
+        <v>80.52</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -7606,17 +7510,17 @@
         </is>
       </c>
       <c r="F122" s="2" t="n">
-        <v>44905</v>
+        <v>44936</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44907</v>
+        <v>44935</v>
       </c>
       <c r="H122" s="2" t="n">
-        <v>45000</v>
+        <v>45026</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7624,27 +7528,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N122" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_NTX</t>
+          <t>599B2T3L_LTR</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -7654,11 +7554,11 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>506.74</v>
+        <v>68.88</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -7666,17 +7566,17 @@
         </is>
       </c>
       <c r="F123" s="2" t="n">
-        <v>44907</v>
+        <v>44936</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44908</v>
+        <v>44935</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>44997</v>
+        <v>45026</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7691,16 +7591,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N123" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_NTX</t>
+          <t>6FGU2LZW_LTR</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7710,11 +7610,11 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>702.38</v>
+        <v>49.38</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -7722,17 +7622,17 @@
         </is>
       </c>
       <c r="F124" s="2" t="n">
-        <v>44907</v>
+        <v>44936</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44908</v>
+        <v>44935</v>
       </c>
       <c r="H124" s="2" t="n">
-        <v>44997</v>
+        <v>45026</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7747,16 +7647,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N124" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_LTN</t>
+          <t>6HJO8FGL_LTR</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -7766,11 +7666,11 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>222.8</v>
+        <v>100.32</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -7778,17 +7678,17 @@
         </is>
       </c>
       <c r="F125" s="2" t="n">
-        <v>44910</v>
+        <v>44936</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44915</v>
+        <v>44935</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>45000</v>
+        <v>45026</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7803,30 +7703,30 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N125" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_LTN</t>
+          <t>5GJMWY3U_NTX</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>40.18</v>
+        <v>409.91</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -7834,17 +7734,17 @@
         </is>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44910</v>
+        <v>44936</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44915</v>
+        <v>44938</v>
       </c>
       <c r="H126" s="2" t="n">
-        <v>45000</v>
+        <v>45026</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7859,16 +7759,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N126" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2LYGFEZX_LTN</t>
+          <t>5QSJP7CC_NTX</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7878,11 +7778,11 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>351.9</v>
+        <v>211.99</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -7890,17 +7790,17 @@
         </is>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44910</v>
+        <v>44936</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44915</v>
+        <v>44938</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>45000</v>
+        <v>45026</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7915,16 +7815,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N127" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>72MCXZFM_LTN</t>
+          <t>7LEE3TFL_LTN</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7934,11 +7834,11 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>220.5</v>
+        <v>119.16</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -7946,17 +7846,17 @@
         </is>
       </c>
       <c r="F128" s="2" t="n">
-        <v>44910</v>
+        <v>44937</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44915</v>
+        <v>44938</v>
       </c>
       <c r="H128" s="2" t="n">
-        <v>45000</v>
+        <v>45027</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7971,16 +7871,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N128" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>79I9WNEX_NTX1</t>
+          <t>8N7YEA8D_LTN</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -7990,11 +7890,11 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DEUDINTX220017</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>570</v>
+        <v>37.05</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -8002,17 +7902,17 @@
         </is>
       </c>
       <c r="F129" s="2" t="n">
-        <v>44929</v>
+        <v>44937</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44932</v>
+        <v>44938</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>45019</v>
+        <v>45027</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>KREN29454SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8027,16 +7927,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N129" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_NTX</t>
+          <t>1EXT8UGA_LTN</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -8046,11 +7946,11 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>GBRDINTX220023</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>540.26</v>
+        <v>362.6</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -8058,17 +7958,17 @@
         </is>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44930</v>
+        <v>44937</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44932</v>
+        <v>44938</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>KREN28372SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8083,16 +7983,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N130" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>5OWLVR3S_NTX</t>
+          <t>3RU4253N_LTN</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8102,11 +8002,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>GBRDINTX220024</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>19.97</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -8114,17 +8014,17 @@
         </is>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44929</v>
+        <v>44937</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44932</v>
+        <v>44938</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>45019</v>
+        <v>45027</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>KREN28373SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8139,30 +8039,30 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N131" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTN</t>
+          <t>73163DYB_LTN</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>DEUDILTN220028</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>987.99</v>
+        <v>410.02</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -8170,17 +8070,17 @@
         </is>
       </c>
       <c r="F132" s="2" t="n">
-        <v>44930</v>
+        <v>44937</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44932</v>
+        <v>44938</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>KREN28498SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8195,16 +8095,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N132" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>8HS1Z2DC_LTN</t>
+          <t>5TY3VS9Y_LTN</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8214,11 +8114,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>DEUDILTN220027</t>
+          <t>DEUDILTN220030</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>588.51</v>
+        <v>313.02</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -8226,17 +8126,17 @@
         </is>
       </c>
       <c r="F133" s="2" t="n">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44932</v>
+        <v>44938</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>45022</v>
+        <v>45027</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>KREN29262SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8251,30 +8151,30 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N133" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTN</t>
+          <t>3MOXC2DD_LTN</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>DEUDILTN220031</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>626.04</v>
+        <v>939.0599999999999</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -8282,17 +8182,17 @@
         </is>
       </c>
       <c r="F134" s="2" t="n">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44932</v>
+        <v>44938</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>45022</v>
+        <v>45027</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8307,30 +8207,30 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N134" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>599B2T3L_LTN</t>
+          <t>7MNV9Y8K_LTN</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>DEUDILTN220031</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>162.26</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -8338,17 +8238,17 @@
         </is>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44932</v>
+        <v>44938</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>45022</v>
+        <v>45027</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8363,30 +8263,30 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N135" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTN</t>
+          <t>259STCHZ_LTR</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>DEUDILTR220025</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>181.6</v>
+        <v>474.84</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -8394,17 +8294,17 @@
         </is>
       </c>
       <c r="F136" s="2" t="n">
-        <v>44932</v>
+        <v>44942</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44932</v>
+        <v>44943</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>45022</v>
+        <v>45032</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8419,30 +8319,30 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="N136" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>6CR9FRFE_LTN</t>
+          <t>5K5OX5HO_LTR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>DEUDILTR220025</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>181.6</v>
+        <v>91.19</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -8450,17 +8350,17 @@
         </is>
       </c>
       <c r="F137" s="2" t="n">
-        <v>44932</v>
+        <v>44942</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>44932</v>
+        <v>44943</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>45022</v>
+        <v>45032</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8475,30 +8375,30 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="N137" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>8SBQDRDP_LTN</t>
+          <t>3MOXC2DD_LTR</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>DEUDILTR220026</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>299.48</v>
+        <v>191.43</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -8506,17 +8406,17 @@
         </is>
       </c>
       <c r="F138" s="2" t="n">
-        <v>44932</v>
+        <v>44942</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44932</v>
+        <v>44943</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>45022</v>
+        <v>45032</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8531,16 +8431,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="N138" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>6U36Y9BE_LTR</t>
+          <t>7MNV9Y8K_LTR</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -8550,11 +8450,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DEUDILTR220021</t>
+          <t>DEUDILTR220026</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>51.56</v>
+        <v>161.04</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -8562,17 +8462,17 @@
         </is>
       </c>
       <c r="F139" s="2" t="n">
-        <v>44936</v>
+        <v>44942</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44935</v>
+        <v>44943</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>45026</v>
+        <v>45032</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>KREN29034SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8587,30 +8487,30 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N139" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>7GLNNL6Y_LTR</t>
+          <t>2CMW4QFF_LTR</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DEUDILTR220022</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1614.82</v>
+        <v>116.86</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -8618,17 +8518,17 @@
         </is>
       </c>
       <c r="F140" s="2" t="n">
-        <v>44936</v>
+        <v>44943</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>44935</v>
+        <v>44943</v>
       </c>
       <c r="H140" s="2" t="n">
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8643,30 +8543,30 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N140" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>13BSIFPT_LTR</t>
+          <t>3F2V83FP_LTR</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>591.71</v>
+        <v>891.95</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -8674,17 +8574,17 @@
         </is>
       </c>
       <c r="F141" s="2" t="n">
-        <v>44936</v>
+        <v>44943</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44935</v>
+        <v>44943</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8699,30 +8599,30 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N141" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTR</t>
+          <t>3RU4253N_LTR</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>48.98</v>
+        <v>2530.96</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -8730,17 +8630,17 @@
         </is>
       </c>
       <c r="F142" s="2" t="n">
-        <v>44936</v>
+        <v>44943</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>44935</v>
+        <v>44943</v>
       </c>
       <c r="H142" s="2" t="n">
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8755,30 +8655,30 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N142" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1P2OJBUW_LTR</t>
+          <t>73163DYB_LTR</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>146.94</v>
+        <v>280.17</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -8786,17 +8686,17 @@
         </is>
       </c>
       <c r="F143" s="2" t="n">
-        <v>44936</v>
+        <v>44943</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>44935</v>
+        <v>44943</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8811,30 +8711,30 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N143" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>26V9GOMZ_LTR</t>
+          <t>7EXUP6MF_LTR</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>80.83</v>
+        <v>902.88</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -8842,17 +8742,17 @@
         </is>
       </c>
       <c r="F144" s="2" t="n">
-        <v>44936</v>
+        <v>44943</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>44935</v>
+        <v>44943</v>
       </c>
       <c r="H144" s="2" t="n">
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -8867,30 +8767,30 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N144" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2FWLGF1V_LTR</t>
+          <t>7KFB8OMK_LTR</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>489.28</v>
+        <v>238.75</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -8898,17 +8798,17 @@
         </is>
       </c>
       <c r="F145" s="2" t="n">
-        <v>44936</v>
+        <v>44943</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44935</v>
+        <v>44943</v>
       </c>
       <c r="H145" s="2" t="n">
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -8923,30 +8823,26 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N145" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>8AQ6IAUN_LTR</t>
+          <t>1O5WRWAR_LTN</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>DEUDILTR220024</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>213.01</v>
+        <v>851</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -8954,22 +8850,18 @@
         </is>
       </c>
       <c r="F146" s="2" t="n">
-        <v>44936</v>
+        <v>44964</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>44935</v>
+        <v>44965</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>KREN29035SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K146" t="inlineStr"/>
@@ -8979,30 +8871,26 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="N146" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_LTR</t>
+          <t>8ZMIO23Z_LTN</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>GBRDILTR220025</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>342.84</v>
+        <v>2558</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -9010,22 +8898,18 @@
         </is>
       </c>
       <c r="F147" s="2" t="n">
-        <v>44936</v>
+        <v>44964</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>44935</v>
+        <v>44965</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>KREN29039SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K147" t="inlineStr"/>
@@ -9035,30 +8919,26 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="N147" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>73K6F7AM_LTR</t>
+          <t>1O5WRWAR_NTX</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>GBRDILTR220025</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>420.03</v>
+        <v>126</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -9066,22 +8946,18 @@
         </is>
       </c>
       <c r="F148" s="2" t="n">
-        <v>44936</v>
+        <v>44965</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>44935</v>
+        <v>44966</v>
       </c>
       <c r="H148" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>KREN29039SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K148" t="inlineStr"/>
@@ -9091,30 +8967,26 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="N148" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>7JC4WZOP_LTR</t>
+          <t>7QMYDGUO_NTX</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>GBRDILTR220025</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>361.04</v>
+        <v>1476</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -9122,22 +8994,18 @@
         </is>
       </c>
       <c r="F149" s="2" t="n">
-        <v>44936</v>
+        <v>44965</v>
       </c>
       <c r="G149" s="2" t="n">
-        <v>44935</v>
+        <v>44966</v>
       </c>
       <c r="H149" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>KREN29039SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K149" t="inlineStr"/>
@@ -9147,30 +9015,26 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="N149" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1R3Z24JZ_LTR</t>
+          <t>8ZMIO23Z_NTX</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>GBRDILTR220026</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>1375.06</v>
+        <v>972</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -9178,22 +9042,18 @@
         </is>
       </c>
       <c r="F150" s="2" t="n">
-        <v>44936</v>
+        <v>44965</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>44935</v>
+        <v>44966</v>
       </c>
       <c r="H150" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>KREN29039SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K150" t="inlineStr"/>
@@ -9203,30 +9063,26 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="N150" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>5OWLVR3S_LTR</t>
+          <t>4BYTXB4L_LTR1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>GBRDILTR220026</t>
-        </is>
-      </c>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>4296.03</v>
+        <v>2009.25</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -9234,22 +9090,18 @@
         </is>
       </c>
       <c r="F151" s="2" t="n">
-        <v>44936</v>
+        <v>44967</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>44935</v>
+        <v>44967</v>
       </c>
       <c r="H151" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>KREN29039SH022</t>
-        </is>
-      </c>
+        <v>45087</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K151" t="inlineStr"/>
@@ -9259,1753 +9111,9 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="N151" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>5WON4CZR_LTR</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>GBRDILTR220028</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>1133.44</v>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="G152" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="H152" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>KREN29037SH022</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>55</v>
-      </c>
-      <c r="N152" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>7QYV88DI_LTR</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>GBRDILTR220028</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>269.39</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F153" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="G153" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="H153" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>KREN29037SH022</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>55</v>
-      </c>
-      <c r="N153" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>35EWMG8M_LTR</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>GBRDILTR220029</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>80.52</v>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F154" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="G154" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="H154" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>KREN29635SH022</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>55</v>
-      </c>
-      <c r="N154" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>599B2T3L_LTR</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>GBRDILTR220029</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>68.88</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="G155" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="H155" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>KREN29635SH022</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>55</v>
-      </c>
-      <c r="N155" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>6FGU2LZW_LTR</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>GBRDILTR220029</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>49.38</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="G156" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="H156" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>KREN29635SH022</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>55</v>
-      </c>
-      <c r="N156" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>6HJO8FGL_LTR</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>GBRDILTR220029</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>100.32</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="G157" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="H157" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>KREN29635SH022</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>55</v>
-      </c>
-      <c r="N157" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>5GJMWY3U_NTX</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>DEUDINTX220026</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>409.91</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F158" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="G158" s="2" t="n">
-        <v>44938</v>
-      </c>
-      <c r="H158" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>KREN29413SH022</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>55</v>
-      </c>
-      <c r="N158" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>5QSJP7CC_NTX</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>DEUDINTX220026</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>211.99</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="G159" s="2" t="n">
-        <v>44938</v>
-      </c>
-      <c r="H159" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>KREN29413SH022</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>55</v>
-      </c>
-      <c r="N159" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>7LEE3TFL_LTN</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>DEUDILTN220029</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>119.16</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="n">
-        <v>44937</v>
-      </c>
-      <c r="G160" s="2" t="n">
-        <v>44938</v>
-      </c>
-      <c r="H160" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>KREN29418SH022</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>56</v>
-      </c>
-      <c r="N160" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>8N7YEA8D_LTN</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>DEUDILTN220029</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>37.05</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="n">
-        <v>44937</v>
-      </c>
-      <c r="G161" s="2" t="n">
-        <v>44938</v>
-      </c>
-      <c r="H161" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>KREN29418SH022</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>56</v>
-      </c>
-      <c r="N161" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>1EXT8UGA_LTN</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>GBRDILTN220029</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>362.6</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="n">
-        <v>44937</v>
-      </c>
-      <c r="G162" s="2" t="n">
-        <v>44938</v>
-      </c>
-      <c r="H162" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>KREN28811SH022</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>56</v>
-      </c>
-      <c r="N162" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>3RU4253N_LTN</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>GBRDILTN220029</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>87.34999999999999</v>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F163" s="2" t="n">
-        <v>44937</v>
-      </c>
-      <c r="G163" s="2" t="n">
-        <v>44938</v>
-      </c>
-      <c r="H163" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>KREN28811SH022</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>56</v>
-      </c>
-      <c r="N163" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>73163DYB_LTN</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>GBRDILTN220029</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>410.02</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F164" s="2" t="n">
-        <v>44937</v>
-      </c>
-      <c r="G164" s="2" t="n">
-        <v>44938</v>
-      </c>
-      <c r="H164" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>KREN28811SH022</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>56</v>
-      </c>
-      <c r="N164" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>5TY3VS9Y_LTN</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>DEUDILTN220030</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>313.02</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F165" s="2" t="n">
-        <v>44937</v>
-      </c>
-      <c r="G165" s="2" t="n">
-        <v>44938</v>
-      </c>
-      <c r="H165" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>KREN29467SH022</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>56</v>
-      </c>
-      <c r="N165" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>3MOXC2DD_LTN</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>DEUDILTN220031</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>939.0599999999999</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F166" s="2" t="n">
-        <v>44937</v>
-      </c>
-      <c r="G166" s="2" t="n">
-        <v>44938</v>
-      </c>
-      <c r="H166" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>KREN29467SH022</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>56</v>
-      </c>
-      <c r="N166" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>7MNV9Y8K_LTN</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>DEUDILTN220031</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>87.34999999999999</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F167" s="2" t="n">
-        <v>44937</v>
-      </c>
-      <c r="G167" s="2" t="n">
-        <v>44938</v>
-      </c>
-      <c r="H167" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>KREN29467SH022</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>56</v>
-      </c>
-      <c r="N167" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>259STCHZ_LTR</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>DEUDILTR220025</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>474.84</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="G168" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="H168" s="2" t="n">
-        <v>45032</v>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>KREN29957SH022</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>61</v>
-      </c>
-      <c r="N168" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>5K5OX5HO_LTR</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>DEUDILTR220025</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>91.19</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F169" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="G169" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="H169" s="2" t="n">
-        <v>45032</v>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>KREN29957SH022</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>61</v>
-      </c>
-      <c r="N169" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>3MOXC2DD_LTR</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>DEUDILTR220026</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>191.43</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F170" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="G170" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="H170" s="2" t="n">
-        <v>45032</v>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>KREN29957SH022</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>61</v>
-      </c>
-      <c r="N170" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>7MNV9Y8K_LTR</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>DEUDILTR220026</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>161.04</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="G171" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="H171" s="2" t="n">
-        <v>45032</v>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>KREN29957SH022</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>61</v>
-      </c>
-      <c r="N171" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2CMW4QFF_LTR</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>116.86</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="G172" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="H172" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>62</v>
-      </c>
-      <c r="N172" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>3F2V83FP_LTR</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>891.95</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="G173" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="H173" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>62</v>
-      </c>
-      <c r="N173" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>3RU4253N_LTR</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>2530.96</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="G174" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="H174" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>62</v>
-      </c>
-      <c r="N174" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>73163DYB_LTR</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>280.17</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="G175" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="H175" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>62</v>
-      </c>
-      <c r="N175" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>7EXUP6MF_LTR</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>902.88</v>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F176" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="G176" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="H176" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>62</v>
-      </c>
-      <c r="N176" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>7KFB8OMK_LTR</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>238.75</v>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="G177" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="H177" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>62</v>
-      </c>
-      <c r="N177" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>1O5WRWAR_LTN</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="n">
-        <v>851</v>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="n">
-        <v>44964</v>
-      </c>
-      <c r="G178" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="H178" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>90</v>
-      </c>
-      <c r="N178" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>8ZMIO23Z_LTN</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="n">
-        <v>2558</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="n">
-        <v>44964</v>
-      </c>
-      <c r="G179" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="H179" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>90</v>
-      </c>
-      <c r="N179" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>1O5WRWAR_NTX</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="n">
-        <v>126</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="G180" s="2" t="n">
-        <v>44966</v>
-      </c>
-      <c r="H180" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>90</v>
-      </c>
-      <c r="N180" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>7QMYDGUO_NTX</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="n">
-        <v>1476</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="G181" s="2" t="n">
-        <v>44966</v>
-      </c>
-      <c r="H181" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>90</v>
-      </c>
-      <c r="N181" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>8ZMIO23Z_NTX</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="n">
-        <v>972</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="G182" s="2" t="n">
-        <v>44966</v>
-      </c>
-      <c r="H182" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>90</v>
-      </c>
-      <c r="N182" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>4BYTXB4L_LTR1</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>CAN</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="n">
-        <v>2009.25</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="n">
-        <v>44967</v>
-      </c>
-      <c r="G183" s="2" t="n">
-        <v>44967</v>
-      </c>
-      <c r="H183" s="2" t="n">
-        <v>45087</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>116</v>
-      </c>
-      <c r="N183" t="n">
         <v>115</v>
       </c>
     </row>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" t="n">
         <v>35</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N3" t="n">
         <v>105</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N4" t="n">
         <v>80</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
         <v>35</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" t="n">
         <v>35</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7" t="n">
         <v>35</v>
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N9" t="n">
         <v>55</v>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
         <v>55</v>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
         <v>55</v>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12" t="n">
         <v>55</v>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" t="n">
         <v>20</v>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N14" t="n">
         <v>55</v>
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N15" t="n">
         <v>55</v>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N16" t="n">
         <v>55</v>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N17" t="n">
         <v>65</v>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N18" t="n">
         <v>55</v>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
         <v>50</v>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
         <v>35</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N21" t="n">
         <v>65</v>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N23" t="n">
         <v>45</v>
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N24" t="n">
         <v>35</v>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N25" t="n">
         <v>35</v>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N26" t="n">
         <v>35</v>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N27" t="n">
         <v>35</v>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N28" t="n">
         <v>35</v>
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N29" t="n">
         <v>35</v>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N30" t="n">
         <v>35</v>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N31" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N32" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N33" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -2431,16 +2431,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N34" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7A2EB4DZ_LTR</t>
+          <t>6CJJ7EDU_LTN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2450,29 +2450,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CANDILTR220041</t>
+          <t>CANDILTN220062</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2521.4</v>
+        <v>72.75</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44847</v>
+        <v>44861</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44853</v>
+        <v>44862</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>44973</v>
+        <v>44981</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>KRCN03160SH022</t>
+          <t>KRCN03239SH022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>KRCN03160SH022</t>
+          <t>KRCN03239SH022</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2491,16 +2491,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6CJJ7EDU_LTN</t>
+          <t>6QXJ6VLX_LTR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2510,29 +2510,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CANDILTN220062</t>
+          <t>CANDILTR220022</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>72.75</v>
+        <v>95.55</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Paid</t>
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44861</v>
+        <v>44856</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44862</v>
+        <v>44859</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>44981</v>
+        <v>44976</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>KRCN03239SH022</t>
+          <t>KRCN03242SH022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>KRCN03239SH022</t>
+          <t>KRCN03242SH022</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2551,16 +2551,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6QXJ6VLX_LTR</t>
+          <t>8YUIEVEQ_LTR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>95.55</v>
+        <v>122.14</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
         <v>5</v>
@@ -2620,7 +2620,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8YUIEVEQ_LTR</t>
+          <t>2Y37S6NA_LTR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>122.14</v>
+        <v>573.3</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
         <v>5</v>
@@ -2680,7 +2680,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2Y37S6NA_LTR</t>
+          <t>8V5Z7NOM_LTR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2690,11 +2690,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CANDILTR220022</t>
+          <t>CANDILTR220025</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>573.3</v>
+        <v>775.21</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>KRCN03242SH022</t>
+          <t>KRCN03243SH022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>KRCN03242SH022</t>
+          <t>KRCN03243SH022</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
         <v>5</v>
@@ -2740,39 +2740,39 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>32K391JU_LTR</t>
+          <t>68E6O96Z_LTN</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>MXC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CANDILTR220042</t>
+          <t>MEXDILTN220016</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5888</v>
+        <v>5271.33</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Paid</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44847</v>
+        <v>44872</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44853</v>
+        <v>44874</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>44973</v>
+        <v>44992</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>KRCN03161SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>KRCN03161SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2791,48 +2791,48 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8V5Z7NOM_LTR</t>
+          <t>7Z852YQD_LTR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>MXC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CANDILTR220025</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>775.21</v>
+        <v>51.48</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Paid</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44856</v>
+        <v>44888</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44859</v>
+        <v>44890</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>44976</v>
+        <v>45008</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>KRCN03243SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>KRCN03243SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2851,30 +2851,30 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N41" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1B19ANQK_LTR</t>
+          <t>3UR9YW4M_NTX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>MXC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CANDILTR220040</t>
+          <t>MEXDINTX220007</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10312.6</v>
+        <v>816.48</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2882,17 +2882,17 @@
         </is>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44847</v>
+        <v>44875</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44853</v>
+        <v>44876</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>44973</v>
+        <v>44995</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>KRCN03159SH022</t>
+          <t>KRMN00134SH022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>KRCN03159SH022</t>
+          <t>KRMN00134SH022</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2911,16 +2911,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>68E6O96Z_LTN</t>
+          <t>3UR9YW4M_LTN</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2930,15 +2930,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MEXDILTN220016</t>
+          <t>MEXDILTN220017</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5271.33</v>
+        <v>902.1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F43" s="2" t="n">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N43" t="n">
         <v>20</v>
@@ -2980,7 +2980,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7Z852YQD_LTR</t>
+          <t>3XX7FXEC_LTN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2990,11 +2990,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTN220016</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>51.48</v>
+        <v>285.01</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3002,17 +3002,17 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44888</v>
+        <v>44872</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44890</v>
+        <v>44874</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45008</v>
+        <v>44992</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N44" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3UR9YW4M_NTX</t>
+          <t>7Z852YQD_LTN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3050,29 +3050,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MEXDINTX220007</t>
+          <t>MEXDILTN220018</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>816.48</v>
+        <v>159.11</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44875</v>
+        <v>44872</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44876</v>
+        <v>44874</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>44995</v>
+        <v>44992</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>KRMN00134SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>KRMN00134SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3091,16 +3091,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N45" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3UR9YW4M_LTN</t>
+          <t>3XX7FXEC_NTX1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3110,29 +3110,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MEXDILTN220017</t>
+          <t>MEXDINTX220009</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>902.1</v>
+        <v>30.93</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44872</v>
+        <v>44882</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44874</v>
+        <v>44882</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>44992</v>
+        <v>45002</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00136SH022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00136SH022</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3151,16 +3151,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N46" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3XX7FXEC_LTN</t>
+          <t>4WFFWHPV_LTN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3170,29 +3170,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MEXDILTN220016</t>
+          <t>MEXDILTN220024</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>285.01</v>
+        <v>197.68</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44872</v>
+        <v>44887</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44874</v>
+        <v>44887</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>44992</v>
+        <v>45007</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3211,16 +3211,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N47" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7Z852YQD_LTN</t>
+          <t>22BEQHQV_LTN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3228,59 +3228,47 @@
           <t>MXC</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>MEXDILTN220018</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>159.11</v>
+        <v>293.22</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44872</v>
+        <v>44833</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44874</v>
+        <v>44854</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>44992</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>KRMN00126SH022</t>
-        </is>
-      </c>
+        <v>44974</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>KRMN00126SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3XX7FXEC_NTX1</t>
+          <t>19NQZGUC_LTN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3290,29 +3278,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MEXDINTX220009</t>
+          <t>MEXDILTN220022</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>30.93</v>
+        <v>204</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44882</v>
+        <v>44908</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44882</v>
+        <v>44908</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45002</v>
+        <v>45028</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>KRMN00136SH022</t>
+          <t>KRMN00153SH022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3322,7 +3310,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>KRMN00136SH022</t>
+          <t>KRMN00153SH022</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3331,16 +3319,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N49" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4WFFWHPV_LTN</t>
+          <t>1HZ4T9NT_LTN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3350,11 +3338,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MEXDILTN220024</t>
+          <t>MEXDILTN220023</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>197.68</v>
+        <v>76.5</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3362,17 +3350,17 @@
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44887</v>
+        <v>44908</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44887</v>
+        <v>44908</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45007</v>
+        <v>45028</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00153SH022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3382,7 +3370,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00153SH022</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3391,16 +3379,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N50" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>22BEQHQV_LTN</t>
+          <t>3HI6MCNI_LTR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3408,47 +3396,59 @@
           <t>MXC</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MEXDILTR220007</t>
+        </is>
+      </c>
       <c r="D51" t="n">
-        <v>293.22</v>
+        <v>2327.79</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44833</v>
+        <v>44888</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44854</v>
+        <v>44890</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>44974</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>KRMN00135SH022</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>KRMN00135SH022</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>19NQZGUC_LTN</t>
+          <t>6V78FK6B_LTN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3458,29 +3458,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MEXDILTN220022</t>
+          <t>MEXDILTN220025</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>204</v>
+        <v>197.68</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44908</v>
+        <v>44887</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44908</v>
+        <v>44887</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45028</v>
+        <v>45007</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>KRMN00153SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>KRMN00153SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3499,16 +3499,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="N52" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1HZ4T9NT_LTN</t>
+          <t>1VPFROUA_LTN</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3518,11 +3518,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MEXDILTN220023</t>
+          <t>MEXDILTN220021</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>76.5</v>
+        <v>994.5</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N53" t="n">
         <v>55</v>
@@ -3568,7 +3568,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3HI6MCNI_LTR</t>
+          <t>3XX7FXEC_NTX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3578,11 +3578,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDINTX220006</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2327.79</v>
+        <v>1975.2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3590,17 +3590,17 @@
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44888</v>
+        <v>44875</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44890</v>
+        <v>44876</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45008</v>
+        <v>44995</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00133SH022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00133SH022</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3619,16 +3619,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N54" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6V78FK6B_LTN</t>
+          <t>3B3XG4UX_LTR</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3638,11 +3638,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MEXDILTN220025</t>
+          <t>MEXDILTR220008</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>197.68</v>
+        <v>970.38</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3650,17 +3650,17 @@
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44887</v>
+        <v>44910</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44887</v>
+        <v>44911</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45007</v>
+        <v>45030</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3679,16 +3679,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N55" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1VPFROUA_LTN</t>
+          <t>68E6O96Z_NTX</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3698,11 +3698,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MEXDILTN220021</t>
+          <t>MEXDINTX220006</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>994.5</v>
+        <v>2723.35</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3710,17 +3710,17 @@
         </is>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44908</v>
+        <v>44875</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44908</v>
+        <v>44876</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>45028</v>
+        <v>44995</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>KRMN00153SH022</t>
+          <t>KRMN00133SH022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>KRMN00153SH022</t>
+          <t>KRMN00133SH022</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="N56" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3XX7FXEC_NTX</t>
+          <t>68E6O96Z_NTX1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3758,11 +3758,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MEXDINTX220006</t>
+          <t>MEXDINTX220009</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1975.2</v>
+        <v>2209.11</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3770,17 +3770,17 @@
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44875</v>
+        <v>44882</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44876</v>
+        <v>44882</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>KRMN00133SH022</t>
+          <t>KRMN00136SH022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>KRMN00133SH022</t>
+          <t>KRMN00136SH022</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3799,16 +3799,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N57" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3B3XG4UX_LTR</t>
+          <t>68E6O96Z_LTR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3818,29 +3818,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MEXDILTR220008</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>970.38</v>
+        <v>2676</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44910</v>
+        <v>44888</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44911</v>
+        <v>44890</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>45030</v>
+        <v>45008</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3859,16 +3859,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="N58" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>68E6O96Z_NTX</t>
+          <t>4KUEZVQL_LTR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3878,29 +3878,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MEXDINTX220006</t>
+          <t>MEXDILTR220008</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2723.35</v>
+        <v>323.46</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44875</v>
+        <v>44910</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44876</v>
+        <v>44911</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>44995</v>
+        <v>45030</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>KRMN00133SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>KRMN00133SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3919,16 +3919,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N59" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>68E6O96Z_NTX1</t>
+          <t>4LGYAGNR_LTR</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3938,29 +3938,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MEXDINTX220009</t>
+          <t>MEXDILTR220008</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2209.11</v>
+        <v>4097.16</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44882</v>
+        <v>44910</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44882</v>
+        <v>44911</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45002</v>
+        <v>45030</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>KRMN00136SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>KRMN00136SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3979,16 +3979,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N60" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>68E6O96Z_LTR</t>
+          <t>3XX7FXEC_LTR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4002,11 +4002,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2676</v>
+        <v>1712.24</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N61" t="n">
         <v>35</v>
@@ -4048,7 +4048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4KUEZVQL_LTR</t>
+          <t>3HI6MCNI_LTN</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4058,11 +4058,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MEXDILTR220008</t>
+          <t>MEXDILTN220015</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>323.46</v>
+        <v>192.54</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4070,17 +4070,17 @@
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44910</v>
+        <v>44872</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44911</v>
+        <v>44874</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>45030</v>
+        <v>44992</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4099,16 +4099,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="N62" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4LGYAGNR_LTR</t>
+          <t>3HI6MCNI_NTX</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4118,11 +4118,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MEXDILTR220008</t>
+          <t>MEXDINTX220005</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4097.16</v>
+        <v>580.0599999999999</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4130,17 +4130,17 @@
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44910</v>
+        <v>44872</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44911</v>
+        <v>44874</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>45030</v>
+        <v>44992</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00131SH022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00131SH022</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4159,16 +4159,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="N63" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3XX7FXEC_LTR</t>
+          <t>3UR9YW4M_LTR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1712.24</v>
+        <v>259.3</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N64" t="n">
         <v>35</v>
@@ -4228,7 +4228,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3HI6MCNI_LTN</t>
+          <t>4PQN8C1H_LTN</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4238,11 +4238,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MEXDILTN220015</t>
+          <t>MEXDILTN220024</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>192.54</v>
+        <v>197.68</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -4250,17 +4250,17 @@
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44872</v>
+        <v>44887</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44874</v>
+        <v>44887</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>44992</v>
+        <v>45007</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4279,16 +4279,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N65" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3HI6MCNI_NTX</t>
+          <t>6MF9RGTJ_LTR</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4298,11 +4298,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MEXDINTX220005</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>580.0599999999999</v>
+        <v>27.93</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -4310,17 +4310,17 @@
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44874</v>
+        <v>44890</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>44992</v>
+        <v>45008</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>KRMN00131SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>KRMN00131SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4339,16 +4339,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N66" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3UR9YW4M_LTR</t>
+          <t>1WBSTEVQ_LTN</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4358,11 +4358,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTN220020</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>259.3</v>
+        <v>1377</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -4370,17 +4370,17 @@
         </is>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44888</v>
+        <v>44872</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44890</v>
+        <v>44874</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>45008</v>
+        <v>44992</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126NB022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126NB022</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4399,16 +4399,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N67" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4PQN8C1H_LTN</t>
+          <t>4ZGV189E_LTN</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4418,11 +4418,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MEXDILTN220024</t>
+          <t>MEXDILTN220019</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>197.68</v>
+        <v>148.26</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4430,17 +4430,17 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44887</v>
+        <v>44872</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44887</v>
+        <v>44874</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45007</v>
+        <v>44992</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00126NB022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00126NB022</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4459,16 +4459,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N68" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6MF9RGTJ_LTR</t>
+          <t>7Z852YQD_NTX</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4478,11 +4478,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDINTX220008</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>27.93</v>
+        <v>86.73</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4490,17 +4490,17 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44888</v>
+        <v>44872</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44890</v>
+        <v>44874</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>45008</v>
+        <v>44992</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00132SH022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00132SH022</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4519,48 +4519,48 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N69" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1WBSTEVQ_LTN</t>
+          <t>3SGP1HHC_NTX</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MXC</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MEXDILTN220020</t>
+          <t>SGPDINTX220007</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1377</v>
+        <v>468.96</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44872</v>
+        <v>44907</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44874</v>
+        <v>44908</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>44992</v>
+        <v>45027</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>KRMN00126NB022</t>
+          <t>KRSN00178SH022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>KRMN00126NB022</t>
+          <t>KRSN00178SH022</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4579,48 +4579,48 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N70" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4ZGV189E_LTN</t>
+          <t>8KMAOCPT_LTR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MXC</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MEXDILTN220019</t>
+          <t>DEUDILTR220019</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>148.26</v>
+        <v>188.2</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44874</v>
+        <v>44890</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>44992</v>
+        <v>44978</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>KRMN00126NB022</t>
+          <t>KREN28093SH022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4628,59 +4628,55 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>KRMN00126NB022</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N71" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7Z852YQD_NTX</t>
+          <t>4586N5QV_LTR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MXC</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MEXDINTX220008</t>
+          <t>GBRDILTR220024</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>86.73</v>
+        <v>157.74</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44874</v>
+        <v>44890</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>44992</v>
+        <v>44978</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>KRMN00132SH022</t>
+          <t>KREN28094SH022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4688,41 +4684,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>KRMN00132SH022</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N72" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3SGP1HHC_NTX</t>
+          <t>2J9SF6LV_LTR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SGPDINTX220007</t>
+          <t>GBRDILTR220024</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>468.96</v>
+        <v>191.43</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4730,17 +4722,17 @@
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44907</v>
+        <v>44888</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44908</v>
+        <v>44890</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>45027</v>
+        <v>44978</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>KRSN00178SH022</t>
+          <t>KREN28094SH022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4748,27 +4740,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>KRSN00178SH022</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="N73" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>8KMAOCPT_LTR</t>
+          <t>4V86CXCZ_LTN</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4778,11 +4766,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>DEUDILTR220019</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>188.2</v>
+        <v>48</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4790,17 +4778,17 @@
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>KREN28093SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4815,7 +4803,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N74" t="n">
         <v>5</v>
@@ -4824,21 +4812,21 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4586N5QV_LTR</t>
+          <t>5L15ABDW_LTN</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GBRDILTR220024</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>157.74</v>
+        <v>104.34</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4846,17 +4834,17 @@
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>KREN28094SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4871,7 +4859,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N75" t="n">
         <v>5</v>
@@ -4880,21 +4868,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2J9SF6LV_LTR</t>
+          <t>6INHXIPT_LTN</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>GBRDILTR220024</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>191.43</v>
+        <v>2316.84</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4902,17 +4890,17 @@
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>KREN28094SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4927,7 +4915,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N76" t="n">
         <v>5</v>
@@ -4936,21 +4924,21 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4V86CXCZ_LTN</t>
+          <t>11KVXSVJ_LTN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>48</v>
+        <v>80.02</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4958,17 +4946,17 @@
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4983,26 +4971,26 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N77" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5L15ABDW_LTN</t>
+          <t>4BMEMP8C_LTN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -5014,17 +5002,17 @@
         </is>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5039,30 +5027,30 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6INHXIPT_LTN</t>
+          <t>4L57XNKE_LTN</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2316.84</v>
+        <v>274.2</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -5070,17 +5058,17 @@
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5095,30 +5083,30 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N79" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>11KVXSVJ_LTN</t>
+          <t>4GOUUIUT_LTR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>JPNDILTR220042</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>80.02</v>
+        <v>20</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5126,17 +5114,17 @@
         </is>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44889</v>
+        <v>44897</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>44979</v>
+        <v>45000</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KRJN04629SH022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5144,37 +5132,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>KRJN04629SH022</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N80" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>4BMEMP8C_LTN</t>
+          <t>27J1DD2O_LTR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>104.34</v>
+        <v>45</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -5182,17 +5174,17 @@
         </is>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44889</v>
+        <v>44897</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>44979</v>
+        <v>45000</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5200,37 +5192,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N81" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>4L57XNKE_LTN</t>
+          <t>3PZDZWZO_LTR</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>274.2</v>
+        <v>522</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5238,17 +5234,17 @@
         </is>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44889</v>
+        <v>44897</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>44979</v>
+        <v>45000</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5256,23 +5252,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N82" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4GOUUIUT_LTR</t>
+          <t>6YF9IC8D_LTR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5282,11 +5282,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>JPNDILTR220042</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5323,16 +5323,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N83" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>27J1DD2O_LTR</t>
+          <t>7HC3LGGK_LTR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>45</v>
+        <v>859</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5383,16 +5383,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N84" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTR</t>
+          <t>641IA5TL_LTR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5402,11 +5402,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>522</v>
+        <v>1638</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -5414,17 +5414,17 @@
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44897</v>
+        <v>44905</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5443,16 +5443,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N85" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6YF9IC8D_LTR</t>
+          <t>6A7CD2BK_LTR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5462,11 +5462,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>45</v>
+        <v>696</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -5474,17 +5474,17 @@
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44897</v>
+        <v>44905</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5503,16 +5503,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N86" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7HC3LGGK_LTR</t>
+          <t>6QJEN9KM_LTR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5522,11 +5522,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>859</v>
+        <v>1822</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -5534,17 +5534,17 @@
         </is>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44897</v>
+        <v>44905</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5563,30 +5563,30 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N87" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>641IA5TL_LTR</t>
+          <t>4ENMCJ1U_NTX</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1638</v>
+        <v>506.74</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5594,17 +5594,17 @@
         </is>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44905</v>
+        <v>44907</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5612,41 +5612,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N88" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTR</t>
+          <t>8KQ7ECIO_NTX</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>696</v>
+        <v>702.38</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5654,17 +5650,17 @@
         </is>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44905</v>
+        <v>44907</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5672,41 +5668,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N89" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTR</t>
+          <t>4ENMCJ1U_LTN</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1822</v>
+        <v>222.8</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5714,17 +5706,17 @@
         </is>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44905</v>
+        <v>44910</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44907</v>
+        <v>44915</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5732,27 +5724,23 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N90" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_NTX</t>
+          <t>8KQ7ECIO_LTN</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5762,11 +5750,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>506.74</v>
+        <v>40.18</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5774,17 +5762,17 @@
         </is>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44907</v>
+        <v>44910</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44908</v>
+        <v>44915</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5799,7 +5787,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N91" t="n">
         <v>25</v>
@@ -5808,21 +5796,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_NTX</t>
+          <t>2LYGFEZX_LTN</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>702.38</v>
+        <v>351.9</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5830,17 +5818,17 @@
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44907</v>
+        <v>44910</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44908</v>
+        <v>44915</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5855,7 +5843,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N92" t="n">
         <v>25</v>
@@ -5864,21 +5852,21 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_LTN</t>
+          <t>72MCXZFM_LTN</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>222.8</v>
+        <v>220.5</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5896,7 +5884,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5911,30 +5899,30 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N93" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_LTN</t>
+          <t>79I9WNEX_NTX1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>DEUDINTX220017</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>40.18</v>
+        <v>570</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5942,17 +5930,17 @@
         </is>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44910</v>
+        <v>44929</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>45000</v>
+        <v>45019</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN29454SH022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5967,30 +5955,30 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N94" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2LYGFEZX_LTN</t>
+          <t>5I2CBQ7E_NTX</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>GBRDINTX220023</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>351.9</v>
+        <v>540.26</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -5998,17 +5986,17 @@
         </is>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44910</v>
+        <v>44930</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>45000</v>
+        <v>45020</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN28372SH022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6023,30 +6011,30 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="N95" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>72MCXZFM_LTN</t>
+          <t>5OWLVR3S_NTX</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>GBRDINTX220024</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>220.5</v>
+        <v>19.97</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -6054,17 +6042,17 @@
         </is>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44910</v>
+        <v>44929</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>45000</v>
+        <v>45019</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN28373SH022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6079,16 +6067,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N96" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>79I9WNEX_NTX1</t>
+          <t>6JI55VBN_LTN</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6098,11 +6086,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DEUDINTX220017</t>
+          <t>DEUDILTN220028</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>570</v>
+        <v>987.99</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -6110,17 +6098,17 @@
         </is>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>KREN29454SH022</t>
+          <t>KREN28498SH022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6144,21 +6132,21 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_NTX</t>
+          <t>8HS1Z2DC_LTN</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>GBRDINTX220023</t>
+          <t>DEUDILTN220027</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>540.26</v>
+        <v>588.51</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -6166,17 +6154,17 @@
         </is>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>KREN28372SH022</t>
+          <t>KREN29262SH022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6191,7 +6179,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N98" t="n">
         <v>50</v>
@@ -6200,7 +6188,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5OWLVR3S_NTX</t>
+          <t>35EWMG8M_LTN</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6210,11 +6198,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>GBRDINTX220024</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>19.97</v>
+        <v>626.04</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -6222,17 +6210,17 @@
         </is>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44929</v>
+        <v>44932</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>KREN28373SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6247,30 +6235,30 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N99" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTN</t>
+          <t>599B2T3L_LTN</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DEUDILTN220028</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>987.99</v>
+        <v>162.26</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -6278,17 +6266,17 @@
         </is>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H100" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>KREN28498SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6303,7 +6291,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N100" t="n">
         <v>50</v>
@@ -6312,21 +6300,21 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8HS1Z2DC_LTN</t>
+          <t>6FGU2LZW_LTN</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DEUDILTN220027</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>588.51</v>
+        <v>181.6</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -6344,7 +6332,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>KREN29262SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6359,7 +6347,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N101" t="n">
         <v>50</v>
@@ -6368,7 +6356,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTN</t>
+          <t>6CR9FRFE_LTN</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6378,11 +6366,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>626.04</v>
+        <v>181.6</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6415,7 +6403,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N102" t="n">
         <v>50</v>
@@ -6424,7 +6412,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>599B2T3L_LTN</t>
+          <t>8SBQDRDP_LTN</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6434,11 +6422,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>162.26</v>
+        <v>299.48</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6471,7 +6459,7 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N103" t="n">
         <v>50</v>
@@ -6480,21 +6468,21 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTN</t>
+          <t>6U36Y9BE_LTR</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>DEUDILTR220021</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>181.6</v>
+        <v>51.56</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -6502,17 +6490,17 @@
         </is>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H104" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29034SH022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6527,30 +6515,30 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N104" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6CR9FRFE_LTN</t>
+          <t>7GLNNL6Y_LTR</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>DEUDILTR220022</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>181.6</v>
+        <v>1614.82</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -6558,17 +6546,17 @@
         </is>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6583,30 +6571,30 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N105" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>8SBQDRDP_LTN</t>
+          <t>13BSIFPT_LTR</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>299.48</v>
+        <v>591.71</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -6614,17 +6602,17 @@
         </is>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H106" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6639,16 +6627,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N106" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6U36Y9BE_LTR</t>
+          <t>6JI55VBN_LTR</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6658,11 +6646,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DEUDILTR220021</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51.56</v>
+        <v>48.98</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -6680,7 +6668,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>KREN29034SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6695,7 +6683,7 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N107" t="n">
         <v>55</v>
@@ -6704,7 +6692,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>7GLNNL6Y_LTR</t>
+          <t>1P2OJBUW_LTR</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6714,11 +6702,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DEUDILTR220022</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1614.82</v>
+        <v>146.94</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -6736,7 +6724,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6751,7 +6739,7 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N108" t="n">
         <v>55</v>
@@ -6760,7 +6748,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>13BSIFPT_LTR</t>
+          <t>26V9GOMZ_LTR</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6770,11 +6758,11 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>591.71</v>
+        <v>80.83</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -6792,7 +6780,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -6807,7 +6795,7 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N109" t="n">
         <v>55</v>
@@ -6816,7 +6804,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTR</t>
+          <t>2FWLGF1V_LTR</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6826,11 +6814,11 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>48.98</v>
+        <v>489.28</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -6848,7 +6836,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6863,7 +6851,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N110" t="n">
         <v>55</v>
@@ -6872,7 +6860,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1P2OJBUW_LTR</t>
+          <t>8AQ6IAUN_LTR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6886,7 +6874,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>146.94</v>
+        <v>213.01</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -6919,7 +6907,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N111" t="n">
         <v>55</v>
@@ -6928,21 +6916,21 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>26V9GOMZ_LTR</t>
+          <t>5I2CBQ7E_LTR</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>80.83</v>
+        <v>342.84</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -6960,7 +6948,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6975,7 +6963,7 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N112" t="n">
         <v>55</v>
@@ -6984,21 +6972,21 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2FWLGF1V_LTR</t>
+          <t>73K6F7AM_LTR</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>489.28</v>
+        <v>420.03</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -7016,7 +7004,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7031,7 +7019,7 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N113" t="n">
         <v>55</v>
@@ -7040,21 +7028,21 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>8AQ6IAUN_LTR</t>
+          <t>7JC4WZOP_LTR</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>213.01</v>
+        <v>361.04</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -7072,7 +7060,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7087,7 +7075,7 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N114" t="n">
         <v>55</v>
@@ -7096,7 +7084,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_LTR</t>
+          <t>1R3Z24JZ_LTR</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -7106,11 +7094,11 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>342.84</v>
+        <v>1375.06</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -7143,7 +7131,7 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N115" t="n">
         <v>55</v>
@@ -7152,7 +7140,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>73K6F7AM_LTR</t>
+          <t>5OWLVR3S_LTR</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7162,11 +7150,11 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>420.03</v>
+        <v>4296.03</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -7199,7 +7187,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N116" t="n">
         <v>55</v>
@@ -7208,7 +7196,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>7JC4WZOP_LTR</t>
+          <t>5WON4CZR_LTR</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7218,11 +7206,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>361.04</v>
+        <v>1133.44</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -7240,7 +7228,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29037SH022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7255,7 +7243,7 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N117" t="n">
         <v>55</v>
@@ -7264,7 +7252,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1R3Z24JZ_LTR</t>
+          <t>7QYV88DI_LTR</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7274,11 +7262,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GBRDILTR220026</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1375.06</v>
+        <v>269.39</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -7296,7 +7284,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29037SH022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7311,7 +7299,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N118" t="n">
         <v>55</v>
@@ -7320,7 +7308,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>5OWLVR3S_LTR</t>
+          <t>35EWMG8M_LTR</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7330,11 +7318,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>GBRDILTR220026</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4296.03</v>
+        <v>80.52</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -7352,7 +7340,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7367,7 +7355,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N119" t="n">
         <v>55</v>
@@ -7376,7 +7364,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>5WON4CZR_LTR</t>
+          <t>599B2T3L_LTR</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -7386,11 +7374,11 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>GBRDILTR220028</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1133.44</v>
+        <v>68.88</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -7408,7 +7396,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>KREN29037SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7423,7 +7411,7 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N120" t="n">
         <v>55</v>
@@ -7432,7 +7420,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7QYV88DI_LTR</t>
+          <t>6FGU2LZW_LTR</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -7442,11 +7430,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>GBRDILTR220028</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>269.39</v>
+        <v>49.38</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -7464,7 +7452,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>KREN29037SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7479,7 +7467,7 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N121" t="n">
         <v>55</v>
@@ -7488,7 +7476,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTR</t>
+          <t>6HJO8FGL_LTR</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7502,7 +7490,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>80.52</v>
+        <v>100.32</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -7535,7 +7523,7 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N122" t="n">
         <v>55</v>
@@ -7544,21 +7532,21 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>599B2T3L_LTR</t>
+          <t>5GJMWY3U_NTX</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>68.88</v>
+        <v>409.91</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -7569,14 +7557,14 @@
         <v>44936</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H123" s="2" t="n">
         <v>45026</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7591,7 +7579,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N123" t="n">
         <v>55</v>
@@ -7600,21 +7588,21 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTR</t>
+          <t>5QSJP7CC_NTX</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>49.38</v>
+        <v>211.99</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -7625,14 +7613,14 @@
         <v>44936</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H124" s="2" t="n">
         <v>45026</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7647,7 +7635,7 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N124" t="n">
         <v>55</v>
@@ -7656,21 +7644,21 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6HJO8FGL_LTR</t>
+          <t>7LEE3TFL_LTN</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>100.32</v>
+        <v>119.16</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -7678,17 +7666,17 @@
         </is>
       </c>
       <c r="F125" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7712,7 +7700,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5GJMWY3U_NTX</t>
+          <t>8N7YEA8D_LTN</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -7722,11 +7710,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DEUDINTX220026</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>409.91</v>
+        <v>37.05</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -7734,17 +7722,17 @@
         </is>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H126" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>KREN29413SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7768,21 +7756,21 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>5QSJP7CC_NTX</t>
+          <t>1EXT8UGA_LTN</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DEUDINTX220026</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>211.99</v>
+        <v>362.6</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -7790,17 +7778,17 @@
         </is>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>KREN29413SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7824,21 +7812,21 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>7LEE3TFL_LTN</t>
+          <t>3RU4253N_LTN</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DEUDILTN220029</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>119.16</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -7856,7 +7844,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>KREN29418SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7871,7 +7859,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N128" t="n">
         <v>55</v>
@@ -7880,21 +7868,21 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>8N7YEA8D_LTN</t>
+          <t>73163DYB_LTN</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DEUDILTN220029</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>37.05</v>
+        <v>410.02</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -7912,7 +7900,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>KREN29418SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7927,7 +7915,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N129" t="n">
         <v>55</v>
@@ -7936,21 +7924,21 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1EXT8UGA_LTN</t>
+          <t>5TY3VS9Y_LTN</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTN220030</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>362.6</v>
+        <v>313.02</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -7968,7 +7956,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7983,7 +7971,7 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N130" t="n">
         <v>55</v>
@@ -7992,21 +7980,21 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3RU4253N_LTN</t>
+          <t>3MOXC2DD_LTN</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTN220031</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>87.34999999999999</v>
+        <v>939.0599999999999</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -8024,7 +8012,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8039,7 +8027,7 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N131" t="n">
         <v>55</v>
@@ -8048,21 +8036,21 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>73163DYB_LTN</t>
+          <t>7MNV9Y8K_LTN</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTN220031</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>410.02</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -8080,7 +8068,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8095,7 +8083,7 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N132" t="n">
         <v>55</v>
@@ -8104,7 +8092,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>5TY3VS9Y_LTN</t>
+          <t>259STCHZ_LTR</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8114,11 +8102,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>DEUDILTN220030</t>
+          <t>DEUDILTR220025</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>313.02</v>
+        <v>474.84</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -8126,17 +8114,17 @@
         </is>
       </c>
       <c r="F133" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>KREN29467SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8151,16 +8139,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N133" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3MOXC2DD_LTN</t>
+          <t>5K5OX5HO_LTR</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -8170,11 +8158,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DEUDILTN220031</t>
+          <t>DEUDILTR220025</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>939.0599999999999</v>
+        <v>91.19</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -8182,17 +8170,17 @@
         </is>
       </c>
       <c r="F134" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>KREN29467SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8207,16 +8195,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N134" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>7MNV9Y8K_LTN</t>
+          <t>3MOXC2DD_LTR</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -8226,11 +8214,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DEUDILTN220031</t>
+          <t>DEUDILTR220026</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>87.34999999999999</v>
+        <v>191.43</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -8238,17 +8226,17 @@
         </is>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>KREN29467SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8263,16 +8251,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N135" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>259STCHZ_LTR</t>
+          <t>7MNV9Y8K_LTR</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -8282,11 +8270,11 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DEUDILTR220025</t>
+          <t>DEUDILTR220026</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>474.84</v>
+        <v>161.04</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -8319,7 +8307,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N136" t="n">
         <v>60</v>
@@ -8328,21 +8316,21 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>5K5OX5HO_LTR</t>
+          <t>2CMW4QFF_LTR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DEUDILTR220025</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>91.19</v>
+        <v>116.86</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -8350,17 +8338,17 @@
         </is>
       </c>
       <c r="F137" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8384,21 +8372,21 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3MOXC2DD_LTR</t>
+          <t>3F2V83FP_LTR</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DEUDILTR220026</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>191.43</v>
+        <v>891.95</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -8406,17 +8394,17 @@
         </is>
       </c>
       <c r="F138" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G138" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8440,21 +8428,21 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>7MNV9Y8K_LTR</t>
+          <t>3RU4253N_LTR</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DEUDILTR220026</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>161.04</v>
+        <v>2530.96</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -8462,17 +8450,17 @@
         </is>
       </c>
       <c r="F139" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G139" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8496,7 +8484,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2CMW4QFF_LTR</t>
+          <t>73163DYB_LTR</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -8510,7 +8498,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>116.86</v>
+        <v>280.17</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -8543,7 +8531,7 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N140" t="n">
         <v>60</v>
@@ -8552,7 +8540,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>3F2V83FP_LTR</t>
+          <t>7EXUP6MF_LTR</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -8566,7 +8554,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>891.95</v>
+        <v>902.88</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -8599,7 +8587,7 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N141" t="n">
         <v>60</v>
@@ -8608,7 +8596,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3RU4253N_LTR</t>
+          <t>7KFB8OMK_LTR</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -8622,7 +8610,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2530.96</v>
+        <v>238.75</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -8655,7 +8643,7 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N142" t="n">
         <v>60</v>
@@ -8664,21 +8652,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>73163DYB_LTR</t>
+          <t>1O5WRWAR_LTN</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>280.17</v>
+        <v>851</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -8686,22 +8670,18 @@
         </is>
       </c>
       <c r="F143" s="2" t="n">
-        <v>44943</v>
+        <v>44964</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K143" t="inlineStr"/>
@@ -8711,30 +8691,26 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="N143" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>7EXUP6MF_LTR</t>
+          <t>8ZMIO23Z_LTN</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>902.88</v>
+        <v>2558</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -8742,22 +8718,18 @@
         </is>
       </c>
       <c r="F144" s="2" t="n">
-        <v>44943</v>
+        <v>44964</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="H144" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K144" t="inlineStr"/>
@@ -8767,30 +8739,26 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="N144" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>7KFB8OMK_LTR</t>
+          <t>1O5WRWAR_NTX</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>238.75</v>
+        <v>126</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -8798,22 +8766,18 @@
         </is>
       </c>
       <c r="F145" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44943</v>
+        <v>44966</v>
       </c>
       <c r="H145" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K145" t="inlineStr"/>
@@ -8823,16 +8787,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="N145" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1O5WRWAR_LTN</t>
+          <t>7QMYDGUO_NTX</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -8842,7 +8806,7 @@
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>851</v>
+        <v>1476</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -8850,10 +8814,10 @@
         </is>
       </c>
       <c r="F146" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>45061</v>
@@ -8871,7 +8835,7 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N146" t="n">
         <v>90</v>
@@ -8880,7 +8844,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>8ZMIO23Z_LTN</t>
+          <t>8ZMIO23Z_NTX</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -8890,7 +8854,7 @@
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>2558</v>
+        <v>972</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -8898,10 +8862,10 @@
         </is>
       </c>
       <c r="F147" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="H147" s="2" t="n">
         <v>45061</v>
@@ -8919,7 +8883,7 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N147" t="n">
         <v>90</v>
@@ -8928,17 +8892,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1O5WRWAR_NTX</t>
+          <t>4BYTXB4L_LTR1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>126</v>
+        <v>2009.25</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -8946,13 +8910,13 @@
         </is>
       </c>
       <c r="F148" s="2" t="n">
-        <v>44965</v>
+        <v>44967</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="H148" s="2" t="n">
-        <v>45061</v>
+        <v>45087</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
@@ -8967,153 +8931,9 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="N148" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>7QMYDGUO_NTX</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="n">
-        <v>1476</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F149" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="G149" s="2" t="n">
-        <v>44966</v>
-      </c>
-      <c r="H149" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>89</v>
-      </c>
-      <c r="N149" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>8ZMIO23Z_NTX</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="n">
-        <v>972</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="G150" s="2" t="n">
-        <v>44966</v>
-      </c>
-      <c r="H150" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>89</v>
-      </c>
-      <c r="N150" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>4BYTXB4L_LTR1</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>CAN</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="n">
-        <v>2009.25</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="n">
-        <v>44967</v>
-      </c>
-      <c r="G151" s="2" t="n">
-        <v>44967</v>
-      </c>
-      <c r="H151" s="2" t="n">
-        <v>45087</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>115</v>
-      </c>
-      <c r="N151" t="n">
         <v>115</v>
       </c>
     </row>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N148"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" t="n">
         <v>35</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N3" t="n">
         <v>105</v>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" t="n">
         <v>35</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
         <v>35</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
         <v>35</v>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" t="n">
         <v>45</v>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
         <v>55</v>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10" t="n">
         <v>55</v>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N11" t="n">
         <v>55</v>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N12" t="n">
         <v>55</v>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
         <v>20</v>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" t="n">
         <v>55</v>
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N15" t="n">
         <v>55</v>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N16" t="n">
         <v>55</v>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N17" t="n">
         <v>65</v>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N19" t="n">
         <v>50</v>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N20" t="n">
         <v>35</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N21" t="n">
         <v>65</v>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N22" t="n">
         <v>60</v>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N23" t="n">
         <v>45</v>
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N24" t="n">
         <v>35</v>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N25" t="n">
         <v>35</v>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N26" t="n">
         <v>35</v>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N27" t="n">
         <v>35</v>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N28" t="n">
         <v>35</v>
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N29" t="n">
         <v>35</v>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N30" t="n">
         <v>35</v>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N31" t="n">
         <v>80</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N32" t="n">
         <v>80</v>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N33" t="n">
         <v>80</v>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N34" t="n">
         <v>80</v>
@@ -2491,10 +2491,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2731,10 +2731,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N40" t="n">
         <v>20</v>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N41" t="n">
         <v>35</v>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N42" t="n">
         <v>20</v>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N43" t="n">
         <v>20</v>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N44" t="n">
         <v>20</v>
@@ -3091,7 +3091,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N45" t="n">
         <v>20</v>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N46" t="n">
         <v>30</v>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N47" t="n">
         <v>35</v>
@@ -3220,7 +3220,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>22BEQHQV_LTN</t>
+          <t>19NQZGUC_LTN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3228,47 +3228,59 @@
           <t>MXC</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MEXDILTN220022</t>
+        </is>
+      </c>
       <c r="D48" t="n">
-        <v>293.22</v>
+        <v>204</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44833</v>
+        <v>44908</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44854</v>
+        <v>44908</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>44974</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>45028</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>KRMN00153SH022</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>KRMN00153SH022</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>19NQZGUC_LTN</t>
+          <t>1HZ4T9NT_LTN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3278,11 +3290,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MEXDILTN220022</t>
+          <t>MEXDILTN220023</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>204</v>
+        <v>76.5</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3319,7 +3331,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N49" t="n">
         <v>55</v>
@@ -3328,7 +3340,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1HZ4T9NT_LTN</t>
+          <t>3HI6MCNI_LTR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3338,11 +3350,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MEXDILTN220023</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>76.5</v>
+        <v>2327.79</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3350,17 +3362,17 @@
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44908</v>
+        <v>44888</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44908</v>
+        <v>44890</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45028</v>
+        <v>45008</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>KRMN00153SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3370,7 +3382,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>KRMN00153SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3379,16 +3391,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="N50" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3HI6MCNI_LTR</t>
+          <t>6V78FK6B_LTN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3398,29 +3410,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTN220025</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2327.79</v>
+        <v>197.68</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44890</v>
+        <v>44887</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3430,7 +3442,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3439,7 +3451,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N51" t="n">
         <v>35</v>
@@ -3448,7 +3460,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6V78FK6B_LTN</t>
+          <t>1VPFROUA_LTN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3458,29 +3470,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MEXDILTN220025</t>
+          <t>MEXDILTN220021</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>197.68</v>
+        <v>994.5</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44887</v>
+        <v>44908</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44887</v>
+        <v>44908</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45007</v>
+        <v>45028</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00153SH022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3490,7 +3502,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00153SH022</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3499,16 +3511,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="N52" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1VPFROUA_LTN</t>
+          <t>3XX7FXEC_NTX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3518,11 +3530,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MEXDILTN220021</t>
+          <t>MEXDINTX220006</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>994.5</v>
+        <v>1975.2</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3530,17 +3542,17 @@
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44908</v>
+        <v>44875</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44908</v>
+        <v>44876</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45028</v>
+        <v>44995</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>KRMN00153SH022</t>
+          <t>KRMN00133SH022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3550,7 +3562,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>KRMN00153SH022</t>
+          <t>KRMN00133SH022</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3559,16 +3571,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N53" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3XX7FXEC_NTX</t>
+          <t>3B3XG4UX_LTR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3578,29 +3590,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MEXDINTX220006</t>
+          <t>MEXDILTR220008</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1975.2</v>
+        <v>970.38</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44875</v>
+        <v>44910</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44876</v>
+        <v>44911</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>44995</v>
+        <v>45030</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>KRMN00133SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3610,7 +3622,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>KRMN00133SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3619,16 +3631,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N54" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3B3XG4UX_LTR</t>
+          <t>68E6O96Z_NTX</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3638,29 +3650,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MEXDILTR220008</t>
+          <t>MEXDINTX220006</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>970.38</v>
+        <v>2723.35</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44910</v>
+        <v>44875</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44911</v>
+        <v>44876</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45030</v>
+        <v>44995</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00133SH022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3670,7 +3682,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00133SH022</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3679,16 +3691,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="N55" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>68E6O96Z_NTX</t>
+          <t>68E6O96Z_NTX1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3698,11 +3710,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MEXDINTX220006</t>
+          <t>MEXDINTX220009</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2723.35</v>
+        <v>2209.11</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3710,17 +3722,17 @@
         </is>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44875</v>
+        <v>44882</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44876</v>
+        <v>44882</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>KRMN00133SH022</t>
+          <t>KRMN00136SH022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3730,7 +3742,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>KRMN00133SH022</t>
+          <t>KRMN00136SH022</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3739,16 +3751,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>68E6O96Z_NTX1</t>
+          <t>68E6O96Z_LTR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3758,11 +3770,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MEXDINTX220009</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2209.11</v>
+        <v>2676</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3770,17 +3782,17 @@
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44882</v>
+        <v>44888</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44882</v>
+        <v>44890</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>45002</v>
+        <v>45008</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>KRMN00136SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3790,7 +3802,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>KRMN00136SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3799,16 +3811,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N57" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>68E6O96Z_LTR</t>
+          <t>4KUEZVQL_LTR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3818,29 +3830,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTR220008</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2676</v>
+        <v>323.46</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44888</v>
+        <v>44910</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44890</v>
+        <v>44911</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>45008</v>
+        <v>45030</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3850,7 +3862,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00146SH022</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3859,16 +3871,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N58" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4KUEZVQL_LTR</t>
+          <t>4LGYAGNR_LTR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3882,7 +3894,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>323.46</v>
+        <v>4097.16</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3919,7 +3931,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N59" t="n">
         <v>55</v>
@@ -3928,7 +3940,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4LGYAGNR_LTR</t>
+          <t>3XX7FXEC_LTR</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3938,11 +3950,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MEXDILTR220008</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4097.16</v>
+        <v>1712.24</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3950,17 +3962,17 @@
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44910</v>
+        <v>44888</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44911</v>
+        <v>44890</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45030</v>
+        <v>45008</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3970,7 +3982,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>KRMN00146SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3979,16 +3991,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N60" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3XX7FXEC_LTR</t>
+          <t>3HI6MCNI_LTN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3998,11 +4010,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTN220015</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1712.24</v>
+        <v>192.54</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4010,17 +4022,17 @@
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44888</v>
+        <v>44872</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44890</v>
+        <v>44874</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>45008</v>
+        <v>44992</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4030,7 +4042,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126SH022</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4039,16 +4051,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N61" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3HI6MCNI_LTN</t>
+          <t>3HI6MCNI_NTX</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4058,11 +4070,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MEXDILTN220015</t>
+          <t>MEXDINTX220005</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>192.54</v>
+        <v>580.0599999999999</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4080,7 +4092,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00131SH022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4090,7 +4102,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>KRMN00126SH022</t>
+          <t>KRMN00131SH022</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4099,7 +4111,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N62" t="n">
         <v>20</v>
@@ -4108,7 +4120,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3HI6MCNI_NTX</t>
+          <t>3UR9YW4M_LTR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4118,11 +4130,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MEXDINTX220005</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>580.0599999999999</v>
+        <v>259.3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4130,17 +4142,17 @@
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44872</v>
+        <v>44888</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44874</v>
+        <v>44890</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>44992</v>
+        <v>45008</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>KRMN00131SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4150,7 +4162,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>KRMN00131SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4159,16 +4171,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N63" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3UR9YW4M_LTR</t>
+          <t>4PQN8C1H_LTN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4178,11 +4190,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTN220024</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>259.3</v>
+        <v>197.68</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4190,17 +4202,17 @@
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44890</v>
+        <v>44887</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4210,7 +4222,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00140SH022</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4219,7 +4231,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N64" t="n">
         <v>35</v>
@@ -4228,7 +4240,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4PQN8C1H_LTN</t>
+          <t>6MF9RGTJ_LTR</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4238,11 +4250,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MEXDILTN220024</t>
+          <t>MEXDILTR220007</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>197.68</v>
+        <v>27.93</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -4250,17 +4262,17 @@
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44887</v>
+        <v>44890</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4270,7 +4282,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>KRMN00140SH022</t>
+          <t>KRMN00135SH022</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4288,7 +4300,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6MF9RGTJ_LTR</t>
+          <t>1WBSTEVQ_LTN</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4298,11 +4310,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MEXDILTR220007</t>
+          <t>MEXDILTN220020</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>27.93</v>
+        <v>1377</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -4310,17 +4322,17 @@
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44888</v>
+        <v>44872</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44890</v>
+        <v>44874</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45008</v>
+        <v>44992</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126NB022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4330,7 +4342,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>KRMN00135SH022</t>
+          <t>KRMN00126NB022</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4339,16 +4351,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N66" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1WBSTEVQ_LTN</t>
+          <t>4ZGV189E_LTN</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4358,11 +4370,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MEXDILTN220020</t>
+          <t>MEXDILTN220019</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1377</v>
+        <v>148.26</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -4399,7 +4411,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N67" t="n">
         <v>20</v>
@@ -4408,7 +4420,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4ZGV189E_LTN</t>
+          <t>7Z852YQD_NTX</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4418,11 +4430,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MEXDILTN220019</t>
+          <t>MEXDINTX220008</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>148.26</v>
+        <v>86.73</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4440,7 +4452,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>KRMN00126NB022</t>
+          <t>KRMN00132SH022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4450,7 +4462,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>KRMN00126NB022</t>
+          <t>KRMN00132SH022</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4459,7 +4471,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N68" t="n">
         <v>20</v>
@@ -4468,39 +4480,39 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7Z852YQD_NTX</t>
+          <t>3SGP1HHC_NTX</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MXC</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MEXDINTX220008</t>
+          <t>SGPDINTX220007</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>86.73</v>
+        <v>468.96</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44872</v>
+        <v>44907</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44874</v>
+        <v>44908</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>44992</v>
+        <v>45027</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>KRMN00132SH022</t>
+          <t>KRSN00178SH022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4510,7 +4522,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>KRMN00132SH022</t>
+          <t>KRSN00178SH022</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4519,30 +4531,30 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="N69" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3SGP1HHC_NTX</t>
+          <t>8KMAOCPT_LTR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SGPDINTX220007</t>
+          <t>DEUDILTR220019</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>468.96</v>
+        <v>188.2</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4550,17 +4562,17 @@
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44907</v>
+        <v>44888</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44908</v>
+        <v>44890</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>45027</v>
+        <v>44978</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>KRSN00178SH022</t>
+          <t>KREN28093SH022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4568,41 +4580,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>KRSN00178SH022</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="N70" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8KMAOCPT_LTR</t>
+          <t>4586N5QV_LTR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DEUDILTR220019</t>
+          <t>GBRDILTR220024</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>188.2</v>
+        <v>157.74</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4620,7 +4628,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>KREN28093SH022</t>
+          <t>KREN28094SH022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4635,7 +4643,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N71" t="n">
         <v>5</v>
@@ -4644,7 +4652,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4586N5QV_LTR</t>
+          <t>2J9SF6LV_LTR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4658,7 +4666,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>157.74</v>
+        <v>191.43</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -4691,7 +4699,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N72" t="n">
         <v>5</v>
@@ -4700,21 +4708,21 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2J9SF6LV_LTR</t>
+          <t>4V86CXCZ_LTN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GBRDILTR220024</t>
+          <t>DEUDILTN220025</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>191.43</v>
+        <v>48</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4722,17 +4730,17 @@
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>KREN28094SH022</t>
+          <t>KREN28045SH022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4747,7 +4755,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N73" t="n">
         <v>5</v>
@@ -4756,7 +4764,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4V86CXCZ_LTN</t>
+          <t>5L15ABDW_LTN</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4770,7 +4778,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>48</v>
+        <v>104.34</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4803,7 +4811,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N74" t="n">
         <v>5</v>
@@ -4812,7 +4820,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5L15ABDW_LTN</t>
+          <t>6INHXIPT_LTN</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4826,7 +4834,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>104.34</v>
+        <v>2316.84</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4859,7 +4867,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N75" t="n">
         <v>5</v>
@@ -4868,21 +4876,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6INHXIPT_LTN</t>
+          <t>11KVXSVJ_LTN</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>GBRDILTN220027</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2316.84</v>
+        <v>80.02</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4890,17 +4898,17 @@
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KREN28044SH022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4915,7 +4923,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N76" t="n">
         <v>5</v>
@@ -4924,7 +4932,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>11KVXSVJ_LTN</t>
+          <t>4BMEMP8C_LTN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4938,7 +4946,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>80.02</v>
+        <v>104.34</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4971,7 +4979,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N77" t="n">
         <v>5</v>
@@ -4980,7 +4988,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4BMEMP8C_LTN</t>
+          <t>4L57XNKE_LTN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4994,7 +5002,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>104.34</v>
+        <v>274.2</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -5027,7 +5035,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N78" t="n">
         <v>5</v>
@@ -5036,21 +5044,21 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4L57XNKE_LTN</t>
+          <t>4GOUUIUT_LTR</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>JPNDILTR220042</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>274.2</v>
+        <v>20</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -5058,17 +5066,17 @@
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44889</v>
+        <v>44897</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>44979</v>
+        <v>45000</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KRJN04629SH022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5076,23 +5084,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>KRJN04629SH022</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="N79" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4GOUUIUT_LTR</t>
+          <t>27J1DD2O_LTR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5102,11 +5114,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JPNDILTR220042</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5124,7 +5136,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5134,7 +5146,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5143,7 +5155,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N80" t="n">
         <v>25</v>
@@ -5152,7 +5164,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>27J1DD2O_LTR</t>
+          <t>3PZDZWZO_LTR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5166,7 +5178,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>45</v>
+        <v>522</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -5203,7 +5215,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N81" t="n">
         <v>25</v>
@@ -5212,7 +5224,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTR</t>
+          <t>6YF9IC8D_LTR</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5226,7 +5238,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>522</v>
+        <v>45</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5263,7 +5275,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N82" t="n">
         <v>25</v>
@@ -5272,7 +5284,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6YF9IC8D_LTR</t>
+          <t>7HC3LGGK_LTR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5286,7 +5298,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>45</v>
+        <v>859</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5323,7 +5335,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N83" t="n">
         <v>25</v>
@@ -5332,7 +5344,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7HC3LGGK_LTR</t>
+          <t>641IA5TL_LTR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5342,11 +5354,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>859</v>
+        <v>1638</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5354,17 +5366,17 @@
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44897</v>
+        <v>44905</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5374,7 +5386,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5383,7 +5395,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N84" t="n">
         <v>25</v>
@@ -5392,7 +5404,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>641IA5TL_LTR</t>
+          <t>6A7CD2BK_LTR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5406,7 +5418,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1638</v>
+        <v>696</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -5443,7 +5455,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N85" t="n">
         <v>25</v>
@@ -5452,7 +5464,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTR</t>
+          <t>6QJEN9KM_LTR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5466,7 +5478,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>696</v>
+        <v>1822</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -5503,7 +5515,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N86" t="n">
         <v>25</v>
@@ -5512,21 +5524,21 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTR</t>
+          <t>4ENMCJ1U_NTX</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1822</v>
+        <v>506.74</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -5534,17 +5546,17 @@
         </is>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44905</v>
+        <v>44907</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5552,18 +5564,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N87" t="n">
         <v>25</v>
@@ -5572,7 +5580,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_NTX</t>
+          <t>8KQ7ECIO_NTX</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5586,7 +5594,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>506.74</v>
+        <v>702.38</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5619,7 +5627,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N88" t="n">
         <v>25</v>
@@ -5628,7 +5636,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_NTX</t>
+          <t>4ENMCJ1U_LTN</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5638,11 +5646,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>702.38</v>
+        <v>222.8</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5650,17 +5658,17 @@
         </is>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44907</v>
+        <v>44910</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44908</v>
+        <v>44915</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5675,7 +5683,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N89" t="n">
         <v>25</v>
@@ -5684,7 +5692,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_LTN</t>
+          <t>8KQ7ECIO_LTN</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5698,7 +5706,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>222.8</v>
+        <v>40.18</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5731,7 +5739,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N90" t="n">
         <v>25</v>
@@ -5740,21 +5748,21 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_LTN</t>
+          <t>2LYGFEZX_LTN</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>40.18</v>
+        <v>351.9</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5772,7 +5780,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5787,7 +5795,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N91" t="n">
         <v>25</v>
@@ -5796,7 +5804,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2LYGFEZX_LTN</t>
+          <t>72MCXZFM_LTN</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5810,7 +5818,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>351.9</v>
+        <v>220.5</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5843,7 +5851,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N92" t="n">
         <v>25</v>
@@ -5852,7 +5860,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>72MCXZFM_LTN</t>
+          <t>79I9WNEX_NTX1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5862,11 +5870,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>DEUDINTX220017</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>220.5</v>
+        <v>570</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5874,17 +5882,17 @@
         </is>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44910</v>
+        <v>44929</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>45000</v>
+        <v>45019</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN29454SH022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5899,30 +5907,30 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N93" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>79I9WNEX_NTX1</t>
+          <t>5I2CBQ7E_NTX</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DEUDINTX220017</t>
+          <t>GBRDINTX220023</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>570</v>
+        <v>540.26</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5930,17 +5938,17 @@
         </is>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>KREN29454SH022</t>
+          <t>KREN28372SH022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5964,7 +5972,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_NTX</t>
+          <t>5OWLVR3S_NTX</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5974,11 +5982,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GBRDINTX220023</t>
+          <t>GBRDINTX220024</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>540.26</v>
+        <v>19.97</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -5986,17 +5994,17 @@
         </is>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44930</v>
+        <v>44929</v>
       </c>
       <c r="G95" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>45020</v>
+        <v>45019</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>KREN28372SH022</t>
+          <t>KREN28373SH022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6011,7 +6019,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N95" t="n">
         <v>45</v>
@@ -6020,21 +6028,21 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>5OWLVR3S_NTX</t>
+          <t>6JI55VBN_LTN</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GBRDINTX220024</t>
+          <t>DEUDILTN220028</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>19.97</v>
+        <v>987.99</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -6042,17 +6050,17 @@
         </is>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>KREN28373SH022</t>
+          <t>KREN28498SH022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6076,7 +6084,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTN</t>
+          <t>8HS1Z2DC_LTN</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6086,11 +6094,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DEUDILTN220028</t>
+          <t>DEUDILTN220027</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>987.99</v>
+        <v>588.51</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -6098,17 +6106,17 @@
         </is>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>KREN28498SH022</t>
+          <t>KREN29262SH022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6123,30 +6131,30 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N97" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>8HS1Z2DC_LTN</t>
+          <t>35EWMG8M_LTN</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DEUDILTN220027</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>588.51</v>
+        <v>626.04</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -6164,7 +6172,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>KREN29262SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6179,7 +6187,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N98" t="n">
         <v>50</v>
@@ -6188,7 +6196,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTN</t>
+          <t>599B2T3L_LTN</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6202,7 +6210,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>626.04</v>
+        <v>162.26</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -6235,7 +6243,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N99" t="n">
         <v>50</v>
@@ -6244,7 +6252,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>599B2T3L_LTN</t>
+          <t>6FGU2LZW_LTN</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6258,7 +6266,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>162.26</v>
+        <v>181.6</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -6291,7 +6299,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N100" t="n">
         <v>50</v>
@@ -6300,7 +6308,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTN</t>
+          <t>6CR9FRFE_LTN</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6310,7 +6318,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -6347,7 +6355,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N101" t="n">
         <v>50</v>
@@ -6356,7 +6364,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6CR9FRFE_LTN</t>
+          <t>8SBQDRDP_LTN</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6370,7 +6378,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>181.6</v>
+        <v>299.48</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6403,7 +6411,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N102" t="n">
         <v>50</v>
@@ -6412,21 +6420,21 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>8SBQDRDP_LTN</t>
+          <t>6U36Y9BE_LTR</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>DEUDILTR220021</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>299.48</v>
+        <v>51.56</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6434,17 +6442,17 @@
         </is>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29034SH022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6459,7 +6467,7 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N103" t="n">
         <v>50</v>
@@ -6468,7 +6476,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>6U36Y9BE_LTR</t>
+          <t>7GLNNL6Y_LTR</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6478,11 +6486,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DEUDILTR220021</t>
+          <t>DEUDILTR220022</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>51.56</v>
+        <v>1614.82</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -6500,7 +6508,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>KREN29034SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6515,16 +6523,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N104" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>7GLNNL6Y_LTR</t>
+          <t>13BSIFPT_LTR</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6534,11 +6542,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DEUDILTR220022</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1614.82</v>
+        <v>591.71</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -6571,16 +6579,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N105" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>13BSIFPT_LTR</t>
+          <t>6JI55VBN_LTR</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6594,7 +6602,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>591.71</v>
+        <v>48.98</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -6627,16 +6635,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N106" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTR</t>
+          <t>1P2OJBUW_LTR</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6646,11 +6654,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>48.98</v>
+        <v>146.94</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -6668,7 +6676,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6683,16 +6691,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N107" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1P2OJBUW_LTR</t>
+          <t>26V9GOMZ_LTR</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6706,7 +6714,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>146.94</v>
+        <v>80.83</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -6739,16 +6747,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N108" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>26V9GOMZ_LTR</t>
+          <t>2FWLGF1V_LTR</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6762,7 +6770,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80.83</v>
+        <v>489.28</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -6795,16 +6803,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N109" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2FWLGF1V_LTR</t>
+          <t>8AQ6IAUN_LTR</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6818,7 +6826,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>489.28</v>
+        <v>213.01</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -6851,30 +6859,30 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N110" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>8AQ6IAUN_LTR</t>
+          <t>5I2CBQ7E_LTR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>213.01</v>
+        <v>342.84</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -6892,7 +6900,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -6907,16 +6915,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N111" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_LTR</t>
+          <t>73K6F7AM_LTR</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6930,7 +6938,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>342.84</v>
+        <v>420.03</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -6963,16 +6971,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N112" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>73K6F7AM_LTR</t>
+          <t>7JC4WZOP_LTR</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6986,7 +6994,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>420.03</v>
+        <v>361.04</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -7019,16 +7027,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N113" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>7JC4WZOP_LTR</t>
+          <t>1R3Z24JZ_LTR</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -7038,11 +7046,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>361.04</v>
+        <v>1375.06</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -7075,16 +7083,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N114" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1R3Z24JZ_LTR</t>
+          <t>5OWLVR3S_LTR</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -7098,7 +7106,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1375.06</v>
+        <v>4296.03</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -7131,16 +7139,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N115" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>5OWLVR3S_LTR</t>
+          <t>5WON4CZR_LTR</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7150,11 +7158,11 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>GBRDILTR220026</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>4296.03</v>
+        <v>1133.44</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -7172,7 +7180,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29037SH022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7187,16 +7195,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N116" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>5WON4CZR_LTR</t>
+          <t>7QYV88DI_LTR</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7210,7 +7218,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1133.44</v>
+        <v>269.39</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -7243,16 +7251,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N117" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>7QYV88DI_LTR</t>
+          <t>35EWMG8M_LTR</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7262,11 +7270,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GBRDILTR220028</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>269.39</v>
+        <v>80.52</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -7284,7 +7292,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>KREN29037SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7299,16 +7307,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N118" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTR</t>
+          <t>599B2T3L_LTR</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7322,7 +7330,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>80.52</v>
+        <v>68.88</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -7355,16 +7363,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N119" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>599B2T3L_LTR</t>
+          <t>6FGU2LZW_LTR</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -7378,7 +7386,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>68.88</v>
+        <v>49.38</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -7411,16 +7419,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N120" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTR</t>
+          <t>6HJO8FGL_LTR</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -7434,7 +7442,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>49.38</v>
+        <v>100.32</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -7467,30 +7475,30 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N121" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>6HJO8FGL_LTR</t>
+          <t>5GJMWY3U_NTX</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>100.32</v>
+        <v>409.91</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -7501,14 +7509,14 @@
         <v>44936</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>45026</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7523,16 +7531,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N122" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>5GJMWY3U_NTX</t>
+          <t>5QSJP7CC_NTX</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -7546,7 +7554,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>409.91</v>
+        <v>211.99</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -7579,16 +7587,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N123" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>5QSJP7CC_NTX</t>
+          <t>7LEE3TFL_LTN</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7598,11 +7606,11 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DEUDINTX220026</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>211.99</v>
+        <v>119.16</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -7610,17 +7618,17 @@
         </is>
       </c>
       <c r="F124" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H124" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>KREN29413SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7644,7 +7652,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>7LEE3TFL_LTN</t>
+          <t>8N7YEA8D_LTN</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -7658,7 +7666,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>119.16</v>
+        <v>37.05</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -7691,7 +7699,7 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N125" t="n">
         <v>55</v>
@@ -7700,21 +7708,21 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>8N7YEA8D_LTN</t>
+          <t>1EXT8UGA_LTN</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DEUDILTN220029</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>37.05</v>
+        <v>362.6</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -7732,7 +7740,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>KREN29418SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7747,7 +7755,7 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N126" t="n">
         <v>55</v>
@@ -7756,7 +7764,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1EXT8UGA_LTN</t>
+          <t>3RU4253N_LTN</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7770,7 +7778,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>362.6</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -7803,7 +7811,7 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N127" t="n">
         <v>55</v>
@@ -7812,7 +7820,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3RU4253N_LTN</t>
+          <t>73163DYB_LTN</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7826,7 +7834,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>87.34999999999999</v>
+        <v>410.02</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -7859,7 +7867,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N128" t="n">
         <v>55</v>
@@ -7868,21 +7876,21 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>73163DYB_LTN</t>
+          <t>5TY3VS9Y_LTN</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTN220030</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>410.02</v>
+        <v>313.02</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -7900,7 +7908,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7915,7 +7923,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N129" t="n">
         <v>55</v>
@@ -7924,7 +7932,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>5TY3VS9Y_LTN</t>
+          <t>3MOXC2DD_LTN</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7934,11 +7942,11 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>DEUDILTN220030</t>
+          <t>DEUDILTN220031</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>313.02</v>
+        <v>939.0599999999999</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -7971,7 +7979,7 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N130" t="n">
         <v>55</v>
@@ -7980,7 +7988,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3MOXC2DD_LTN</t>
+          <t>7MNV9Y8K_LTN</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7994,7 +8002,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>939.0599999999999</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -8027,7 +8035,7 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N131" t="n">
         <v>55</v>
@@ -8036,7 +8044,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>7MNV9Y8K_LTN</t>
+          <t>259STCHZ_LTR</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -8046,11 +8054,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>DEUDILTN220031</t>
+          <t>DEUDILTR220025</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>87.34999999999999</v>
+        <v>474.84</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -8058,17 +8066,17 @@
         </is>
       </c>
       <c r="F132" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>KREN29467SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8083,16 +8091,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N132" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>259STCHZ_LTR</t>
+          <t>5K5OX5HO_LTR</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8106,7 +8114,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>474.84</v>
+        <v>91.19</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -8139,7 +8147,7 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N133" t="n">
         <v>60</v>
@@ -8148,7 +8156,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>5K5OX5HO_LTR</t>
+          <t>3MOXC2DD_LTR</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -8158,11 +8166,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DEUDILTR220025</t>
+          <t>DEUDILTR220026</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>91.19</v>
+        <v>191.43</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -8195,7 +8203,7 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N134" t="n">
         <v>60</v>
@@ -8204,7 +8212,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3MOXC2DD_LTR</t>
+          <t>7MNV9Y8K_LTR</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -8218,7 +8226,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>191.43</v>
+        <v>161.04</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -8251,7 +8259,7 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N135" t="n">
         <v>60</v>
@@ -8260,21 +8268,21 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>7MNV9Y8K_LTR</t>
+          <t>2CMW4QFF_LTR</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DEUDILTR220026</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>161.04</v>
+        <v>116.86</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -8282,17 +8290,17 @@
         </is>
       </c>
       <c r="F136" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G136" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8316,7 +8324,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2CMW4QFF_LTR</t>
+          <t>3F2V83FP_LTR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -8330,7 +8338,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>116.86</v>
+        <v>891.95</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -8363,7 +8371,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N137" t="n">
         <v>60</v>
@@ -8372,7 +8380,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3F2V83FP_LTR</t>
+          <t>3RU4253N_LTR</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -8386,7 +8394,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>891.95</v>
+        <v>2530.96</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -8419,7 +8427,7 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N138" t="n">
         <v>60</v>
@@ -8428,7 +8436,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3RU4253N_LTR</t>
+          <t>73163DYB_LTR</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -8442,7 +8450,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2530.96</v>
+        <v>280.17</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -8475,7 +8483,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N139" t="n">
         <v>60</v>
@@ -8484,7 +8492,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>73163DYB_LTR</t>
+          <t>7EXUP6MF_LTR</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -8498,7 +8506,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>280.17</v>
+        <v>902.88</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -8531,7 +8539,7 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N140" t="n">
         <v>60</v>
@@ -8540,7 +8548,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>7EXUP6MF_LTR</t>
+          <t>7KFB8OMK_LTR</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -8554,7 +8562,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>902.88</v>
+        <v>238.75</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -8587,7 +8595,7 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N141" t="n">
         <v>60</v>
@@ -8596,21 +8604,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>7KFB8OMK_LTR</t>
+          <t>1O5WRWAR_LTN</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>238.75</v>
+        <v>851</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -8618,22 +8622,18 @@
         </is>
       </c>
       <c r="F142" s="2" t="n">
-        <v>44943</v>
+        <v>44964</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="H142" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K142" t="inlineStr"/>
@@ -8643,16 +8643,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N142" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1O5WRWAR_LTN</t>
+          <t>8ZMIO23Z_LTN</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>851</v>
+        <v>2558</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -8691,16 +8691,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N143" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>8ZMIO23Z_LTN</t>
+          <t>1O5WRWAR_NTX</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>2558</v>
+        <v>126</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -8718,10 +8718,10 @@
         </is>
       </c>
       <c r="F144" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>45061</v>
@@ -8739,16 +8739,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N144" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1O5WRWAR_NTX</t>
+          <t>7QMYDGUO_NTX</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>126</v>
+        <v>1476</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -8787,16 +8787,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N145" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>7QMYDGUO_NTX</t>
+          <t>8ZMIO23Z_NTX</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>1476</v>
+        <v>972</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -8835,26 +8835,26 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N146" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>8ZMIO23Z_NTX</t>
+          <t>4BYTXB4L_LTR1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>972</v>
+        <v>2009.25</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -8862,13 +8862,13 @@
         </is>
       </c>
       <c r="F147" s="2" t="n">
-        <v>44965</v>
+        <v>44967</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>45061</v>
+        <v>45087</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
@@ -8883,57 +8883,9 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="N147" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>4BYTXB4L_LTR1</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>CAN</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="n">
-        <v>2009.25</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="F148" s="2" t="n">
-        <v>44967</v>
-      </c>
-      <c r="G148" s="2" t="n">
-        <v>44967</v>
-      </c>
-      <c r="H148" s="2" t="n">
-        <v>45087</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>114</v>
-      </c>
-      <c r="N148" t="n">
         <v>115</v>
       </c>
     </row>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N3" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
         <v>75</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" t="n">
         <v>35</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" t="n">
         <v>35</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" t="n">
         <v>35</v>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
         <v>45</v>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N9" t="n">
         <v>55</v>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N10" t="n">
         <v>55</v>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N11" t="n">
         <v>55</v>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N12" t="n">
         <v>55</v>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N13" t="n">
         <v>20</v>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N14" t="n">
         <v>55</v>
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N15" t="n">
         <v>55</v>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N16" t="n">
         <v>55</v>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N17" t="n">
         <v>65</v>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N18" t="n">
         <v>50</v>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N19" t="n">
         <v>50</v>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N20" t="n">
         <v>35</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N21" t="n">
         <v>65</v>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
         <v>60</v>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N23" t="n">
         <v>45</v>
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N24" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N25" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -1983,10 +1983,10 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N26" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N27" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N28" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -2163,10 +2163,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N29" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N30" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N31" t="n">
         <v>80</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N32" t="n">
         <v>80</v>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N33" t="n">
         <v>80</v>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N34" t="n">
         <v>80</v>
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N35" t="n">
         <v>5</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N40" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N41" t="n">
         <v>35</v>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
         <v>20</v>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N43" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3031,10 +3031,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N44" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N45" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -3151,10 +3151,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N46" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
@@ -3211,10 +3211,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N47" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N48" t="n">
         <v>55</v>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N49" t="n">
         <v>55</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N50" t="n">
         <v>35</v>
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N51" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N52" t="n">
         <v>55</v>
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N53" t="n">
         <v>20</v>
@@ -3631,7 +3631,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N54" t="n">
         <v>55</v>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N55" t="n">
         <v>20</v>
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N56" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N57" t="n">
         <v>35</v>
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N58" t="n">
         <v>55</v>
@@ -3931,7 +3931,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N59" t="n">
         <v>55</v>
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N60" t="n">
         <v>35</v>
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N61" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -4111,10 +4111,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N62" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N63" t="n">
         <v>35</v>
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N64" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -4291,7 +4291,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N65" t="n">
         <v>35</v>
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N66" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N67" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -4471,10 +4471,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N68" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -4531,10 +4531,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N69" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N70" t="n">
         <v>5</v>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N71" t="n">
         <v>5</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
         <v>5</v>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N73" t="n">
         <v>5</v>
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N74" t="n">
         <v>5</v>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N75" t="n">
         <v>5</v>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N76" t="n">
         <v>5</v>
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N77" t="n">
         <v>5</v>
@@ -5035,7 +5035,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N78" t="n">
         <v>5</v>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N79" t="n">
         <v>25</v>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N80" t="n">
         <v>25</v>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N81" t="n">
         <v>25</v>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N82" t="n">
         <v>25</v>
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N83" t="n">
         <v>25</v>
@@ -5395,7 +5395,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N84" t="n">
         <v>25</v>
@@ -5455,7 +5455,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N85" t="n">
         <v>25</v>
@@ -5515,7 +5515,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N86" t="n">
         <v>25</v>
@@ -5571,10 +5571,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N87" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -5627,10 +5627,10 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N88" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -5683,7 +5683,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N89" t="n">
         <v>25</v>
@@ -5739,7 +5739,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N90" t="n">
         <v>25</v>
@@ -5795,7 +5795,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N91" t="n">
         <v>25</v>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N92" t="n">
         <v>25</v>
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N93" t="n">
         <v>45</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N94" t="n">
         <v>45</v>
@@ -6019,7 +6019,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N95" t="n">
         <v>45</v>
@@ -6075,7 +6075,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N96" t="n">
         <v>45</v>
@@ -6131,10 +6131,10 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N97" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98">
@@ -6187,10 +6187,10 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N98" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
@@ -6243,10 +6243,10 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N99" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100">
@@ -6299,10 +6299,10 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N100" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N101" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102">
@@ -6411,10 +6411,10 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N102" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103">
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N103" t="n">
         <v>50</v>
@@ -6523,7 +6523,7 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N104" t="n">
         <v>50</v>
@@ -6579,7 +6579,7 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N105" t="n">
         <v>50</v>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N106" t="n">
         <v>50</v>
@@ -6691,7 +6691,7 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N107" t="n">
         <v>50</v>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N108" t="n">
         <v>50</v>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N109" t="n">
         <v>50</v>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N110" t="n">
         <v>50</v>
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N111" t="n">
         <v>50</v>
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N112" t="n">
         <v>50</v>
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N113" t="n">
         <v>50</v>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N114" t="n">
         <v>50</v>
@@ -7139,7 +7139,7 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N115" t="n">
         <v>50</v>
@@ -7195,7 +7195,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N116" t="n">
         <v>50</v>
@@ -7251,7 +7251,7 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N117" t="n">
         <v>50</v>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N118" t="n">
         <v>50</v>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N119" t="n">
         <v>50</v>
@@ -7419,7 +7419,7 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N120" t="n">
         <v>50</v>
@@ -7475,7 +7475,7 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N121" t="n">
         <v>50</v>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N122" t="n">
         <v>50</v>
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N123" t="n">
         <v>50</v>
@@ -7643,10 +7643,10 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N124" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125">
@@ -7699,10 +7699,10 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N125" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126">
@@ -7755,10 +7755,10 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N126" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127">
@@ -7811,10 +7811,10 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N127" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N128" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129">
@@ -7923,10 +7923,10 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N129" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130">
@@ -7979,10 +7979,10 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N130" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131">
@@ -8035,10 +8035,10 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N131" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132">
@@ -8091,10 +8091,10 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N132" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133">
@@ -8147,10 +8147,10 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N133" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134">
@@ -8203,10 +8203,10 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N134" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135">
@@ -8259,10 +8259,10 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N135" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N136" t="n">
         <v>60</v>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N137" t="n">
         <v>60</v>
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N138" t="n">
         <v>60</v>
@@ -8483,7 +8483,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N139" t="n">
         <v>60</v>
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N140" t="n">
         <v>60</v>
@@ -8595,7 +8595,7 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N141" t="n">
         <v>60</v>
@@ -8630,10 +8630,14 @@
       <c r="H142" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="I142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>KRJN04838SH022</t>
+        </is>
+      </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K142" t="inlineStr"/>
@@ -8643,7 +8647,7 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N142" t="n">
         <v>85</v>
@@ -8678,10 +8682,14 @@
       <c r="H143" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>KRJN04838SH022</t>
+        </is>
+      </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K143" t="inlineStr"/>
@@ -8691,7 +8699,7 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N143" t="n">
         <v>85</v>
@@ -8726,10 +8734,14 @@
       <c r="H144" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="I144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>KRJN04882SH023</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K144" t="inlineStr"/>
@@ -8739,7 +8751,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N144" t="n">
         <v>85</v>
@@ -8774,10 +8786,14 @@
       <c r="H145" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>KRJN04882SH023</t>
+        </is>
+      </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K145" t="inlineStr"/>
@@ -8787,7 +8803,7 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N145" t="n">
         <v>85</v>
@@ -8822,10 +8838,14 @@
       <c r="H146" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>KRJN04882SH023</t>
+        </is>
+      </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K146" t="inlineStr"/>
@@ -8835,7 +8855,7 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N146" t="n">
         <v>85</v>
@@ -8883,10 +8903,10 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N147" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -580,7 +580,11 @@
           <t>ARE</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AREDILTN220017</t>
+        </is>
+      </c>
       <c r="D3" t="n">
         <v>1906</v>
       </c>
@@ -608,17 +612,21 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>KRQN01553SH023</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +640,11 @@
           <t>AUS</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AUSDINTX220026</t>
+        </is>
+      </c>
       <c r="D4" t="n">
         <v>623.4299999999999</v>
       </c>
@@ -660,17 +672,21 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>KAUN00578SH023</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +743,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N5" t="n">
         <v>30</v>
@@ -787,7 +803,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N6" t="n">
         <v>30</v>
@@ -847,7 +863,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N7" t="n">
         <v>30</v>
@@ -903,7 +919,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
         <v>40</v>
@@ -963,7 +979,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N9" t="n">
         <v>50</v>
@@ -1023,7 +1039,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N10" t="n">
         <v>50</v>
@@ -1083,7 +1099,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N11" t="n">
         <v>50</v>
@@ -1143,7 +1159,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N12" t="n">
         <v>50</v>
@@ -1203,7 +1219,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N13" t="n">
         <v>15</v>
@@ -1263,7 +1279,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N14" t="n">
         <v>50</v>
@@ -1323,7 +1339,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N15" t="n">
         <v>50</v>
@@ -1383,7 +1399,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N16" t="n">
         <v>50</v>
@@ -1443,7 +1459,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N17" t="n">
         <v>60</v>
@@ -1503,10 +1519,10 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N18" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -1563,7 +1579,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N19" t="n">
         <v>45</v>
@@ -1623,7 +1639,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N20" t="n">
         <v>30</v>
@@ -1683,7 +1699,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N21" t="n">
         <v>60</v>
@@ -1743,7 +1759,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N22" t="n">
         <v>55</v>
@@ -1803,7 +1819,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N23" t="n">
         <v>40</v>
@@ -1863,10 +1879,10 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1923,10 +1939,10 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N25" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -1983,10 +1999,10 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N26" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -2043,10 +2059,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N27" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -2103,10 +2119,10 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N28" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -2163,10 +2179,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N29" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -2223,10 +2239,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N30" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -2240,7 +2256,11 @@
           <t>AUS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AUSDILTR220021</t>
+        </is>
+      </c>
       <c r="D31" t="n">
         <v>49.47</v>
       </c>
@@ -2275,7 +2295,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N31" t="n">
         <v>75</v>
@@ -2292,7 +2312,11 @@
           <t>AUS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AUSDILTR220022</t>
+        </is>
+      </c>
       <c r="D32" t="n">
         <v>96.23999999999999</v>
       </c>
@@ -2327,7 +2351,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N32" t="n">
         <v>75</v>
@@ -2344,7 +2368,11 @@
           <t>AUS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AUSDILTR220023</t>
+        </is>
+      </c>
       <c r="D33" t="n">
         <v>86.59999999999999</v>
       </c>
@@ -2379,7 +2407,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N33" t="n">
         <v>75</v>
@@ -2396,7 +2424,11 @@
           <t>AUS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AUSDILTR220022</t>
+        </is>
+      </c>
       <c r="D34" t="n">
         <v>58.2</v>
       </c>
@@ -2431,7 +2463,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N34" t="n">
         <v>75</v>
@@ -2491,10 +2523,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2551,10 +2583,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2611,7 +2643,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N37" t="n">
         <v>30</v>
@@ -2671,7 +2703,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N38" t="n">
         <v>15</v>
@@ -2731,10 +2763,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2791,10 +2823,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2851,10 +2883,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2911,10 +2943,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N42" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2971,10 +3003,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N43" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -3031,7 +3063,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N44" t="n">
         <v>50</v>
@@ -3091,7 +3123,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N45" t="n">
         <v>50</v>
@@ -3151,7 +3183,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N46" t="n">
         <v>30</v>
@@ -3211,10 +3243,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N47" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -3271,7 +3303,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N48" t="n">
         <v>50</v>
@@ -3331,7 +3363,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N49" t="n">
         <v>15</v>
@@ -3391,7 +3423,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N50" t="n">
         <v>50</v>
@@ -3451,7 +3483,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N51" t="n">
         <v>15</v>
@@ -3511,10 +3543,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N52" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -3571,7 +3603,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N53" t="n">
         <v>30</v>
@@ -3631,7 +3663,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N54" t="n">
         <v>50</v>
@@ -3691,7 +3723,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N55" t="n">
         <v>50</v>
@@ -3751,7 +3783,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N56" t="n">
         <v>30</v>
@@ -3811,10 +3843,10 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N57" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -3871,10 +3903,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -3931,7 +3963,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N59" t="n">
         <v>30</v>
@@ -3991,10 +4023,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N60" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
@@ -4051,7 +4083,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N61" t="n">
         <v>30</v>
@@ -4111,10 +4143,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N62" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -4171,10 +4203,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N63" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -4231,10 +4263,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N64" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -4291,30 +4323,30 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N65" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4V86CXCZ_LTN</t>
+          <t>4GOUUIUT_LTR</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>JPNDILTR220042</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -4322,17 +4354,17 @@
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>44980</v>
+        <v>45000</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KRJN04629SH022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4340,37 +4372,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>KRJN04629SH022</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>5L15ABDW_LTN</t>
+          <t>27J1DD2O_LTR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>104.34</v>
+        <v>45</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -4378,17 +4414,17 @@
         </is>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>44980</v>
+        <v>45000</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4396,37 +4432,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6INHXIPT_LTN</t>
+          <t>3PZDZWZO_LTR</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DEUDILTN220025</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2316.84</v>
+        <v>522</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4434,17 +4474,17 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>44980</v>
+        <v>45000</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>KREN28045SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4452,37 +4492,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>11KVXSVJ_LTN</t>
+          <t>6YF9IC8D_LTR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>80.02</v>
+        <v>45</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4490,17 +4534,17 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44889</v>
+        <v>44897</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>44979</v>
+        <v>45000</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4508,37 +4552,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4BMEMP8C_LTN</t>
+          <t>7HC3LGGK_LTR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>JPNDILTR220044</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>104.34</v>
+        <v>859</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4546,17 +4594,17 @@
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44889</v>
+        <v>44897</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>44979</v>
+        <v>45000</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KRJN04630SH022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4564,37 +4612,41 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>KRJN04630SH022</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4L57XNKE_LTN</t>
+          <t>641IA5TL_LTR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GBRDILTN220027</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>274.2</v>
+        <v>1638</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4602,17 +4654,17 @@
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44889</v>
+        <v>44905</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44894</v>
+        <v>44907</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>44979</v>
+        <v>45000</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>KREN28044SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4620,23 +4672,27 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>KRJN04631SH022</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4GOUUIUT_LTR</t>
+          <t>6A7CD2BK_LTR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4646,11 +4702,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JPNDILTR220042</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>696</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -4658,17 +4714,17 @@
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44897</v>
+        <v>44905</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4678,7 +4734,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>KRJN04629SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4687,7 +4743,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N72" t="n">
         <v>20</v>
@@ -4696,7 +4752,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>27J1DD2O_LTR</t>
+          <t>6QJEN9KM_LTR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4706,11 +4762,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>JPNDILTR220045</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>45</v>
+        <v>1822</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4718,17 +4774,17 @@
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44897</v>
+        <v>44905</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4738,7 +4794,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KRJN04631SH022</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4747,7 +4803,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N73" t="n">
         <v>20</v>
@@ -4756,21 +4812,21 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3PZDZWZO_LTR</t>
+          <t>4ENMCJ1U_NTX</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>522</v>
+        <v>506.74</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4778,17 +4834,17 @@
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44897</v>
+        <v>44907</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44900</v>
+        <v>44908</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4796,41 +4852,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>KRJN04630SH022</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N74" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6YF9IC8D_LTR</t>
+          <t>8KQ7ECIO_NTX</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>GBRDINTX220022</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>45</v>
+        <v>702.38</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4838,17 +4890,17 @@
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44897</v>
+        <v>44907</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44900</v>
+        <v>44908</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KREN28277SH022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4856,41 +4908,37 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>KRJN04630SH022</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N75" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7HC3LGGK_LTR</t>
+          <t>4ENMCJ1U_LTN</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>JPNDILTR220044</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>859</v>
+        <v>222.8</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4898,17 +4946,17 @@
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44897</v>
+        <v>44910</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44900</v>
+        <v>44915</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>KRJN04630SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4916,18 +4964,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>KRJN04630SH022</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N76" t="n">
         <v>20</v>
@@ -4936,21 +4980,21 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>641IA5TL_LTR</t>
+          <t>8KQ7ECIO_LTN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>GBRDILTN220028</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1638</v>
+        <v>40.18</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4958,17 +5002,17 @@
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44905</v>
+        <v>44910</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44907</v>
+        <v>44915</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN28306SH022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4976,18 +5020,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N77" t="n">
         <v>20</v>
@@ -4996,21 +5036,21 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6A7CD2BK_LTR</t>
+          <t>2LYGFEZX_LTN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>696</v>
+        <v>351.9</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -5018,17 +5058,17 @@
         </is>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44905</v>
+        <v>44910</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44907</v>
+        <v>44915</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5036,18 +5076,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N78" t="n">
         <v>20</v>
@@ -5056,21 +5092,21 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6QJEN9KM_LTR</t>
+          <t>72MCXZFM_LTN</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>JPNDILTR220045</t>
+          <t>DEUDILTN220026</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1822</v>
+        <v>220.5</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -5078,17 +5114,17 @@
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44905</v>
+        <v>44910</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44907</v>
+        <v>44915</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>KRJN04631SH022</t>
+          <t>KREN28307SH022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5096,18 +5132,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>KRJN04631SH022</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N79" t="n">
         <v>20</v>
@@ -5116,21 +5148,21 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_NTX</t>
+          <t>79I9WNEX_NTX1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>DEUDINTX220017</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>506.74</v>
+        <v>570</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5138,17 +5170,17 @@
         </is>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44907</v>
+        <v>44929</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44908</v>
+        <v>44932</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>44997</v>
+        <v>45019</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KREN29454SH022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5163,16 +5195,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N80" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_NTX</t>
+          <t>5I2CBQ7E_NTX</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5182,11 +5214,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GBRDINTX220022</t>
+          <t>GBRDINTX220023</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>702.38</v>
+        <v>540.26</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -5194,17 +5226,17 @@
         </is>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44907</v>
+        <v>44930</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44908</v>
+        <v>44932</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>44997</v>
+        <v>45020</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>KREN28277SH022</t>
+          <t>KREN28372SH022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5219,16 +5251,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N81" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>4ENMCJ1U_LTN</t>
+          <t>5OWLVR3S_NTX</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5238,11 +5270,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>GBRDINTX220024</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>222.8</v>
+        <v>19.97</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5250,17 +5282,17 @@
         </is>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44910</v>
+        <v>44929</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>45000</v>
+        <v>45019</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN28373SH022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5275,30 +5307,30 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N82" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>8KQ7ECIO_LTN</t>
+          <t>6JI55VBN_LTN</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GBRDILTN220028</t>
+          <t>DEUDILTN220028</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>40.18</v>
+        <v>987.99</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5306,17 +5338,17 @@
         </is>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44910</v>
+        <v>44930</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>45000</v>
+        <v>45020</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>KREN28306SH022</t>
+          <t>KREN28498SH022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5331,16 +5363,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N83" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2LYGFEZX_LTN</t>
+          <t>8HS1Z2DC_LTN</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5350,11 +5382,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>DEUDILTN220027</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>351.9</v>
+        <v>588.51</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5362,17 +5394,17 @@
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44910</v>
+        <v>44932</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>45000</v>
+        <v>45022</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN29262SH022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5387,30 +5419,30 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N84" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>72MCXZFM_LTN</t>
+          <t>35EWMG8M_LTN</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DEUDILTN220026</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>220.5</v>
+        <v>626.04</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -5418,17 +5450,17 @@
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44910</v>
+        <v>44932</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="H85" s="2" t="n">
-        <v>45000</v>
+        <v>45022</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>KREN28307SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5443,30 +5475,30 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N85" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>79I9WNEX_NTX1</t>
+          <t>599B2T3L_LTN</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DEUDINTX220017</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>570</v>
+        <v>162.26</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -5474,17 +5506,17 @@
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44929</v>
+        <v>44932</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>KREN29454SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5499,7 +5531,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N86" t="n">
         <v>40</v>
@@ -5508,7 +5540,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_NTX</t>
+          <t>6FGU2LZW_LTN</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5518,11 +5550,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GBRDINTX220023</t>
+          <t>GBRDILTN220030</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>540.26</v>
+        <v>181.6</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -5530,17 +5562,17 @@
         </is>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>KREN28372SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5564,7 +5596,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5OWLVR3S_NTX</t>
+          <t>6CR9FRFE_LTN</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5574,11 +5606,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GBRDINTX220024</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>19.97</v>
+        <v>181.6</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5586,17 +5618,17 @@
         </is>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44929</v>
+        <v>44932</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>KREN28373SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5611,7 +5643,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N88" t="n">
         <v>40</v>
@@ -5620,21 +5652,21 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTN</t>
+          <t>8SBQDRDP_LTN</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DEUDILTN220028</t>
+          <t>GBRDILTN220031</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>987.99</v>
+        <v>299.48</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5642,17 +5674,17 @@
         </is>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>KREN28498SH022</t>
+          <t>KREN29468SH022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5676,7 +5708,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>8HS1Z2DC_LTN</t>
+          <t>6U36Y9BE_LTR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5686,11 +5718,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DEUDILTN220027</t>
+          <t>DEUDILTR220021</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>588.51</v>
+        <v>51.56</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5698,17 +5730,17 @@
         </is>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>KREN29262SH022</t>
+          <t>KREN29034SH022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5723,7 +5755,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N90" t="n">
         <v>45</v>
@@ -5732,21 +5764,21 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTN</t>
+          <t>7GLNNL6Y_LTR</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>DEUDILTR220022</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>626.04</v>
+        <v>1614.82</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5754,17 +5786,17 @@
         </is>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5779,7 +5811,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N91" t="n">
         <v>45</v>
@@ -5788,21 +5820,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>599B2T3L_LTN</t>
+          <t>13BSIFPT_LTR</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>162.26</v>
+        <v>591.71</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5810,17 +5842,17 @@
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5835,7 +5867,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N92" t="n">
         <v>45</v>
@@ -5844,21 +5876,21 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTN</t>
+          <t>6JI55VBN_LTR</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>GBRDILTN220030</t>
+          <t>DEUDILTR220023</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>181.6</v>
+        <v>48.98</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5866,17 +5898,17 @@
         </is>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29036SH022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5891,7 +5923,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N93" t="n">
         <v>45</v>
@@ -5900,21 +5932,21 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>6CR9FRFE_LTN</t>
+          <t>1P2OJBUW_LTR</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>181.6</v>
+        <v>146.94</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5922,17 +5954,17 @@
         </is>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5947,7 +5979,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N94" t="n">
         <v>45</v>
@@ -5956,21 +5988,21 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8SBQDRDP_LTN</t>
+          <t>26V9GOMZ_LTR</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GBRDILTN220031</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>299.48</v>
+        <v>80.83</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -5978,17 +6010,17 @@
         </is>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>KREN29468SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6003,7 +6035,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N95" t="n">
         <v>45</v>
@@ -6012,7 +6044,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6U36Y9BE_LTR</t>
+          <t>2FWLGF1V_LTR</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6022,11 +6054,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DEUDILTR220021</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>51.56</v>
+        <v>489.28</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -6044,7 +6076,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>KREN29034SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6059,16 +6091,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N96" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>7GLNNL6Y_LTR</t>
+          <t>8AQ6IAUN_LTR</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6078,11 +6110,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DEUDILTR220022</t>
+          <t>DEUDILTR220024</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1614.82</v>
+        <v>213.01</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -6100,7 +6132,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29035SH022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6115,30 +6147,30 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N97" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>13BSIFPT_LTR</t>
+          <t>5I2CBQ7E_LTR</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>591.71</v>
+        <v>342.84</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -6156,7 +6188,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6171,30 +6203,30 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N98" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6JI55VBN_LTR</t>
+          <t>73K6F7AM_LTR</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DEUDILTR220023</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>48.98</v>
+        <v>420.03</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -6212,7 +6244,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>KREN29036SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6227,30 +6259,30 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N99" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1P2OJBUW_LTR</t>
+          <t>7JC4WZOP_LTR</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220025</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>146.94</v>
+        <v>361.04</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -6268,7 +6300,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6283,30 +6315,30 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N100" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>26V9GOMZ_LTR</t>
+          <t>1R3Z24JZ_LTR</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>80.83</v>
+        <v>1375.06</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -6324,7 +6356,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6339,30 +6371,30 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N101" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2FWLGF1V_LTR</t>
+          <t>5OWLVR3S_LTR</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220026</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>489.28</v>
+        <v>4296.03</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6380,7 +6412,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29039SH022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6395,30 +6427,30 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N102" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>8AQ6IAUN_LTR</t>
+          <t>5WON4CZR_LTR</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DEUDILTR220024</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>213.01</v>
+        <v>1133.44</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6436,7 +6468,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>KREN29035SH022</t>
+          <t>KREN29037SH022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6451,16 +6483,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N103" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>5I2CBQ7E_LTR</t>
+          <t>7QYV88DI_LTR</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6470,11 +6502,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>GBRDILTR220028</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>342.84</v>
+        <v>269.39</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -6492,7 +6524,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29037SH022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6507,16 +6539,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N104" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>73K6F7AM_LTR</t>
+          <t>35EWMG8M_LTR</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6526,11 +6558,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>420.03</v>
+        <v>80.52</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -6548,7 +6580,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6563,16 +6595,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N105" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>7JC4WZOP_LTR</t>
+          <t>599B2T3L_LTR</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6582,11 +6614,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>GBRDILTR220025</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>361.04</v>
+        <v>68.88</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -6604,7 +6636,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6619,16 +6651,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N106" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1R3Z24JZ_LTR</t>
+          <t>6FGU2LZW_LTR</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6638,11 +6670,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>GBRDILTR220026</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1375.06</v>
+        <v>49.38</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -6660,7 +6692,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6675,16 +6707,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N107" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>5OWLVR3S_LTR</t>
+          <t>6HJO8FGL_LTR</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6694,11 +6726,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>GBRDILTR220026</t>
+          <t>GBRDILTR220029</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4296.03</v>
+        <v>100.32</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -6716,7 +6748,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>KREN29039SH022</t>
+          <t>KREN29635SH022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6731,30 +6763,30 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N108" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>5WON4CZR_LTR</t>
+          <t>5GJMWY3U_NTX</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>GBRDILTR220028</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1133.44</v>
+        <v>409.91</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -6765,14 +6797,14 @@
         <v>44936</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>45026</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>KREN29037SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -6787,30 +6819,30 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N109" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>7QYV88DI_LTR</t>
+          <t>5QSJP7CC_NTX</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>GBRDILTR220028</t>
+          <t>DEUDINTX220026</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>269.39</v>
+        <v>211.99</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -6821,14 +6853,14 @@
         <v>44936</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>45026</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>KREN29037SH022</t>
+          <t>KREN29413SH022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6843,30 +6875,30 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N110" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>35EWMG8M_LTR</t>
+          <t>7LEE3TFL_LTN</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>80.52</v>
+        <v>119.16</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -6874,17 +6906,17 @@
         </is>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H111" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -6899,30 +6931,30 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N111" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>599B2T3L_LTR</t>
+          <t>8N7YEA8D_LTN</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>DEUDILTN220029</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>68.88</v>
+        <v>37.05</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -6930,17 +6962,17 @@
         </is>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H112" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN29418SH022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6955,16 +6987,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N112" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6FGU2LZW_LTR</t>
+          <t>1EXT8UGA_LTN</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6974,11 +7006,11 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>49.38</v>
+        <v>362.6</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -6986,17 +7018,17 @@
         </is>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H113" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7011,16 +7043,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N113" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6HJO8FGL_LTR</t>
+          <t>3RU4253N_LTN</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -7030,11 +7062,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>GBRDILTR220029</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>100.32</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -7042,17 +7074,17 @@
         </is>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="H114" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>KREN29635SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7067,30 +7099,30 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N114" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>5GJMWY3U_NTX</t>
+          <t>73163DYB_LTN</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DEUDINTX220026</t>
+          <t>GBRDILTN220029</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>409.91</v>
+        <v>410.02</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -7098,17 +7130,17 @@
         </is>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>KREN29413SH022</t>
+          <t>KREN28811SH022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7123,16 +7155,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N115" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>5QSJP7CC_NTX</t>
+          <t>5TY3VS9Y_LTN</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7142,11 +7174,11 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DEUDINTX220026</t>
+          <t>DEUDILTN220030</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>211.99</v>
+        <v>313.02</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -7154,17 +7186,17 @@
         </is>
       </c>
       <c r="F116" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="H116" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>KREN29413SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7179,16 +7211,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N116" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>7LEE3TFL_LTN</t>
+          <t>3MOXC2DD_LTN</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7198,11 +7230,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DEUDILTN220029</t>
+          <t>DEUDILTN220031</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>119.16</v>
+        <v>939.0599999999999</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -7220,7 +7252,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>KREN29418SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7235,16 +7267,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N117" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>8N7YEA8D_LTN</t>
+          <t>7MNV9Y8K_LTN</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7254,11 +7286,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DEUDILTN220029</t>
+          <t>DEUDILTN220031</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>37.05</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -7276,7 +7308,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>KREN29418SH022</t>
+          <t>KREN29467SH022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7291,30 +7323,30 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N118" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1EXT8UGA_LTN</t>
+          <t>259STCHZ_LTR</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTR220025</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>362.6</v>
+        <v>474.84</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -7322,17 +7354,17 @@
         </is>
       </c>
       <c r="F119" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H119" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7347,7 +7379,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N119" t="n">
         <v>50</v>
@@ -7356,21 +7388,21 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3RU4253N_LTN</t>
+          <t>5K5OX5HO_LTR</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTR220025</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>87.34999999999999</v>
+        <v>91.19</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -7378,17 +7410,17 @@
         </is>
       </c>
       <c r="F120" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H120" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7403,7 +7435,7 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N120" t="n">
         <v>50</v>
@@ -7412,21 +7444,21 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>73163DYB_LTN</t>
+          <t>3MOXC2DD_LTR</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>GBRDILTN220029</t>
+          <t>DEUDILTR220026</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>410.02</v>
+        <v>191.43</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -7434,17 +7466,17 @@
         </is>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H121" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>KREN28811SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7459,7 +7491,7 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N121" t="n">
         <v>50</v>
@@ -7468,7 +7500,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>5TY3VS9Y_LTN</t>
+          <t>7MNV9Y8K_LTR</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7478,11 +7510,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DEUDILTN220030</t>
+          <t>DEUDILTR220026</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>313.02</v>
+        <v>161.04</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -7490,17 +7522,17 @@
         </is>
       </c>
       <c r="F122" s="2" t="n">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H122" s="2" t="n">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>KREN29467SH022</t>
+          <t>KREN29957SH022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7515,7 +7547,7 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N122" t="n">
         <v>50</v>
@@ -7524,21 +7556,21 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3MOXC2DD_LTN</t>
+          <t>2CMW4QFF_LTR</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DEUDILTN220031</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>939.0599999999999</v>
+        <v>116.86</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -7546,17 +7578,17 @@
         </is>
       </c>
       <c r="F123" s="2" t="n">
-        <v>44937</v>
+        <v>44943</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>45027</v>
+        <v>45033</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>KREN29467SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7571,30 +7603,30 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N123" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>7MNV9Y8K_LTN</t>
+          <t>3F2V83FP_LTR</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DEUDILTN220031</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>87.34999999999999</v>
+        <v>891.95</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -7602,17 +7634,17 @@
         </is>
       </c>
       <c r="F124" s="2" t="n">
-        <v>44937</v>
+        <v>44943</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="H124" s="2" t="n">
-        <v>45027</v>
+        <v>45033</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>KREN29467SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7627,30 +7659,30 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N124" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>259STCHZ_LTR</t>
+          <t>3RU4253N_LTR</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DEUDILTR220025</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>474.84</v>
+        <v>2530.96</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -7658,17 +7690,17 @@
         </is>
       </c>
       <c r="F125" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7683,7 +7715,7 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N125" t="n">
         <v>55</v>
@@ -7692,21 +7724,21 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5K5OX5HO_LTR</t>
+          <t>73163DYB_LTR</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DEUDILTR220025</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>91.19</v>
+        <v>280.17</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -7714,17 +7746,17 @@
         </is>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H126" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7739,7 +7771,7 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N126" t="n">
         <v>55</v>
@@ -7748,21 +7780,21 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3MOXC2DD_LTR</t>
+          <t>7EXUP6MF_LTR</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DEUDILTR220026</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>191.43</v>
+        <v>902.88</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -7770,17 +7802,17 @@
         </is>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7795,7 +7827,7 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N127" t="n">
         <v>55</v>
@@ -7804,21 +7836,21 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>7MNV9Y8K_LTR</t>
+          <t>7KFB8OMK_LTR</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DEUDILTR220026</t>
+          <t>GBRDILTR220027</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>161.04</v>
+        <v>238.75</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -7826,17 +7858,17 @@
         </is>
       </c>
       <c r="F128" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="H128" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>KREN29957SH022</t>
+          <t>KREN29038SH022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7851,7 +7883,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N128" t="n">
         <v>55</v>
@@ -7860,21 +7892,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2CMW4QFF_LTR</t>
+          <t>1O5WRWAR_LTN</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>116.86</v>
+        <v>851</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -7882,17 +7910,17 @@
         </is>
       </c>
       <c r="F129" s="2" t="n">
-        <v>44943</v>
+        <v>44964</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>45033</v>
+        <v>45061</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>KREN29038SH022</t>
+          <t>KRJN04838SH022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7907,30 +7935,26 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="N129" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3F2V83FP_LTR</t>
+          <t>8ZMIO23Z_LTN</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>891.95</v>
+        <v>2558</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -7938,17 +7962,17 @@
         </is>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44943</v>
+        <v>44964</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>45033</v>
+        <v>45061</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>KREN29038SH022</t>
+          <t>KRJN04838SH022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7963,30 +7987,26 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="N130" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3RU4253N_LTR</t>
+          <t>1O5WRWAR_NTX</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>2530.96</v>
+        <v>126</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -7994,17 +8014,17 @@
         </is>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44943</v>
+        <v>44966</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>45033</v>
+        <v>45061</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>KREN29038SH022</t>
+          <t>KRJN04882SH023</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8019,30 +8039,26 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="N131" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>73163DYB_LTR</t>
+          <t>7QMYDGUO_NTX</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>280.17</v>
+        <v>1476</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -8050,17 +8066,17 @@
         </is>
       </c>
       <c r="F132" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44943</v>
+        <v>44966</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>45033</v>
+        <v>45061</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>KREN29038SH022</t>
+          <t>KRJN04882SH023</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8075,30 +8091,26 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="N132" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>7EXUP6MF_LTR</t>
+          <t>8ZMIO23Z_NTX</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>902.88</v>
+        <v>972</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -8106,17 +8118,17 @@
         </is>
       </c>
       <c r="F133" s="2" t="n">
-        <v>44943</v>
+        <v>44965</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44943</v>
+        <v>44966</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>45033</v>
+        <v>45061</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>KREN29038SH022</t>
+          <t>KRJN04882SH023</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8131,30 +8143,26 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="N133" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>7KFB8OMK_LTR</t>
+          <t>4BYTXB4L_LTR1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>GBR</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>GBRDILTR220027</t>
-        </is>
-      </c>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>238.75</v>
+        <v>2009.25</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -8162,22 +8170,18 @@
         </is>
       </c>
       <c r="F134" s="2" t="n">
-        <v>44943</v>
+        <v>44967</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44943</v>
+        <v>44967</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>KREN29038SH022</t>
-        </is>
-      </c>
+        <v>45087</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="K134" t="inlineStr"/>
@@ -8187,16 +8191,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="N134" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1O5WRWAR_LTN</t>
+          <t>3HMCRU2Y_NTX</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -8206,7 +8210,7 @@
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>851</v>
+        <v>424</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -8214,17 +8218,17 @@
         </is>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44965</v>
+        <v>44974</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>45061</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>KRJN04838SH022</t>
+          <t>KRJN04897SH023</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8239,16 +8243,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N135" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>8ZMIO23Z_LTN</t>
+          <t>3KJV9EKW_NTX</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -8258,7 +8262,7 @@
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>2558</v>
+        <v>94</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -8266,17 +8270,17 @@
         </is>
       </c>
       <c r="F136" s="2" t="n">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44965</v>
+        <v>44974</v>
       </c>
       <c r="H136" s="2" t="n">
         <v>45061</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>KRJN04838SH022</t>
+          <t>KRJN04897SH023</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8291,26 +8295,26 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N136" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1O5WRWAR_NTX</t>
+          <t>7IG5QE2X_NTX</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>126</v>
+        <v>684.54</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -8318,17 +8322,17 @@
         </is>
       </c>
       <c r="F137" s="2" t="n">
-        <v>44965</v>
+        <v>44972</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>44966</v>
+        <v>44974</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>KRJN04882SH023</t>
+          <t>KREN30244SH023</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8343,26 +8347,26 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N137" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7QMYDGUO_NTX</t>
+          <t>6I861ZWP_NTX</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>1476</v>
+        <v>310.66</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -8370,17 +8374,17 @@
         </is>
       </c>
       <c r="F138" s="2" t="n">
-        <v>44965</v>
+        <v>44973</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44966</v>
+        <v>44974</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>KRJN04882SH023</t>
+          <t>KREN30245SH023</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8404,17 +8408,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>8ZMIO23Z_NTX</t>
+          <t>7HPXRXQV_NTX</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>972</v>
+        <v>14.39</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -8422,17 +8426,17 @@
         </is>
       </c>
       <c r="F139" s="2" t="n">
-        <v>44965</v>
+        <v>44973</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44966</v>
+        <v>44974</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>KRJN04882SH023</t>
+          <t>KREN30245SH023</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8456,17 +8460,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>4BYTXB4L_LTR1</t>
+          <t>8H738OWF_NTX</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>2009.25</v>
+        <v>38.23</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -8474,18 +8478,22 @@
         </is>
       </c>
       <c r="F140" s="2" t="n">
-        <v>44967</v>
+        <v>44973</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>44967</v>
+        <v>44974</v>
       </c>
       <c r="H140" s="2" t="n">
-        <v>45087</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>45063</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>KREN30245SH023</t>
+        </is>
+      </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K140" t="inlineStr"/>
@@ -8495,26 +8503,26 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="N140" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>3HMCRU2Y_NTX</t>
+          <t>26NGO1NR_NTX</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>424</v>
+        <v>81.88</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -8522,18 +8530,22 @@
         </is>
       </c>
       <c r="F141" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="G141" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>45063</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>KREN30245SH023</t>
+        </is>
+      </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K141" t="inlineStr"/>
@@ -8552,17 +8564,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3KJV9EKW_NTX</t>
+          <t>1VI9YTGP_NTX</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>94</v>
+        <v>4653.09</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -8570,18 +8582,22 @@
         </is>
       </c>
       <c r="F142" s="2" t="n">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H142" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>45091</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>KRCN04389SH023</t>
+        </is>
+      </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K142" t="inlineStr"/>
@@ -8591,26 +8607,26 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="N142" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>7IG5QE2X_NTX</t>
+          <t>276XJZ7Y_NTX</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>684.54</v>
+        <v>1955.52</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -8618,18 +8634,22 @@
         </is>
       </c>
       <c r="F143" s="2" t="n">
-        <v>44972</v>
+        <v>44970</v>
       </c>
       <c r="G143" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>45094</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>KRCN04147SH023</t>
+        </is>
+      </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K143" t="inlineStr"/>
@@ -8639,26 +8659,26 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="N143" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>6I861ZWP_NTX</t>
+          <t>1XCA44IZ_NTX</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>310.66</v>
+        <v>12332.46</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -8666,18 +8686,22 @@
         </is>
       </c>
       <c r="F144" s="2" t="n">
-        <v>44973</v>
+        <v>44970</v>
       </c>
       <c r="G144" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H144" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>45094</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>KRCN04191SH023</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K144" t="inlineStr"/>
@@ -8687,26 +8711,26 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="N144" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>7HPXRXQV_NTX</t>
+          <t>1TMQVVSV_NTX</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>14.39</v>
+        <v>9483.58</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -8714,18 +8738,22 @@
         </is>
       </c>
       <c r="F145" s="2" t="n">
-        <v>44973</v>
+        <v>44970</v>
       </c>
       <c r="G145" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H145" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>45094</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>KRCN04192SH023</t>
+        </is>
+      </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K145" t="inlineStr"/>
@@ -8735,26 +8763,26 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="N145" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>8H738OWF_NTX</t>
+          <t>3PNU9YBU_NTX</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>38.23</v>
+        <v>1955.52</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -8762,18 +8790,22 @@
         </is>
       </c>
       <c r="F146" s="2" t="n">
-        <v>44973</v>
+        <v>44970</v>
       </c>
       <c r="G146" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>45094</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>KRCN04193SH023</t>
+        </is>
+      </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K146" t="inlineStr"/>
@@ -8783,26 +8815,26 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="N146" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>26NGO1NR_NTX</t>
+          <t>3VOCO6MQ_NTX</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>81.88</v>
+        <v>25232.96</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -8810,18 +8842,22 @@
         </is>
       </c>
       <c r="F147" s="2" t="n">
-        <v>44973</v>
+        <v>44971</v>
       </c>
       <c r="G147" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>45091</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>KRCN04194SH023</t>
+        </is>
+      </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K147" t="inlineStr"/>
@@ -8831,16 +8867,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="N147" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1VI9YTGP_NTX</t>
+          <t>3YBYA6LN_NTX</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -8850,7 +8886,7 @@
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>4653.09</v>
+        <v>567.45</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -8868,7 +8904,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>KRCN04389SH023</t>
+          <t>KRCN04390SH023</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8883,16 +8919,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N148" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>276XJZ7Y_NTX</t>
+          <t>1PN81PFT_NTX</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -8902,7 +8938,7 @@
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>1955.52</v>
+        <v>907.92</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -8910,17 +8946,17 @@
         </is>
       </c>
       <c r="F149" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H149" s="2" t="n">
-        <v>45094</v>
+        <v>45091</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>KRCN04147SH023</t>
+          <t>KRCN04391SH023</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8935,16 +8971,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N149" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1XCA44IZ_NTX</t>
+          <t>3DNTI6PB_NTX</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -8954,7 +8990,7 @@
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>12332.46</v>
+        <v>226.98</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -8962,17 +8998,17 @@
         </is>
       </c>
       <c r="F150" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="G150" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H150" s="2" t="n">
-        <v>45094</v>
+        <v>45091</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>KRCN04191SH023</t>
+          <t>KRCN04392SH023</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8987,26 +9023,26 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N150" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1TMQVVSV_NTX</t>
+          <t>1A2H8R4Y_NTX</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>9483.58</v>
+        <v>1735.3</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -9014,17 +9050,17 @@
         </is>
       </c>
       <c r="F151" s="2" t="n">
-        <v>44970</v>
+        <v>44972</v>
       </c>
       <c r="G151" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H151" s="2" t="n">
-        <v>45094</v>
+        <v>45062</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>KRCN04192SH023</t>
+          <t>KREN30243SH023</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9039,26 +9075,26 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="N151" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3PNU9YBU_NTX</t>
+          <t>1K9SA41X_NTX</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>1955.52</v>
+        <v>511.65</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -9066,17 +9102,17 @@
         </is>
       </c>
       <c r="F152" s="2" t="n">
-        <v>44970</v>
+        <v>44972</v>
       </c>
       <c r="G152" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H152" s="2" t="n">
-        <v>45094</v>
+        <v>45062</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>KRCN04193SH023</t>
+          <t>KREN30243SH023</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9091,26 +9127,26 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="N152" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>3VOCO6MQ_NTX</t>
+          <t>23UK6FVS_NTX</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>25232.96</v>
+        <v>1858</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -9118,17 +9154,17 @@
         </is>
       </c>
       <c r="F153" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="G153" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H153" s="2" t="n">
-        <v>45091</v>
+        <v>45062</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>KRCN04194SH023</t>
+          <t>KREN30243SH023</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9143,26 +9179,26 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="N153" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3YBYA6LN_NTX</t>
+          <t>3BECPU5C_NTX</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>567.45</v>
+        <v>573.45</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -9170,17 +9206,17 @@
         </is>
       </c>
       <c r="F154" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H154" s="2" t="n">
-        <v>45091</v>
+        <v>45062</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>KRCN04390SH023</t>
+          <t>KREN30243SH023</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -9195,26 +9231,26 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="N154" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1PN81PFT_NTX</t>
+          <t>3QI7OIGV_NTX</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>907.92</v>
+        <v>882.2</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -9222,17 +9258,17 @@
         </is>
       </c>
       <c r="F155" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="G155" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H155" s="2" t="n">
-        <v>45091</v>
+        <v>45062</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>KRCN04391SH023</t>
+          <t>KREN30243SH023</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -9247,26 +9283,26 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="N155" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>3DNTI6PB_NTX</t>
+          <t>58JZ9WIP_NTX</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>226.98</v>
+        <v>1545.12</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -9274,17 +9310,17 @@
         </is>
       </c>
       <c r="F156" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="G156" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="H156" s="2" t="n">
-        <v>45091</v>
+        <v>45062</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>KRCN04392SH023</t>
+          <t>KREN30243SH023</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -9299,16 +9335,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="N156" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1A2H8R4Y_NTX</t>
+          <t>59MR5D6Y_NTX</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -9318,7 +9354,7 @@
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>1735.3</v>
+        <v>658.88</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -9334,10 +9370,14 @@
       <c r="H157" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>KREN30243SH023</t>
+        </is>
+      </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K157" t="inlineStr"/>
@@ -9347,16 +9387,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N157" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1K9SA41X_NTX</t>
+          <t>5QLDP5CG_NTX</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -9366,7 +9406,7 @@
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>511.65</v>
+        <v>220.55</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -9382,10 +9422,14 @@
       <c r="H158" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>KREN30243SH023</t>
+        </is>
+      </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K158" t="inlineStr"/>
@@ -9395,16 +9439,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N158" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>23UK6FVS_NTX</t>
+          <t>5SG5B97V_NTX</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -9414,7 +9458,7 @@
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>1858</v>
+        <v>500.94</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -9430,10 +9474,14 @@
       <c r="H159" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>KREN30243SH023</t>
+        </is>
+      </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K159" t="inlineStr"/>
@@ -9443,16 +9491,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N159" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>3BECPU5C_NTX</t>
+          <t>6D68SROK_NTX</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -9462,7 +9510,7 @@
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>573.45</v>
+        <v>601.92</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -9478,10 +9526,14 @@
       <c r="H160" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>KREN30243SH023</t>
+        </is>
+      </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K160" t="inlineStr"/>
@@ -9491,16 +9543,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N160" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>3QI7OIGV_NTX</t>
+          <t>71B2NKTU_NTX</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -9510,7 +9562,7 @@
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>882.2</v>
+        <v>184.25</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -9526,10 +9578,14 @@
       <c r="H161" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>KREN30243SH023</t>
+        </is>
+      </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K161" t="inlineStr"/>
@@ -9539,16 +9595,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N161" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>58JZ9WIP_NTX</t>
+          <t>7GEWM95N_NTX</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -9558,7 +9614,7 @@
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>1545.12</v>
+        <v>471.68</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -9574,10 +9630,14 @@
       <c r="H162" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>KREN30243SH023</t>
+        </is>
+      </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K162" t="inlineStr"/>
@@ -9587,16 +9647,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N162" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>59MR5D6Y_NTX</t>
+          <t>8AKLB75J_NTX</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -9606,7 +9666,7 @@
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>658.88</v>
+        <v>1008.64</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -9622,10 +9682,14 @@
       <c r="H163" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>KREN30243SH023</t>
+        </is>
+      </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K163" t="inlineStr"/>
@@ -9635,26 +9699,26 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N163" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>5QLDP5CG_NTX</t>
+          <t>2B92NUQP_NTX</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>220.55</v>
+        <v>191.15</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -9670,10 +9734,14 @@
       <c r="H164" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>KREN30246SH023</t>
+        </is>
+      </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K164" t="inlineStr"/>
@@ -9683,26 +9751,26 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N164" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>5SG5B97V_NTX</t>
+          <t>2TFNZDMM_NTX</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>500.94</v>
+        <v>4906.04</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -9718,10 +9786,14 @@
       <c r="H165" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>KREN30246SH023</t>
+        </is>
+      </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K165" t="inlineStr"/>
@@ -9731,26 +9803,26 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N165" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>6D68SROK_NTX</t>
+          <t>42PDWKQO_NTX</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>601.92</v>
+        <v>402.92</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -9766,10 +9838,14 @@
       <c r="H166" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>KREN30246SH023</t>
+        </is>
+      </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K166" t="inlineStr"/>
@@ -9779,26 +9855,26 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N166" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>71B2NKTU_NTX</t>
+          <t>4BY6X51L_NTX</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>184.25</v>
+        <v>266.4</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -9814,10 +9890,14 @@
       <c r="H167" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>KREN30246SH023</t>
+        </is>
+      </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K167" t="inlineStr"/>
@@ -9827,26 +9907,26 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N167" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>7GEWM95N_NTX</t>
+          <t>4KFZ814C_NTX</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>471.68</v>
+        <v>1326.6</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -9862,10 +9942,14 @@
       <c r="H168" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>KREN30246SH023</t>
+        </is>
+      </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K168" t="inlineStr"/>
@@ -9875,26 +9959,26 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N168" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>8AKLB75J_NTX</t>
+          <t>66HVQ63S_NTX</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>1008.64</v>
+        <v>1200</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -9910,10 +9994,14 @@
       <c r="H169" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>KREN30246SH023</t>
+        </is>
+      </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K169" t="inlineStr"/>
@@ -9923,16 +10011,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N169" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2B92NUQP_NTX</t>
+          <t>773U68GB_NTX</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -9942,7 +10030,7 @@
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>191.15</v>
+        <v>3539.6</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -9958,10 +10046,14 @@
       <c r="H170" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>KREN30246SH023</t>
+        </is>
+      </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K170" t="inlineStr"/>
@@ -9971,16 +10063,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N170" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2TFNZDMM_NTX</t>
+          <t>7E7BZONA_NTX</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -9990,7 +10082,7 @@
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>4906.04</v>
+        <v>4078.64</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -10006,10 +10098,14 @@
       <c r="H171" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>KREN30246SH023</t>
+        </is>
+      </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K171" t="inlineStr"/>
@@ -10019,16 +10115,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N171" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>42PDWKQO_NTX</t>
+          <t>7LVWZ4BR_NTX</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -10038,7 +10134,7 @@
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>402.92</v>
+        <v>611.65</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -10054,10 +10150,14 @@
       <c r="H172" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="I172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>KREN30246SH023</t>
+        </is>
+      </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K172" t="inlineStr"/>
@@ -10067,26 +10167,26 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N172" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>4BY6X51L_NTX</t>
+          <t>6CU9FH3B_LTN</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>266.4</v>
+        <v>92.25</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -10097,15 +10197,19 @@
         <v>44972</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="H173" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>45092</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>KRCN04148SH023</t>
+        </is>
+      </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K173" t="inlineStr"/>
@@ -10115,26 +10219,26 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="N173" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>4KFZ814C_NTX</t>
+          <t>3MLUDXJV_LTN</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>1326.6</v>
+        <v>210</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -10145,15 +10249,19 @@
         <v>44972</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="H174" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>45092</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>KRCN04148SH023</t>
+        </is>
+      </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K174" t="inlineStr"/>
@@ -10163,26 +10271,26 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="N174" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>66HVQ63S_NTX</t>
+          <t>3TUGCAOD_LTN</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>1200</v>
+        <v>420</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -10193,15 +10301,19 @@
         <v>44972</v>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="H175" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>45092</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>KRCN04149SH023</t>
+        </is>
+      </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K175" t="inlineStr"/>
@@ -10211,26 +10323,26 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="N175" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>773U68GB_NTX</t>
+          <t>1XCA44IZ_LTN</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>3539.6</v>
+        <v>5395.63</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -10241,15 +10353,19 @@
         <v>44972</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="H176" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>45092</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>KRCN04150SH023</t>
+        </is>
+      </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K176" t="inlineStr"/>
@@ -10259,26 +10375,26 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="N176" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>7E7BZONA_NTX</t>
+          <t>2D4LLK6W_LTN</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>4078.64</v>
+        <v>2574</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -10289,15 +10405,19 @@
         <v>44972</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="H177" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>45092</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>KRCN04150SH023</t>
+        </is>
+      </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K177" t="inlineStr"/>
@@ -10307,26 +10427,26 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="N177" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>7LVWZ4BR_NTX</t>
+          <t>1TMQVVSV_LTN</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>611.65</v>
+        <v>2690.05</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -10337,15 +10457,19 @@
         <v>44972</v>
       </c>
       <c r="G178" s="2" t="n">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="H178" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>45092</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>KRCN04151SH023</t>
+        </is>
+      </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K178" t="inlineStr"/>
@@ -10355,16 +10479,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="N178" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6CU9FH3B_LTN</t>
+          <t>3VOCO6MQ_LTN</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10374,7 +10498,7 @@
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>92.25</v>
+        <v>14228.37</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -10392,7 +10516,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>KRCN04148SH023</t>
+          <t>KRCN04152SH023</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10407,26 +10531,26 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N179" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>3MLUDXJV_LTN</t>
+          <t>1FC32DIP_LTN</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -10434,17 +10558,17 @@
         </is>
       </c>
       <c r="F180" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="G180" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="H180" s="2" t="n">
-        <v>45092</v>
+        <v>45061</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>KRCN04148SH023</t>
+          <t>KRJN04816SH022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -10459,26 +10583,26 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N180" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>3TUGCAOD_LTN</t>
+          <t>3HMCRU2Y_LTN</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -10486,17 +10610,17 @@
         </is>
       </c>
       <c r="F181" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="G181" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="H181" s="2" t="n">
-        <v>45092</v>
+        <v>45061</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>KRCN04149SH023</t>
+          <t>KRJN04816SH022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10511,26 +10635,26 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N181" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1XCA44IZ_LTN</t>
+          <t>3KJV9EKW_LTN</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>5395.63</v>
+        <v>217</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -10538,17 +10662,17 @@
         </is>
       </c>
       <c r="F182" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="G182" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="H182" s="2" t="n">
-        <v>45092</v>
+        <v>45061</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>KRCN04150SH023</t>
+          <t>KRJN04816SH022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10563,26 +10687,26 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N182" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2D4LLK6W_LTN</t>
+          <t>1RJ5UNKV_LTN</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>2574</v>
+        <v>3594.11</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -10590,17 +10714,17 @@
         </is>
       </c>
       <c r="F183" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="G183" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="H183" s="2" t="n">
-        <v>45092</v>
+        <v>45063</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>KRCN04150SH023</t>
+          <t>KREN30815SH023</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10615,26 +10739,26 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="N183" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1TMQVVSV_LTN</t>
+          <t>28GR3LAX_LTN</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>2690.05</v>
+        <v>465.12</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -10642,17 +10766,17 @@
         </is>
       </c>
       <c r="F184" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="G184" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="H184" s="2" t="n">
-        <v>45092</v>
+        <v>45063</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>KRCN04151SH023</t>
+          <t>KREN30815SH023</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10667,26 +10791,26 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="N184" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>3VOCO6MQ_LTN</t>
+          <t>2B92NUQP_LTN</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>14228.37</v>
+        <v>132.8</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -10694,17 +10818,17 @@
         </is>
       </c>
       <c r="F185" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="G185" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="H185" s="2" t="n">
-        <v>45092</v>
+        <v>45063</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>KRCN04152SH023</t>
+          <t>KREN30815SH023</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10719,26 +10843,26 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="N185" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1FC32DIP_LTN</t>
+          <t>2TFNZDMM_LTN</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>205</v>
+        <v>4070.56</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -10752,12 +10876,16 @@
         <v>44977</v>
       </c>
       <c r="H186" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>45063</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K186" t="inlineStr"/>
@@ -10776,17 +10904,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>3HMCRU2Y_LTN</t>
+          <t>42PDWKQO_LTN</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>363</v>
+        <v>8906.58</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -10800,12 +10928,16 @@
         <v>44977</v>
       </c>
       <c r="H187" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>45063</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K187" t="inlineStr"/>
@@ -10824,17 +10956,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>3KJV9EKW_LTN</t>
+          <t>43S5S1EX_LTN</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>217</v>
+        <v>1301.56</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -10848,12 +10980,16 @@
         <v>44977</v>
       </c>
       <c r="H188" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>45063</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K188" t="inlineStr"/>
@@ -10872,7 +11008,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1RJ5UNKV_LTN</t>
+          <t>4BY6X51L_LTN</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -10882,7 +11018,7 @@
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>3594.11</v>
+        <v>5892.13</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -10898,10 +11034,14 @@
       <c r="H189" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K189" t="inlineStr"/>
@@ -10911,7 +11051,7 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N189" t="n">
         <v>85</v>
@@ -10920,7 +11060,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>28GR3LAX_LTN</t>
+          <t>4J2JZ74N_LTN</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -10930,7 +11070,7 @@
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>465.12</v>
+        <v>435.6</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -10946,10 +11086,14 @@
       <c r="H190" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K190" t="inlineStr"/>
@@ -10959,7 +11103,7 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N190" t="n">
         <v>85</v>
@@ -10968,7 +11112,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2B92NUQP_LTN</t>
+          <t>4KFZ814C_LTN</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -10978,7 +11122,7 @@
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>132.8</v>
+        <v>2896.83</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -10994,10 +11138,14 @@
       <c r="H191" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K191" t="inlineStr"/>
@@ -11007,7 +11155,7 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N191" t="n">
         <v>85</v>
@@ -11016,7 +11164,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2TFNZDMM_LTN</t>
+          <t>5OZJOQMY_LTN</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -11026,7 +11174,7 @@
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>4070.56</v>
+        <v>1687.48</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -11042,10 +11190,14 @@
       <c r="H192" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I192" t="inlineStr"/>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K192" t="inlineStr"/>
@@ -11055,7 +11207,7 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N192" t="n">
         <v>85</v>
@@ -11064,7 +11216,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>42PDWKQO_LTN</t>
+          <t>66HVQ63S_LTN</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11074,7 +11226,7 @@
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>8906.58</v>
+        <v>2188</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -11090,10 +11242,14 @@
       <c r="H193" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K193" t="inlineStr"/>
@@ -11103,7 +11259,7 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N193" t="n">
         <v>85</v>
@@ -11112,7 +11268,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>43S5S1EX_LTN</t>
+          <t>6FAH5TMM_LTN</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -11122,7 +11278,7 @@
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
-        <v>1301.56</v>
+        <v>631.5</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -11138,10 +11294,14 @@
       <c r="H194" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K194" t="inlineStr"/>
@@ -11151,7 +11311,7 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N194" t="n">
         <v>85</v>
@@ -11160,7 +11320,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>4BY6X51L_LTN</t>
+          <t>75UU6ADR_LTN</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -11170,7 +11330,7 @@
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
-        <v>5892.13</v>
+        <v>159.57</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -11186,10 +11346,14 @@
       <c r="H195" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I195" t="inlineStr"/>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K195" t="inlineStr"/>
@@ -11199,7 +11363,7 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N195" t="n">
         <v>85</v>
@@ -11208,7 +11372,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>4J2JZ74N_LTN</t>
+          <t>773U68GB_LTN</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -11218,7 +11382,7 @@
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>435.6</v>
+        <v>1318.61</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -11234,10 +11398,14 @@
       <c r="H196" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K196" t="inlineStr"/>
@@ -11247,7 +11415,7 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N196" t="n">
         <v>85</v>
@@ -11256,7 +11424,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>4KFZ814C_LTN</t>
+          <t>7CYG1D2I_LTN</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -11266,7 +11434,7 @@
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>2896.83</v>
+        <v>123.5</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -11282,10 +11450,14 @@
       <c r="H197" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K197" t="inlineStr"/>
@@ -11295,7 +11467,7 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N197" t="n">
         <v>85</v>
@@ -11304,7 +11476,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>5OZJOQMY_LTN</t>
+          <t>7LVWZ4BR_LTN</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -11314,7 +11486,7 @@
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>1687.48</v>
+        <v>225.63</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -11330,10 +11502,14 @@
       <c r="H198" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I198" t="inlineStr"/>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K198" t="inlineStr"/>
@@ -11343,7 +11519,7 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N198" t="n">
         <v>85</v>
@@ -11352,7 +11528,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>66HVQ63S_LTN</t>
+          <t>7OO4RYNM_LTN</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11362,7 +11538,7 @@
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
-        <v>2188</v>
+        <v>170.24</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -11378,10 +11554,14 @@
       <c r="H199" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K199" t="inlineStr"/>
@@ -11391,7 +11571,7 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N199" t="n">
         <v>85</v>
@@ -11400,7 +11580,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>6FAH5TMM_LTN</t>
+          <t>7PLNR59P_LTN</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11410,7 +11590,7 @@
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>631.5</v>
+        <v>283.68</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -11426,10 +11606,14 @@
       <c r="H200" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K200" t="inlineStr"/>
@@ -11439,7 +11623,7 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N200" t="n">
         <v>85</v>
@@ -11448,7 +11632,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>75UU6ADR_LTN</t>
+          <t>7VXOXCFE_LTN</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11458,7 +11642,7 @@
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>159.57</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -11474,10 +11658,14 @@
       <c r="H201" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K201" t="inlineStr"/>
@@ -11487,7 +11675,7 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N201" t="n">
         <v>85</v>
@@ -11496,7 +11684,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>773U68GB_LTN</t>
+          <t>7XB9QJWG_LTN</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -11506,7 +11694,7 @@
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="n">
-        <v>1318.61</v>
+        <v>70.2</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -11522,10 +11710,14 @@
       <c r="H202" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>KREN30815SH023</t>
+        </is>
+      </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K202" t="inlineStr"/>
@@ -11535,7 +11727,7 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N202" t="n">
         <v>85</v>
@@ -11544,17 +11736,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>7CYG1D2I_LTN</t>
+          <t>11GQGFCR_LTN</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
-        <v>123.5</v>
+        <v>731</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -11570,10 +11762,14 @@
       <c r="H203" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I203" t="inlineStr"/>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K203" t="inlineStr"/>
@@ -11583,7 +11779,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N203" t="n">
         <v>85</v>
@@ -11592,17 +11788,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>7LVWZ4BR_LTN</t>
+          <t>17BD9WWZ_LTN</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="n">
-        <v>225.63</v>
+        <v>550</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -11618,10 +11814,14 @@
       <c r="H204" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K204" t="inlineStr"/>
@@ -11631,7 +11831,7 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N204" t="n">
         <v>85</v>
@@ -11640,17 +11840,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>7OO4RYNM_LTN</t>
+          <t>1A2H8R4Y_LTN</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="n">
-        <v>170.24</v>
+        <v>1642.2</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -11666,10 +11866,14 @@
       <c r="H205" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I205" t="inlineStr"/>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K205" t="inlineStr"/>
@@ -11679,7 +11883,7 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N205" t="n">
         <v>85</v>
@@ -11688,17 +11892,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>7PLNR59P_LTN</t>
+          <t>1AU8G94J_LTN</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="n">
-        <v>283.68</v>
+        <v>364.6</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -11714,10 +11918,14 @@
       <c r="H206" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K206" t="inlineStr"/>
@@ -11727,7 +11935,7 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N206" t="n">
         <v>85</v>
@@ -11736,17 +11944,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>7VXOXCFE_LTN</t>
+          <t>1KESLKUJ_LTN</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="n">
-        <v>64.59999999999999</v>
+        <v>204.6</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -11762,10 +11970,14 @@
       <c r="H207" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K207" t="inlineStr"/>
@@ -11775,7 +11987,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N207" t="n">
         <v>85</v>
@@ -11784,17 +11996,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>7XB9QJWG_LTN</t>
+          <t>1N77Y9FY_LTN</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="n">
-        <v>70.2</v>
+        <v>574.8</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -11810,10 +12022,14 @@
       <c r="H208" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K208" t="inlineStr"/>
@@ -11823,7 +12039,7 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N208" t="n">
         <v>85</v>
@@ -11832,7 +12048,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>11GQGFCR_LTN</t>
+          <t>1O9YTP3H_LTN</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -11842,7 +12058,7 @@
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="n">
-        <v>731</v>
+        <v>335.6</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -11858,10 +12074,14 @@
       <c r="H209" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K209" t="inlineStr"/>
@@ -11871,7 +12091,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N209" t="n">
         <v>85</v>
@@ -11880,7 +12100,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>17BD9WWZ_LTN</t>
+          <t>1RSU11AR_LTN</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -11890,7 +12110,7 @@
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="n">
-        <v>550</v>
+        <v>1298</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -11906,10 +12126,14 @@
       <c r="H210" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K210" t="inlineStr"/>
@@ -11919,7 +12143,7 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N210" t="n">
         <v>85</v>
@@ -11928,7 +12152,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1A2H8R4Y_LTN</t>
+          <t>1UQDHKSP_LTN</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -11938,7 +12162,7 @@
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
-        <v>1642.2</v>
+        <v>1342.88</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -11954,10 +12178,14 @@
       <c r="H211" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K211" t="inlineStr"/>
@@ -11967,7 +12195,7 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N211" t="n">
         <v>85</v>
@@ -11976,7 +12204,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1AU8G94J_LTN</t>
+          <t>22XVGI7R_LTN</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -11986,7 +12214,7 @@
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
-        <v>364.6</v>
+        <v>225.52</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -12002,10 +12230,14 @@
       <c r="H212" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I212" t="inlineStr"/>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K212" t="inlineStr"/>
@@ -12015,7 +12247,7 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N212" t="n">
         <v>85</v>
@@ -12024,7 +12256,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1KESLKUJ_LTN</t>
+          <t>24SJA7XJ_LTN</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -12034,7 +12266,7 @@
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="n">
-        <v>204.6</v>
+        <v>89.95</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -12050,10 +12282,14 @@
       <c r="H213" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K213" t="inlineStr"/>
@@ -12063,7 +12299,7 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N213" t="n">
         <v>85</v>
@@ -12072,7 +12308,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1N77Y9FY_LTN</t>
+          <t>26YPPIXJ_LTN</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -12082,7 +12318,7 @@
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="n">
-        <v>574.8</v>
+        <v>4760</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -12098,10 +12334,14 @@
       <c r="H214" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K214" t="inlineStr"/>
@@ -12111,7 +12351,7 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N214" t="n">
         <v>85</v>
@@ -12120,7 +12360,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1O9YTP3H_LTN</t>
+          <t>2MYPH4DS_LTN</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -12130,7 +12370,7 @@
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="n">
-        <v>335.6</v>
+        <v>632.28</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -12146,10 +12386,14 @@
       <c r="H215" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K215" t="inlineStr"/>
@@ -12159,7 +12403,7 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N215" t="n">
         <v>85</v>
@@ -12168,7 +12412,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1RSU11AR_LTN</t>
+          <t>2PLUP55I_LTN</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -12178,7 +12422,7 @@
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="n">
-        <v>1298</v>
+        <v>289.05</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -12194,10 +12438,14 @@
       <c r="H216" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I216" t="inlineStr"/>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K216" t="inlineStr"/>
@@ -12207,7 +12455,7 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N216" t="n">
         <v>85</v>
@@ -12216,7 +12464,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1UQDHKSP_LTN</t>
+          <t>2ZMW9ILY_LTN</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -12226,7 +12474,7 @@
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="n">
-        <v>1342.88</v>
+        <v>289.32</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -12242,10 +12490,14 @@
       <c r="H217" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K217" t="inlineStr"/>
@@ -12255,7 +12507,7 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N217" t="n">
         <v>85</v>
@@ -12264,7 +12516,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>22XVGI7R_LTN</t>
+          <t>3I1EEMDE_LTN</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -12274,7 +12526,7 @@
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="n">
-        <v>225.52</v>
+        <v>705.04</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -12290,10 +12542,14 @@
       <c r="H218" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K218" t="inlineStr"/>
@@ -12303,7 +12559,7 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N218" t="n">
         <v>85</v>
@@ -12312,7 +12568,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>24SJA7XJ_LTN</t>
+          <t>4FO92DBA_LTN</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -12322,7 +12578,7 @@
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="n">
-        <v>89.95</v>
+        <v>141</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -12338,10 +12594,14 @@
       <c r="H219" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K219" t="inlineStr"/>
@@ -12351,7 +12611,7 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N219" t="n">
         <v>85</v>
@@ -12360,7 +12620,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>26YPPIXJ_LTN</t>
+          <t>56P8NSNA_LTN</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -12370,7 +12630,7 @@
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="n">
-        <v>4760</v>
+        <v>362.12</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -12386,10 +12646,14 @@
       <c r="H220" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K220" t="inlineStr"/>
@@ -12399,7 +12663,7 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N220" t="n">
         <v>85</v>
@@ -12408,7 +12672,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2MYPH4DS_LTN</t>
+          <t>5EFWH9GN_LTN</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -12418,7 +12682,7 @@
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
-        <v>632.28</v>
+        <v>786.15</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -12434,10 +12698,14 @@
       <c r="H221" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K221" t="inlineStr"/>
@@ -12447,7 +12715,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N221" t="n">
         <v>85</v>
@@ -12456,7 +12724,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2PLUP55I_LTN</t>
+          <t>5JYC1D4E_LTN</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -12466,7 +12734,7 @@
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
-        <v>289.05</v>
+        <v>547.04</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -12482,10 +12750,14 @@
       <c r="H222" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K222" t="inlineStr"/>
@@ -12495,7 +12767,7 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N222" t="n">
         <v>85</v>
@@ -12504,7 +12776,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2ZMW9ILY_LTN</t>
+          <t>5OQM41HR_LTN</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -12514,7 +12786,7 @@
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
-        <v>289.32</v>
+        <v>1541.6</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -12530,10 +12802,14 @@
       <c r="H223" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K223" t="inlineStr"/>
@@ -12543,7 +12819,7 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N223" t="n">
         <v>85</v>
@@ -12552,7 +12828,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>3I1EEMDE_LTN</t>
+          <t>5PU98P2C_LTN</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -12562,7 +12838,7 @@
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="n">
-        <v>705.04</v>
+        <v>191.84</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -12578,10 +12854,14 @@
       <c r="H224" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K224" t="inlineStr"/>
@@ -12591,7 +12871,7 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N224" t="n">
         <v>85</v>
@@ -12600,7 +12880,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>4FO92DBA_LTN</t>
+          <t>5RDDFSJM_LTN</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -12610,7 +12890,7 @@
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="n">
-        <v>141</v>
+        <v>62.84</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -12626,10 +12906,14 @@
       <c r="H225" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K225" t="inlineStr"/>
@@ -12639,7 +12923,7 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N225" t="n">
         <v>85</v>
@@ -12648,7 +12932,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>56P8NSNA_LTN</t>
+          <t>5Z36Z1FX_LTN</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -12658,7 +12942,7 @@
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="n">
-        <v>362.12</v>
+        <v>313.02</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -12674,10 +12958,14 @@
       <c r="H226" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K226" t="inlineStr"/>
@@ -12687,7 +12975,7 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N226" t="n">
         <v>85</v>
@@ -12696,7 +12984,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>5EFWH9GN_LTN</t>
+          <t>6NHSORMQ_LTN</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -12706,7 +12994,7 @@
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="n">
-        <v>786.15</v>
+        <v>695.7</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -12722,10 +13010,14 @@
       <c r="H227" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K227" t="inlineStr"/>
@@ -12735,7 +13027,7 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N227" t="n">
         <v>85</v>
@@ -12744,7 +13036,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>5JYC1D4E_LTN</t>
+          <t>8FNUU8TY_LTN</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -12754,7 +13046,7 @@
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="n">
-        <v>547.04</v>
+        <v>988.6</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -12770,10 +13062,14 @@
       <c r="H228" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K228" t="inlineStr"/>
@@ -12783,7 +13079,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N228" t="n">
         <v>85</v>
@@ -12792,7 +13088,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>5OQM41HR_LTN</t>
+          <t>8QMFDMIT_LTN</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -12802,7 +13098,7 @@
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="n">
-        <v>1541.6</v>
+        <v>99.95</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -12818,10 +13114,14 @@
       <c r="H229" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K229" t="inlineStr"/>
@@ -12831,7 +13131,7 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N229" t="n">
         <v>85</v>
@@ -12840,7 +13140,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>5PU98P2C_LTN</t>
+          <t>8TZMOFSU_LTN</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -12850,7 +13150,7 @@
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="n">
-        <v>191.84</v>
+        <v>998.76</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -12866,10 +13166,14 @@
       <c r="H230" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I230" t="inlineStr"/>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K230" t="inlineStr"/>
@@ -12879,7 +13183,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N230" t="n">
         <v>85</v>
@@ -12888,7 +13192,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>5RDDFSJM_LTN</t>
+          <t>8X9H2EQV_LTN</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -12898,7 +13202,7 @@
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="n">
-        <v>62.84</v>
+        <v>363.2</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -12914,10 +13218,14 @@
       <c r="H231" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I231" t="inlineStr"/>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K231" t="inlineStr"/>
@@ -12927,7 +13235,7 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N231" t="n">
         <v>85</v>
@@ -12936,7 +13244,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>5Z36Z1FX_LTN</t>
+          <t>8ZKCGZ8Q_LTN</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -12946,7 +13254,7 @@
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="n">
-        <v>313.02</v>
+        <v>362.6</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -12962,10 +13270,14 @@
       <c r="H232" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="I232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>KREN30391SH023</t>
+        </is>
+      </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="K232" t="inlineStr"/>
@@ -12975,7 +13287,7 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N232" t="n">
         <v>85</v>
@@ -12984,17 +13296,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>6NHSORMQ_LTN</t>
+          <t>3HMCRU2Y_LTR</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="n">
-        <v>695.7</v>
+        <v>1410</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -13002,13 +13314,13 @@
         </is>
       </c>
       <c r="F233" s="2" t="n">
-        <v>44973</v>
+        <v>44977</v>
       </c>
       <c r="G233" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="H233" s="2" t="n">
-        <v>45063</v>
+        <v>45061</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
@@ -13023,26 +13335,26 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N233" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>8FNUU8TY_LTN</t>
+          <t>3KJV9EKW_LTR</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="n">
-        <v>988.6</v>
+        <v>826</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -13050,13 +13362,13 @@
         </is>
       </c>
       <c r="F234" s="2" t="n">
-        <v>44973</v>
+        <v>44977</v>
       </c>
       <c r="G234" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="H234" s="2" t="n">
-        <v>45063</v>
+        <v>45061</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
@@ -13071,26 +13383,26 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N234" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>8QMFDMIT_LTN</t>
+          <t>1O5WRWAR_LTR</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="n">
-        <v>99.95</v>
+        <v>756</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -13098,13 +13410,13 @@
         </is>
       </c>
       <c r="F235" s="2" t="n">
-        <v>44973</v>
+        <v>44977</v>
       </c>
       <c r="G235" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="H235" s="2" t="n">
-        <v>45063</v>
+        <v>45061</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
@@ -13119,26 +13431,26 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N235" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>8TZMOFSU_LTN</t>
+          <t>8ZMIO23Z_LTR</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="n">
-        <v>998.76</v>
+        <v>3355</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -13146,13 +13458,13 @@
         </is>
       </c>
       <c r="F236" s="2" t="n">
-        <v>44973</v>
+        <v>44977</v>
       </c>
       <c r="G236" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="H236" s="2" t="n">
-        <v>45063</v>
+        <v>45061</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr">
@@ -13167,26 +13479,26 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N236" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>8X9H2EQV_LTN</t>
+          <t>5QV3JV8E_LTR</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="n">
-        <v>363.2</v>
+        <v>2660.5</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -13194,13 +13506,13 @@
         </is>
       </c>
       <c r="F237" s="2" t="n">
-        <v>44973</v>
+        <v>44978</v>
       </c>
       <c r="G237" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="H237" s="2" t="n">
-        <v>45063</v>
+        <v>45098</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
@@ -13215,26 +13527,26 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="N237" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>8ZKCGZ8Q_LTN</t>
+          <t>1VI9YTGP_LTR</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="n">
-        <v>362.6</v>
+        <v>684</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -13242,13 +13554,13 @@
         </is>
       </c>
       <c r="F238" s="2" t="n">
-        <v>44973</v>
+        <v>44978</v>
       </c>
       <c r="G238" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="H238" s="2" t="n">
-        <v>45063</v>
+        <v>45098</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
@@ -13263,10 +13575,250 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="N238" t="n">
-        <v>85</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>4N65O7UT_LTR</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="n">
+        <v>128.25</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="G239" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="H239" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>118</v>
+      </c>
+      <c r="N239" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>3VOCO6MQ_LTR</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="n">
+        <v>266.05</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="G240" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="H240" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>118</v>
+      </c>
+      <c r="N240" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>1LULT2ZP_LTR</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="n">
+        <v>2347</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="G241" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="H241" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>81</v>
+      </c>
+      <c r="N241" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>7L3SVA1A_LTR</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="n">
+        <v>1702</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F242" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="G242" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="H242" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>81</v>
+      </c>
+      <c r="N242" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>7UNE1LRA_LTR</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="n">
+        <v>854</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F243" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="G243" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="H243" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>81</v>
+      </c>
+      <c r="N243" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/master_inter.xlsx
+++ b/master_inter.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N281"/>
+  <dimension ref="A1:N296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N3" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N6" t="n">
         <v>25</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N7" t="n">
         <v>25</v>
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N8" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N9" t="n">
         <v>45</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N14" t="n">
         <v>45</v>
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N15" t="n">
         <v>45</v>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N16" t="n">
         <v>45</v>
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N19" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N20" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N23" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N24" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -2119,10 +2119,10 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N30" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N31" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N34" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -2583,10 +2583,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N36" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2703,10 +2703,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -2763,10 +2763,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N41" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -2943,10 +2943,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N42" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N43" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N44" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N45" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N46" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -3243,10 +3243,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N47" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N49" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N51" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -3543,10 +3543,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N52" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -3603,10 +3603,10 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N53" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
@@ -3663,10 +3663,10 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N54" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
@@ -3723,10 +3723,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N55" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N56" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -3843,10 +3843,10 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N57" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N58" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N59" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -4023,10 +4023,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N60" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -4083,10 +4083,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N61" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -4143,10 +4143,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N62" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -4203,10 +4203,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N63" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N64" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N65" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N66" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -4443,10 +4443,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N67" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N68" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -4563,10 +4563,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N69" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -4623,10 +4623,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N70" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N71" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N72" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -4799,10 +4799,10 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N73" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -4855,10 +4855,10 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N74" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N75" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N76" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N77" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N78" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N79" t="n">
         <v>35</v>
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N80" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N81" t="n">
         <v>35</v>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N82" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N83" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N84" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N85" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N86" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N87" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N88" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N89" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N90" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N91" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92">
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N92" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N93" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N94" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N95" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N96" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97">
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N97" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N98" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N99" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N100" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101">
@@ -6367,10 +6367,10 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N101" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102">
@@ -6423,10 +6423,10 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N102" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103">
@@ -6479,10 +6479,10 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N103" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N104" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105">
@@ -6591,10 +6591,10 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N105" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106">
@@ -6647,10 +6647,10 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N106" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107">
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N107" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108">
@@ -6759,10 +6759,10 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N108" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109">
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N109" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110">
@@ -6871,10 +6871,10 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N110" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
@@ -6927,10 +6927,10 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N111" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
@@ -6983,10 +6983,10 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N112" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
@@ -7039,10 +7039,10 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N113" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
@@ -7095,10 +7095,10 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N114" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
@@ -7151,10 +7151,10 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N115" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
@@ -7207,10 +7207,10 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N116" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117">
@@ -7263,10 +7263,10 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N117" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118">
@@ -7319,10 +7319,10 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N118" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119">
@@ -7375,10 +7375,10 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N119" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
@@ -7431,10 +7431,10 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N120" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121">
@@ -7487,10 +7487,10 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N121" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122">
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N122" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123">
@@ -7599,10 +7599,10 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>51</v>
+        <v>47</v>
  